--- a/2023/greece_super-league-2_2023-2024.xlsx
+++ b/2023/greece_super-league-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,7 +665,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Makedonikos</t>
+          <t>Athens Kallithea</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -673,14 +673,14 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Iraklis 1908</t>
+          <t>Panachaiki</t>
         </is>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.45</v>
+        <v>1.2</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -688,15 +688,15 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>4.53</v>
+        <v>1.1</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>23/09/2023 13:19</t>
+          <t>23/09/2023 14:11</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>2.77</v>
+        <v>5.49</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -704,15 +704,15 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3.1</v>
+        <v>8.34</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>23/09/2023 13:19</t>
+          <t>23/09/2023 14:28</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>2.9</v>
+        <v>10.71</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -720,16 +720,16 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>1.89</v>
+        <v>27.96</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>23/09/2023 13:19</t>
+          <t>23/09/2023 14:28</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/makedonikos-neapolis-iraklis-fc/Io8qMUd1/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/athens-kallithea-panachaiki/bu6CP33g/</t>
         </is>
       </c>
     </row>
@@ -757,7 +757,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Athens Kallithea</t>
+          <t>Makedonikos</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -765,14 +765,14 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Panachaiki</t>
+          <t>Iraklis 1908</t>
         </is>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1.2</v>
+        <v>2.45</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -780,15 +780,15 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>1.1</v>
+        <v>4.53</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>23/09/2023 14:11</t>
+          <t>23/09/2023 13:19</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>5.49</v>
+        <v>2.77</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -796,15 +796,15 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>8.34</v>
+        <v>3.1</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>23/09/2023 14:28</t>
+          <t>23/09/2023 13:19</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>10.71</v>
+        <v>2.9</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -812,16 +812,16 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>27.96</v>
+        <v>1.89</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>23/09/2023 14:28</t>
+          <t>23/09/2023 13:19</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/athens-kallithea-panachaiki/bu6CP33g/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/makedonikos-neapolis-iraklis-fc/Io8qMUd1/</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Karditsa</t>
+          <t>AEL Larissa</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -949,63 +949,63 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>AEK Athens FC B</t>
+          <t>Kampaniakos</t>
         </is>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>1.7</v>
+        <v>1.29</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>23/09/2023 03:13</t>
+          <t>23/09/2023 04:12</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>2.42</v>
+        <v>1.31</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>24/09/2023 14:42</t>
+          <t>23/09/2023 13:23</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.31</v>
+        <v>4.51</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>23/09/2023 03:13</t>
+          <t>23/09/2023 04:12</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.11</v>
+        <v>4.77</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>24/09/2023 14:41</t>
+          <t>24/09/2023 13:03</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>4.43</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>23/09/2023 03:13</t>
+          <t>23/09/2023 04:12</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>2.97</v>
+        <v>10.02</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>24/09/2023 14:42</t>
+          <t>23/09/2023 13:23</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-aek/bsoWqYl8/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ael-larissa-kampaniakos/2DC3RPYt/</t>
         </is>
       </c>
     </row>
@@ -1033,22 +1033,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>AEL Larissa</t>
+          <t>Tilikratis L.</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Kampaniakos</t>
+          <t>PAE Egaleo</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.29</v>
+        <v>2.47</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1056,15 +1056,15 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>1.31</v>
+        <v>3.26</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>23/09/2023 13:23</t>
+          <t>24/09/2023 14:31</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>4.51</v>
+        <v>2.82</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1072,15 +1072,15 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>4.77</v>
+        <v>3</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>24/09/2023 13:03</t>
+          <t>24/09/2023 13:02</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>8.710000000000001</v>
+        <v>2.82</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1088,16 +1088,16 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>10.02</v>
+        <v>2.32</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>23/09/2023 13:23</t>
+          <t>24/09/2023 14:31</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ael-larissa-kampaniakos/2DC3RPYt/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/tilikratis-lefkada-pae-egaleo/pd8OM1mC/</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tilikratis L.</t>
+          <t>Panathinaikos B</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -1133,63 +1133,63 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>PAE Egaleo</t>
+          <t>Kalamata</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J8" t="n">
-        <v>2.47</v>
+        <v>3.59</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>23/09/2023 04:12</t>
+          <t>23/09/2023 03:13</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>3.26</v>
+        <v>4.39</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>24/09/2023 14:31</t>
+          <t>24/09/2023 14:57</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>2.82</v>
+        <v>3.03</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>23/09/2023 04:12</t>
+          <t>23/09/2023 03:13</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>24/09/2023 13:02</t>
+          <t>24/09/2023 14:57</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>2.82</v>
+        <v>1.97</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>23/09/2023 04:12</t>
+          <t>23/09/2023 03:13</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>2.32</v>
+        <v>1.85</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>24/09/2023 14:31</t>
+          <t>24/09/2023 14:57</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/tilikratis-lefkada-pae-egaleo/pd8OM1mC/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/panathinaikos-kalamata/Wh4KNsY5/</t>
         </is>
       </c>
     </row>
@@ -1217,22 +1217,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Panathinaikos B</t>
+          <t>Karditsa</t>
         </is>
       </c>
       <c r="G9" t="n">
+        <v>2</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>AEK Athens FC B</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
         <v>1</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Kalamata</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>4</v>
-      </c>
       <c r="J9" t="n">
-        <v>3.59</v>
+        <v>1.7</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1240,15 +1240,15 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>4.39</v>
+        <v>2.42</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>24/09/2023 14:57</t>
+          <t>24/09/2023 14:42</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.03</v>
+        <v>3.31</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1256,15 +1256,15 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3.3</v>
+        <v>3.11</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>24/09/2023 14:57</t>
+          <t>24/09/2023 14:41</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>1.97</v>
+        <v>4.43</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -1272,16 +1272,16 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>1.85</v>
+        <v>2.97</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>24/09/2023 14:57</t>
+          <t>24/09/2023 14:42</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/panathinaikos-kalamata/Wh4KNsY5/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-aek/bsoWqYl8/</t>
         </is>
       </c>
     </row>
@@ -1585,71 +1585,71 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>PAOK B</t>
+          <t>Panachaiki</t>
         </is>
       </c>
       <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Panathinaikos B</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
         <v>2</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Kampaniakos</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
-        <v>3</v>
-      </c>
       <c r="J13" t="n">
-        <v>1.46</v>
+        <v>2.03</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>30/09/2023 03:12</t>
+          <t>29/09/2023 02:12</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>1.52</v>
+        <v>2.78</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>30/09/2023 13:01</t>
+          <t>30/09/2023 14:56</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>4.27</v>
+        <v>3.16</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>30/09/2023 03:12</t>
+          <t>29/09/2023 02:12</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>4.05</v>
+        <v>2.92</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>30/09/2023 13:17</t>
+          <t>30/09/2023 13:25</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>5.93</v>
+        <v>3.27</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>30/09/2023 03:12</t>
+          <t>29/09/2023 02:12</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>6.09</v>
+        <v>2.72</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>30/09/2023 13:17</t>
+          <t>30/09/2023 14:56</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/paok-kampaniakos/S6W0xkkj/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/panachaiki-panathinaikos/xh8LWHQB/</t>
         </is>
       </c>
     </row>
@@ -1677,71 +1677,71 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Panachaiki</t>
+          <t>PAOK B</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Panathinaikos B</t>
+          <t>Kampaniakos</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J14" t="n">
-        <v>2.03</v>
+        <v>1.46</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>29/09/2023 02:12</t>
+          <t>30/09/2023 03:12</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>2.78</v>
+        <v>1.52</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>30/09/2023 14:56</t>
+          <t>30/09/2023 13:01</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.16</v>
+        <v>4.27</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>29/09/2023 02:12</t>
+          <t>30/09/2023 03:12</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>2.92</v>
+        <v>4.05</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>30/09/2023 13:25</t>
+          <t>30/09/2023 13:17</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>3.27</v>
+        <v>5.93</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>29/09/2023 02:12</t>
+          <t>30/09/2023 03:12</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>2.72</v>
+        <v>6.09</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>30/09/2023 14:56</t>
+          <t>30/09/2023 13:17</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/panachaiki-panathinaikos/xh8LWHQB/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/paok-kampaniakos/S6W0xkkj/</t>
         </is>
       </c>
     </row>
@@ -2229,22 +2229,22 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Levadiakos</t>
+          <t>Kalamata</t>
         </is>
       </c>
       <c r="G20" t="n">
+        <v>3</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Giouchtas</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
         <v>1</v>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Kozani FC</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
       <c r="J20" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,15 +2252,15 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>02/10/2023 14:37</t>
+          <t>02/10/2023 14:56</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>5.14</v>
+        <v>5.08</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2268,15 +2268,15 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>5.22</v>
+        <v>4.66</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>02/10/2023 14:37</t>
+          <t>02/10/2023 14:56</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>10.69</v>
+        <v>10.51</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>11.56</v>
+        <v>10.6</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>02/10/2023 14:37</t>
+          <t>02/10/2023 14:56</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/levadiakos-kozani-fc/rHLFcaLb/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kalamata-giouchtas/YJ1UUeeO/</t>
         </is>
       </c>
     </row>
@@ -2321,71 +2321,163 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Kalamata</t>
+          <t>Levadiakos</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Giouchtas</t>
+          <t>Kozani FC</t>
         </is>
       </c>
       <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>02/10/2023 10:12</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>02/10/2023 14:37</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>02/10/2023 10:12</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>02/10/2023 14:37</t>
+        </is>
+      </c>
+      <c r="R21" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>02/10/2023 10:12</t>
+        </is>
+      </c>
+      <c r="T21" t="n">
+        <v>11.56</v>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>02/10/2023 14:37</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/levadiakos-kozani-fc/rHLFcaLb/</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>45206.625</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>PAOK B</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
         <v>1</v>
       </c>
-      <c r="J21" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>02/10/2023 10:12</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>02/10/2023 14:56</t>
-        </is>
-      </c>
-      <c r="N21" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>02/10/2023 10:12</t>
-        </is>
-      </c>
-      <c r="P21" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>02/10/2023 14:56</t>
-        </is>
-      </c>
-      <c r="R21" t="n">
-        <v>10.51</v>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>02/10/2023 10:12</t>
-        </is>
-      </c>
-      <c r="T21" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>02/10/2023 14:56</t>
-        </is>
-      </c>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kalamata-giouchtas/YJ1UUeeO/</t>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>AEK Athens FC B</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>06/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:57</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>06/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P22" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:57</t>
+        </is>
+      </c>
+      <c r="R22" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>06/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T22" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:57</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/paok-aek/Y1vsfiNq/</t>
         </is>
       </c>
     </row>

--- a/2023/greece_super-league-2_2023-2024.xlsx
+++ b/2023/greece_super-league-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V22"/>
+  <dimension ref="A1:V25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -941,7 +941,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>AEL Larissa</t>
+          <t>Karditsa</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -949,63 +949,63 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Kampaniakos</t>
+          <t>AEK Athens FC B</t>
         </is>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>1.29</v>
+        <v>1.7</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>23/09/2023 04:12</t>
+          <t>23/09/2023 03:13</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1.31</v>
+        <v>2.42</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>23/09/2023 13:23</t>
+          <t>24/09/2023 14:42</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>4.51</v>
+        <v>3.31</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>23/09/2023 04:12</t>
+          <t>23/09/2023 03:13</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>4.77</v>
+        <v>3.11</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>24/09/2023 13:03</t>
+          <t>24/09/2023 14:41</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>8.710000000000001</v>
+        <v>4.43</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>23/09/2023 04:12</t>
+          <t>23/09/2023 03:13</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>10.02</v>
+        <v>2.97</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>23/09/2023 13:23</t>
+          <t>24/09/2023 14:42</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ael-larissa-kampaniakos/2DC3RPYt/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-aek/bsoWqYl8/</t>
         </is>
       </c>
     </row>
@@ -1033,7 +1033,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tilikratis L.</t>
+          <t>Panathinaikos B</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -1041,63 +1041,63 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>PAE Egaleo</t>
+          <t>Kalamata</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J7" t="n">
-        <v>2.47</v>
+        <v>3.59</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>23/09/2023 04:12</t>
+          <t>23/09/2023 03:13</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>3.26</v>
+        <v>4.39</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>24/09/2023 14:31</t>
+          <t>24/09/2023 14:57</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>2.82</v>
+        <v>3.03</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>23/09/2023 04:12</t>
+          <t>23/09/2023 03:13</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>24/09/2023 13:02</t>
+          <t>24/09/2023 14:57</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>2.82</v>
+        <v>1.97</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>23/09/2023 04:12</t>
+          <t>23/09/2023 03:13</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>2.32</v>
+        <v>1.85</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>24/09/2023 14:31</t>
+          <t>24/09/2023 14:57</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/tilikratis-lefkada-pae-egaleo/pd8OM1mC/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/panathinaikos-kalamata/Wh4KNsY5/</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Panathinaikos B</t>
+          <t>Tilikratis L.</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -1133,63 +1133,63 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Kalamata</t>
+          <t>PAE Egaleo</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>3.59</v>
+        <v>2.47</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>23/09/2023 03:13</t>
+          <t>23/09/2023 04:12</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>4.39</v>
+        <v>3.26</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>24/09/2023 14:57</t>
+          <t>24/09/2023 14:31</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.03</v>
+        <v>2.82</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>23/09/2023 03:13</t>
+          <t>23/09/2023 04:12</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>24/09/2023 14:57</t>
+          <t>24/09/2023 13:02</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>1.97</v>
+        <v>2.82</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>23/09/2023 03:13</t>
+          <t>23/09/2023 04:12</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>1.85</v>
+        <v>2.32</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>24/09/2023 14:57</t>
+          <t>24/09/2023 14:31</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/panathinaikos-kalamata/Wh4KNsY5/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/tilikratis-lefkada-pae-egaleo/pd8OM1mC/</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Karditsa</t>
+          <t>AEL Larissa</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -1225,63 +1225,63 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>AEK Athens FC B</t>
+          <t>Kampaniakos</t>
         </is>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>1.7</v>
+        <v>1.29</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>23/09/2023 03:13</t>
+          <t>23/09/2023 04:12</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>2.42</v>
+        <v>1.31</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>24/09/2023 14:42</t>
+          <t>23/09/2023 13:23</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.31</v>
+        <v>4.51</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>23/09/2023 03:13</t>
+          <t>23/09/2023 04:12</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3.11</v>
+        <v>4.77</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>24/09/2023 14:41</t>
+          <t>24/09/2023 13:03</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>4.43</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>23/09/2023 03:13</t>
+          <t>23/09/2023 04:12</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>2.97</v>
+        <v>10.02</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>24/09/2023 14:42</t>
+          <t>23/09/2023 13:23</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-aek/bsoWqYl8/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ael-larissa-kampaniakos/2DC3RPYt/</t>
         </is>
       </c>
     </row>
@@ -1861,71 +1861,71 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Iraklis 1908</t>
+          <t>Ilioupoli</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Karditsa</t>
+          <t>Ionikos</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J16" t="n">
-        <v>1.51</v>
+        <v>3.4</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>30/09/2023 02:13</t>
+          <t>30/09/2023 03:42</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1.95</v>
+        <v>3.51</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>01/10/2023 13:08</t>
+          <t>01/10/2023 14:27</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.71</v>
+        <v>3.1</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>30/09/2023 02:13</t>
+          <t>30/09/2023 03:42</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.11</v>
+        <v>3.04</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>01/10/2023 13:08</t>
+          <t>01/10/2023 14:31</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>5.51</v>
+        <v>2.01</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>30/09/2023 02:13</t>
+          <t>30/09/2023 03:42</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>4.19</v>
+        <v>2.16</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>01/10/2023 13:02</t>
+          <t>01/10/2023 14:27</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/iraklis-fc-karditsa/vqFOewjB/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ilioupoli-ionikos/rV8HXcB5/</t>
         </is>
       </c>
     </row>
@@ -1953,71 +1953,71 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Ilioupoli</t>
+          <t>Iraklis 1908</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Ionikos</t>
+          <t>Karditsa</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>3.4</v>
+        <v>1.51</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>30/09/2023 03:42</t>
+          <t>30/09/2023 02:13</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>3.51</v>
+        <v>1.95</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>01/10/2023 14:27</t>
+          <t>01/10/2023 13:08</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.1</v>
+        <v>3.71</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>30/09/2023 03:42</t>
+          <t>30/09/2023 02:13</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.04</v>
+        <v>3.11</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>01/10/2023 14:31</t>
+          <t>01/10/2023 13:08</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2.01</v>
+        <v>5.51</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>30/09/2023 03:42</t>
+          <t>30/09/2023 02:13</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>2.16</v>
+        <v>4.19</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>01/10/2023 14:27</t>
+          <t>01/10/2023 13:02</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ilioupoli-ionikos/rV8HXcB5/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/iraklis-fc-karditsa/vqFOewjB/</t>
         </is>
       </c>
     </row>
@@ -2478,6 +2478,282 @@
       <c r="V22" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/greece/super-league-2/paok-aek/Y1vsfiNq/</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>45210.625</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>AEL Larissa</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Iraklis 1908</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>10/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>11/10/2023 14:52</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>10/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P23" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>11/10/2023 14:52</t>
+        </is>
+      </c>
+      <c r="R23" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>10/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T23" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>11/10/2023 14:52</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ael-larissa-iraklis-fc/WhhFbXES/</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>45210.625</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Karditsa</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>3</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Aiolikos</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>10/10/2023 11:12</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>11/10/2023 14:54</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>10/10/2023 11:12</t>
+        </is>
+      </c>
+      <c r="P24" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>11/10/2023 14:54</t>
+        </is>
+      </c>
+      <c r="R24" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>10/10/2023 11:12</t>
+        </is>
+      </c>
+      <c r="T24" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>11/10/2023 14:54</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-aiolikos-fc/2JmBaDaM/</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>45210.625</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Kozani FC</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>2</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Makedonikos</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>10/10/2023 11:12</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>11/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>10/10/2023 11:12</t>
+        </is>
+      </c>
+      <c r="P25" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>11/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="R25" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>10/10/2023 11:12</t>
+        </is>
+      </c>
+      <c r="T25" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>11/10/2023 14:16</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kozani-fc-makedonikos-neapolis/t4a21ZU9/</t>
         </is>
       </c>
     </row>

--- a/2023/greece_super-league-2_2023-2024.xlsx
+++ b/2023/greece_super-league-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V25"/>
+  <dimension ref="A1:V27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -941,7 +941,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Karditsa</t>
+          <t>AEL Larissa</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -949,63 +949,63 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>AEK Athens FC B</t>
+          <t>Kampaniakos</t>
         </is>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>1.7</v>
+        <v>1.29</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>23/09/2023 03:13</t>
+          <t>23/09/2023 04:12</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>2.42</v>
+        <v>1.31</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>24/09/2023 14:42</t>
+          <t>23/09/2023 13:23</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.31</v>
+        <v>4.51</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>23/09/2023 03:13</t>
+          <t>23/09/2023 04:12</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.11</v>
+        <v>4.77</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>24/09/2023 14:41</t>
+          <t>24/09/2023 13:03</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>4.43</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>23/09/2023 03:13</t>
+          <t>23/09/2023 04:12</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>2.97</v>
+        <v>10.02</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>24/09/2023 14:42</t>
+          <t>23/09/2023 13:23</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-aek/bsoWqYl8/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ael-larissa-kampaniakos/2DC3RPYt/</t>
         </is>
       </c>
     </row>
@@ -1033,7 +1033,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Panathinaikos B</t>
+          <t>Tilikratis L.</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -1041,63 +1041,63 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Kalamata</t>
+          <t>PAE Egaleo</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>3.59</v>
+        <v>2.47</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>23/09/2023 03:13</t>
+          <t>23/09/2023 04:12</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>4.39</v>
+        <v>3.26</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>24/09/2023 14:57</t>
+          <t>24/09/2023 14:31</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3.03</v>
+        <v>2.82</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>23/09/2023 03:13</t>
+          <t>23/09/2023 04:12</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>24/09/2023 14:57</t>
+          <t>24/09/2023 13:02</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>1.97</v>
+        <v>2.82</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>23/09/2023 03:13</t>
+          <t>23/09/2023 04:12</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>1.85</v>
+        <v>2.32</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>24/09/2023 14:57</t>
+          <t>24/09/2023 14:31</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/panathinaikos-kalamata/Wh4KNsY5/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/tilikratis-lefkada-pae-egaleo/pd8OM1mC/</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tilikratis L.</t>
+          <t>Panathinaikos B</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -1133,63 +1133,63 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>PAE Egaleo</t>
+          <t>Kalamata</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J8" t="n">
-        <v>2.47</v>
+        <v>3.59</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>23/09/2023 04:12</t>
+          <t>23/09/2023 03:13</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>3.26</v>
+        <v>4.39</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>24/09/2023 14:31</t>
+          <t>24/09/2023 14:57</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>2.82</v>
+        <v>3.03</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>23/09/2023 04:12</t>
+          <t>23/09/2023 03:13</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>24/09/2023 13:02</t>
+          <t>24/09/2023 14:57</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>2.82</v>
+        <v>1.97</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>23/09/2023 04:12</t>
+          <t>23/09/2023 03:13</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>2.32</v>
+        <v>1.85</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>24/09/2023 14:31</t>
+          <t>24/09/2023 14:57</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/tilikratis-lefkada-pae-egaleo/pd8OM1mC/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/panathinaikos-kalamata/Wh4KNsY5/</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>AEL Larissa</t>
+          <t>Karditsa</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -1225,63 +1225,63 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Kampaniakos</t>
+          <t>AEK Athens FC B</t>
         </is>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>1.29</v>
+        <v>1.7</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>23/09/2023 04:12</t>
+          <t>23/09/2023 03:13</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>1.31</v>
+        <v>2.42</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>23/09/2023 13:23</t>
+          <t>24/09/2023 14:42</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>4.51</v>
+        <v>3.31</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>23/09/2023 04:12</t>
+          <t>23/09/2023 03:13</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>4.77</v>
+        <v>3.11</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>24/09/2023 13:03</t>
+          <t>24/09/2023 14:41</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>8.710000000000001</v>
+        <v>4.43</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>23/09/2023 04:12</t>
+          <t>23/09/2023 03:13</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>10.02</v>
+        <v>2.97</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>23/09/2023 13:23</t>
+          <t>24/09/2023 14:42</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ael-larissa-kampaniakos/2DC3RPYt/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-aek/bsoWqYl8/</t>
         </is>
       </c>
     </row>
@@ -1585,71 +1585,71 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Panachaiki</t>
+          <t>PAOK B</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Panathinaikos B</t>
+          <t>Kampaniakos</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J13" t="n">
-        <v>2.03</v>
+        <v>1.46</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>29/09/2023 02:12</t>
+          <t>30/09/2023 03:12</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>2.78</v>
+        <v>1.52</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>30/09/2023 14:56</t>
+          <t>30/09/2023 13:01</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.16</v>
+        <v>4.27</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>29/09/2023 02:12</t>
+          <t>30/09/2023 03:12</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>2.92</v>
+        <v>4.05</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>30/09/2023 13:25</t>
+          <t>30/09/2023 13:17</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>3.27</v>
+        <v>5.93</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>29/09/2023 02:12</t>
+          <t>30/09/2023 03:12</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>2.72</v>
+        <v>6.09</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>30/09/2023 14:56</t>
+          <t>30/09/2023 13:17</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/panachaiki-panathinaikos/xh8LWHQB/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/paok-kampaniakos/S6W0xkkj/</t>
         </is>
       </c>
     </row>
@@ -1677,71 +1677,71 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>PAOK B</t>
+          <t>Panachaiki</t>
         </is>
       </c>
       <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Panathinaikos B</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
         <v>2</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Kampaniakos</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
-        <v>3</v>
-      </c>
       <c r="J14" t="n">
-        <v>1.46</v>
+        <v>2.03</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>30/09/2023 03:12</t>
+          <t>29/09/2023 02:12</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1.52</v>
+        <v>2.78</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>30/09/2023 13:01</t>
+          <t>30/09/2023 14:56</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>4.27</v>
+        <v>3.16</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>30/09/2023 03:12</t>
+          <t>29/09/2023 02:12</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>4.05</v>
+        <v>2.92</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>30/09/2023 13:17</t>
+          <t>30/09/2023 13:25</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>5.93</v>
+        <v>3.27</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>30/09/2023 03:12</t>
+          <t>29/09/2023 02:12</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>6.09</v>
+        <v>2.72</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>30/09/2023 13:17</t>
+          <t>30/09/2023 14:56</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/paok-kampaniakos/S6W0xkkj/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/panachaiki-panathinaikos/xh8LWHQB/</t>
         </is>
       </c>
     </row>
@@ -1861,71 +1861,71 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ilioupoli</t>
+          <t>Iraklis 1908</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Ionikos</t>
+          <t>Karditsa</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>3.4</v>
+        <v>1.51</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>30/09/2023 03:42</t>
+          <t>30/09/2023 02:13</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>3.51</v>
+        <v>1.95</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>01/10/2023 14:27</t>
+          <t>01/10/2023 13:08</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.1</v>
+        <v>3.71</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>30/09/2023 03:42</t>
+          <t>30/09/2023 02:13</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.04</v>
+        <v>3.11</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>01/10/2023 14:31</t>
+          <t>01/10/2023 13:08</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>2.01</v>
+        <v>5.51</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>30/09/2023 03:42</t>
+          <t>30/09/2023 02:13</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>2.16</v>
+        <v>4.19</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>01/10/2023 14:27</t>
+          <t>01/10/2023 13:02</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ilioupoli-ionikos/rV8HXcB5/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/iraklis-fc-karditsa/vqFOewjB/</t>
         </is>
       </c>
     </row>
@@ -1953,71 +1953,71 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Iraklis 1908</t>
+          <t>Ilioupoli</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Karditsa</t>
+          <t>Ionikos</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J17" t="n">
-        <v>1.51</v>
+        <v>3.4</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>30/09/2023 02:13</t>
+          <t>30/09/2023 03:42</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>1.95</v>
+        <v>3.51</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>01/10/2023 13:08</t>
+          <t>01/10/2023 14:27</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.71</v>
+        <v>3.1</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>30/09/2023 02:13</t>
+          <t>30/09/2023 03:42</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.11</v>
+        <v>3.04</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>01/10/2023 13:08</t>
+          <t>01/10/2023 14:31</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>5.51</v>
+        <v>2.01</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>30/09/2023 02:13</t>
+          <t>30/09/2023 03:42</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>4.19</v>
+        <v>2.16</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>01/10/2023 13:02</t>
+          <t>01/10/2023 14:27</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/iraklis-fc-karditsa/vqFOewjB/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ilioupoli-ionikos/rV8HXcB5/</t>
         </is>
       </c>
     </row>
@@ -2754,6 +2754,190 @@
       <c r="V25" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/greece/super-league-2/kozani-fc-makedonikos-neapolis/t4a21ZU9/</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>45213.625</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Giouchtas</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>2</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Panachaiki</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>14/10/2023 12:13</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>14/10/2023 14:06</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>14/10/2023 12:13</t>
+        </is>
+      </c>
+      <c r="P26" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>14/10/2023 14:07</t>
+        </is>
+      </c>
+      <c r="R26" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>14/10/2023 12:13</t>
+        </is>
+      </c>
+      <c r="T26" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>14/10/2023 14:06</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/giouchtas-panachaiki/OlUjncQb/</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>45213.625</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>PAE Egaleo</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Kalamata</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>3</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>13/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>14/10/2023 14:52</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>13/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P27" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>14/10/2023 14:52</t>
+        </is>
+      </c>
+      <c r="R27" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>13/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T27" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>14/10/2023 14:52</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/pae-egaleo-kalamata/dGsbpyeB/</t>
         </is>
       </c>
     </row>

--- a/2023/greece_super-league-2_2023-2024.xlsx
+++ b/2023/greece_super-league-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V27"/>
+  <dimension ref="A1:V31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1033,7 +1033,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tilikratis L.</t>
+          <t>Panathinaikos B</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -1041,63 +1041,63 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>PAE Egaleo</t>
+          <t>Kalamata</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J7" t="n">
-        <v>2.47</v>
+        <v>3.59</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>23/09/2023 04:12</t>
+          <t>23/09/2023 03:13</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>3.26</v>
+        <v>4.39</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>24/09/2023 14:31</t>
+          <t>24/09/2023 14:57</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>2.82</v>
+        <v>3.03</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>23/09/2023 04:12</t>
+          <t>23/09/2023 03:13</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>24/09/2023 13:02</t>
+          <t>24/09/2023 14:57</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>2.82</v>
+        <v>1.97</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>23/09/2023 04:12</t>
+          <t>23/09/2023 03:13</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>2.32</v>
+        <v>1.85</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>24/09/2023 14:31</t>
+          <t>24/09/2023 14:57</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/tilikratis-lefkada-pae-egaleo/pd8OM1mC/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/panathinaikos-kalamata/Wh4KNsY5/</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1125,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Panathinaikos B</t>
+          <t>Karditsa</t>
         </is>
       </c>
       <c r="G8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>AEK Athens FC B</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
         <v>1</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Kalamata</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>4</v>
-      </c>
       <c r="J8" t="n">
-        <v>3.59</v>
+        <v>1.7</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1148,15 +1148,15 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>4.39</v>
+        <v>2.42</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>24/09/2023 14:57</t>
+          <t>24/09/2023 14:42</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.03</v>
+        <v>3.31</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1164,15 +1164,15 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3.3</v>
+        <v>3.11</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>24/09/2023 14:57</t>
+          <t>24/09/2023 14:41</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>1.97</v>
+        <v>4.43</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1180,16 +1180,16 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>1.85</v>
+        <v>2.97</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>24/09/2023 14:57</t>
+          <t>24/09/2023 14:42</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/panathinaikos-kalamata/Wh4KNsY5/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-aek/bsoWqYl8/</t>
         </is>
       </c>
     </row>
@@ -1217,71 +1217,71 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Karditsa</t>
+          <t>Tilikratis L.</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>AEK Athens FC B</t>
+          <t>PAE Egaleo</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1.7</v>
+        <v>2.47</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>23/09/2023 03:13</t>
+          <t>23/09/2023 04:12</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>2.42</v>
+        <v>3.26</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>24/09/2023 14:42</t>
+          <t>24/09/2023 14:31</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.31</v>
+        <v>2.82</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>23/09/2023 03:13</t>
+          <t>23/09/2023 04:12</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3.11</v>
+        <v>3</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>24/09/2023 14:41</t>
+          <t>24/09/2023 13:02</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>4.43</v>
+        <v>2.82</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>23/09/2023 03:13</t>
+          <t>23/09/2023 04:12</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>2.97</v>
+        <v>2.32</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>24/09/2023 14:42</t>
+          <t>24/09/2023 14:31</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-aek/bsoWqYl8/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/tilikratis-lefkada-pae-egaleo/pd8OM1mC/</t>
         </is>
       </c>
     </row>
@@ -2938,6 +2938,374 @@
       <c r="V27" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/greece/super-league-2/pae-egaleo-kalamata/dGsbpyeB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>45214.58333333334</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Tilikratis L.</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Ilioupoli</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>2</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>15/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>15/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>15/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P28" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>15/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="R28" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>15/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T28" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>15/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/tilikratis-lefkada-ilioupoli/pbVnmwBh/</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>45214.625</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Levadiakos</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Apollon Pontou</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>15/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>15/10/2023 14:59</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>15/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P29" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>15/10/2023 14:59</t>
+        </is>
+      </c>
+      <c r="R29" t="n">
+        <v>13.81</v>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>15/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T29" t="n">
+        <v>24.08</v>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>15/10/2023 14:59</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/levadiakos-apollon-pontou/KfKyGYq3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>45214.625</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Makedonikos</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Karditsa</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>14/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>15/10/2023 14:49</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>14/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P30" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>15/10/2023 14:48</t>
+        </is>
+      </c>
+      <c r="R30" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>14/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T30" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>15/10/2023 14:49</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/makedonikos-neapolis-karditsa/t4LXGEUd/</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>45214.625</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Niki Volos</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Kozani FC</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>15/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>15/10/2023 11:11</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>15/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P31" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>15/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="R31" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>15/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T31" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>15/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/niki-volos-kozani-fc/S0XkhVid/</t>
         </is>
       </c>
     </row>

--- a/2023/greece_super-league-2_2023-2024.xlsx
+++ b/2023/greece_super-league-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V31"/>
+  <dimension ref="A1:V32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -941,22 +941,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>AEL Larissa</t>
+          <t>Tilikratis L.</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Kampaniakos</t>
+          <t>PAE Egaleo</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>1.29</v>
+        <v>2.47</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -964,15 +964,15 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1.31</v>
+        <v>3.26</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>23/09/2023 13:23</t>
+          <t>24/09/2023 14:31</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>4.51</v>
+        <v>2.82</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -980,15 +980,15 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>4.77</v>
+        <v>3</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>24/09/2023 13:03</t>
+          <t>24/09/2023 13:02</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>8.710000000000001</v>
+        <v>2.82</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>10.02</v>
+        <v>2.32</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>23/09/2023 13:23</t>
+          <t>24/09/2023 14:31</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ael-larissa-kampaniakos/2DC3RPYt/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/tilikratis-lefkada-pae-egaleo/pd8OM1mC/</t>
         </is>
       </c>
     </row>
@@ -1217,22 +1217,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tilikratis L.</t>
+          <t>AEL Larissa</t>
         </is>
       </c>
       <c r="G9" t="n">
+        <v>2</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Kampaniakos</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
         <v>1</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>PAE Egaleo</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
       <c r="J9" t="n">
-        <v>2.47</v>
+        <v>1.29</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1240,15 +1240,15 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>3.26</v>
+        <v>1.31</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>24/09/2023 14:31</t>
+          <t>23/09/2023 13:23</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>2.82</v>
+        <v>4.51</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1256,15 +1256,15 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3</v>
+        <v>4.77</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>24/09/2023 13:02</t>
+          <t>24/09/2023 13:03</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>2.82</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -1272,16 +1272,16 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>2.32</v>
+        <v>10.02</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>24/09/2023 14:31</t>
+          <t>23/09/2023 13:23</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/tilikratis-lefkada-pae-egaleo/pd8OM1mC/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ael-larissa-kampaniakos/2DC3RPYt/</t>
         </is>
       </c>
     </row>
@@ -3306,6 +3306,98 @@
       <c r="V31" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/greece/super-league-2/niki-volos-kozani-fc/S0XkhVid/</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>45215.5</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Diagoras</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>3</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>PAE Chania</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>14/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>16/10/2023 11:59</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>14/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="P32" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>16/10/2023 11:59</t>
+        </is>
+      </c>
+      <c r="R32" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>14/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="T32" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>16/10/2023 11:59</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/diagoras-fc-pae-chania/IPrfoHu5/</t>
         </is>
       </c>
     </row>

--- a/2023/greece_super-league-2_2023-2024.xlsx
+++ b/2023/greece_super-league-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V32"/>
+  <dimension ref="A1:V33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3401,6 +3401,98 @@
         </is>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>45219.66666666666</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Olympiacos Piraeus B</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>3</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Panathinaikos B</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>19/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>20/10/2023 15:51</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>19/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P33" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>20/10/2023 15:51</t>
+        </is>
+      </c>
+      <c r="R33" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>19/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T33" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>20/10/2023 15:51</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/olympiacos-piraeus-panathinaikos/vuX2qeAH/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/greece_super-league-2_2023-2024.xlsx
+++ b/2023/greece_super-league-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V33"/>
+  <dimension ref="A1:V36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,7 +665,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Athens Kallithea</t>
+          <t>Makedonikos</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -673,14 +673,14 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Panachaiki</t>
+          <t>Iraklis 1908</t>
         </is>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1.2</v>
+        <v>2.45</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -688,15 +688,15 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>1.1</v>
+        <v>4.53</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>23/09/2023 14:11</t>
+          <t>23/09/2023 13:19</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>5.49</v>
+        <v>2.77</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -704,15 +704,15 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>8.34</v>
+        <v>3.1</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>23/09/2023 14:28</t>
+          <t>23/09/2023 13:19</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>10.71</v>
+        <v>2.9</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -720,16 +720,16 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>27.96</v>
+        <v>1.89</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>23/09/2023 14:28</t>
+          <t>23/09/2023 13:19</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/athens-kallithea-panachaiki/bu6CP33g/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/makedonikos-neapolis-iraklis-fc/Io8qMUd1/</t>
         </is>
       </c>
     </row>
@@ -757,7 +757,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Makedonikos</t>
+          <t>Athens Kallithea</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -765,14 +765,14 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Iraklis 1908</t>
+          <t>Panachaiki</t>
         </is>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.45</v>
+        <v>1.2</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -780,15 +780,15 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>4.53</v>
+        <v>1.1</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>23/09/2023 13:19</t>
+          <t>23/09/2023 14:11</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>2.77</v>
+        <v>5.49</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -796,15 +796,15 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3.1</v>
+        <v>8.34</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>23/09/2023 13:19</t>
+          <t>23/09/2023 14:28</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>2.9</v>
+        <v>10.71</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -812,16 +812,16 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>1.89</v>
+        <v>27.96</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>23/09/2023 13:19</t>
+          <t>23/09/2023 14:28</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/makedonikos-neapolis-iraklis-fc/Io8qMUd1/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/athens-kallithea-panachaiki/bu6CP33g/</t>
         </is>
       </c>
     </row>
@@ -941,71 +941,71 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tilikratis L.</t>
+          <t>Karditsa</t>
         </is>
       </c>
       <c r="G6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>AEK Athens FC B</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
         <v>1</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>PAE Egaleo</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
       <c r="J6" t="n">
-        <v>2.47</v>
+        <v>1.7</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>23/09/2023 04:12</t>
+          <t>23/09/2023 03:13</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>3.26</v>
+        <v>2.42</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>24/09/2023 14:31</t>
+          <t>24/09/2023 14:42</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>2.82</v>
+        <v>3.31</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>23/09/2023 04:12</t>
+          <t>23/09/2023 03:13</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3</v>
+        <v>3.11</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>24/09/2023 13:02</t>
+          <t>24/09/2023 14:41</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>2.82</v>
+        <v>4.43</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>23/09/2023 04:12</t>
+          <t>23/09/2023 03:13</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>2.32</v>
+        <v>2.97</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>24/09/2023 14:31</t>
+          <t>24/09/2023 14:42</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/tilikratis-lefkada-pae-egaleo/pd8OM1mC/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-aek/bsoWqYl8/</t>
         </is>
       </c>
     </row>
@@ -1125,71 +1125,71 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Karditsa</t>
+          <t>Tilikratis L.</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>AEK Athens FC B</t>
+          <t>PAE Egaleo</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1.7</v>
+        <v>2.47</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>23/09/2023 03:13</t>
+          <t>23/09/2023 04:12</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>2.42</v>
+        <v>3.26</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>24/09/2023 14:42</t>
+          <t>24/09/2023 14:31</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.31</v>
+        <v>2.82</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>23/09/2023 03:13</t>
+          <t>23/09/2023 04:12</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3.11</v>
+        <v>3</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>24/09/2023 14:41</t>
+          <t>24/09/2023 13:02</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>4.43</v>
+        <v>2.82</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>23/09/2023 03:13</t>
+          <t>23/09/2023 04:12</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>2.97</v>
+        <v>2.32</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>24/09/2023 14:42</t>
+          <t>24/09/2023 14:31</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-aek/bsoWqYl8/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/tilikratis-lefkada-pae-egaleo/pd8OM1mC/</t>
         </is>
       </c>
     </row>
@@ -1585,71 +1585,71 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>PAOK B</t>
+          <t>Panachaiki</t>
         </is>
       </c>
       <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Panathinaikos B</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
         <v>2</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Kampaniakos</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
-        <v>3</v>
-      </c>
       <c r="J13" t="n">
-        <v>1.46</v>
+        <v>2.03</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>30/09/2023 03:12</t>
+          <t>29/09/2023 02:12</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>1.52</v>
+        <v>2.78</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>30/09/2023 13:01</t>
+          <t>30/09/2023 14:56</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>4.27</v>
+        <v>3.16</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>30/09/2023 03:12</t>
+          <t>29/09/2023 02:12</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>4.05</v>
+        <v>2.92</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>30/09/2023 13:17</t>
+          <t>30/09/2023 13:25</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>5.93</v>
+        <v>3.27</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>30/09/2023 03:12</t>
+          <t>29/09/2023 02:12</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>6.09</v>
+        <v>2.72</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>30/09/2023 13:17</t>
+          <t>30/09/2023 14:56</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/paok-kampaniakos/S6W0xkkj/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/panachaiki-panathinaikos/xh8LWHQB/</t>
         </is>
       </c>
     </row>
@@ -1677,71 +1677,71 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Panachaiki</t>
+          <t>PAOK B</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Panathinaikos B</t>
+          <t>Kampaniakos</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J14" t="n">
-        <v>2.03</v>
+        <v>1.46</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>29/09/2023 02:12</t>
+          <t>30/09/2023 03:12</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>2.78</v>
+        <v>1.52</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>30/09/2023 14:56</t>
+          <t>30/09/2023 13:01</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.16</v>
+        <v>4.27</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>29/09/2023 02:12</t>
+          <t>30/09/2023 03:12</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>2.92</v>
+        <v>4.05</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>30/09/2023 13:25</t>
+          <t>30/09/2023 13:17</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>3.27</v>
+        <v>5.93</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>29/09/2023 02:12</t>
+          <t>30/09/2023 03:12</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>2.72</v>
+        <v>6.09</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>30/09/2023 14:56</t>
+          <t>30/09/2023 13:17</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/panachaiki-panathinaikos/xh8LWHQB/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/paok-kampaniakos/S6W0xkkj/</t>
         </is>
       </c>
     </row>
@@ -1861,71 +1861,71 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Iraklis 1908</t>
+          <t>Ilioupoli</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Karditsa</t>
+          <t>Ionikos</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J16" t="n">
-        <v>1.51</v>
+        <v>3.4</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>30/09/2023 02:13</t>
+          <t>30/09/2023 03:42</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1.95</v>
+        <v>3.51</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>01/10/2023 13:08</t>
+          <t>01/10/2023 14:27</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.71</v>
+        <v>3.1</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>30/09/2023 02:13</t>
+          <t>30/09/2023 03:42</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.11</v>
+        <v>3.04</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>01/10/2023 13:08</t>
+          <t>01/10/2023 14:31</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>5.51</v>
+        <v>2.01</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>30/09/2023 02:13</t>
+          <t>30/09/2023 03:42</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>4.19</v>
+        <v>2.16</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>01/10/2023 13:02</t>
+          <t>01/10/2023 14:27</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/iraklis-fc-karditsa/vqFOewjB/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ilioupoli-ionikos/rV8HXcB5/</t>
         </is>
       </c>
     </row>
@@ -1953,71 +1953,71 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Ilioupoli</t>
+          <t>Iraklis 1908</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Ionikos</t>
+          <t>Karditsa</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>3.4</v>
+        <v>1.51</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>30/09/2023 03:42</t>
+          <t>30/09/2023 02:13</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>3.51</v>
+        <v>1.95</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>01/10/2023 14:27</t>
+          <t>01/10/2023 13:08</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.1</v>
+        <v>3.71</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>30/09/2023 03:42</t>
+          <t>30/09/2023 02:13</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.04</v>
+        <v>3.11</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>01/10/2023 14:31</t>
+          <t>01/10/2023 13:08</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2.01</v>
+        <v>5.51</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>30/09/2023 03:42</t>
+          <t>30/09/2023 02:13</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>2.16</v>
+        <v>4.19</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>01/10/2023 14:27</t>
+          <t>01/10/2023 13:02</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ilioupoli-ionikos/rV8HXcB5/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/iraklis-fc-karditsa/vqFOewjB/</t>
         </is>
       </c>
     </row>
@@ -3490,6 +3490,282 @@
       <c r="V33" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/greece/super-league-2/olympiacos-piraeus-panathinaikos/vuX2qeAH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>45220.625</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Athens Kallithea</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Giouchtas</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>21/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:17</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>21/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P34" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:18</t>
+        </is>
+      </c>
+      <c r="R34" t="n">
+        <v>10.53</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>21/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T34" t="n">
+        <v>13.52</v>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:17</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/athens-kallithea-giouchtas/n5zBsZvU/</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>45220.625</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Ionikos</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Tilikratis L.</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>21/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>21/10/2023 12:52</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>21/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P35" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:02</t>
+        </is>
+      </c>
+      <c r="R35" t="n">
+        <v>10.53</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>21/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T35" t="n">
+        <v>14.23</v>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>21/10/2023 12:52</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ionikos-tilikratis-lefkada/hry7rFPN/</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>45220.625</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>PAOK B</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Aiolikos</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>21/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:43</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>21/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P36" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:43</t>
+        </is>
+      </c>
+      <c r="R36" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>21/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T36" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:43</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/paok-aiolikos-fc/fyiX48y2/</t>
         </is>
       </c>
     </row>

--- a/2023/greece_super-league-2_2023-2024.xlsx
+++ b/2023/greece_super-league-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V36"/>
+  <dimension ref="A1:V43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1033,71 +1033,71 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Panathinaikos B</t>
+          <t>AEL Larissa</t>
         </is>
       </c>
       <c r="G7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Kampaniakos</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
         <v>1</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Kalamata</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>4</v>
-      </c>
       <c r="J7" t="n">
-        <v>3.59</v>
+        <v>1.29</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>23/09/2023 03:13</t>
+          <t>23/09/2023 04:12</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>4.39</v>
+        <v>1.31</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>24/09/2023 14:57</t>
+          <t>23/09/2023 13:23</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3.03</v>
+        <v>4.51</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>23/09/2023 03:13</t>
+          <t>23/09/2023 04:12</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3.3</v>
+        <v>4.77</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>24/09/2023 14:57</t>
+          <t>24/09/2023 13:03</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>1.97</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>23/09/2023 03:13</t>
+          <t>23/09/2023 04:12</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>1.85</v>
+        <v>10.02</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>24/09/2023 14:57</t>
+          <t>23/09/2023 13:23</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/panathinaikos-kalamata/Wh4KNsY5/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ael-larissa-kampaniakos/2DC3RPYt/</t>
         </is>
       </c>
     </row>
@@ -1217,71 +1217,71 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>AEL Larissa</t>
+          <t>Panathinaikos B</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Kampaniakos</t>
+          <t>Kalamata</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J9" t="n">
-        <v>1.29</v>
+        <v>3.59</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>23/09/2023 04:12</t>
+          <t>23/09/2023 03:13</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>1.31</v>
+        <v>4.39</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>23/09/2023 13:23</t>
+          <t>24/09/2023 14:57</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>4.51</v>
+        <v>3.03</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>23/09/2023 04:12</t>
+          <t>23/09/2023 03:13</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>4.77</v>
+        <v>3.3</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>24/09/2023 13:03</t>
+          <t>24/09/2023 14:57</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>8.710000000000001</v>
+        <v>1.97</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>23/09/2023 04:12</t>
+          <t>23/09/2023 03:13</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>10.02</v>
+        <v>1.85</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>23/09/2023 13:23</t>
+          <t>24/09/2023 14:57</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ael-larissa-kampaniakos/2DC3RPYt/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/panathinaikos-kalamata/Wh4KNsY5/</t>
         </is>
       </c>
     </row>
@@ -1585,71 +1585,71 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Panachaiki</t>
+          <t>PAOK B</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Panathinaikos B</t>
+          <t>Kampaniakos</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J13" t="n">
-        <v>2.03</v>
+        <v>1.46</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>29/09/2023 02:12</t>
+          <t>30/09/2023 03:12</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>2.78</v>
+        <v>1.52</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>30/09/2023 14:56</t>
+          <t>30/09/2023 13:01</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.16</v>
+        <v>4.27</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>29/09/2023 02:12</t>
+          <t>30/09/2023 03:12</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>2.92</v>
+        <v>4.05</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>30/09/2023 13:25</t>
+          <t>30/09/2023 13:17</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>3.27</v>
+        <v>5.93</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>29/09/2023 02:12</t>
+          <t>30/09/2023 03:12</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>2.72</v>
+        <v>6.09</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>30/09/2023 14:56</t>
+          <t>30/09/2023 13:17</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/panachaiki-panathinaikos/xh8LWHQB/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/paok-kampaniakos/S6W0xkkj/</t>
         </is>
       </c>
     </row>
@@ -1677,71 +1677,71 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>PAOK B</t>
+          <t>Panachaiki</t>
         </is>
       </c>
       <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Panathinaikos B</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
         <v>2</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Kampaniakos</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
-        <v>3</v>
-      </c>
       <c r="J14" t="n">
-        <v>1.46</v>
+        <v>2.03</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>30/09/2023 03:12</t>
+          <t>29/09/2023 02:12</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1.52</v>
+        <v>2.78</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>30/09/2023 13:01</t>
+          <t>30/09/2023 14:56</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>4.27</v>
+        <v>3.16</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>30/09/2023 03:12</t>
+          <t>29/09/2023 02:12</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>4.05</v>
+        <v>2.92</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>30/09/2023 13:17</t>
+          <t>30/09/2023 13:25</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>5.93</v>
+        <v>3.27</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>30/09/2023 03:12</t>
+          <t>29/09/2023 02:12</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>6.09</v>
+        <v>2.72</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>30/09/2023 13:17</t>
+          <t>30/09/2023 14:56</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/paok-kampaniakos/S6W0xkkj/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/panachaiki-panathinaikos/xh8LWHQB/</t>
         </is>
       </c>
     </row>
@@ -1861,71 +1861,71 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ilioupoli</t>
+          <t>Iraklis 1908</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Ionikos</t>
+          <t>Karditsa</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>3.4</v>
+        <v>1.51</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>30/09/2023 03:42</t>
+          <t>30/09/2023 02:13</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>3.51</v>
+        <v>1.95</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>01/10/2023 14:27</t>
+          <t>01/10/2023 13:08</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.1</v>
+        <v>3.71</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>30/09/2023 03:42</t>
+          <t>30/09/2023 02:13</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.04</v>
+        <v>3.11</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>01/10/2023 14:31</t>
+          <t>01/10/2023 13:08</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>2.01</v>
+        <v>5.51</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>30/09/2023 03:42</t>
+          <t>30/09/2023 02:13</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>2.16</v>
+        <v>4.19</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>01/10/2023 14:27</t>
+          <t>01/10/2023 13:02</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ilioupoli-ionikos/rV8HXcB5/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/iraklis-fc-karditsa/vqFOewjB/</t>
         </is>
       </c>
     </row>
@@ -1953,71 +1953,71 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Iraklis 1908</t>
+          <t>Ilioupoli</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Karditsa</t>
+          <t>Ionikos</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J17" t="n">
-        <v>1.51</v>
+        <v>3.4</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>30/09/2023 02:13</t>
+          <t>30/09/2023 03:42</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>1.95</v>
+        <v>3.51</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>01/10/2023 13:08</t>
+          <t>01/10/2023 14:27</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.71</v>
+        <v>3.1</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>30/09/2023 02:13</t>
+          <t>30/09/2023 03:42</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.11</v>
+        <v>3.04</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>01/10/2023 13:08</t>
+          <t>01/10/2023 14:31</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>5.51</v>
+        <v>2.01</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>30/09/2023 02:13</t>
+          <t>30/09/2023 03:42</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>4.19</v>
+        <v>2.16</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>01/10/2023 13:02</t>
+          <t>01/10/2023 14:27</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/iraklis-fc-karditsa/vqFOewjB/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ilioupoli-ionikos/rV8HXcB5/</t>
         </is>
       </c>
     </row>
@@ -2229,22 +2229,22 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Kalamata</t>
+          <t>Levadiakos</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Giouchtas</t>
+          <t>Kozani FC</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,15 +2252,15 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>02/10/2023 14:56</t>
+          <t>02/10/2023 14:37</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>5.08</v>
+        <v>5.14</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2268,15 +2268,15 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>4.66</v>
+        <v>5.22</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>02/10/2023 14:56</t>
+          <t>02/10/2023 14:37</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>10.51</v>
+        <v>10.69</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>10.6</v>
+        <v>11.56</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>02/10/2023 14:56</t>
+          <t>02/10/2023 14:37</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kalamata-giouchtas/YJ1UUeeO/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/levadiakos-kozani-fc/rHLFcaLb/</t>
         </is>
       </c>
     </row>
@@ -2321,22 +2321,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Levadiakos</t>
+          <t>Kalamata</t>
         </is>
       </c>
       <c r="G21" t="n">
+        <v>3</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Giouchtas</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
         <v>1</v>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Kozani FC</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
       <c r="J21" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,15 +2344,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>02/10/2023 14:37</t>
+          <t>02/10/2023 14:56</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>5.14</v>
+        <v>5.08</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>5.22</v>
+        <v>4.66</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>02/10/2023 14:37</t>
+          <t>02/10/2023 14:56</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>10.69</v>
+        <v>10.51</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,16 +2376,16 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>11.56</v>
+        <v>10.6</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>02/10/2023 14:37</t>
+          <t>02/10/2023 14:56</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/levadiakos-kozani-fc/rHLFcaLb/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kalamata-giouchtas/YJ1UUeeO/</t>
         </is>
       </c>
     </row>
@@ -3766,6 +3766,650 @@
       <c r="V36" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/greece/super-league-2/paok-aiolikos-fc/fyiX48y2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>45221.54166666666</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Ilioupoli</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Diagoras</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>21/10/2023 00:13</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:26</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>21/10/2023 00:13</t>
+        </is>
+      </c>
+      <c r="P37" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:26</t>
+        </is>
+      </c>
+      <c r="R37" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>21/10/2023 00:13</t>
+        </is>
+      </c>
+      <c r="T37" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>22/10/2023 11:44</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ilioupoli-diagoras-fc/lEMxwgmo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>45221.54166666666</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Kalamata</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>PAE Chania</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>2</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>21/10/2023 00:13</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:50</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>21/10/2023 00:13</t>
+        </is>
+      </c>
+      <c r="P38" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:50</t>
+        </is>
+      </c>
+      <c r="R38" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>21/10/2023 00:13</t>
+        </is>
+      </c>
+      <c r="T38" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:50</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kalamata-pae-chania/4M4P0duh/</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>45221.625</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Panachaiki</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>PAE Egaleo</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>21/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:59</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>21/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P39" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:57</t>
+        </is>
+      </c>
+      <c r="R39" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>21/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T39" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:59</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/panachaiki-pae-egaleo/QV5L1xQo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>45221.625</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>AEL Larissa</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>1</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Makedonikos</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>21/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:56</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>21/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P40" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:56</t>
+        </is>
+      </c>
+      <c r="R40" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>21/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T40" t="n">
+        <v>7.37</v>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:56</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ael-larissa-makedonikos-neapolis/8KhP6U6k/</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>45221.625</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Apollon Pontou</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Niki Volos</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>3</v>
+      </c>
+      <c r="J41" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>21/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:56</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>21/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P41" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:56</t>
+        </is>
+      </c>
+      <c r="R41" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>21/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T41" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:56</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/apollon-pontou-niki-volos/UTgL7Aiq/</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>45221.625</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Kozani FC</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>1</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Karditsa</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:12</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:49</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:12</t>
+        </is>
+      </c>
+      <c r="P42" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:54</t>
+        </is>
+      </c>
+      <c r="R42" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:12</t>
+        </is>
+      </c>
+      <c r="T42" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:49</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kozani-fc-karditsa/OnHhCjqS/</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>45222.625</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Kampaniakos</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Levadiakos</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>2</v>
+      </c>
+      <c r="J43" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>23/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>6.94</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>23/10/2023 14:52</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>23/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P43" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>23/10/2023 14:52</t>
+        </is>
+      </c>
+      <c r="R43" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>23/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T43" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>23/10/2023 14:50</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kampaniakos-levadiakos/GphT5lMe/</t>
         </is>
       </c>
     </row>

--- a/2023/greece_super-league-2_2023-2024.xlsx
+++ b/2023/greece_super-league-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V43"/>
+  <dimension ref="A1:V44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,7 +665,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Makedonikos</t>
+          <t>Athens Kallithea</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -673,14 +673,14 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Iraklis 1908</t>
+          <t>Panachaiki</t>
         </is>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.45</v>
+        <v>1.2</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -688,15 +688,15 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>4.53</v>
+        <v>1.1</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>23/09/2023 13:19</t>
+          <t>23/09/2023 14:11</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>2.77</v>
+        <v>5.49</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -704,15 +704,15 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3.1</v>
+        <v>8.34</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>23/09/2023 13:19</t>
+          <t>23/09/2023 14:28</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>2.9</v>
+        <v>10.71</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -720,16 +720,16 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>1.89</v>
+        <v>27.96</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>23/09/2023 13:19</t>
+          <t>23/09/2023 14:28</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/makedonikos-neapolis-iraklis-fc/Io8qMUd1/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/athens-kallithea-panachaiki/bu6CP33g/</t>
         </is>
       </c>
     </row>
@@ -757,7 +757,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Athens Kallithea</t>
+          <t>Makedonikos</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -765,14 +765,14 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Panachaiki</t>
+          <t>Iraklis 1908</t>
         </is>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1.2</v>
+        <v>2.45</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -780,15 +780,15 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>1.1</v>
+        <v>4.53</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>23/09/2023 14:11</t>
+          <t>23/09/2023 13:19</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>5.49</v>
+        <v>2.77</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -796,15 +796,15 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>8.34</v>
+        <v>3.1</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>23/09/2023 14:28</t>
+          <t>23/09/2023 13:19</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>10.71</v>
+        <v>2.9</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -812,16 +812,16 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>27.96</v>
+        <v>1.89</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>23/09/2023 14:28</t>
+          <t>23/09/2023 13:19</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/athens-kallithea-panachaiki/bu6CP33g/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/makedonikos-neapolis-iraklis-fc/Io8qMUd1/</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Karditsa</t>
+          <t>AEL Larissa</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -949,63 +949,63 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>AEK Athens FC B</t>
+          <t>Kampaniakos</t>
         </is>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>1.7</v>
+        <v>1.29</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>23/09/2023 03:13</t>
+          <t>23/09/2023 04:12</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>2.42</v>
+        <v>1.31</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>24/09/2023 14:42</t>
+          <t>23/09/2023 13:23</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.31</v>
+        <v>4.51</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>23/09/2023 03:13</t>
+          <t>23/09/2023 04:12</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.11</v>
+        <v>4.77</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>24/09/2023 14:41</t>
+          <t>24/09/2023 13:03</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>4.43</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>23/09/2023 03:13</t>
+          <t>23/09/2023 04:12</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>2.97</v>
+        <v>10.02</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>24/09/2023 14:42</t>
+          <t>23/09/2023 13:23</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-aek/bsoWqYl8/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ael-larissa-kampaniakos/2DC3RPYt/</t>
         </is>
       </c>
     </row>
@@ -1033,22 +1033,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>AEL Larissa</t>
+          <t>Tilikratis L.</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Kampaniakos</t>
+          <t>PAE Egaleo</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.29</v>
+        <v>2.47</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1056,15 +1056,15 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>1.31</v>
+        <v>3.26</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>23/09/2023 13:23</t>
+          <t>24/09/2023 14:31</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>4.51</v>
+        <v>2.82</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1072,15 +1072,15 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>4.77</v>
+        <v>3</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>24/09/2023 13:03</t>
+          <t>24/09/2023 13:02</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>8.710000000000001</v>
+        <v>2.82</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1088,16 +1088,16 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>10.02</v>
+        <v>2.32</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>23/09/2023 13:23</t>
+          <t>24/09/2023 14:31</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ael-larissa-kampaniakos/2DC3RPYt/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/tilikratis-lefkada-pae-egaleo/pd8OM1mC/</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tilikratis L.</t>
+          <t>Panathinaikos B</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -1133,63 +1133,63 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>PAE Egaleo</t>
+          <t>Kalamata</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J8" t="n">
-        <v>2.47</v>
+        <v>3.59</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>23/09/2023 04:12</t>
+          <t>23/09/2023 03:13</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>3.26</v>
+        <v>4.39</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>24/09/2023 14:31</t>
+          <t>24/09/2023 14:57</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>2.82</v>
+        <v>3.03</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>23/09/2023 04:12</t>
+          <t>23/09/2023 03:13</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>24/09/2023 13:02</t>
+          <t>24/09/2023 14:57</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>2.82</v>
+        <v>1.97</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>23/09/2023 04:12</t>
+          <t>23/09/2023 03:13</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>2.32</v>
+        <v>1.85</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>24/09/2023 14:31</t>
+          <t>24/09/2023 14:57</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/tilikratis-lefkada-pae-egaleo/pd8OM1mC/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/panathinaikos-kalamata/Wh4KNsY5/</t>
         </is>
       </c>
     </row>
@@ -1217,22 +1217,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Panathinaikos B</t>
+          <t>Karditsa</t>
         </is>
       </c>
       <c r="G9" t="n">
+        <v>2</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>AEK Athens FC B</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
         <v>1</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Kalamata</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>4</v>
-      </c>
       <c r="J9" t="n">
-        <v>3.59</v>
+        <v>1.7</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1240,15 +1240,15 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>4.39</v>
+        <v>2.42</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>24/09/2023 14:57</t>
+          <t>24/09/2023 14:42</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.03</v>
+        <v>3.31</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1256,15 +1256,15 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3.3</v>
+        <v>3.11</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>24/09/2023 14:57</t>
+          <t>24/09/2023 14:41</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>1.97</v>
+        <v>4.43</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -1272,16 +1272,16 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>1.85</v>
+        <v>2.97</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>24/09/2023 14:57</t>
+          <t>24/09/2023 14:42</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/panathinaikos-kalamata/Wh4KNsY5/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-aek/bsoWqYl8/</t>
         </is>
       </c>
     </row>
@@ -1585,71 +1585,71 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>PAOK B</t>
+          <t>Panachaiki</t>
         </is>
       </c>
       <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Panathinaikos B</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
         <v>2</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Kampaniakos</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
-        <v>3</v>
-      </c>
       <c r="J13" t="n">
-        <v>1.46</v>
+        <v>2.03</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>30/09/2023 03:12</t>
+          <t>29/09/2023 02:12</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>1.52</v>
+        <v>2.78</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>30/09/2023 13:01</t>
+          <t>30/09/2023 14:56</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>4.27</v>
+        <v>3.16</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>30/09/2023 03:12</t>
+          <t>29/09/2023 02:12</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>4.05</v>
+        <v>2.92</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>30/09/2023 13:17</t>
+          <t>30/09/2023 13:25</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>5.93</v>
+        <v>3.27</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>30/09/2023 03:12</t>
+          <t>29/09/2023 02:12</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>6.09</v>
+        <v>2.72</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>30/09/2023 13:17</t>
+          <t>30/09/2023 14:56</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/paok-kampaniakos/S6W0xkkj/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/panachaiki-panathinaikos/xh8LWHQB/</t>
         </is>
       </c>
     </row>
@@ -1677,71 +1677,71 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Panachaiki</t>
+          <t>PAOK B</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Panathinaikos B</t>
+          <t>Kampaniakos</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J14" t="n">
-        <v>2.03</v>
+        <v>1.46</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>29/09/2023 02:12</t>
+          <t>30/09/2023 03:12</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>2.78</v>
+        <v>1.52</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>30/09/2023 14:56</t>
+          <t>30/09/2023 13:01</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.16</v>
+        <v>4.27</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>29/09/2023 02:12</t>
+          <t>30/09/2023 03:12</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>2.92</v>
+        <v>4.05</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>30/09/2023 13:25</t>
+          <t>30/09/2023 13:17</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>3.27</v>
+        <v>5.93</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>29/09/2023 02:12</t>
+          <t>30/09/2023 03:12</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>2.72</v>
+        <v>6.09</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>30/09/2023 14:56</t>
+          <t>30/09/2023 13:17</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/panachaiki-panathinaikos/xh8LWHQB/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/paok-kampaniakos/S6W0xkkj/</t>
         </is>
       </c>
     </row>
@@ -2229,22 +2229,22 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Levadiakos</t>
+          <t>Kalamata</t>
         </is>
       </c>
       <c r="G20" t="n">
+        <v>3</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Giouchtas</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
         <v>1</v>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Kozani FC</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
       <c r="J20" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,15 +2252,15 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>02/10/2023 14:37</t>
+          <t>02/10/2023 14:56</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>5.14</v>
+        <v>5.08</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2268,15 +2268,15 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>5.22</v>
+        <v>4.66</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>02/10/2023 14:37</t>
+          <t>02/10/2023 14:56</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>10.69</v>
+        <v>10.51</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>11.56</v>
+        <v>10.6</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>02/10/2023 14:37</t>
+          <t>02/10/2023 14:56</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/levadiakos-kozani-fc/rHLFcaLb/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kalamata-giouchtas/YJ1UUeeO/</t>
         </is>
       </c>
     </row>
@@ -2321,22 +2321,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Kalamata</t>
+          <t>Levadiakos</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Giouchtas</t>
+          <t>Kozani FC</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,15 +2344,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>02/10/2023 14:56</t>
+          <t>02/10/2023 14:37</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>5.08</v>
+        <v>5.14</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>4.66</v>
+        <v>5.22</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>02/10/2023 14:56</t>
+          <t>02/10/2023 14:37</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>10.51</v>
+        <v>10.69</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,16 +2376,16 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>10.6</v>
+        <v>11.56</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>02/10/2023 14:56</t>
+          <t>02/10/2023 14:37</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kalamata-giouchtas/YJ1UUeeO/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/levadiakos-kozani-fc/rHLFcaLb/</t>
         </is>
       </c>
     </row>
@@ -2505,71 +2505,71 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>AEL Larissa</t>
+          <t>Kozani FC</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Iraklis 1908</t>
+          <t>Makedonikos</t>
         </is>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1.95</v>
+        <v>2.36</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>10/10/2023 02:12</t>
+          <t>10/10/2023 11:12</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>1.96</v>
+        <v>2.63</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>11/10/2023 14:52</t>
+          <t>11/10/2023 14:58</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.06</v>
+        <v>2.79</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>10/10/2023 02:12</t>
+          <t>10/10/2023 11:12</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.04</v>
+        <v>2.86</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>11/10/2023 14:52</t>
+          <t>11/10/2023 14:58</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>3.62</v>
+        <v>3.1</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>10/10/2023 02:12</t>
+          <t>10/10/2023 11:12</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>4.31</v>
+        <v>2.93</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>11/10/2023 14:52</t>
+          <t>11/10/2023 14:16</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ael-larissa-iraklis-fc/WhhFbXES/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kozani-fc-makedonikos-neapolis/t4a21ZU9/</t>
         </is>
       </c>
     </row>
@@ -2597,71 +2597,71 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Karditsa</t>
+          <t>AEL Larissa</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aiolikos</t>
+          <t>Iraklis 1908</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>10/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
         <v>1.96</v>
       </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>10/10/2023 11:12</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1.86</v>
-      </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>11/10/2023 14:54</t>
+          <t>11/10/2023 14:52</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>2.97</v>
+        <v>3.06</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>10/10/2023 11:12</t>
+          <t>10/10/2023 02:12</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.27</v>
+        <v>3.04</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>11/10/2023 14:54</t>
+          <t>11/10/2023 14:52</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>3.86</v>
+        <v>3.62</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>10/10/2023 11:12</t>
+          <t>10/10/2023 02:12</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>4.4</v>
+        <v>4.31</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>11/10/2023 14:54</t>
+          <t>11/10/2023 14:52</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-aiolikos-fc/2JmBaDaM/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ael-larissa-iraklis-fc/WhhFbXES/</t>
         </is>
       </c>
     </row>
@@ -2689,22 +2689,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Kozani FC</t>
+          <t>Karditsa</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Makedonikos</t>
+          <t>Aiolikos</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>2.36</v>
+        <v>1.96</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2712,15 +2712,15 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2.63</v>
+        <v>1.86</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>11/10/2023 14:58</t>
+          <t>11/10/2023 14:54</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>2.79</v>
+        <v>2.97</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2728,15 +2728,15 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>2.86</v>
+        <v>3.27</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>11/10/2023 14:58</t>
+          <t>11/10/2023 14:54</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>3.1</v>
+        <v>3.86</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2744,16 +2744,16 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>2.93</v>
+        <v>4.4</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>11/10/2023 14:16</t>
+          <t>11/10/2023 14:54</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kozani-fc-makedonikos-neapolis/t4a21ZU9/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-aiolikos-fc/2JmBaDaM/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Panachaiki</t>
+          <t>Apollon Pontou</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>PAE Egaleo</t>
+          <t>Niki Volos</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J39" t="n">
-        <v>3.03</v>
+        <v>4.17</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>3.1</v>
+        <v>9.99</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>22/10/2023 14:59</t>
+          <t>22/10/2023 14:56</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>2.94</v>
+        <v>3.18</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.06</v>
+        <v>4.44</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>22/10/2023 14:57</t>
+          <t>22/10/2023 14:56</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>2.37</v>
+        <v>1.34</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>22/10/2023 14:59</t>
+          <t>22/10/2023 14:56</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/panachaiki-pae-egaleo/QV5L1xQo/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/apollon-pontou-niki-volos/UTgL7Aiq/</t>
         </is>
       </c>
     </row>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Apollon Pontou</t>
+          <t>Kozani FC</t>
         </is>
       </c>
       <c r="G41" t="n">
@@ -4169,63 +4169,63 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Niki Volos</t>
+          <t>Karditsa</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>4.17</v>
+        <v>2.75</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>21/10/2023 02:13</t>
+          <t>22/10/2023 12:12</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>9.99</v>
+        <v>2.58</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>22/10/2023 14:56</t>
+          <t>22/10/2023 14:49</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.18</v>
+        <v>2.74</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>21/10/2023 02:13</t>
+          <t>22/10/2023 12:12</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>4.44</v>
+        <v>2.74</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>22/10/2023 14:56</t>
+          <t>22/10/2023 13:54</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>1.78</v>
+        <v>2.92</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>21/10/2023 02:13</t>
+          <t>22/10/2023 12:12</t>
         </is>
       </c>
       <c r="T41" t="n">
-        <v>1.34</v>
+        <v>3.14</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>22/10/2023 14:56</t>
+          <t>22/10/2023 14:49</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/apollon-pontou-niki-volos/UTgL7Aiq/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kozani-fc-karditsa/OnHhCjqS/</t>
         </is>
       </c>
     </row>
@@ -4253,71 +4253,71 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Kozani FC</t>
+          <t>Panachaiki</t>
         </is>
       </c>
       <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>PAE Egaleo</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
         <v>1</v>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Karditsa</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
       <c r="J42" t="n">
-        <v>2.75</v>
+        <v>3.03</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>22/10/2023 12:12</t>
+          <t>21/10/2023 02:13</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.58</v>
+        <v>3.1</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>22/10/2023 14:49</t>
+          <t>22/10/2023 14:59</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>2.74</v>
+        <v>2.94</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>22/10/2023 12:12</t>
+          <t>21/10/2023 02:13</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>2.74</v>
+        <v>3.06</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>22/10/2023 13:54</t>
+          <t>22/10/2023 14:57</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>2.92</v>
+        <v>2.3</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>22/10/2023 12:12</t>
+          <t>21/10/2023 02:13</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>3.14</v>
+        <v>2.37</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>22/10/2023 14:49</t>
+          <t>22/10/2023 14:59</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kozani-fc-karditsa/OnHhCjqS/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/panachaiki-pae-egaleo/QV5L1xQo/</t>
         </is>
       </c>
     </row>
@@ -4410,6 +4410,98 @@
       <c r="V43" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/greece/super-league-2/kampaniakos-levadiakos/GphT5lMe/</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>45223.625</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Panathinaikos B</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Athens Kallithea</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>23/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>24/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>4</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>23/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P44" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>24/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="R44" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>23/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T44" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>24/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/panathinaikos-athens-kallithea/2ZurlJen/</t>
         </is>
       </c>
     </row>

--- a/2023/greece_super-league-2_2023-2024.xlsx
+++ b/2023/greece_super-league-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V44"/>
+  <dimension ref="A1:V45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3517,7 +3517,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Athens Kallithea</t>
+          <t>Ionikos</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -3525,7 +3525,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Giouchtas</t>
+          <t>Tilikratis L.</t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -3540,11 +3540,11 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>21/10/2023 14:17</t>
+          <t>21/10/2023 12:52</t>
         </is>
       </c>
       <c r="N34" t="n">
@@ -3556,11 +3556,11 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>5.44</v>
+        <v>5.42</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>21/10/2023 14:18</t>
+          <t>21/10/2023 13:02</t>
         </is>
       </c>
       <c r="R34" t="n">
@@ -3572,16 +3572,16 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>13.52</v>
+        <v>14.23</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>21/10/2023 14:17</t>
+          <t>21/10/2023 12:52</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/athens-kallithea-giouchtas/n5zBsZvU/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ionikos-tilikratis-lefkada/hry7rFPN/</t>
         </is>
       </c>
     </row>
@@ -3609,22 +3609,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Ionikos</t>
+          <t>PAOK B</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Tilikratis L.</t>
+          <t>Aiolikos</t>
         </is>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>1.3</v>
+        <v>1.57</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,15 +3632,15 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.22</v>
+        <v>1.75</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>21/10/2023 12:52</t>
+          <t>21/10/2023 14:43</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>4.55</v>
+        <v>3.91</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3648,15 +3648,15 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>5.42</v>
+        <v>3.66</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>21/10/2023 13:02</t>
+          <t>21/10/2023 14:43</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>10.53</v>
+        <v>5.06</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -3664,16 +3664,16 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>14.23</v>
+        <v>4.44</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>21/10/2023 12:52</t>
+          <t>21/10/2023 14:43</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ionikos-tilikratis-lefkada/hry7rFPN/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/paok-aiolikos-fc/fyiX48y2/</t>
         </is>
       </c>
     </row>
@@ -3701,22 +3701,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>PAOK B</t>
+          <t>Athens Kallithea</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aiolikos</t>
+          <t>Giouchtas</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>1.57</v>
+        <v>1.3</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,15 +3724,15 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>1.75</v>
+        <v>1.23</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>21/10/2023 14:43</t>
+          <t>21/10/2023 14:17</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.91</v>
+        <v>4.55</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3740,15 +3740,15 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.66</v>
+        <v>5.44</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>21/10/2023 14:43</t>
+          <t>21/10/2023 14:18</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>5.06</v>
+        <v>10.53</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3756,16 +3756,16 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>4.44</v>
+        <v>13.52</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>21/10/2023 14:43</t>
+          <t>21/10/2023 14:17</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/paok-aiolikos-fc/fyiX48y2/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/athens-kallithea-giouchtas/n5zBsZvU/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Apollon Pontou</t>
+          <t>Panachaiki</t>
         </is>
       </c>
       <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>PAE Egaleo</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
         <v>1</v>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Niki Volos</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
-        <v>3</v>
-      </c>
       <c r="J39" t="n">
-        <v>4.17</v>
+        <v>3.03</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>9.99</v>
+        <v>3.1</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>22/10/2023 14:56</t>
+          <t>22/10/2023 14:59</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.18</v>
+        <v>2.94</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>4.44</v>
+        <v>3.06</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>22/10/2023 14:56</t>
+          <t>22/10/2023 14:57</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>1.78</v>
+        <v>2.3</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>1.34</v>
+        <v>2.37</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>22/10/2023 14:56</t>
+          <t>22/10/2023 14:59</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/apollon-pontou-niki-volos/UTgL7Aiq/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/panachaiki-pae-egaleo/QV5L1xQo/</t>
         </is>
       </c>
     </row>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Kozani FC</t>
+          <t>Apollon Pontou</t>
         </is>
       </c>
       <c r="G41" t="n">
@@ -4169,63 +4169,63 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Karditsa</t>
+          <t>Niki Volos</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J41" t="n">
-        <v>2.75</v>
+        <v>4.17</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>22/10/2023 12:12</t>
+          <t>21/10/2023 02:13</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2.58</v>
+        <v>9.99</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>22/10/2023 14:49</t>
+          <t>22/10/2023 14:56</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>2.74</v>
+        <v>3.18</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>22/10/2023 12:12</t>
+          <t>21/10/2023 02:13</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>2.74</v>
+        <v>4.44</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>22/10/2023 13:54</t>
+          <t>22/10/2023 14:56</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>2.92</v>
+        <v>1.78</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>22/10/2023 12:12</t>
+          <t>21/10/2023 02:13</t>
         </is>
       </c>
       <c r="T41" t="n">
-        <v>3.14</v>
+        <v>1.34</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>22/10/2023 14:49</t>
+          <t>22/10/2023 14:56</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kozani-fc-karditsa/OnHhCjqS/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/apollon-pontou-niki-volos/UTgL7Aiq/</t>
         </is>
       </c>
     </row>
@@ -4253,71 +4253,71 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Panachaiki</t>
+          <t>Kozani FC</t>
         </is>
       </c>
       <c r="G42" t="n">
+        <v>1</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Karditsa</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>PAE Egaleo</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
-        <v>1</v>
-      </c>
       <c r="J42" t="n">
-        <v>3.03</v>
+        <v>2.75</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>21/10/2023 02:13</t>
+          <t>22/10/2023 12:12</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>3.1</v>
+        <v>2.58</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>22/10/2023 14:59</t>
+          <t>22/10/2023 14:49</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>2.94</v>
+        <v>2.74</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>21/10/2023 02:13</t>
+          <t>22/10/2023 12:12</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.06</v>
+        <v>2.74</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>22/10/2023 14:57</t>
+          <t>22/10/2023 13:54</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>2.3</v>
+        <v>2.92</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>21/10/2023 02:13</t>
+          <t>22/10/2023 12:12</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>2.37</v>
+        <v>3.14</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>22/10/2023 14:59</t>
+          <t>22/10/2023 14:49</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/panachaiki-pae-egaleo/QV5L1xQo/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kozani-fc-karditsa/OnHhCjqS/</t>
         </is>
       </c>
     </row>
@@ -4502,6 +4502,98 @@
       <c r="V44" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/greece/super-league-2/panathinaikos-athens-kallithea/2ZurlJen/</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>45224.625</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Iraklis 1908</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>2</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>PAOK B</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>14/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>25/10/2023 14:51</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>14/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>25/10/2023 14:51</t>
+        </is>
+      </c>
+      <c r="R45" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>14/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T45" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>25/10/2023 14:52</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/iraklis-fc-paok/GMDpECEF/</t>
         </is>
       </c>
     </row>

--- a/2023/greece_super-league-2_2023-2024.xlsx
+++ b/2023/greece_super-league-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V45"/>
+  <dimension ref="A1:V56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1125,22 +1125,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Panathinaikos B</t>
+          <t>Karditsa</t>
         </is>
       </c>
       <c r="G8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>AEK Athens FC B</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
         <v>1</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Kalamata</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>4</v>
-      </c>
       <c r="J8" t="n">
-        <v>3.59</v>
+        <v>1.7</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1148,15 +1148,15 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>4.39</v>
+        <v>2.42</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>24/09/2023 14:57</t>
+          <t>24/09/2023 14:42</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.03</v>
+        <v>3.31</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1164,15 +1164,15 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3.3</v>
+        <v>3.11</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>24/09/2023 14:57</t>
+          <t>24/09/2023 14:41</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>1.97</v>
+        <v>4.43</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1180,16 +1180,16 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>1.85</v>
+        <v>2.97</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>24/09/2023 14:57</t>
+          <t>24/09/2023 14:42</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/panathinaikos-kalamata/Wh4KNsY5/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-aek/bsoWqYl8/</t>
         </is>
       </c>
     </row>
@@ -1217,22 +1217,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Karditsa</t>
+          <t>Panathinaikos B</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>AEK Athens FC B</t>
+          <t>Kalamata</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J9" t="n">
-        <v>1.7</v>
+        <v>3.59</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1240,15 +1240,15 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>2.42</v>
+        <v>4.39</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>24/09/2023 14:42</t>
+          <t>24/09/2023 14:57</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.31</v>
+        <v>3.03</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1256,15 +1256,15 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3.11</v>
+        <v>3.3</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>24/09/2023 14:41</t>
+          <t>24/09/2023 14:57</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>4.43</v>
+        <v>1.97</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -1272,16 +1272,16 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>2.97</v>
+        <v>1.85</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>24/09/2023 14:42</t>
+          <t>24/09/2023 14:57</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-aek/bsoWqYl8/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/panathinaikos-kalamata/Wh4KNsY5/</t>
         </is>
       </c>
     </row>
@@ -1585,71 +1585,71 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Panachaiki</t>
+          <t>PAOK B</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Panathinaikos B</t>
+          <t>Kampaniakos</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J13" t="n">
-        <v>2.03</v>
+        <v>1.46</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>29/09/2023 02:12</t>
+          <t>30/09/2023 03:12</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>2.78</v>
+        <v>1.52</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>30/09/2023 14:56</t>
+          <t>30/09/2023 13:01</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.16</v>
+        <v>4.27</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>29/09/2023 02:12</t>
+          <t>30/09/2023 03:12</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>2.92</v>
+        <v>4.05</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>30/09/2023 13:25</t>
+          <t>30/09/2023 13:17</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>3.27</v>
+        <v>5.93</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>29/09/2023 02:12</t>
+          <t>30/09/2023 03:12</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>2.72</v>
+        <v>6.09</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>30/09/2023 14:56</t>
+          <t>30/09/2023 13:17</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/panachaiki-panathinaikos/xh8LWHQB/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/paok-kampaniakos/S6W0xkkj/</t>
         </is>
       </c>
     </row>
@@ -1677,71 +1677,71 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>PAOK B</t>
+          <t>Panachaiki</t>
         </is>
       </c>
       <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Panathinaikos B</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
         <v>2</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Kampaniakos</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
-        <v>3</v>
-      </c>
       <c r="J14" t="n">
-        <v>1.46</v>
+        <v>2.03</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>30/09/2023 03:12</t>
+          <t>29/09/2023 02:12</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1.52</v>
+        <v>2.78</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>30/09/2023 13:01</t>
+          <t>30/09/2023 14:56</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>4.27</v>
+        <v>3.16</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>30/09/2023 03:12</t>
+          <t>29/09/2023 02:12</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>4.05</v>
+        <v>2.92</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>30/09/2023 13:17</t>
+          <t>30/09/2023 13:25</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>5.93</v>
+        <v>3.27</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>30/09/2023 03:12</t>
+          <t>29/09/2023 02:12</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>6.09</v>
+        <v>2.72</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>30/09/2023 13:17</t>
+          <t>30/09/2023 14:56</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/paok-kampaniakos/S6W0xkkj/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/panachaiki-panathinaikos/xh8LWHQB/</t>
         </is>
       </c>
     </row>
@@ -2505,71 +2505,71 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Kozani FC</t>
+          <t>AEL Larissa</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Makedonikos</t>
+          <t>Iraklis 1908</t>
         </is>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>2.36</v>
+        <v>1.95</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>10/10/2023 11:12</t>
+          <t>10/10/2023 02:12</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.63</v>
+        <v>1.96</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>11/10/2023 14:58</t>
+          <t>11/10/2023 14:52</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>2.79</v>
+        <v>3.06</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>10/10/2023 11:12</t>
+          <t>10/10/2023 02:12</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>2.86</v>
+        <v>3.04</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>11/10/2023 14:58</t>
+          <t>11/10/2023 14:52</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>3.1</v>
+        <v>3.62</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>10/10/2023 11:12</t>
+          <t>10/10/2023 02:12</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>2.93</v>
+        <v>4.31</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>11/10/2023 14:16</t>
+          <t>11/10/2023 14:52</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kozani-fc-makedonikos-neapolis/t4a21ZU9/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ael-larissa-iraklis-fc/WhhFbXES/</t>
         </is>
       </c>
     </row>
@@ -2597,71 +2597,71 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>AEL Larissa</t>
+          <t>Karditsa</t>
         </is>
       </c>
       <c r="G24" t="n">
+        <v>3</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Aiolikos</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
         <v>1</v>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Iraklis 1908</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
       <c r="J24" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>10/10/2023 02:12</t>
+          <t>10/10/2023 11:12</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>1.96</v>
+        <v>1.86</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>11/10/2023 14:52</t>
+          <t>11/10/2023 14:54</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.06</v>
+        <v>2.97</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>10/10/2023 02:12</t>
+          <t>10/10/2023 11:12</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.04</v>
+        <v>3.27</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>11/10/2023 14:52</t>
+          <t>11/10/2023 14:54</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>3.62</v>
+        <v>3.86</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>10/10/2023 02:12</t>
+          <t>10/10/2023 11:12</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>4.31</v>
+        <v>4.4</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>11/10/2023 14:52</t>
+          <t>11/10/2023 14:54</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ael-larissa-iraklis-fc/WhhFbXES/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-aiolikos-fc/2JmBaDaM/</t>
         </is>
       </c>
     </row>
@@ -2689,22 +2689,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Karditsa</t>
+          <t>Kozani FC</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Aiolikos</t>
+          <t>Makedonikos</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.96</v>
+        <v>2.36</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2712,15 +2712,15 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>1.86</v>
+        <v>2.63</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>11/10/2023 14:54</t>
+          <t>11/10/2023 14:58</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>2.97</v>
+        <v>2.79</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2728,15 +2728,15 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.27</v>
+        <v>2.86</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>11/10/2023 14:54</t>
+          <t>11/10/2023 14:58</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>3.86</v>
+        <v>3.1</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2744,16 +2744,16 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>4.4</v>
+        <v>2.93</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>11/10/2023 14:54</t>
+          <t>11/10/2023 14:16</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-aiolikos-fc/2JmBaDaM/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kozani-fc-makedonikos-neapolis/t4a21ZU9/</t>
         </is>
       </c>
     </row>
@@ -3057,22 +3057,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Levadiakos</t>
+          <t>Niki Volos</t>
         </is>
       </c>
       <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Kozani FC</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
         <v>1</v>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Apollon Pontou</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
       <c r="J29" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.09</v>
+        <v>1.55</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>15/10/2023 14:59</t>
+          <t>15/10/2023 11:11</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>6.45</v>
+        <v>3.99</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>9.52</v>
+        <v>3.61</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>15/10/2023 14:59</t>
+          <t>15/10/2023 14:58</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>13.81</v>
+        <v>7.33</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>24.08</v>
+        <v>4.75</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>15/10/2023 14:59</t>
+          <t>15/10/2023 14:58</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/levadiakos-apollon-pontou/KfKyGYq3/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/niki-volos-kozani-fc/S0XkhVid/</t>
         </is>
       </c>
     </row>
@@ -3149,71 +3149,71 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Makedonikos</t>
+          <t>Levadiakos</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Karditsa</t>
+          <t>Apollon Pontou</t>
         </is>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>1.87</v>
+        <v>1.17</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>14/10/2023 02:12</t>
+          <t>15/10/2023 02:12</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2.41</v>
+        <v>1.09</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>15/10/2023 14:49</t>
+          <t>15/10/2023 14:59</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.02</v>
+        <v>6.45</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>14/10/2023 02:12</t>
+          <t>15/10/2023 02:12</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.12</v>
+        <v>9.52</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>15/10/2023 14:48</t>
+          <t>15/10/2023 14:59</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>3.99</v>
+        <v>13.81</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>14/10/2023 02:12</t>
+          <t>15/10/2023 02:12</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>2.98</v>
+        <v>24.08</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>15/10/2023 14:49</t>
+          <t>15/10/2023 14:59</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/makedonikos-neapolis-karditsa/t4LXGEUd/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/levadiakos-apollon-pontou/KfKyGYq3/</t>
         </is>
       </c>
     </row>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Niki Volos</t>
+          <t>Makedonikos</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -3249,63 +3249,63 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Kozani FC</t>
+          <t>Karditsa</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1.43</v>
+        <v>1.87</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>15/10/2023 02:12</t>
+          <t>14/10/2023 02:12</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.55</v>
+        <v>2.41</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>15/10/2023 11:11</t>
+          <t>15/10/2023 14:49</t>
         </is>
       </c>
       <c r="N31" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>14/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P31" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>15/10/2023 14:48</t>
+        </is>
+      </c>
+      <c r="R31" t="n">
         <v>3.99</v>
       </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>15/10/2023 02:12</t>
-        </is>
-      </c>
-      <c r="P31" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>15/10/2023 14:58</t>
-        </is>
-      </c>
-      <c r="R31" t="n">
-        <v>7.33</v>
-      </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>15/10/2023 02:12</t>
+          <t>14/10/2023 02:12</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>4.75</v>
+        <v>2.98</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>15/10/2023 14:58</t>
+          <t>15/10/2023 14:49</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/niki-volos-kozani-fc/S0XkhVid/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/makedonikos-neapolis-karditsa/t4LXGEUd/</t>
         </is>
       </c>
     </row>
@@ -3517,7 +3517,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Ionikos</t>
+          <t>Athens Kallithea</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -3525,7 +3525,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Tilikratis L.</t>
+          <t>Giouchtas</t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -3540,11 +3540,11 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>21/10/2023 12:52</t>
+          <t>21/10/2023 14:17</t>
         </is>
       </c>
       <c r="N34" t="n">
@@ -3556,11 +3556,11 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>5.42</v>
+        <v>5.44</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>21/10/2023 13:02</t>
+          <t>21/10/2023 14:18</t>
         </is>
       </c>
       <c r="R34" t="n">
@@ -3572,16 +3572,16 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>14.23</v>
+        <v>13.52</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>21/10/2023 12:52</t>
+          <t>21/10/2023 14:17</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ionikos-tilikratis-lefkada/hry7rFPN/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/athens-kallithea-giouchtas/n5zBsZvU/</t>
         </is>
       </c>
     </row>
@@ -3609,22 +3609,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>PAOK B</t>
+          <t>Ionikos</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aiolikos</t>
+          <t>Tilikratis L.</t>
         </is>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>1.57</v>
+        <v>1.3</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,15 +3632,15 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.75</v>
+        <v>1.22</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>21/10/2023 14:43</t>
+          <t>21/10/2023 12:52</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.91</v>
+        <v>4.55</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3648,15 +3648,15 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.66</v>
+        <v>5.42</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>21/10/2023 14:43</t>
+          <t>21/10/2023 13:02</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>5.06</v>
+        <v>10.53</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -3664,16 +3664,16 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>4.44</v>
+        <v>14.23</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>21/10/2023 14:43</t>
+          <t>21/10/2023 12:52</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/paok-aiolikos-fc/fyiX48y2/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ionikos-tilikratis-lefkada/hry7rFPN/</t>
         </is>
       </c>
     </row>
@@ -3701,22 +3701,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Athens Kallithea</t>
+          <t>PAOK B</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Giouchtas</t>
+          <t>Aiolikos</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>1.3</v>
+        <v>1.57</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,15 +3724,15 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>1.23</v>
+        <v>1.75</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>21/10/2023 14:17</t>
+          <t>21/10/2023 14:43</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>4.55</v>
+        <v>3.91</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3740,15 +3740,15 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>5.44</v>
+        <v>3.66</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>21/10/2023 14:18</t>
+          <t>21/10/2023 14:43</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>10.53</v>
+        <v>5.06</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3756,16 +3756,16 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>13.52</v>
+        <v>4.44</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>21/10/2023 14:17</t>
+          <t>21/10/2023 14:43</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/athens-kallithea-giouchtas/n5zBsZvU/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/paok-aiolikos-fc/fyiX48y2/</t>
         </is>
       </c>
     </row>
@@ -3793,22 +3793,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Ilioupoli</t>
+          <t>Kalamata</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Diagoras</t>
+          <t>PAE Chania</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J37" t="n">
-        <v>1.99</v>
+        <v>1.87</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3816,15 +3816,15 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2.02</v>
+        <v>1.56</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>22/10/2023 12:26</t>
+          <t>22/10/2023 12:50</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.14</v>
+        <v>3.02</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3832,15 +3832,15 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.18</v>
+        <v>3.75</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>22/10/2023 12:26</t>
+          <t>22/10/2023 12:50</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>3.41</v>
+        <v>3.99</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
@@ -3848,16 +3848,16 @@
         </is>
       </c>
       <c r="T37" t="n">
-        <v>3.83</v>
+        <v>6.08</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>22/10/2023 11:44</t>
+          <t>22/10/2023 12:50</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ilioupoli-diagoras-fc/lEMxwgmo/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kalamata-pae-chania/4M4P0duh/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Kalamata</t>
+          <t>Ilioupoli</t>
         </is>
       </c>
       <c r="G38" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Diagoras</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>PAE Chania</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
-        <v>2</v>
-      </c>
       <c r="J38" t="n">
-        <v>1.87</v>
+        <v>1.99</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,15 +3908,15 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>1.56</v>
+        <v>2.02</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>22/10/2023 12:50</t>
+          <t>22/10/2023 12:26</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.02</v>
+        <v>3.14</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,15 +3924,15 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.75</v>
+        <v>3.18</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>22/10/2023 12:50</t>
+          <t>22/10/2023 12:26</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>3.99</v>
+        <v>3.41</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>6.08</v>
+        <v>3.83</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>22/10/2023 12:50</t>
+          <t>22/10/2023 11:44</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kalamata-pae-chania/4M4P0duh/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ilioupoli-diagoras-fc/lEMxwgmo/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Panachaiki</t>
+          <t>Apollon Pontou</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>PAE Egaleo</t>
+          <t>Niki Volos</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J39" t="n">
-        <v>3.03</v>
+        <v>4.17</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>3.1</v>
+        <v>9.99</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>22/10/2023 14:59</t>
+          <t>22/10/2023 14:56</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>2.94</v>
+        <v>3.18</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.06</v>
+        <v>4.44</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>22/10/2023 14:57</t>
+          <t>22/10/2023 14:56</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>2.37</v>
+        <v>1.34</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>22/10/2023 14:59</t>
+          <t>22/10/2023 14:56</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/panachaiki-pae-egaleo/QV5L1xQo/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/apollon-pontou-niki-volos/UTgL7Aiq/</t>
         </is>
       </c>
     </row>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Apollon Pontou</t>
+          <t>Kozani FC</t>
         </is>
       </c>
       <c r="G41" t="n">
@@ -4169,63 +4169,63 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Niki Volos</t>
+          <t>Karditsa</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>4.17</v>
+        <v>2.75</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>21/10/2023 02:13</t>
+          <t>22/10/2023 12:12</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>9.99</v>
+        <v>2.58</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>22/10/2023 14:56</t>
+          <t>22/10/2023 14:49</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.18</v>
+        <v>2.74</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>21/10/2023 02:13</t>
+          <t>22/10/2023 12:12</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>4.44</v>
+        <v>2.74</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>22/10/2023 14:56</t>
+          <t>22/10/2023 13:54</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>1.78</v>
+        <v>2.92</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>21/10/2023 02:13</t>
+          <t>22/10/2023 12:12</t>
         </is>
       </c>
       <c r="T41" t="n">
-        <v>1.34</v>
+        <v>3.14</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>22/10/2023 14:56</t>
+          <t>22/10/2023 14:49</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/apollon-pontou-niki-volos/UTgL7Aiq/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kozani-fc-karditsa/OnHhCjqS/</t>
         </is>
       </c>
     </row>
@@ -4253,71 +4253,71 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Kozani FC</t>
+          <t>Panachaiki</t>
         </is>
       </c>
       <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>PAE Egaleo</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
         <v>1</v>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Karditsa</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
       <c r="J42" t="n">
-        <v>2.75</v>
+        <v>3.03</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>22/10/2023 12:12</t>
+          <t>21/10/2023 02:13</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.58</v>
+        <v>3.1</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>22/10/2023 14:49</t>
+          <t>22/10/2023 14:59</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>2.74</v>
+        <v>2.94</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>22/10/2023 12:12</t>
+          <t>21/10/2023 02:13</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>2.74</v>
+        <v>3.06</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>22/10/2023 13:54</t>
+          <t>22/10/2023 14:57</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>2.92</v>
+        <v>2.3</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>22/10/2023 12:12</t>
+          <t>21/10/2023 02:13</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>3.14</v>
+        <v>2.37</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>22/10/2023 14:49</t>
+          <t>22/10/2023 14:59</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kozani-fc-karditsa/OnHhCjqS/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/panachaiki-pae-egaleo/QV5L1xQo/</t>
         </is>
       </c>
     </row>
@@ -4594,6 +4594,1018 @@
       <c r="V45" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/greece/super-league-2/iraklis-fc-paok/GMDpECEF/</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>45227.58333333334</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Kalamata</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>2</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Ilioupoli</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:43</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:43</t>
+        </is>
+      </c>
+      <c r="R46" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T46" t="n">
+        <v>8.56</v>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:43</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kalamata-ilioupoli/bsP9un9q/</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>45227.58333333334</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>PAE Chania</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>4</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Panachaiki</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:34</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P47" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:58</t>
+        </is>
+      </c>
+      <c r="R47" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T47" t="n">
+        <v>14.35</v>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:58</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/pae-chania-panachaiki/xYNDv6Ok/</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>45227.58333333334</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Giouchtas</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>2</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Panathinaikos B</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>28/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:55</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>28/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P48" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:55</t>
+        </is>
+      </c>
+      <c r="R48" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>28/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T48" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:55</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/giouchtas-panathinaikos/AJ7XbzA4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>45227.58333333334</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>PAE Egaleo</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>1</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Athens Kallithea</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>7.03</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>28/10/2023 12:23</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P49" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>28/10/2023 12:23</t>
+        </is>
+      </c>
+      <c r="R49" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T49" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>28/10/2023 12:23</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/pae-egaleo-athens-kallithea/WYetcEvH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>45227.58333333334</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Levadiakos</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>2</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>AEK Athens FC B</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>28/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:55</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>28/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:55</t>
+        </is>
+      </c>
+      <c r="R50" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>28/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T50" t="n">
+        <v>9.83</v>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:55</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/levadiakos-aek/xbk08srf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>45227.625</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Olympiacos Piraeus B</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>4</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Tilikratis L.</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>28/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:27</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>28/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P51" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:27</t>
+        </is>
+      </c>
+      <c r="R51" t="n">
+        <v>7.06</v>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>28/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T51" t="n">
+        <v>10.33</v>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:27</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/olympiacos-piraeus-tilikratis-lefkada/bq4TaGfb/</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>45228.58333333334</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Makedonikos</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>3</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>PAOK B</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>2</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>28/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:59</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>28/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P52" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:59</t>
+        </is>
+      </c>
+      <c r="R52" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>28/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T52" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:59</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/makedonikos-neapolis-paok/b7jd9NSm/</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>45228.58333333334</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Apollon Pontou</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Kozani FC</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>28/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:59</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>28/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P53" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:45</t>
+        </is>
+      </c>
+      <c r="R53" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>28/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T53" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:59</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/apollon-pontou-kozani-fc/AqZJSBT8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>45228.58333333334</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Diagoras</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>2</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Ionikos</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>1</v>
+      </c>
+      <c r="J54" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>29/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:40</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>29/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P54" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:40</t>
+        </is>
+      </c>
+      <c r="R54" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>29/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T54" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:40</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/diagoras-fc-ionikos/hrcxbfPA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>45228.58333333334</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Karditsa</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>AEL Larissa</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>2</v>
+      </c>
+      <c r="J55" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>28/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:57</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>28/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P55" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:57</t>
+        </is>
+      </c>
+      <c r="R55" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>28/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T55" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:57</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-ael-larissa/46YNRVrF/</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>45229.58333333334</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Niki Volos</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>2</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Kampaniakos</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>30/10/2023 03:42</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>30/10/2023 10:51</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>30/10/2023 03:42</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>30/10/2023 12:03</t>
+        </is>
+      </c>
+      <c r="R56" t="n">
+        <v>8.01</v>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>30/10/2023 03:42</t>
+        </is>
+      </c>
+      <c r="T56" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>30/10/2023 10:55</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/niki-volos-kampaniakos/tWeiA3Ds/</t>
         </is>
       </c>
     </row>

--- a/2023/greece_super-league-2_2023-2024.xlsx
+++ b/2023/greece_super-league-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V56"/>
+  <dimension ref="A1:V60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Niki Volos</t>
+          <t>Makedonikos</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -3065,63 +3065,63 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Kozani FC</t>
+          <t>Karditsa</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1.43</v>
+        <v>1.87</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>15/10/2023 02:12</t>
+          <t>14/10/2023 02:12</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.55</v>
+        <v>2.41</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>15/10/2023 11:11</t>
+          <t>15/10/2023 14:49</t>
         </is>
       </c>
       <c r="N29" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>14/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P29" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>15/10/2023 14:48</t>
+        </is>
+      </c>
+      <c r="R29" t="n">
         <v>3.99</v>
       </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>15/10/2023 02:12</t>
-        </is>
-      </c>
-      <c r="P29" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>15/10/2023 14:58</t>
-        </is>
-      </c>
-      <c r="R29" t="n">
-        <v>7.33</v>
-      </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>15/10/2023 02:12</t>
+          <t>14/10/2023 02:12</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>4.75</v>
+        <v>2.98</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>15/10/2023 14:58</t>
+          <t>15/10/2023 14:49</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/niki-volos-kozani-fc/S0XkhVid/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/makedonikos-neapolis-karditsa/t4LXGEUd/</t>
         </is>
       </c>
     </row>
@@ -3149,22 +3149,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Levadiakos</t>
+          <t>Niki Volos</t>
         </is>
       </c>
       <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Kozani FC</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
         <v>1</v>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Apollon Pontou</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
       <c r="J30" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,15 +3172,15 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>1.09</v>
+        <v>1.55</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>15/10/2023 14:59</t>
+          <t>15/10/2023 11:11</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>6.45</v>
+        <v>3.99</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,15 +3188,15 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>9.52</v>
+        <v>3.61</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>15/10/2023 14:59</t>
+          <t>15/10/2023 14:58</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>13.81</v>
+        <v>7.33</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -3204,16 +3204,16 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>24.08</v>
+        <v>4.75</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>15/10/2023 14:59</t>
+          <t>15/10/2023 14:58</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/levadiakos-apollon-pontou/KfKyGYq3/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/niki-volos-kozani-fc/S0XkhVid/</t>
         </is>
       </c>
     </row>
@@ -3241,71 +3241,71 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Makedonikos</t>
+          <t>Levadiakos</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Karditsa</t>
+          <t>Apollon Pontou</t>
         </is>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1.87</v>
+        <v>1.17</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>14/10/2023 02:12</t>
+          <t>15/10/2023 02:12</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.41</v>
+        <v>1.09</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>15/10/2023 14:49</t>
+          <t>15/10/2023 14:59</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.02</v>
+        <v>6.45</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>14/10/2023 02:12</t>
+          <t>15/10/2023 02:12</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.12</v>
+        <v>9.52</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>15/10/2023 14:48</t>
+          <t>15/10/2023 14:59</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>3.99</v>
+        <v>13.81</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>14/10/2023 02:12</t>
+          <t>15/10/2023 02:12</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>2.98</v>
+        <v>24.08</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>15/10/2023 14:49</t>
+          <t>15/10/2023 14:59</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/makedonikos-neapolis-karditsa/t4LXGEUd/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/levadiakos-apollon-pontou/KfKyGYq3/</t>
         </is>
       </c>
     </row>
@@ -3793,22 +3793,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Kalamata</t>
+          <t>Ilioupoli</t>
         </is>
       </c>
       <c r="G37" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Diagoras</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>PAE Chania</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
-        <v>2</v>
-      </c>
       <c r="J37" t="n">
-        <v>1.87</v>
+        <v>1.99</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3816,15 +3816,15 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>1.56</v>
+        <v>2.02</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>22/10/2023 12:50</t>
+          <t>22/10/2023 12:26</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.02</v>
+        <v>3.14</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3832,15 +3832,15 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.75</v>
+        <v>3.18</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>22/10/2023 12:50</t>
+          <t>22/10/2023 12:26</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>3.99</v>
+        <v>3.41</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
@@ -3848,16 +3848,16 @@
         </is>
       </c>
       <c r="T37" t="n">
-        <v>6.08</v>
+        <v>3.83</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>22/10/2023 12:50</t>
+          <t>22/10/2023 11:44</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kalamata-pae-chania/4M4P0duh/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ilioupoli-diagoras-fc/lEMxwgmo/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Ilioupoli</t>
+          <t>Kalamata</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Diagoras</t>
+          <t>PAE Chania</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J38" t="n">
-        <v>1.99</v>
+        <v>1.87</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,15 +3908,15 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>2.02</v>
+        <v>1.56</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>22/10/2023 12:26</t>
+          <t>22/10/2023 12:50</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.14</v>
+        <v>3.02</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,15 +3924,15 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.18</v>
+        <v>3.75</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>22/10/2023 12:26</t>
+          <t>22/10/2023 12:50</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>3.41</v>
+        <v>3.99</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>3.83</v>
+        <v>6.08</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>22/10/2023 11:44</t>
+          <t>22/10/2023 12:50</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ilioupoli-diagoras-fc/lEMxwgmo/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kalamata-pae-chania/4M4P0duh/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Apollon Pontou</t>
+          <t>Panachaiki</t>
         </is>
       </c>
       <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>PAE Egaleo</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
         <v>1</v>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Niki Volos</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
-        <v>3</v>
-      </c>
       <c r="J39" t="n">
-        <v>4.17</v>
+        <v>3.03</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>9.99</v>
+        <v>3.1</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>22/10/2023 14:56</t>
+          <t>22/10/2023 14:59</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.18</v>
+        <v>2.94</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>4.44</v>
+        <v>3.06</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>22/10/2023 14:56</t>
+          <t>22/10/2023 14:57</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>1.78</v>
+        <v>2.3</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>1.34</v>
+        <v>2.37</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>22/10/2023 14:56</t>
+          <t>22/10/2023 14:59</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/apollon-pontou-niki-volos/UTgL7Aiq/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/panachaiki-pae-egaleo/QV5L1xQo/</t>
         </is>
       </c>
     </row>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Kozani FC</t>
+          <t>Apollon Pontou</t>
         </is>
       </c>
       <c r="G41" t="n">
@@ -4169,63 +4169,63 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Karditsa</t>
+          <t>Niki Volos</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J41" t="n">
-        <v>2.75</v>
+        <v>4.17</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>22/10/2023 12:12</t>
+          <t>21/10/2023 02:13</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2.58</v>
+        <v>9.99</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>22/10/2023 14:49</t>
+          <t>22/10/2023 14:56</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>2.74</v>
+        <v>3.18</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>22/10/2023 12:12</t>
+          <t>21/10/2023 02:13</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>2.74</v>
+        <v>4.44</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>22/10/2023 13:54</t>
+          <t>22/10/2023 14:56</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>2.92</v>
+        <v>1.78</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>22/10/2023 12:12</t>
+          <t>21/10/2023 02:13</t>
         </is>
       </c>
       <c r="T41" t="n">
-        <v>3.14</v>
+        <v>1.34</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>22/10/2023 14:49</t>
+          <t>22/10/2023 14:56</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kozani-fc-karditsa/OnHhCjqS/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/apollon-pontou-niki-volos/UTgL7Aiq/</t>
         </is>
       </c>
     </row>
@@ -4253,71 +4253,71 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Panachaiki</t>
+          <t>Kozani FC</t>
         </is>
       </c>
       <c r="G42" t="n">
+        <v>1</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Karditsa</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>PAE Egaleo</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
-        <v>1</v>
-      </c>
       <c r="J42" t="n">
-        <v>3.03</v>
+        <v>2.75</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>21/10/2023 02:13</t>
+          <t>22/10/2023 12:12</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>3.1</v>
+        <v>2.58</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>22/10/2023 14:59</t>
+          <t>22/10/2023 14:49</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>2.94</v>
+        <v>2.74</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>21/10/2023 02:13</t>
+          <t>22/10/2023 12:12</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.06</v>
+        <v>2.74</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>22/10/2023 14:57</t>
+          <t>22/10/2023 13:54</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>2.3</v>
+        <v>2.92</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>21/10/2023 02:13</t>
+          <t>22/10/2023 12:12</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>2.37</v>
+        <v>3.14</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>22/10/2023 14:59</t>
+          <t>22/10/2023 14:49</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/panachaiki-pae-egaleo/QV5L1xQo/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kozani-fc-karditsa/OnHhCjqS/</t>
         </is>
       </c>
     </row>
@@ -4621,7 +4621,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Kalamata</t>
+          <t>Giouchtas</t>
         </is>
       </c>
       <c r="G46" t="n">
@@ -4629,63 +4629,63 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Ilioupoli</t>
+          <t>Panathinaikos B</t>
         </is>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>1.44</v>
+        <v>1.83</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>27/10/2023 02:13</t>
+          <t>28/10/2023 01:12</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>1.38</v>
+        <v>1.91</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>28/10/2023 13:43</t>
+          <t>28/10/2023 13:55</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.96</v>
+        <v>3.35</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>27/10/2023 02:13</t>
+          <t>28/10/2023 01:12</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>4.35</v>
+        <v>3.24</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>28/10/2023 13:43</t>
+          <t>28/10/2023 13:55</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>5.97</v>
+        <v>4.09</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>27/10/2023 02:13</t>
+          <t>28/10/2023 01:12</t>
         </is>
       </c>
       <c r="T46" t="n">
-        <v>8.56</v>
+        <v>4.19</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>28/10/2023 13:43</t>
+          <t>28/10/2023 13:55</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kalamata-ilioupoli/bsP9un9q/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/giouchtas-panathinaikos/AJ7XbzA4/</t>
         </is>
       </c>
     </row>
@@ -4713,22 +4713,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>PAE Chania</t>
+          <t>Kalamata</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Panachaiki</t>
+          <t>Ilioupoli</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4736,15 +4736,15 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>1.22</v>
+        <v>1.38</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>28/10/2023 13:34</t>
+          <t>28/10/2023 13:43</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>4.07</v>
+        <v>3.96</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4752,15 +4752,15 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>5.62</v>
+        <v>4.35</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>28/10/2023 13:58</t>
+          <t>28/10/2023 13:43</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>6.07</v>
+        <v>5.97</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -4768,16 +4768,16 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>14.35</v>
+        <v>8.56</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>28/10/2023 13:58</t>
+          <t>28/10/2023 13:43</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/pae-chania-panachaiki/xYNDv6Ok/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kalamata-ilioupoli/bsP9un9q/</t>
         </is>
       </c>
     </row>
@@ -4805,71 +4805,71 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Giouchtas</t>
+          <t>PAE Chania</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Panathinaikos B</t>
+          <t>Panachaiki</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>1.83</v>
+        <v>1.42</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>28/10/2023 01:12</t>
+          <t>27/10/2023 02:13</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1.91</v>
+        <v>1.22</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>28/10/2023 13:55</t>
+          <t>28/10/2023 13:34</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.35</v>
+        <v>4.07</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>28/10/2023 01:12</t>
+          <t>27/10/2023 02:13</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.24</v>
+        <v>5.62</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>28/10/2023 13:55</t>
+          <t>28/10/2023 13:58</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>4.09</v>
+        <v>6.07</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>28/10/2023 01:12</t>
+          <t>27/10/2023 02:13</t>
         </is>
       </c>
       <c r="T48" t="n">
-        <v>4.19</v>
+        <v>14.35</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>28/10/2023 13:55</t>
+          <t>28/10/2023 13:58</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/giouchtas-panathinaikos/AJ7XbzA4/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/pae-chania-panachaiki/xYNDv6Ok/</t>
         </is>
       </c>
     </row>
@@ -5173,71 +5173,71 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Makedonikos</t>
+          <t>Diagoras</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>PAOK B</t>
+          <t>Ionikos</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>1.95</v>
+        <v>3.43</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>28/10/2023 03:12</t>
+          <t>29/10/2023 02:12</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>1.94</v>
+        <v>3.36</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>29/10/2023 13:59</t>
+          <t>29/10/2023 13:40</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.06</v>
+        <v>3.09</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>28/10/2023 03:12</t>
+          <t>29/10/2023 02:12</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.16</v>
+        <v>3.01</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>29/10/2023 13:59</t>
+          <t>29/10/2023 13:40</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>3.62</v>
+        <v>2.12</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>28/10/2023 03:12</t>
+          <t>29/10/2023 02:12</t>
         </is>
       </c>
       <c r="T52" t="n">
-        <v>4.14</v>
+        <v>2.27</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>29/10/2023 13:59</t>
+          <t>29/10/2023 13:40</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/makedonikos-neapolis-paok/b7jd9NSm/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/diagoras-fc-ionikos/hrcxbfPA/</t>
         </is>
       </c>
     </row>
@@ -5357,71 +5357,71 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Diagoras</t>
+          <t>Karditsa</t>
         </is>
       </c>
       <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>AEL Larissa</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
         <v>2</v>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Ionikos</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
       <c r="J54" t="n">
-        <v>3.43</v>
+        <v>3.52</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>29/10/2023 02:12</t>
+          <t>28/10/2023 03:12</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>3.36</v>
+        <v>3.94</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>29/10/2023 13:40</t>
+          <t>29/10/2023 13:57</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.09</v>
+        <v>2.91</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>29/10/2023 02:12</t>
+          <t>28/10/2023 03:12</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.01</v>
+        <v>3.08</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>29/10/2023 13:40</t>
+          <t>29/10/2023 13:57</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>29/10/2023 02:12</t>
+          <t>28/10/2023 03:12</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>2.27</v>
+        <v>2.03</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>29/10/2023 13:40</t>
+          <t>29/10/2023 13:57</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/diagoras-fc-ionikos/hrcxbfPA/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-ael-larissa/46YNRVrF/</t>
         </is>
       </c>
     </row>
@@ -5449,22 +5449,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Karditsa</t>
+          <t>Makedonikos</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>AEL Larissa</t>
+          <t>PAOK B</t>
         </is>
       </c>
       <c r="I55" t="n">
         <v>2</v>
       </c>
       <c r="J55" t="n">
-        <v>3.52</v>
+        <v>1.95</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -5472,15 +5472,15 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>3.94</v>
+        <v>1.94</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>29/10/2023 13:57</t>
+          <t>29/10/2023 13:59</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>2.91</v>
+        <v>3.06</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -5488,15 +5488,15 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>3.08</v>
+        <v>3.16</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>29/10/2023 13:57</t>
+          <t>29/10/2023 13:59</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>2.05</v>
+        <v>3.62</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
@@ -5504,16 +5504,16 @@
         </is>
       </c>
       <c r="T55" t="n">
-        <v>2.03</v>
+        <v>4.14</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>29/10/2023 13:57</t>
+          <t>29/10/2023 13:59</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-ael-larissa/46YNRVrF/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/makedonikos-neapolis-paok/b7jd9NSm/</t>
         </is>
       </c>
     </row>
@@ -5606,6 +5606,374 @@
       <c r="V56" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/greece/super-league-2/niki-volos-kampaniakos/tWeiA3Ds/</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>45234.5</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Giouchtas</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>2</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Olympiacos Piraeus B</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>2</v>
+      </c>
+      <c r="J57" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>03/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>04/11/2023 10:08</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>03/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>04/11/2023 10:01</t>
+        </is>
+      </c>
+      <c r="R57" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>03/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T57" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>04/11/2023 10:08</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/giouchtas-olympiacos-piraeus/G2VnEUcq/</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>45234.58333333334</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Iraklis 1908</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Levadiakos</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>04/11/2023 05:12</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:55</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>04/11/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:55</t>
+        </is>
+      </c>
+      <c r="R58" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>04/11/2023 05:12</t>
+        </is>
+      </c>
+      <c r="T58" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:55</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/iraklis-fc-levadiakos/IRm2S2ZP/</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>45234.58333333334</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Ilioupoli</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>1</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Panachaiki</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>03/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:44</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>03/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:48</t>
+        </is>
+      </c>
+      <c r="R59" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>03/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T59" t="n">
+        <v>8.41</v>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:44</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ilioupoli-panachaiki/GbFoZVZ8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>45234.58333333334</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>PAOK B</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>2</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Karditsa</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>03/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>04/11/2023 12:04</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>03/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>04/11/2023 12:04</t>
+        </is>
+      </c>
+      <c r="R60" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>03/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T60" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>04/11/2023 12:04</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/paok-karditsa/jLeG4asJ/</t>
         </is>
       </c>
     </row>

--- a/2023/greece_super-league-2_2023-2024.xlsx
+++ b/2023/greece_super-league-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V60"/>
+  <dimension ref="A1:V65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -941,22 +941,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>AEL Larissa</t>
+          <t>Tilikratis L.</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Kampaniakos</t>
+          <t>PAE Egaleo</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>1.29</v>
+        <v>2.47</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -964,15 +964,15 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1.31</v>
+        <v>3.26</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>23/09/2023 13:23</t>
+          <t>24/09/2023 14:31</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>4.51</v>
+        <v>2.82</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -980,15 +980,15 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>4.77</v>
+        <v>3</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>24/09/2023 13:03</t>
+          <t>24/09/2023 13:02</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>8.710000000000001</v>
+        <v>2.82</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>10.02</v>
+        <v>2.32</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>23/09/2023 13:23</t>
+          <t>24/09/2023 14:31</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ael-larissa-kampaniakos/2DC3RPYt/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/tilikratis-lefkada-pae-egaleo/pd8OM1mC/</t>
         </is>
       </c>
     </row>
@@ -1033,7 +1033,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tilikratis L.</t>
+          <t>Panathinaikos B</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -1041,63 +1041,63 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>PAE Egaleo</t>
+          <t>Kalamata</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J7" t="n">
-        <v>2.47</v>
+        <v>3.59</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>23/09/2023 04:12</t>
+          <t>23/09/2023 03:13</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>3.26</v>
+        <v>4.39</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>24/09/2023 14:31</t>
+          <t>24/09/2023 14:57</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>2.82</v>
+        <v>3.03</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>23/09/2023 04:12</t>
+          <t>23/09/2023 03:13</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>24/09/2023 13:02</t>
+          <t>24/09/2023 14:57</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>2.82</v>
+        <v>1.97</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>23/09/2023 04:12</t>
+          <t>23/09/2023 03:13</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>2.32</v>
+        <v>1.85</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>24/09/2023 14:31</t>
+          <t>24/09/2023 14:57</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/tilikratis-lefkada-pae-egaleo/pd8OM1mC/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/panathinaikos-kalamata/Wh4KNsY5/</t>
         </is>
       </c>
     </row>
@@ -1217,71 +1217,71 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Panathinaikos B</t>
+          <t>AEL Larissa</t>
         </is>
       </c>
       <c r="G9" t="n">
+        <v>2</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Kampaniakos</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
         <v>1</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Kalamata</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>4</v>
-      </c>
       <c r="J9" t="n">
-        <v>3.59</v>
+        <v>1.29</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>23/09/2023 03:13</t>
+          <t>23/09/2023 04:12</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>4.39</v>
+        <v>1.31</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>24/09/2023 14:57</t>
+          <t>23/09/2023 13:23</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.03</v>
+        <v>4.51</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>23/09/2023 03:13</t>
+          <t>23/09/2023 04:12</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3.3</v>
+        <v>4.77</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>24/09/2023 14:57</t>
+          <t>24/09/2023 13:03</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>1.97</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>23/09/2023 03:13</t>
+          <t>23/09/2023 04:12</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>1.85</v>
+        <v>10.02</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>24/09/2023 14:57</t>
+          <t>23/09/2023 13:23</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/panathinaikos-kalamata/Wh4KNsY5/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ael-larissa-kampaniakos/2DC3RPYt/</t>
         </is>
       </c>
     </row>
@@ -3057,71 +3057,71 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Makedonikos</t>
+          <t>Levadiakos</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Karditsa</t>
+          <t>Apollon Pontou</t>
         </is>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1.87</v>
+        <v>1.17</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>14/10/2023 02:12</t>
+          <t>15/10/2023 02:12</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2.41</v>
+        <v>1.09</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>15/10/2023 14:49</t>
+          <t>15/10/2023 14:59</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.02</v>
+        <v>6.45</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>14/10/2023 02:12</t>
+          <t>15/10/2023 02:12</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.12</v>
+        <v>9.52</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>15/10/2023 14:48</t>
+          <t>15/10/2023 14:59</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>3.99</v>
+        <v>13.81</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>14/10/2023 02:12</t>
+          <t>15/10/2023 02:12</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>2.98</v>
+        <v>24.08</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>15/10/2023 14:49</t>
+          <t>15/10/2023 14:59</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/makedonikos-neapolis-karditsa/t4LXGEUd/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/levadiakos-apollon-pontou/KfKyGYq3/</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Niki Volos</t>
+          <t>Makedonikos</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -3157,63 +3157,63 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Kozani FC</t>
+          <t>Karditsa</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>1.43</v>
+        <v>1.87</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>15/10/2023 02:12</t>
+          <t>14/10/2023 02:12</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>1.55</v>
+        <v>2.41</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>15/10/2023 11:11</t>
+          <t>15/10/2023 14:49</t>
         </is>
       </c>
       <c r="N30" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>14/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P30" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>15/10/2023 14:48</t>
+        </is>
+      </c>
+      <c r="R30" t="n">
         <v>3.99</v>
       </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>15/10/2023 02:12</t>
-        </is>
-      </c>
-      <c r="P30" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>15/10/2023 14:58</t>
-        </is>
-      </c>
-      <c r="R30" t="n">
-        <v>7.33</v>
-      </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>15/10/2023 02:12</t>
+          <t>14/10/2023 02:12</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>4.75</v>
+        <v>2.98</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>15/10/2023 14:58</t>
+          <t>15/10/2023 14:49</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/niki-volos-kozani-fc/S0XkhVid/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/makedonikos-neapolis-karditsa/t4LXGEUd/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Levadiakos</t>
+          <t>Niki Volos</t>
         </is>
       </c>
       <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Kozani FC</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
         <v>1</v>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Apollon Pontou</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
       <c r="J31" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.09</v>
+        <v>1.55</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>15/10/2023 14:59</t>
+          <t>15/10/2023 11:11</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>6.45</v>
+        <v>3.99</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>9.52</v>
+        <v>3.61</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>15/10/2023 14:59</t>
+          <t>15/10/2023 14:58</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>13.81</v>
+        <v>7.33</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>24.08</v>
+        <v>4.75</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>15/10/2023 14:59</t>
+          <t>15/10/2023 14:58</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/levadiakos-apollon-pontou/KfKyGYq3/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/niki-volos-kozani-fc/S0XkhVid/</t>
         </is>
       </c>
     </row>
@@ -3977,71 +3977,71 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Panachaiki</t>
+          <t>Kozani FC</t>
         </is>
       </c>
       <c r="G39" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Karditsa</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>PAE Egaleo</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
-        <v>1</v>
-      </c>
       <c r="J39" t="n">
-        <v>3.03</v>
+        <v>2.75</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>21/10/2023 02:13</t>
+          <t>22/10/2023 12:12</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>3.1</v>
+        <v>2.58</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>22/10/2023 14:59</t>
+          <t>22/10/2023 14:49</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>2.94</v>
+        <v>2.74</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>21/10/2023 02:13</t>
+          <t>22/10/2023 12:12</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.06</v>
+        <v>2.74</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>22/10/2023 14:57</t>
+          <t>22/10/2023 13:54</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>2.3</v>
+        <v>2.92</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>21/10/2023 02:13</t>
+          <t>22/10/2023 12:12</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>2.37</v>
+        <v>3.14</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>22/10/2023 14:59</t>
+          <t>22/10/2023 14:49</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/panachaiki-pae-egaleo/QV5L1xQo/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kozani-fc-karditsa/OnHhCjqS/</t>
         </is>
       </c>
     </row>
@@ -4253,71 +4253,71 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Kozani FC</t>
+          <t>Panachaiki</t>
         </is>
       </c>
       <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>PAE Egaleo</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
         <v>1</v>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Karditsa</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
       <c r="J42" t="n">
-        <v>2.75</v>
+        <v>3.03</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>22/10/2023 12:12</t>
+          <t>21/10/2023 02:13</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.58</v>
+        <v>3.1</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>22/10/2023 14:49</t>
+          <t>22/10/2023 14:59</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>2.74</v>
+        <v>2.94</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>22/10/2023 12:12</t>
+          <t>21/10/2023 02:13</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>2.74</v>
+        <v>3.06</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>22/10/2023 13:54</t>
+          <t>22/10/2023 14:57</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>2.92</v>
+        <v>2.3</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>22/10/2023 12:12</t>
+          <t>21/10/2023 02:13</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>3.14</v>
+        <v>2.37</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>22/10/2023 14:49</t>
+          <t>22/10/2023 14:59</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kozani-fc-karditsa/OnHhCjqS/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/panachaiki-pae-egaleo/QV5L1xQo/</t>
         </is>
       </c>
     </row>
@@ -4621,7 +4621,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Giouchtas</t>
+          <t>Kalamata</t>
         </is>
       </c>
       <c r="G46" t="n">
@@ -4629,63 +4629,63 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Panathinaikos B</t>
+          <t>Ilioupoli</t>
         </is>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>1.83</v>
+        <v>1.44</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>28/10/2023 01:12</t>
+          <t>27/10/2023 02:13</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>1.91</v>
+        <v>1.38</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>28/10/2023 13:55</t>
+          <t>28/10/2023 13:43</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.35</v>
+        <v>3.96</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>28/10/2023 01:12</t>
+          <t>27/10/2023 02:13</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.24</v>
+        <v>4.35</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>28/10/2023 13:55</t>
+          <t>28/10/2023 13:43</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>4.09</v>
+        <v>5.97</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>28/10/2023 01:12</t>
+          <t>27/10/2023 02:13</t>
         </is>
       </c>
       <c r="T46" t="n">
-        <v>4.19</v>
+        <v>8.56</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>28/10/2023 13:55</t>
+          <t>28/10/2023 13:43</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/giouchtas-panathinaikos/AJ7XbzA4/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kalamata-ilioupoli/bsP9un9q/</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Kalamata</t>
+          <t>Levadiakos</t>
         </is>
       </c>
       <c r="G47" t="n">
@@ -4721,63 +4721,63 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Ilioupoli</t>
+          <t>AEK Athens FC B</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>27/10/2023 02:13</t>
+          <t>28/10/2023 01:12</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>28/10/2023 13:43</t>
+          <t>28/10/2023 13:55</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.96</v>
+        <v>4.78</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>27/10/2023 02:13</t>
+          <t>28/10/2023 01:12</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>4.35</v>
+        <v>4.28</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>28/10/2023 13:43</t>
+          <t>28/10/2023 13:55</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>5.97</v>
+        <v>9.51</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>27/10/2023 02:13</t>
+          <t>28/10/2023 01:12</t>
         </is>
       </c>
       <c r="T47" t="n">
-        <v>8.56</v>
+        <v>9.83</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>28/10/2023 13:43</t>
+          <t>28/10/2023 13:55</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kalamata-ilioupoli/bsP9un9q/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/levadiakos-aek/xbk08srf/</t>
         </is>
       </c>
     </row>
@@ -4805,22 +4805,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>PAE Chania</t>
+          <t>PAE Egaleo</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Panachaiki</t>
+          <t>Athens Kallithea</t>
         </is>
       </c>
       <c r="I48" t="n">
         <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>1.42</v>
+        <v>4.46</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1.22</v>
+        <v>7.03</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>28/10/2023 13:34</t>
+          <t>28/10/2023 12:23</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>4.07</v>
+        <v>3.12</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>5.62</v>
+        <v>3.72</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>28/10/2023 13:58</t>
+          <t>28/10/2023 12:23</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>6.07</v>
+        <v>1.75</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>14.35</v>
+        <v>1.52</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>28/10/2023 13:58</t>
+          <t>28/10/2023 12:23</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/pae-chania-panachaiki/xYNDv6Ok/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/pae-egaleo-athens-kallithea/WYetcEvH/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>PAE Egaleo</t>
+          <t>PAE Chania</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Athens Kallithea</t>
+          <t>Panachaiki</t>
         </is>
       </c>
       <c r="I49" t="n">
         <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>4.46</v>
+        <v>1.42</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>7.03</v>
+        <v>1.22</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>28/10/2023 12:23</t>
+          <t>28/10/2023 13:34</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.12</v>
+        <v>4.07</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.72</v>
+        <v>5.62</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>28/10/2023 12:23</t>
+          <t>28/10/2023 13:58</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>1.75</v>
+        <v>6.07</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,16 +4952,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>1.52</v>
+        <v>14.35</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>28/10/2023 12:23</t>
+          <t>28/10/2023 13:58</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/pae-egaleo-athens-kallithea/WYetcEvH/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/pae-chania-panachaiki/xYNDv6Ok/</t>
         </is>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Levadiakos</t>
+          <t>Giouchtas</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -4997,14 +4997,14 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>AEK Athens FC B</t>
+          <t>Panathinaikos B</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>1.3</v>
+        <v>1.83</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>1.36</v>
+        <v>1.91</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         </is>
       </c>
       <c r="N50" t="n">
-        <v>4.78</v>
+        <v>3.35</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>4.28</v>
+        <v>3.24</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         </is>
       </c>
       <c r="R50" t="n">
-        <v>9.51</v>
+        <v>4.09</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>9.83</v>
+        <v>4.19</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/levadiakos-aek/xbk08srf/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/giouchtas-panathinaikos/AJ7XbzA4/</t>
         </is>
       </c>
     </row>
@@ -5173,71 +5173,71 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Diagoras</t>
+          <t>Karditsa</t>
         </is>
       </c>
       <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>AEL Larissa</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
         <v>2</v>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Ionikos</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
       <c r="J52" t="n">
-        <v>3.43</v>
+        <v>3.52</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>29/10/2023 02:12</t>
+          <t>28/10/2023 03:12</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>3.36</v>
+        <v>3.94</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>29/10/2023 13:40</t>
+          <t>29/10/2023 13:57</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.09</v>
+        <v>2.91</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>29/10/2023 02:12</t>
+          <t>28/10/2023 03:12</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.01</v>
+        <v>3.08</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>29/10/2023 13:40</t>
+          <t>29/10/2023 13:57</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>29/10/2023 02:12</t>
+          <t>28/10/2023 03:12</t>
         </is>
       </c>
       <c r="T52" t="n">
-        <v>2.27</v>
+        <v>2.03</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>29/10/2023 13:40</t>
+          <t>29/10/2023 13:57</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/diagoras-fc-ionikos/hrcxbfPA/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-ael-larissa/46YNRVrF/</t>
         </is>
       </c>
     </row>
@@ -5357,71 +5357,71 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Karditsa</t>
+          <t>Diagoras</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>AEL Larissa</t>
+          <t>Ionikos</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>3.52</v>
+        <v>3.43</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>28/10/2023 03:12</t>
+          <t>29/10/2023 02:12</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>3.94</v>
+        <v>3.36</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>29/10/2023 13:57</t>
+          <t>29/10/2023 13:40</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>2.91</v>
+        <v>3.09</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>28/10/2023 03:12</t>
+          <t>29/10/2023 02:12</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.08</v>
+        <v>3.01</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>29/10/2023 13:57</t>
+          <t>29/10/2023 13:40</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>2.05</v>
+        <v>2.12</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>28/10/2023 03:12</t>
+          <t>29/10/2023 02:12</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>2.03</v>
+        <v>2.27</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>29/10/2023 13:57</t>
+          <t>29/10/2023 13:40</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-ael-larissa/46YNRVrF/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/diagoras-fc-ionikos/hrcxbfPA/</t>
         </is>
       </c>
     </row>
@@ -5725,71 +5725,71 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Iraklis 1908</t>
+          <t>Ilioupoli</t>
         </is>
       </c>
       <c r="G58" t="n">
+        <v>1</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Panachaiki</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Levadiakos</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
-        <v>1</v>
-      </c>
       <c r="J58" t="n">
-        <v>3.01</v>
+        <v>1.66</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>04/11/2023 05:12</t>
+          <t>03/11/2023 02:13</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>3.53</v>
+        <v>1.38</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>04/11/2023 13:55</t>
+          <t>04/11/2023 13:44</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>2.91</v>
+        <v>3.48</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>04/11/2023 05:12</t>
+          <t>03/11/2023 02:13</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3</v>
+        <v>4.36</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>04/11/2023 13:55</t>
+          <t>04/11/2023 13:48</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>2.42</v>
+        <v>4.41</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>04/11/2023 05:12</t>
+          <t>03/11/2023 02:13</t>
         </is>
       </c>
       <c r="T58" t="n">
-        <v>2.2</v>
+        <v>8.41</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>04/11/2023 13:55</t>
+          <t>04/11/2023 13:44</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/iraklis-fc-levadiakos/IRm2S2ZP/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ilioupoli-panachaiki/GbFoZVZ8/</t>
         </is>
       </c>
     </row>
@@ -5817,71 +5817,71 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Ilioupoli</t>
+          <t>Iraklis 1908</t>
         </is>
       </c>
       <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Levadiakos</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
         <v>1</v>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Panachaiki</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
       <c r="J59" t="n">
-        <v>1.66</v>
+        <v>3.01</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>03/11/2023 02:13</t>
+          <t>04/11/2023 05:12</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>1.38</v>
+        <v>3.53</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>04/11/2023 13:44</t>
+          <t>04/11/2023 13:55</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.48</v>
+        <v>2.91</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>03/11/2023 02:13</t>
+          <t>04/11/2023 05:12</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>4.36</v>
+        <v>3</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>04/11/2023 13:48</t>
+          <t>04/11/2023 13:55</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>4.41</v>
+        <v>2.42</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>03/11/2023 02:13</t>
+          <t>04/11/2023 05:12</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>8.41</v>
+        <v>2.2</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>04/11/2023 13:44</t>
+          <t>04/11/2023 13:55</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ilioupoli-panachaiki/GbFoZVZ8/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/iraklis-fc-levadiakos/IRm2S2ZP/</t>
         </is>
       </c>
     </row>
@@ -5974,6 +5974,466 @@
       <c r="V60" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/greece/super-league-2/paok-karditsa/jLeG4asJ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>45235.5</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Tilikratis L.</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>1</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Diagoras</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>04/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:32</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>04/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P61" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:32</t>
+        </is>
+      </c>
+      <c r="R61" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>04/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T61" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:32</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/tilikratis-lefkada-diagoras-fc/fgUjDlDk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>45235.58333333334</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>AEK Athens FC B</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Niki Volos</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>3</v>
+      </c>
+      <c r="J62" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>04/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:57</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>04/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:57</t>
+        </is>
+      </c>
+      <c r="R62" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>04/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T62" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:57</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/aek-niki-volos/vykbTrKJ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>45235.58333333334</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Ionikos</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>3</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Kalamata</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>2</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>05/11/2023 03:13</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:59</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
+        <v>3</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>05/11/2023 03:13</t>
+        </is>
+      </c>
+      <c r="P63" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:59</t>
+        </is>
+      </c>
+      <c r="R63" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>05/11/2023 03:13</t>
+        </is>
+      </c>
+      <c r="T63" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:59</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ionikos-kalamata/2JXbBSs2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>45235.58333333334</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Panathinaikos B</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>1</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>PAE Egaleo</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>04/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:55</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>04/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:55</t>
+        </is>
+      </c>
+      <c r="R64" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>04/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T64" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>05/11/2023 03:41</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/panathinaikos-pae-egaleo/OSYfC8Se/</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>45235.58333333334</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Kampaniakos</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>1</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Apollon Pontou</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>05/11/2023 03:13</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>05/11/2023 12:16</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>05/11/2023 03:13</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>05/11/2023 12:16</t>
+        </is>
+      </c>
+      <c r="R65" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>05/11/2023 03:13</t>
+        </is>
+      </c>
+      <c r="T65" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>05/11/2023 12:16</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kampaniakos-apollon-pontou/CUdC5uSC/</t>
         </is>
       </c>
     </row>

--- a/2023/greece_super-league-2_2023-2024.xlsx
+++ b/2023/greece_super-league-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V65"/>
+  <dimension ref="A1:V66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -941,22 +941,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tilikratis L.</t>
+          <t>AEL Larissa</t>
         </is>
       </c>
       <c r="G6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Kampaniakos</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
         <v>1</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>PAE Egaleo</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
       <c r="J6" t="n">
-        <v>2.47</v>
+        <v>1.29</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -964,15 +964,15 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>3.26</v>
+        <v>1.31</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>24/09/2023 14:31</t>
+          <t>23/09/2023 13:23</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>2.82</v>
+        <v>4.51</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -980,15 +980,15 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3</v>
+        <v>4.77</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>24/09/2023 13:02</t>
+          <t>24/09/2023 13:03</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>2.82</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>2.32</v>
+        <v>10.02</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>24/09/2023 14:31</t>
+          <t>23/09/2023 13:23</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/tilikratis-lefkada-pae-egaleo/pd8OM1mC/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ael-larissa-kampaniakos/2DC3RPYt/</t>
         </is>
       </c>
     </row>
@@ -1033,7 +1033,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Panathinaikos B</t>
+          <t>Tilikratis L.</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -1041,63 +1041,63 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Kalamata</t>
+          <t>PAE Egaleo</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>3.59</v>
+        <v>2.47</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>23/09/2023 03:13</t>
+          <t>23/09/2023 04:12</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>4.39</v>
+        <v>3.26</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>24/09/2023 14:57</t>
+          <t>24/09/2023 14:31</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3.03</v>
+        <v>2.82</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>23/09/2023 03:13</t>
+          <t>23/09/2023 04:12</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>24/09/2023 14:57</t>
+          <t>24/09/2023 13:02</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>1.97</v>
+        <v>2.82</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>23/09/2023 03:13</t>
+          <t>23/09/2023 04:12</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>1.85</v>
+        <v>2.32</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>24/09/2023 14:57</t>
+          <t>24/09/2023 14:31</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/panathinaikos-kalamata/Wh4KNsY5/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/tilikratis-lefkada-pae-egaleo/pd8OM1mC/</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1125,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Karditsa</t>
+          <t>Panathinaikos B</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>AEK Athens FC B</t>
+          <t>Kalamata</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J8" t="n">
-        <v>1.7</v>
+        <v>3.59</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1148,15 +1148,15 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>2.42</v>
+        <v>4.39</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>24/09/2023 14:42</t>
+          <t>24/09/2023 14:57</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.31</v>
+        <v>3.03</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1164,15 +1164,15 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3.11</v>
+        <v>3.3</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>24/09/2023 14:41</t>
+          <t>24/09/2023 14:57</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>4.43</v>
+        <v>1.97</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1180,16 +1180,16 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>2.97</v>
+        <v>1.85</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>24/09/2023 14:42</t>
+          <t>24/09/2023 14:57</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-aek/bsoWqYl8/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/panathinaikos-kalamata/Wh4KNsY5/</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>AEL Larissa</t>
+          <t>Karditsa</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -1225,63 +1225,63 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Kampaniakos</t>
+          <t>AEK Athens FC B</t>
         </is>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>1.29</v>
+        <v>1.7</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>23/09/2023 04:12</t>
+          <t>23/09/2023 03:13</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>1.31</v>
+        <v>2.42</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>23/09/2023 13:23</t>
+          <t>24/09/2023 14:42</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>4.51</v>
+        <v>3.31</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>23/09/2023 04:12</t>
+          <t>23/09/2023 03:13</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>4.77</v>
+        <v>3.11</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>24/09/2023 13:03</t>
+          <t>24/09/2023 14:41</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>8.710000000000001</v>
+        <v>4.43</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>23/09/2023 04:12</t>
+          <t>23/09/2023 03:13</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>10.02</v>
+        <v>2.97</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>23/09/2023 13:23</t>
+          <t>24/09/2023 14:42</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ael-larissa-kampaniakos/2DC3RPYt/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-aek/bsoWqYl8/</t>
         </is>
       </c>
     </row>
@@ -3517,22 +3517,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Athens Kallithea</t>
+          <t>PAOK B</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Giouchtas</t>
+          <t>Aiolikos</t>
         </is>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>1.3</v>
+        <v>1.57</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,15 +3540,15 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>1.23</v>
+        <v>1.75</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>21/10/2023 14:17</t>
+          <t>21/10/2023 14:43</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>4.55</v>
+        <v>3.91</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3556,15 +3556,15 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>5.44</v>
+        <v>3.66</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>21/10/2023 14:18</t>
+          <t>21/10/2023 14:43</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>10.53</v>
+        <v>5.06</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -3572,16 +3572,16 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>13.52</v>
+        <v>4.44</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>21/10/2023 14:17</t>
+          <t>21/10/2023 14:43</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/athens-kallithea-giouchtas/n5zBsZvU/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/paok-aiolikos-fc/fyiX48y2/</t>
         </is>
       </c>
     </row>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Ionikos</t>
+          <t>Athens Kallithea</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -3617,7 +3617,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Tilikratis L.</t>
+          <t>Giouchtas</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -3632,11 +3632,11 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>21/10/2023 12:52</t>
+          <t>21/10/2023 14:17</t>
         </is>
       </c>
       <c r="N35" t="n">
@@ -3648,11 +3648,11 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>5.42</v>
+        <v>5.44</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>21/10/2023 13:02</t>
+          <t>21/10/2023 14:18</t>
         </is>
       </c>
       <c r="R35" t="n">
@@ -3664,16 +3664,16 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>14.23</v>
+        <v>13.52</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>21/10/2023 12:52</t>
+          <t>21/10/2023 14:17</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ionikos-tilikratis-lefkada/hry7rFPN/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/athens-kallithea-giouchtas/n5zBsZvU/</t>
         </is>
       </c>
     </row>
@@ -3701,22 +3701,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>PAOK B</t>
+          <t>Ionikos</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aiolikos</t>
+          <t>Tilikratis L.</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>1.57</v>
+        <v>1.3</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,15 +3724,15 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>1.75</v>
+        <v>1.22</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>21/10/2023 14:43</t>
+          <t>21/10/2023 12:52</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.91</v>
+        <v>4.55</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3740,15 +3740,15 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.66</v>
+        <v>5.42</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>21/10/2023 14:43</t>
+          <t>21/10/2023 13:02</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>5.06</v>
+        <v>10.53</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3756,16 +3756,16 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>4.44</v>
+        <v>14.23</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>21/10/2023 14:43</t>
+          <t>21/10/2023 12:52</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/paok-aiolikos-fc/fyiX48y2/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ionikos-tilikratis-lefkada/hry7rFPN/</t>
         </is>
       </c>
     </row>
@@ -3977,71 +3977,71 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Kozani FC</t>
+          <t>Panachaiki</t>
         </is>
       </c>
       <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>PAE Egaleo</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
         <v>1</v>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Karditsa</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
       <c r="J39" t="n">
-        <v>2.75</v>
+        <v>3.03</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>22/10/2023 12:12</t>
+          <t>21/10/2023 02:13</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2.58</v>
+        <v>3.1</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>22/10/2023 14:49</t>
+          <t>22/10/2023 14:59</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>2.74</v>
+        <v>2.94</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>22/10/2023 12:12</t>
+          <t>21/10/2023 02:13</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>2.74</v>
+        <v>3.06</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>22/10/2023 13:54</t>
+          <t>22/10/2023 14:57</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>2.92</v>
+        <v>2.3</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>22/10/2023 12:12</t>
+          <t>21/10/2023 02:13</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>3.14</v>
+        <v>2.37</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>22/10/2023 14:49</t>
+          <t>22/10/2023 14:59</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kozani-fc-karditsa/OnHhCjqS/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/panachaiki-pae-egaleo/QV5L1xQo/</t>
         </is>
       </c>
     </row>
@@ -4253,71 +4253,71 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Panachaiki</t>
+          <t>Kozani FC</t>
         </is>
       </c>
       <c r="G42" t="n">
+        <v>1</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Karditsa</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>PAE Egaleo</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
-        <v>1</v>
-      </c>
       <c r="J42" t="n">
-        <v>3.03</v>
+        <v>2.75</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>21/10/2023 02:13</t>
+          <t>22/10/2023 12:12</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>3.1</v>
+        <v>2.58</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>22/10/2023 14:59</t>
+          <t>22/10/2023 14:49</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>2.94</v>
+        <v>2.74</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>21/10/2023 02:13</t>
+          <t>22/10/2023 12:12</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.06</v>
+        <v>2.74</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>22/10/2023 14:57</t>
+          <t>22/10/2023 13:54</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>2.3</v>
+        <v>2.92</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>21/10/2023 02:13</t>
+          <t>22/10/2023 12:12</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>2.37</v>
+        <v>3.14</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>22/10/2023 14:59</t>
+          <t>22/10/2023 14:49</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/panachaiki-pae-egaleo/QV5L1xQo/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kozani-fc-karditsa/OnHhCjqS/</t>
         </is>
       </c>
     </row>
@@ -4621,7 +4621,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Kalamata</t>
+          <t>Giouchtas</t>
         </is>
       </c>
       <c r="G46" t="n">
@@ -4629,63 +4629,63 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Ilioupoli</t>
+          <t>Panathinaikos B</t>
         </is>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>1.44</v>
+        <v>1.83</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>27/10/2023 02:13</t>
+          <t>28/10/2023 01:12</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>1.38</v>
+        <v>1.91</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>28/10/2023 13:43</t>
+          <t>28/10/2023 13:55</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.96</v>
+        <v>3.35</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>27/10/2023 02:13</t>
+          <t>28/10/2023 01:12</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>4.35</v>
+        <v>3.24</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>28/10/2023 13:43</t>
+          <t>28/10/2023 13:55</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>5.97</v>
+        <v>4.09</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>27/10/2023 02:13</t>
+          <t>28/10/2023 01:12</t>
         </is>
       </c>
       <c r="T46" t="n">
-        <v>8.56</v>
+        <v>4.19</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>28/10/2023 13:43</t>
+          <t>28/10/2023 13:55</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kalamata-ilioupoli/bsP9un9q/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/giouchtas-panathinaikos/AJ7XbzA4/</t>
         </is>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Giouchtas</t>
+          <t>Kalamata</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -4997,63 +4997,63 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Panathinaikos B</t>
+          <t>Ilioupoli</t>
         </is>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>1.83</v>
+        <v>1.44</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>28/10/2023 01:12</t>
+          <t>27/10/2023 02:13</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>1.91</v>
+        <v>1.38</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>28/10/2023 13:55</t>
+          <t>28/10/2023 13:43</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.35</v>
+        <v>3.96</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>28/10/2023 01:12</t>
+          <t>27/10/2023 02:13</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.24</v>
+        <v>4.35</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>28/10/2023 13:55</t>
+          <t>28/10/2023 13:43</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>4.09</v>
+        <v>5.97</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>28/10/2023 01:12</t>
+          <t>27/10/2023 02:13</t>
         </is>
       </c>
       <c r="T50" t="n">
-        <v>4.19</v>
+        <v>8.56</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>28/10/2023 13:55</t>
+          <t>28/10/2023 13:43</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/giouchtas-panathinaikos/AJ7XbzA4/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kalamata-ilioupoli/bsP9un9q/</t>
         </is>
       </c>
     </row>
@@ -6185,22 +6185,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Ionikos</t>
+          <t>Kampaniakos</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Kalamata</t>
+          <t>Apollon Pontou</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>2.56</v>
+        <v>2.17</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,15 +6208,15 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>2.88</v>
+        <v>1.97</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>05/11/2023 13:59</t>
+          <t>05/11/2023 12:16</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3</v>
+        <v>2.99</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6224,15 +6224,15 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3.15</v>
+        <v>3.11</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>05/11/2023 13:59</t>
+          <t>05/11/2023 12:16</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>2.82</v>
+        <v>3.42</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -6240,16 +6240,16 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>2.46</v>
+        <v>4.12</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>05/11/2023 13:59</t>
+          <t>05/11/2023 12:16</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ionikos-kalamata/2JXbBSs2/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kampaniakos-apollon-pontou/CUdC5uSC/</t>
         </is>
       </c>
     </row>
@@ -6277,71 +6277,71 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Panathinaikos B</t>
+          <t>Ionikos</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>PAE Egaleo</t>
+          <t>Kalamata</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J64" t="n">
-        <v>2.48</v>
+        <v>2.56</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>04/11/2023 02:12</t>
+          <t>05/11/2023 03:13</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>2.59</v>
+        <v>2.88</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>05/11/2023 13:55</t>
+          <t>05/11/2023 13:59</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>04/11/2023 02:12</t>
+          <t>05/11/2023 03:13</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.01</v>
+        <v>3.15</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>05/11/2023 13:55</t>
+          <t>05/11/2023 13:59</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>2.75</v>
+        <v>2.82</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>04/11/2023 02:12</t>
+          <t>05/11/2023 03:13</t>
         </is>
       </c>
       <c r="T64" t="n">
-        <v>2.83</v>
+        <v>2.46</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>05/11/2023 03:41</t>
+          <t>05/11/2023 13:59</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/panathinaikos-pae-egaleo/OSYfC8Se/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ionikos-kalamata/2JXbBSs2/</t>
         </is>
       </c>
     </row>
@@ -6369,7 +6369,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Kampaniakos</t>
+          <t>Panathinaikos B</t>
         </is>
       </c>
       <c r="G65" t="n">
@@ -6377,63 +6377,155 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Apollon Pontou</t>
+          <t>PAE Egaleo</t>
         </is>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>2.17</v>
+        <v>2.48</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>05/11/2023 03:13</t>
+          <t>04/11/2023 02:12</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>1.97</v>
+        <v>2.59</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>05/11/2023 12:16</t>
+          <t>05/11/2023 13:55</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>2.99</v>
+        <v>2.88</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>05/11/2023 03:13</t>
+          <t>04/11/2023 02:12</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.11</v>
+        <v>3.01</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>05/11/2023 12:16</t>
+          <t>05/11/2023 13:55</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>3.42</v>
+        <v>2.75</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>05/11/2023 03:13</t>
+          <t>04/11/2023 02:12</t>
         </is>
       </c>
       <c r="T65" t="n">
-        <v>4.12</v>
+        <v>2.83</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>05/11/2023 12:16</t>
+          <t>05/11/2023 03:41</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kampaniakos-apollon-pontou/CUdC5uSC/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/panathinaikos-pae-egaleo/OSYfC8Se/</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>45235.58333333334</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Kozani FC</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>AEL Larissa</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>2</v>
+      </c>
+      <c r="J66" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>04/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:40</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>04/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P66" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:40</t>
+        </is>
+      </c>
+      <c r="R66" t="n">
+        <v>2</v>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>04/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T66" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:40</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kozani-fc-ael-larissa/U5776LC6/</t>
         </is>
       </c>
     </row>

--- a/2023/greece_super-league-2_2023-2024.xlsx
+++ b/2023/greece_super-league-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V66"/>
+  <dimension ref="A1:V67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6277,71 +6277,71 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Ionikos</t>
+          <t>Kozani FC</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Kalamata</t>
+          <t>AEL Larissa</t>
         </is>
       </c>
       <c r="I64" t="n">
         <v>2</v>
       </c>
       <c r="J64" t="n">
-        <v>2.56</v>
+        <v>3.62</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>05/11/2023 03:13</t>
+          <t>04/11/2023 02:12</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>2.88</v>
+        <v>4.52</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>05/11/2023 13:59</t>
+          <t>05/11/2023 13:40</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>05/11/2023 03:13</t>
+          <t>04/11/2023 02:12</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.15</v>
+        <v>3.12</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>05/11/2023 13:59</t>
+          <t>05/11/2023 13:40</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>2.82</v>
+        <v>2</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>05/11/2023 03:13</t>
+          <t>04/11/2023 02:12</t>
         </is>
       </c>
       <c r="T64" t="n">
-        <v>2.46</v>
+        <v>1.88</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>05/11/2023 13:59</t>
+          <t>05/11/2023 13:40</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ionikos-kalamata/2JXbBSs2/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kozani-fc-ael-larissa/U5776LC6/</t>
         </is>
       </c>
     </row>
@@ -6369,71 +6369,71 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Panathinaikos B</t>
+          <t>Ionikos</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>PAE Egaleo</t>
+          <t>Kalamata</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J65" t="n">
-        <v>2.48</v>
+        <v>2.56</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>04/11/2023 02:12</t>
+          <t>05/11/2023 03:13</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>2.59</v>
+        <v>2.88</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>05/11/2023 13:55</t>
+          <t>05/11/2023 13:59</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>04/11/2023 02:12</t>
+          <t>05/11/2023 03:13</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.01</v>
+        <v>3.15</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>05/11/2023 13:55</t>
+          <t>05/11/2023 13:59</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>2.75</v>
+        <v>2.82</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>04/11/2023 02:12</t>
+          <t>05/11/2023 03:13</t>
         </is>
       </c>
       <c r="T65" t="n">
-        <v>2.83</v>
+        <v>2.46</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>05/11/2023 03:41</t>
+          <t>05/11/2023 13:59</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/panathinaikos-pae-egaleo/OSYfC8Se/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ionikos-kalamata/2JXbBSs2/</t>
         </is>
       </c>
     </row>
@@ -6461,22 +6461,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Kozani FC</t>
+          <t>Panathinaikos B</t>
         </is>
       </c>
       <c r="G66" t="n">
+        <v>1</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>PAE Egaleo</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>AEL Larissa</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
-        <v>2</v>
-      </c>
       <c r="J66" t="n">
-        <v>3.62</v>
+        <v>2.48</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -6484,15 +6484,15 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>4.52</v>
+        <v>2.59</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>05/11/2023 13:40</t>
+          <t>05/11/2023 13:55</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>2.95</v>
+        <v>2.88</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -6500,15 +6500,15 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.12</v>
+        <v>3.01</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>05/11/2023 13:40</t>
+          <t>05/11/2023 13:55</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
@@ -6516,16 +6516,108 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>1.88</v>
+        <v>2.83</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>05/11/2023 13:40</t>
+          <t>05/11/2023 03:41</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kozani-fc-ael-larissa/U5776LC6/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/panathinaikos-pae-egaleo/OSYfC8Se/</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>45236.5625</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Athens Kallithea</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>PAE Chania</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>05/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>06/11/2023 12:24</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>05/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>06/11/2023 12:24</t>
+        </is>
+      </c>
+      <c r="R67" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>05/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T67" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>06/11/2023 12:24</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/athens-kallithea-pae-chania/4OBszCK2/</t>
         </is>
       </c>
     </row>

--- a/2023/greece_super-league-2_2023-2024.xlsx
+++ b/2023/greece_super-league-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V67"/>
+  <dimension ref="A1:V72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,7 +665,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Athens Kallithea</t>
+          <t>Makedonikos</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -673,14 +673,14 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Panachaiki</t>
+          <t>Iraklis 1908</t>
         </is>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1.2</v>
+        <v>2.45</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -688,15 +688,15 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>1.1</v>
+        <v>4.53</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>23/09/2023 14:11</t>
+          <t>23/09/2023 13:19</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>5.49</v>
+        <v>2.77</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -704,15 +704,15 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>8.34</v>
+        <v>3.1</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>23/09/2023 14:28</t>
+          <t>23/09/2023 13:19</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>10.71</v>
+        <v>2.9</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -720,16 +720,16 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>27.96</v>
+        <v>1.89</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>23/09/2023 14:28</t>
+          <t>23/09/2023 13:19</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/athens-kallithea-panachaiki/bu6CP33g/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/makedonikos-neapolis-iraklis-fc/Io8qMUd1/</t>
         </is>
       </c>
     </row>
@@ -757,7 +757,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Makedonikos</t>
+          <t>Athens Kallithea</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -765,14 +765,14 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Iraklis 1908</t>
+          <t>Panachaiki</t>
         </is>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.45</v>
+        <v>1.2</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -780,15 +780,15 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>4.53</v>
+        <v>1.1</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>23/09/2023 13:19</t>
+          <t>23/09/2023 14:11</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>2.77</v>
+        <v>5.49</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -796,15 +796,15 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3.1</v>
+        <v>8.34</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>23/09/2023 13:19</t>
+          <t>23/09/2023 14:28</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>2.9</v>
+        <v>10.71</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -812,16 +812,16 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>1.89</v>
+        <v>27.96</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>23/09/2023 13:19</t>
+          <t>23/09/2023 14:28</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/makedonikos-neapolis-iraklis-fc/Io8qMUd1/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/athens-kallithea-panachaiki/bu6CP33g/</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>AEL Larissa</t>
+          <t>Karditsa</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -949,63 +949,63 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Kampaniakos</t>
+          <t>AEK Athens FC B</t>
         </is>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>1.29</v>
+        <v>1.7</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>23/09/2023 04:12</t>
+          <t>23/09/2023 03:13</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1.31</v>
+        <v>2.42</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>23/09/2023 13:23</t>
+          <t>24/09/2023 14:42</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>4.51</v>
+        <v>3.31</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>23/09/2023 04:12</t>
+          <t>23/09/2023 03:13</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>4.77</v>
+        <v>3.11</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>24/09/2023 13:03</t>
+          <t>24/09/2023 14:41</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>8.710000000000001</v>
+        <v>4.43</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>23/09/2023 04:12</t>
+          <t>23/09/2023 03:13</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>10.02</v>
+        <v>2.97</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>23/09/2023 13:23</t>
+          <t>24/09/2023 14:42</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ael-larissa-kampaniakos/2DC3RPYt/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-aek/bsoWqYl8/</t>
         </is>
       </c>
     </row>
@@ -1033,22 +1033,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tilikratis L.</t>
+          <t>AEL Larissa</t>
         </is>
       </c>
       <c r="G7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Kampaniakos</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
         <v>1</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>PAE Egaleo</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
       <c r="J7" t="n">
-        <v>2.47</v>
+        <v>1.29</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1056,15 +1056,15 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>3.26</v>
+        <v>1.31</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>24/09/2023 14:31</t>
+          <t>23/09/2023 13:23</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>2.82</v>
+        <v>4.51</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1072,15 +1072,15 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3</v>
+        <v>4.77</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>24/09/2023 13:02</t>
+          <t>24/09/2023 13:03</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>2.82</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1088,16 +1088,16 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>2.32</v>
+        <v>10.02</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>24/09/2023 14:31</t>
+          <t>23/09/2023 13:23</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/tilikratis-lefkada-pae-egaleo/pd8OM1mC/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ael-larissa-kampaniakos/2DC3RPYt/</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Panathinaikos B</t>
+          <t>Tilikratis L.</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -1133,63 +1133,63 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Kalamata</t>
+          <t>PAE Egaleo</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>3.59</v>
+        <v>2.47</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>23/09/2023 03:13</t>
+          <t>23/09/2023 04:12</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>4.39</v>
+        <v>3.26</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>24/09/2023 14:57</t>
+          <t>24/09/2023 14:31</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.03</v>
+        <v>2.82</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>23/09/2023 03:13</t>
+          <t>23/09/2023 04:12</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>24/09/2023 14:57</t>
+          <t>24/09/2023 13:02</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>1.97</v>
+        <v>2.82</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>23/09/2023 03:13</t>
+          <t>23/09/2023 04:12</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>1.85</v>
+        <v>2.32</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>24/09/2023 14:57</t>
+          <t>24/09/2023 14:31</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/panathinaikos-kalamata/Wh4KNsY5/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/tilikratis-lefkada-pae-egaleo/pd8OM1mC/</t>
         </is>
       </c>
     </row>
@@ -1217,22 +1217,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Karditsa</t>
+          <t>Panathinaikos B</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>AEK Athens FC B</t>
+          <t>Kalamata</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J9" t="n">
-        <v>1.7</v>
+        <v>3.59</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1240,15 +1240,15 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>2.42</v>
+        <v>4.39</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>24/09/2023 14:42</t>
+          <t>24/09/2023 14:57</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.31</v>
+        <v>3.03</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1256,15 +1256,15 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3.11</v>
+        <v>3.3</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>24/09/2023 14:41</t>
+          <t>24/09/2023 14:57</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>4.43</v>
+        <v>1.97</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -1272,16 +1272,16 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>2.97</v>
+        <v>1.85</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>24/09/2023 14:42</t>
+          <t>24/09/2023 14:57</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-aek/bsoWqYl8/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/panathinaikos-kalamata/Wh4KNsY5/</t>
         </is>
       </c>
     </row>
@@ -2229,22 +2229,22 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Kalamata</t>
+          <t>Levadiakos</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Giouchtas</t>
+          <t>Kozani FC</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,15 +2252,15 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>02/10/2023 14:56</t>
+          <t>02/10/2023 14:37</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>5.08</v>
+        <v>5.14</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2268,15 +2268,15 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>4.66</v>
+        <v>5.22</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>02/10/2023 14:56</t>
+          <t>02/10/2023 14:37</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>10.51</v>
+        <v>10.69</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>10.6</v>
+        <v>11.56</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>02/10/2023 14:56</t>
+          <t>02/10/2023 14:37</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kalamata-giouchtas/YJ1UUeeO/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/levadiakos-kozani-fc/rHLFcaLb/</t>
         </is>
       </c>
     </row>
@@ -2321,22 +2321,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Levadiakos</t>
+          <t>Kalamata</t>
         </is>
       </c>
       <c r="G21" t="n">
+        <v>3</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Giouchtas</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
         <v>1</v>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Kozani FC</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
       <c r="J21" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,15 +2344,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>02/10/2023 14:37</t>
+          <t>02/10/2023 14:56</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>5.14</v>
+        <v>5.08</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>5.22</v>
+        <v>4.66</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>02/10/2023 14:37</t>
+          <t>02/10/2023 14:56</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>10.69</v>
+        <v>10.51</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,16 +2376,16 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>11.56</v>
+        <v>10.6</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>02/10/2023 14:37</t>
+          <t>02/10/2023 14:56</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/levadiakos-kozani-fc/rHLFcaLb/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kalamata-giouchtas/YJ1UUeeO/</t>
         </is>
       </c>
     </row>
@@ -3517,22 +3517,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>PAOK B</t>
+          <t>Athens Kallithea</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Aiolikos</t>
+          <t>Giouchtas</t>
         </is>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>1.57</v>
+        <v>1.3</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,15 +3540,15 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>1.75</v>
+        <v>1.23</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>21/10/2023 14:43</t>
+          <t>21/10/2023 14:17</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.91</v>
+        <v>4.55</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3556,15 +3556,15 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.66</v>
+        <v>5.44</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>21/10/2023 14:43</t>
+          <t>21/10/2023 14:18</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>5.06</v>
+        <v>10.53</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -3572,16 +3572,16 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>4.44</v>
+        <v>13.52</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>21/10/2023 14:43</t>
+          <t>21/10/2023 14:17</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/paok-aiolikos-fc/fyiX48y2/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/athens-kallithea-giouchtas/n5zBsZvU/</t>
         </is>
       </c>
     </row>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Athens Kallithea</t>
+          <t>Ionikos</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -3617,7 +3617,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Giouchtas</t>
+          <t>Tilikratis L.</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -3632,11 +3632,11 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>21/10/2023 14:17</t>
+          <t>21/10/2023 12:52</t>
         </is>
       </c>
       <c r="N35" t="n">
@@ -3648,11 +3648,11 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>5.44</v>
+        <v>5.42</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>21/10/2023 14:18</t>
+          <t>21/10/2023 13:02</t>
         </is>
       </c>
       <c r="R35" t="n">
@@ -3664,16 +3664,16 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>13.52</v>
+        <v>14.23</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>21/10/2023 14:17</t>
+          <t>21/10/2023 12:52</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/athens-kallithea-giouchtas/n5zBsZvU/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ionikos-tilikratis-lefkada/hry7rFPN/</t>
         </is>
       </c>
     </row>
@@ -3701,22 +3701,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Ionikos</t>
+          <t>PAOK B</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Tilikratis L.</t>
+          <t>Aiolikos</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>1.3</v>
+        <v>1.57</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,15 +3724,15 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>1.22</v>
+        <v>1.75</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>21/10/2023 12:52</t>
+          <t>21/10/2023 14:43</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>4.55</v>
+        <v>3.91</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3740,15 +3740,15 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>5.42</v>
+        <v>3.66</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>21/10/2023 13:02</t>
+          <t>21/10/2023 14:43</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>10.53</v>
+        <v>5.06</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3756,16 +3756,16 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>14.23</v>
+        <v>4.44</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>21/10/2023 12:52</t>
+          <t>21/10/2023 14:43</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ionikos-tilikratis-lefkada/hry7rFPN/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/paok-aiolikos-fc/fyiX48y2/</t>
         </is>
       </c>
     </row>
@@ -3977,71 +3977,71 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Panachaiki</t>
+          <t>Kozani FC</t>
         </is>
       </c>
       <c r="G39" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Karditsa</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>PAE Egaleo</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
-        <v>1</v>
-      </c>
       <c r="J39" t="n">
-        <v>3.03</v>
+        <v>2.75</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>21/10/2023 02:13</t>
+          <t>22/10/2023 12:12</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>3.1</v>
+        <v>2.58</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>22/10/2023 14:59</t>
+          <t>22/10/2023 14:49</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>2.94</v>
+        <v>2.74</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>21/10/2023 02:13</t>
+          <t>22/10/2023 12:12</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.06</v>
+        <v>2.74</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>22/10/2023 14:57</t>
+          <t>22/10/2023 13:54</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>2.3</v>
+        <v>2.92</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>21/10/2023 02:13</t>
+          <t>22/10/2023 12:12</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>2.37</v>
+        <v>3.14</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>22/10/2023 14:59</t>
+          <t>22/10/2023 14:49</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/panachaiki-pae-egaleo/QV5L1xQo/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kozani-fc-karditsa/OnHhCjqS/</t>
         </is>
       </c>
     </row>
@@ -4069,22 +4069,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>AEL Larissa</t>
+          <t>Panachaiki</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Makedonikos</t>
+          <t>PAE Egaleo</t>
         </is>
       </c>
       <c r="I40" t="n">
         <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>1.67</v>
+        <v>3.03</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,15 +4092,15 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>22/10/2023 14:56</t>
+          <t>22/10/2023 14:59</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.22</v>
+        <v>2.94</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,15 +4108,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.72</v>
+        <v>3.06</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>22/10/2023 14:56</t>
+          <t>22/10/2023 14:57</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>4.89</v>
+        <v>2.3</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>7.37</v>
+        <v>2.37</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>22/10/2023 14:56</t>
+          <t>22/10/2023 14:59</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ael-larissa-makedonikos-neapolis/8KhP6U6k/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/panachaiki-pae-egaleo/QV5L1xQo/</t>
         </is>
       </c>
     </row>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Apollon Pontou</t>
+          <t>AEL Larissa</t>
         </is>
       </c>
       <c r="G41" t="n">
@@ -4169,14 +4169,14 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Niki Volos</t>
+          <t>Makedonikos</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>4.17</v>
+        <v>1.67</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>9.99</v>
+        <v>1.5</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.18</v>
+        <v>3.22</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>4.44</v>
+        <v>3.72</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         </is>
       </c>
       <c r="R41" t="n">
-        <v>1.78</v>
+        <v>4.89</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>1.34</v>
+        <v>7.37</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/apollon-pontou-niki-volos/UTgL7Aiq/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ael-larissa-makedonikos-neapolis/8KhP6U6k/</t>
         </is>
       </c>
     </row>
@@ -4253,7 +4253,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Kozani FC</t>
+          <t>Apollon Pontou</t>
         </is>
       </c>
       <c r="G42" t="n">
@@ -4261,63 +4261,63 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Karditsa</t>
+          <t>Niki Volos</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J42" t="n">
-        <v>2.75</v>
+        <v>4.17</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>22/10/2023 12:12</t>
+          <t>21/10/2023 02:13</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.58</v>
+        <v>9.99</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>22/10/2023 14:49</t>
+          <t>22/10/2023 14:56</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>2.74</v>
+        <v>3.18</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>22/10/2023 12:12</t>
+          <t>21/10/2023 02:13</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>2.74</v>
+        <v>4.44</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>22/10/2023 13:54</t>
+          <t>22/10/2023 14:56</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>2.92</v>
+        <v>1.78</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>22/10/2023 12:12</t>
+          <t>21/10/2023 02:13</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>3.14</v>
+        <v>1.34</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>22/10/2023 14:49</t>
+          <t>22/10/2023 14:56</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kozani-fc-karditsa/OnHhCjqS/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/apollon-pontou-niki-volos/UTgL7Aiq/</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Levadiakos</t>
+          <t>Kalamata</t>
         </is>
       </c>
       <c r="G47" t="n">
@@ -4721,63 +4721,63 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>AEK Athens FC B</t>
+          <t>Ilioupoli</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>28/10/2023 01:12</t>
+          <t>27/10/2023 02:13</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>28/10/2023 13:55</t>
+          <t>28/10/2023 13:43</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>4.78</v>
+        <v>3.96</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>28/10/2023 01:12</t>
+          <t>27/10/2023 02:13</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>4.28</v>
+        <v>4.35</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>28/10/2023 13:55</t>
+          <t>28/10/2023 13:43</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>9.51</v>
+        <v>5.97</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>28/10/2023 01:12</t>
+          <t>27/10/2023 02:13</t>
         </is>
       </c>
       <c r="T47" t="n">
-        <v>9.83</v>
+        <v>8.56</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>28/10/2023 13:55</t>
+          <t>28/10/2023 13:43</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/levadiakos-aek/xbk08srf/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kalamata-ilioupoli/bsP9un9q/</t>
         </is>
       </c>
     </row>
@@ -4805,22 +4805,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>PAE Egaleo</t>
+          <t>PAE Chania</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Athens Kallithea</t>
+          <t>Panachaiki</t>
         </is>
       </c>
       <c r="I48" t="n">
         <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>4.46</v>
+        <v>1.42</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>7.03</v>
+        <v>1.22</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>28/10/2023 12:23</t>
+          <t>28/10/2023 13:34</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.12</v>
+        <v>4.07</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.72</v>
+        <v>5.62</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>28/10/2023 12:23</t>
+          <t>28/10/2023 13:58</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>1.75</v>
+        <v>6.07</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>1.52</v>
+        <v>14.35</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>28/10/2023 12:23</t>
+          <t>28/10/2023 13:58</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/pae-egaleo-athens-kallithea/WYetcEvH/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/pae-chania-panachaiki/xYNDv6Ok/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>PAE Chania</t>
+          <t>PAE Egaleo</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Panachaiki</t>
+          <t>Athens Kallithea</t>
         </is>
       </c>
       <c r="I49" t="n">
         <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>1.42</v>
+        <v>4.46</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>1.22</v>
+        <v>7.03</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>28/10/2023 13:34</t>
+          <t>28/10/2023 12:23</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>4.07</v>
+        <v>3.12</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>5.62</v>
+        <v>3.72</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>28/10/2023 13:58</t>
+          <t>28/10/2023 12:23</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>6.07</v>
+        <v>1.75</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,16 +4952,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>14.35</v>
+        <v>1.52</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>28/10/2023 13:58</t>
+          <t>28/10/2023 12:23</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/pae-chania-panachaiki/xYNDv6Ok/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/pae-egaleo-athens-kallithea/WYetcEvH/</t>
         </is>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Kalamata</t>
+          <t>Levadiakos</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -4997,63 +4997,63 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Ilioupoli</t>
+          <t>AEK Athens FC B</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>27/10/2023 02:13</t>
+          <t>28/10/2023 01:12</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>28/10/2023 13:43</t>
+          <t>28/10/2023 13:55</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.96</v>
+        <v>4.78</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>27/10/2023 02:13</t>
+          <t>28/10/2023 01:12</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>4.35</v>
+        <v>4.28</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>28/10/2023 13:43</t>
+          <t>28/10/2023 13:55</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>5.97</v>
+        <v>9.51</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>27/10/2023 02:13</t>
+          <t>28/10/2023 01:12</t>
         </is>
       </c>
       <c r="T50" t="n">
-        <v>8.56</v>
+        <v>9.83</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>28/10/2023 13:43</t>
+          <t>28/10/2023 13:55</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kalamata-ilioupoli/bsP9un9q/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/levadiakos-aek/xbk08srf/</t>
         </is>
       </c>
     </row>
@@ -5173,71 +5173,71 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Karditsa</t>
+          <t>Diagoras</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>AEL Larissa</t>
+          <t>Ionikos</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>3.52</v>
+        <v>3.43</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>28/10/2023 03:12</t>
+          <t>29/10/2023 02:12</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>3.94</v>
+        <v>3.36</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>29/10/2023 13:57</t>
+          <t>29/10/2023 13:40</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>2.91</v>
+        <v>3.09</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>28/10/2023 03:12</t>
+          <t>29/10/2023 02:12</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.08</v>
+        <v>3.01</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>29/10/2023 13:57</t>
+          <t>29/10/2023 13:40</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>2.05</v>
+        <v>2.12</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>28/10/2023 03:12</t>
+          <t>29/10/2023 02:12</t>
         </is>
       </c>
       <c r="T52" t="n">
-        <v>2.03</v>
+        <v>2.27</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>29/10/2023 13:57</t>
+          <t>29/10/2023 13:40</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-ael-larissa/46YNRVrF/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/diagoras-fc-ionikos/hrcxbfPA/</t>
         </is>
       </c>
     </row>
@@ -5357,71 +5357,71 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Diagoras</t>
+          <t>Karditsa</t>
         </is>
       </c>
       <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>AEL Larissa</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
         <v>2</v>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Ionikos</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
       <c r="J54" t="n">
-        <v>3.43</v>
+        <v>3.52</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>29/10/2023 02:12</t>
+          <t>28/10/2023 03:12</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>3.36</v>
+        <v>3.94</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>29/10/2023 13:40</t>
+          <t>29/10/2023 13:57</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.09</v>
+        <v>2.91</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>29/10/2023 02:12</t>
+          <t>28/10/2023 03:12</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.01</v>
+        <v>3.08</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>29/10/2023 13:40</t>
+          <t>29/10/2023 13:57</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>29/10/2023 02:12</t>
+          <t>28/10/2023 03:12</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>2.27</v>
+        <v>2.03</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>29/10/2023 13:40</t>
+          <t>29/10/2023 13:57</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/diagoras-fc-ionikos/hrcxbfPA/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-ael-larissa/46YNRVrF/</t>
         </is>
       </c>
     </row>
@@ -5725,22 +5725,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Ilioupoli</t>
+          <t>PAOK B</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Panachaiki</t>
+          <t>Karditsa</t>
         </is>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>1.66</v>
+        <v>1.99</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,15 +5748,15 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>1.38</v>
+        <v>2.38</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>04/11/2023 13:44</t>
+          <t>04/11/2023 12:04</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.48</v>
+        <v>3.12</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5764,15 +5764,15 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>4.36</v>
+        <v>2.89</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>04/11/2023 13:48</t>
+          <t>04/11/2023 12:04</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>4.41</v>
+        <v>3.44</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
@@ -5780,16 +5780,16 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>8.41</v>
+        <v>3.27</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>04/11/2023 13:44</t>
+          <t>04/11/2023 12:04</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ilioupoli-panachaiki/GbFoZVZ8/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/paok-karditsa/jLeG4asJ/</t>
         </is>
       </c>
     </row>
@@ -5817,71 +5817,71 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Iraklis 1908</t>
+          <t>Ilioupoli</t>
         </is>
       </c>
       <c r="G59" t="n">
+        <v>1</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Panachaiki</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Levadiakos</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
-        <v>1</v>
-      </c>
       <c r="J59" t="n">
-        <v>3.01</v>
+        <v>1.66</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>04/11/2023 05:12</t>
+          <t>03/11/2023 02:13</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>3.53</v>
+        <v>1.38</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>04/11/2023 13:55</t>
+          <t>04/11/2023 13:44</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>2.91</v>
+        <v>3.48</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>04/11/2023 05:12</t>
+          <t>03/11/2023 02:13</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3</v>
+        <v>4.36</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>04/11/2023 13:55</t>
+          <t>04/11/2023 13:48</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>2.42</v>
+        <v>4.41</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>04/11/2023 05:12</t>
+          <t>03/11/2023 02:13</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>2.2</v>
+        <v>8.41</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>04/11/2023 13:55</t>
+          <t>04/11/2023 13:44</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/iraklis-fc-levadiakos/IRm2S2ZP/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ilioupoli-panachaiki/GbFoZVZ8/</t>
         </is>
       </c>
     </row>
@@ -5909,71 +5909,71 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>PAOK B</t>
+          <t>Iraklis 1908</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Karditsa</t>
+          <t>Levadiakos</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>1.99</v>
+        <v>3.01</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>03/11/2023 02:13</t>
+          <t>04/11/2023 05:12</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2.38</v>
+        <v>3.53</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>04/11/2023 12:04</t>
+          <t>04/11/2023 13:55</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.12</v>
+        <v>2.91</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>03/11/2023 02:13</t>
+          <t>04/11/2023 05:12</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>2.89</v>
+        <v>3</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>04/11/2023 12:04</t>
+          <t>04/11/2023 13:55</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>3.44</v>
+        <v>2.42</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>03/11/2023 02:13</t>
+          <t>04/11/2023 05:12</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>3.27</v>
+        <v>2.2</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>04/11/2023 12:04</t>
+          <t>04/11/2023 13:55</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/paok-karditsa/jLeG4asJ/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/iraklis-fc-levadiakos/IRm2S2ZP/</t>
         </is>
       </c>
     </row>
@@ -6093,71 +6093,71 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>AEK Athens FC B</t>
+          <t>Ionikos</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Niki Volos</t>
+          <t>Kalamata</t>
         </is>
       </c>
       <c r="I62" t="n">
+        <v>2</v>
+      </c>
+      <c r="J62" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>05/11/2023 03:13</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:59</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>3</v>
       </c>
-      <c r="J62" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>04/11/2023 02:12</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>05/11/2023 13:57</t>
-        </is>
-      </c>
-      <c r="N62" t="n">
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>05/11/2023 03:13</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
         <v>3.15</v>
       </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>04/11/2023 02:12</t>
-        </is>
-      </c>
-      <c r="P62" t="n">
-        <v>3.01</v>
-      </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>05/11/2023 13:57</t>
+          <t>05/11/2023 13:59</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>1.79</v>
+        <v>2.82</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>04/11/2023 02:12</t>
+          <t>05/11/2023 03:13</t>
         </is>
       </c>
       <c r="T62" t="n">
-        <v>2.02</v>
+        <v>2.46</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>05/11/2023 13:57</t>
+          <t>05/11/2023 13:59</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/aek-niki-volos/vykbTrKJ/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ionikos-kalamata/2JXbBSs2/</t>
         </is>
       </c>
     </row>
@@ -6185,7 +6185,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Kampaniakos</t>
+          <t>Panathinaikos B</t>
         </is>
       </c>
       <c r="G63" t="n">
@@ -6193,63 +6193,63 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Apollon Pontou</t>
+          <t>PAE Egaleo</t>
         </is>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>2.17</v>
+        <v>2.48</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>05/11/2023 03:13</t>
+          <t>04/11/2023 02:12</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>1.97</v>
+        <v>2.59</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>05/11/2023 12:16</t>
+          <t>05/11/2023 13:55</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>2.99</v>
+        <v>2.88</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>05/11/2023 03:13</t>
+          <t>04/11/2023 02:12</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3.11</v>
+        <v>3.01</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>05/11/2023 12:16</t>
+          <t>05/11/2023 13:55</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>3.42</v>
+        <v>2.75</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>05/11/2023 03:13</t>
+          <t>04/11/2023 02:12</t>
         </is>
       </c>
       <c r="T63" t="n">
-        <v>4.12</v>
+        <v>2.83</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>05/11/2023 12:16</t>
+          <t>05/11/2023 03:41</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kampaniakos-apollon-pontou/CUdC5uSC/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/panathinaikos-pae-egaleo/OSYfC8Se/</t>
         </is>
       </c>
     </row>
@@ -6277,7 +6277,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Kozani FC</t>
+          <t>AEK Athens FC B</t>
         </is>
       </c>
       <c r="G64" t="n">
@@ -6285,14 +6285,14 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>AEL Larissa</t>
+          <t>Niki Volos</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J64" t="n">
-        <v>3.62</v>
+        <v>4.16</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,15 +6300,15 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>4.52</v>
+        <v>4.09</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>05/11/2023 13:40</t>
+          <t>05/11/2023 13:57</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>2.95</v>
+        <v>3.15</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.12</v>
+        <v>3.01</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>05/11/2023 13:40</t>
+          <t>05/11/2023 13:57</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>2</v>
+        <v>1.79</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>1.88</v>
+        <v>2.02</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>05/11/2023 13:40</t>
+          <t>05/11/2023 13:57</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kozani-fc-ael-larissa/U5776LC6/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/aek-niki-volos/vykbTrKJ/</t>
         </is>
       </c>
     </row>
@@ -6369,22 +6369,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Ionikos</t>
+          <t>Kampaniakos</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Kalamata</t>
+          <t>Apollon Pontou</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>2.56</v>
+        <v>2.17</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -6392,15 +6392,15 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>2.88</v>
+        <v>1.97</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>05/11/2023 13:59</t>
+          <t>05/11/2023 12:16</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3</v>
+        <v>2.99</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -6408,15 +6408,15 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.15</v>
+        <v>3.11</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>05/11/2023 13:59</t>
+          <t>05/11/2023 12:16</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>2.82</v>
+        <v>3.42</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
@@ -6424,16 +6424,16 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>2.46</v>
+        <v>4.12</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>05/11/2023 13:59</t>
+          <t>05/11/2023 12:16</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ionikos-kalamata/2JXbBSs2/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kampaniakos-apollon-pontou/CUdC5uSC/</t>
         </is>
       </c>
     </row>
@@ -6461,22 +6461,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Panathinaikos B</t>
+          <t>Kozani FC</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>PAE Egaleo</t>
+          <t>AEL Larissa</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J66" t="n">
-        <v>2.48</v>
+        <v>3.62</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -6484,15 +6484,15 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>2.59</v>
+        <v>4.52</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>05/11/2023 13:55</t>
+          <t>05/11/2023 13:40</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>2.88</v>
+        <v>2.95</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -6500,15 +6500,15 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.01</v>
+        <v>3.12</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>05/11/2023 13:55</t>
+          <t>05/11/2023 13:40</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>2.83</v>
+        <v>1.88</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>05/11/2023 03:41</t>
+          <t>05/11/2023 13:40</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/panathinaikos-pae-egaleo/OSYfC8Se/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kozani-fc-ael-larissa/U5776LC6/</t>
         </is>
       </c>
     </row>
@@ -6618,6 +6618,466 @@
       <c r="V67" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/greece/super-league-2/athens-kallithea-pae-chania/4OBszCK2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>45241.54166666666</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Olympiacos Piraeus B</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>1</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Diagoras</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>10/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>11/11/2023 12:59</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>10/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>11/11/2023 12:59</t>
+        </is>
+      </c>
+      <c r="R68" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>10/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T68" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>11/11/2023 12:59</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/olympiacos-piraeus-diagoras-fc/ALEkYkkF/</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>45241.58333333334</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Apollon Pontou</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>2</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>AEK Athens FC B</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>2</v>
+      </c>
+      <c r="J69" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>10/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:49</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>10/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:49</t>
+        </is>
+      </c>
+      <c r="R69" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>10/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T69" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:49</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/apollon-pontou-aek/APStLKRa/</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>45241.58333333334</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Kalamata</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>3</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Tilikratis L.</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>11/11/2023 12:01</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>11/11/2023 12:01</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>11/11/2023 12:01</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>11/11/2023 12:01</t>
+        </is>
+      </c>
+      <c r="R70" t="n">
+        <v>18.11</v>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>11/11/2023 12:01</t>
+        </is>
+      </c>
+      <c r="T70" t="n">
+        <v>18.11</v>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>11/11/2023 12:01</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kalamata-tilikratis-lefkada/6m8bWTJR/</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>45241.58333333334</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>AEL Larissa</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>2</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>PAOK B</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>10/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:40</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>10/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:40</t>
+        </is>
+      </c>
+      <c r="R71" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>10/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T71" t="n">
+        <v>9.68</v>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:40</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ael-larissa-paok/WYTxM0Cg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>45241.58333333334</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Kampaniakos</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Kozani FC</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>10/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:03</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>10/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P72" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:03</t>
+        </is>
+      </c>
+      <c r="R72" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>10/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T72" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:03</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kampaniakos-kozani-fc/xCUYMtcm/</t>
         </is>
       </c>
     </row>

--- a/2023/greece_super-league-2_2023-2024.xlsx
+++ b/2023/greece_super-league-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V72"/>
+  <dimension ref="A1:V78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1033,71 +1033,71 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>AEL Larissa</t>
+          <t>Panathinaikos B</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Kampaniakos</t>
+          <t>Kalamata</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J7" t="n">
-        <v>1.29</v>
+        <v>3.59</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>23/09/2023 04:12</t>
+          <t>23/09/2023 03:13</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>1.31</v>
+        <v>4.39</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>23/09/2023 13:23</t>
+          <t>24/09/2023 14:57</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>4.51</v>
+        <v>3.03</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>23/09/2023 04:12</t>
+          <t>23/09/2023 03:13</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>4.77</v>
+        <v>3.3</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>24/09/2023 13:03</t>
+          <t>24/09/2023 14:57</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>8.710000000000001</v>
+        <v>1.97</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>23/09/2023 04:12</t>
+          <t>23/09/2023 03:13</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>10.02</v>
+        <v>1.85</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>23/09/2023 13:23</t>
+          <t>24/09/2023 14:57</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ael-larissa-kampaniakos/2DC3RPYt/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/panathinaikos-kalamata/Wh4KNsY5/</t>
         </is>
       </c>
     </row>
@@ -1217,71 +1217,71 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Panathinaikos B</t>
+          <t>AEL Larissa</t>
         </is>
       </c>
       <c r="G9" t="n">
+        <v>2</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Kampaniakos</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
         <v>1</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Kalamata</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>4</v>
-      </c>
       <c r="J9" t="n">
-        <v>3.59</v>
+        <v>1.29</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>23/09/2023 03:13</t>
+          <t>23/09/2023 04:12</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>4.39</v>
+        <v>1.31</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>24/09/2023 14:57</t>
+          <t>23/09/2023 13:23</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.03</v>
+        <v>4.51</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>23/09/2023 03:13</t>
+          <t>23/09/2023 04:12</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3.3</v>
+        <v>4.77</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>24/09/2023 14:57</t>
+          <t>24/09/2023 13:03</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>1.97</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>23/09/2023 03:13</t>
+          <t>23/09/2023 04:12</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>1.85</v>
+        <v>10.02</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>24/09/2023 14:57</t>
+          <t>23/09/2023 13:23</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/panathinaikos-kalamata/Wh4KNsY5/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ael-larissa-kampaniakos/2DC3RPYt/</t>
         </is>
       </c>
     </row>
@@ -1585,71 +1585,71 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>PAOK B</t>
+          <t>Panachaiki</t>
         </is>
       </c>
       <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Panathinaikos B</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
         <v>2</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Kampaniakos</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
-        <v>3</v>
-      </c>
       <c r="J13" t="n">
-        <v>1.46</v>
+        <v>2.03</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>30/09/2023 03:12</t>
+          <t>29/09/2023 02:12</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>1.52</v>
+        <v>2.78</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>30/09/2023 13:01</t>
+          <t>30/09/2023 14:56</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>4.27</v>
+        <v>3.16</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>30/09/2023 03:12</t>
+          <t>29/09/2023 02:12</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>4.05</v>
+        <v>2.92</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>30/09/2023 13:17</t>
+          <t>30/09/2023 13:25</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>5.93</v>
+        <v>3.27</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>30/09/2023 03:12</t>
+          <t>29/09/2023 02:12</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>6.09</v>
+        <v>2.72</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>30/09/2023 13:17</t>
+          <t>30/09/2023 14:56</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/paok-kampaniakos/S6W0xkkj/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/panachaiki-panathinaikos/xh8LWHQB/</t>
         </is>
       </c>
     </row>
@@ -1677,71 +1677,71 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Panachaiki</t>
+          <t>PAOK B</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Panathinaikos B</t>
+          <t>Kampaniakos</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J14" t="n">
-        <v>2.03</v>
+        <v>1.46</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>29/09/2023 02:12</t>
+          <t>30/09/2023 03:12</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>2.78</v>
+        <v>1.52</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>30/09/2023 14:56</t>
+          <t>30/09/2023 13:01</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.16</v>
+        <v>4.27</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>29/09/2023 02:12</t>
+          <t>30/09/2023 03:12</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>2.92</v>
+        <v>4.05</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>30/09/2023 13:25</t>
+          <t>30/09/2023 13:17</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>3.27</v>
+        <v>5.93</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>29/09/2023 02:12</t>
+          <t>30/09/2023 03:12</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>2.72</v>
+        <v>6.09</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>30/09/2023 14:56</t>
+          <t>30/09/2023 13:17</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/panachaiki-panathinaikos/xh8LWHQB/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/paok-kampaniakos/S6W0xkkj/</t>
         </is>
       </c>
     </row>
@@ -1861,71 +1861,71 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Iraklis 1908</t>
+          <t>Ilioupoli</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Karditsa</t>
+          <t>Ionikos</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J16" t="n">
-        <v>1.51</v>
+        <v>3.4</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>30/09/2023 02:13</t>
+          <t>30/09/2023 03:42</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1.95</v>
+        <v>3.51</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>01/10/2023 13:08</t>
+          <t>01/10/2023 14:27</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.71</v>
+        <v>3.1</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>30/09/2023 02:13</t>
+          <t>30/09/2023 03:42</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.11</v>
+        <v>3.04</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>01/10/2023 13:08</t>
+          <t>01/10/2023 14:31</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>5.51</v>
+        <v>2.01</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>30/09/2023 02:13</t>
+          <t>30/09/2023 03:42</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>4.19</v>
+        <v>2.16</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>01/10/2023 13:02</t>
+          <t>01/10/2023 14:27</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/iraklis-fc-karditsa/vqFOewjB/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ilioupoli-ionikos/rV8HXcB5/</t>
         </is>
       </c>
     </row>
@@ -1953,71 +1953,71 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Ilioupoli</t>
+          <t>Iraklis 1908</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Ionikos</t>
+          <t>Karditsa</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>3.4</v>
+        <v>1.51</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>30/09/2023 03:42</t>
+          <t>30/09/2023 02:13</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>3.51</v>
+        <v>1.95</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>01/10/2023 14:27</t>
+          <t>01/10/2023 13:08</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.1</v>
+        <v>3.71</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>30/09/2023 03:42</t>
+          <t>30/09/2023 02:13</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.04</v>
+        <v>3.11</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>01/10/2023 14:31</t>
+          <t>01/10/2023 13:08</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2.01</v>
+        <v>5.51</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>30/09/2023 03:42</t>
+          <t>30/09/2023 02:13</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>2.16</v>
+        <v>4.19</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>01/10/2023 14:27</t>
+          <t>01/10/2023 13:02</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ilioupoli-ionikos/rV8HXcB5/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/iraklis-fc-karditsa/vqFOewjB/</t>
         </is>
       </c>
     </row>
@@ -2229,22 +2229,22 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Levadiakos</t>
+          <t>Kalamata</t>
         </is>
       </c>
       <c r="G20" t="n">
+        <v>3</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Giouchtas</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
         <v>1</v>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Kozani FC</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
       <c r="J20" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,15 +2252,15 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>02/10/2023 14:37</t>
+          <t>02/10/2023 14:56</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>5.14</v>
+        <v>5.08</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2268,15 +2268,15 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>5.22</v>
+        <v>4.66</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>02/10/2023 14:37</t>
+          <t>02/10/2023 14:56</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>10.69</v>
+        <v>10.51</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>11.56</v>
+        <v>10.6</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>02/10/2023 14:37</t>
+          <t>02/10/2023 14:56</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/levadiakos-kozani-fc/rHLFcaLb/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kalamata-giouchtas/YJ1UUeeO/</t>
         </is>
       </c>
     </row>
@@ -2321,22 +2321,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Kalamata</t>
+          <t>Levadiakos</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Giouchtas</t>
+          <t>Kozani FC</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,15 +2344,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>02/10/2023 14:56</t>
+          <t>02/10/2023 14:37</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>5.08</v>
+        <v>5.14</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>4.66</v>
+        <v>5.22</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>02/10/2023 14:56</t>
+          <t>02/10/2023 14:37</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>10.51</v>
+        <v>10.69</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,16 +2376,16 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>10.6</v>
+        <v>11.56</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>02/10/2023 14:56</t>
+          <t>02/10/2023 14:37</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kalamata-giouchtas/YJ1UUeeO/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/levadiakos-kozani-fc/rHLFcaLb/</t>
         </is>
       </c>
     </row>
@@ -3057,71 +3057,71 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Levadiakos</t>
+          <t>Makedonikos</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Apollon Pontou</t>
+          <t>Karditsa</t>
         </is>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1.17</v>
+        <v>1.87</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>15/10/2023 02:12</t>
+          <t>14/10/2023 02:12</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.09</v>
+        <v>2.41</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>15/10/2023 14:59</t>
+          <t>15/10/2023 14:49</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>6.45</v>
+        <v>3.02</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>15/10/2023 02:12</t>
+          <t>14/10/2023 02:12</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>9.52</v>
+        <v>3.12</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>15/10/2023 14:59</t>
+          <t>15/10/2023 14:48</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>13.81</v>
+        <v>3.99</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>15/10/2023 02:12</t>
+          <t>14/10/2023 02:12</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>24.08</v>
+        <v>2.98</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>15/10/2023 14:59</t>
+          <t>15/10/2023 14:49</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/levadiakos-apollon-pontou/KfKyGYq3/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/makedonikos-neapolis-karditsa/t4LXGEUd/</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Makedonikos</t>
+          <t>Niki Volos</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -3157,63 +3157,63 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Karditsa</t>
+          <t>Kozani FC</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>1.87</v>
+        <v>1.43</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>14/10/2023 02:12</t>
+          <t>15/10/2023 02:12</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2.41</v>
+        <v>1.55</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>15/10/2023 14:49</t>
+          <t>15/10/2023 11:11</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.02</v>
+        <v>3.99</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>14/10/2023 02:12</t>
+          <t>15/10/2023 02:12</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.12</v>
+        <v>3.61</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>15/10/2023 14:48</t>
+          <t>15/10/2023 14:58</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>3.99</v>
+        <v>7.33</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>14/10/2023 02:12</t>
+          <t>15/10/2023 02:12</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>2.98</v>
+        <v>4.75</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>15/10/2023 14:49</t>
+          <t>15/10/2023 14:58</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/makedonikos-neapolis-karditsa/t4LXGEUd/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/niki-volos-kozani-fc/S0XkhVid/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Niki Volos</t>
+          <t>Levadiakos</t>
         </is>
       </c>
       <c r="G31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Apollon Pontou</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Kozani FC</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
       <c r="J31" t="n">
-        <v>1.43</v>
+        <v>1.17</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.55</v>
+        <v>1.09</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>15/10/2023 11:11</t>
+          <t>15/10/2023 14:59</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.99</v>
+        <v>6.45</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.61</v>
+        <v>9.52</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>15/10/2023 14:58</t>
+          <t>15/10/2023 14:59</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>7.33</v>
+        <v>13.81</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>4.75</v>
+        <v>24.08</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>15/10/2023 14:58</t>
+          <t>15/10/2023 14:59</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/niki-volos-kozani-fc/S0XkhVid/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/levadiakos-apollon-pontou/KfKyGYq3/</t>
         </is>
       </c>
     </row>
@@ -4069,22 +4069,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Panachaiki</t>
+          <t>Apollon Pontou</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>PAE Egaleo</t>
+          <t>Niki Volos</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J40" t="n">
-        <v>3.03</v>
+        <v>4.17</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,15 +4092,15 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>3.1</v>
+        <v>9.99</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>22/10/2023 14:59</t>
+          <t>22/10/2023 14:56</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>2.94</v>
+        <v>3.18</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,15 +4108,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.06</v>
+        <v>4.44</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>22/10/2023 14:57</t>
+          <t>22/10/2023 14:56</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>2.37</v>
+        <v>1.34</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>22/10/2023 14:59</t>
+          <t>22/10/2023 14:56</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/panachaiki-pae-egaleo/QV5L1xQo/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/apollon-pontou-niki-volos/UTgL7Aiq/</t>
         </is>
       </c>
     </row>
@@ -4161,22 +4161,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>AEL Larissa</t>
+          <t>Panachaiki</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Makedonikos</t>
+          <t>PAE Egaleo</t>
         </is>
       </c>
       <c r="I41" t="n">
         <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>1.67</v>
+        <v>3.03</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,15 +4184,15 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>22/10/2023 14:56</t>
+          <t>22/10/2023 14:59</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.22</v>
+        <v>2.94</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,15 +4200,15 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.72</v>
+        <v>3.06</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>22/10/2023 14:56</t>
+          <t>22/10/2023 14:57</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>4.89</v>
+        <v>2.3</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,16 +4216,16 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>7.37</v>
+        <v>2.37</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>22/10/2023 14:56</t>
+          <t>22/10/2023 14:59</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ael-larissa-makedonikos-neapolis/8KhP6U6k/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/panachaiki-pae-egaleo/QV5L1xQo/</t>
         </is>
       </c>
     </row>
@@ -4253,7 +4253,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Apollon Pontou</t>
+          <t>AEL Larissa</t>
         </is>
       </c>
       <c r="G42" t="n">
@@ -4261,14 +4261,14 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Niki Volos</t>
+          <t>Makedonikos</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>4.17</v>
+        <v>1.67</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>9.99</v>
+        <v>1.5</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -4284,7 +4284,7 @@
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.18</v>
+        <v>3.22</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>4.44</v>
+        <v>3.72</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         </is>
       </c>
       <c r="R42" t="n">
-        <v>1.78</v>
+        <v>4.89</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>1.34</v>
+        <v>7.37</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
@@ -4317,7 +4317,7 @@
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/apollon-pontou-niki-volos/UTgL7Aiq/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ael-larissa-makedonikos-neapolis/8KhP6U6k/</t>
         </is>
       </c>
     </row>
@@ -4621,7 +4621,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Giouchtas</t>
+          <t>Levadiakos</t>
         </is>
       </c>
       <c r="G46" t="n">
@@ -4629,14 +4629,14 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Panathinaikos B</t>
+          <t>AEK Athens FC B</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>1.83</v>
+        <v>1.3</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,7 +4644,7 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>1.91</v>
+        <v>1.36</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -4652,7 +4652,7 @@
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.35</v>
+        <v>4.78</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4660,7 +4660,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.24</v>
+        <v>4.28</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4668,7 +4668,7 @@
         </is>
       </c>
       <c r="R46" t="n">
-        <v>4.09</v>
+        <v>9.51</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>4.19</v>
+        <v>9.83</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/giouchtas-panathinaikos/AJ7XbzA4/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/levadiakos-aek/xbk08srf/</t>
         </is>
       </c>
     </row>
@@ -4713,22 +4713,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Kalamata</t>
+          <t>PAE Egaleo</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Ilioupoli</t>
+          <t>Athens Kallithea</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>1.44</v>
+        <v>4.46</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4736,15 +4736,15 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>1.38</v>
+        <v>7.03</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>28/10/2023 13:43</t>
+          <t>28/10/2023 12:23</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.96</v>
+        <v>3.12</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4752,15 +4752,15 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>4.35</v>
+        <v>3.72</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>28/10/2023 13:43</t>
+          <t>28/10/2023 12:23</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>5.97</v>
+        <v>1.75</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -4768,16 +4768,16 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>8.56</v>
+        <v>1.52</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>28/10/2023 13:43</t>
+          <t>28/10/2023 12:23</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kalamata-ilioupoli/bsP9un9q/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/pae-egaleo-athens-kallithea/WYetcEvH/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>PAE Egaleo</t>
+          <t>Kalamata</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Athens Kallithea</t>
+          <t>Ilioupoli</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>4.46</v>
+        <v>1.44</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>7.03</v>
+        <v>1.38</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>28/10/2023 12:23</t>
+          <t>28/10/2023 13:43</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.12</v>
+        <v>3.96</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.72</v>
+        <v>4.35</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>28/10/2023 12:23</t>
+          <t>28/10/2023 13:43</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>1.75</v>
+        <v>5.97</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,16 +4952,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>1.52</v>
+        <v>8.56</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>28/10/2023 12:23</t>
+          <t>28/10/2023 13:43</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/pae-egaleo-athens-kallithea/WYetcEvH/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kalamata-ilioupoli/bsP9un9q/</t>
         </is>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Levadiakos</t>
+          <t>Giouchtas</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -4997,14 +4997,14 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>AEK Athens FC B</t>
+          <t>Panathinaikos B</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>1.3</v>
+        <v>1.83</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>1.36</v>
+        <v>1.91</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         </is>
       </c>
       <c r="N50" t="n">
-        <v>4.78</v>
+        <v>3.35</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>4.28</v>
+        <v>3.24</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         </is>
       </c>
       <c r="R50" t="n">
-        <v>9.51</v>
+        <v>4.09</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>9.83</v>
+        <v>4.19</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/levadiakos-aek/xbk08srf/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/giouchtas-panathinaikos/AJ7XbzA4/</t>
         </is>
       </c>
     </row>
@@ -5173,71 +5173,71 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Diagoras</t>
+          <t>Makedonikos</t>
         </is>
       </c>
       <c r="G52" t="n">
+        <v>3</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>PAOK B</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
         <v>2</v>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Ionikos</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
       <c r="J52" t="n">
-        <v>3.43</v>
+        <v>1.95</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>29/10/2023 02:12</t>
+          <t>28/10/2023 03:12</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>3.36</v>
+        <v>1.94</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>29/10/2023 13:40</t>
+          <t>29/10/2023 13:59</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.09</v>
+        <v>3.06</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>29/10/2023 02:12</t>
+          <t>28/10/2023 03:12</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.01</v>
+        <v>3.16</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>29/10/2023 13:40</t>
+          <t>29/10/2023 13:59</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>2.12</v>
+        <v>3.62</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>29/10/2023 02:12</t>
+          <t>28/10/2023 03:12</t>
         </is>
       </c>
       <c r="T52" t="n">
-        <v>2.27</v>
+        <v>4.14</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>29/10/2023 13:40</t>
+          <t>29/10/2023 13:59</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/diagoras-fc-ionikos/hrcxbfPA/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/makedonikos-neapolis-paok/b7jd9NSm/</t>
         </is>
       </c>
     </row>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Apollon Pontou</t>
+          <t>Karditsa</t>
         </is>
       </c>
       <c r="G53" t="n">
@@ -5273,14 +5273,14 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Kozani FC</t>
+          <t>AEL Larissa</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J53" t="n">
-        <v>2.73</v>
+        <v>3.52</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -5288,15 +5288,15 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>4.25</v>
+        <v>3.94</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>29/10/2023 13:59</t>
+          <t>29/10/2023 13:57</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>2.87</v>
+        <v>2.91</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -5304,15 +5304,15 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.12</v>
+        <v>3.08</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>29/10/2023 13:45</t>
+          <t>29/10/2023 13:57</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
@@ -5320,16 +5320,16 @@
         </is>
       </c>
       <c r="T53" t="n">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>29/10/2023 13:59</t>
+          <t>29/10/2023 13:57</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/apollon-pontou-kozani-fc/AqZJSBT8/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-ael-larissa/46YNRVrF/</t>
         </is>
       </c>
     </row>
@@ -5357,7 +5357,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Karditsa</t>
+          <t>Apollon Pontou</t>
         </is>
       </c>
       <c r="G54" t="n">
@@ -5365,14 +5365,14 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>AEL Larissa</t>
+          <t>Kozani FC</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>3.52</v>
+        <v>2.73</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -5380,15 +5380,15 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>3.94</v>
+        <v>4.25</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>29/10/2023 13:57</t>
+          <t>29/10/2023 13:59</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>2.91</v>
+        <v>2.87</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5396,15 +5396,15 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.08</v>
+        <v>3.12</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>29/10/2023 13:57</t>
+          <t>29/10/2023 13:45</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>2.03</v>
+        <v>1.93</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>29/10/2023 13:57</t>
+          <t>29/10/2023 13:59</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-ael-larissa/46YNRVrF/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/apollon-pontou-kozani-fc/AqZJSBT8/</t>
         </is>
       </c>
     </row>
@@ -5449,71 +5449,71 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Makedonikos</t>
+          <t>Diagoras</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>PAOK B</t>
+          <t>Ionikos</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>1.95</v>
+        <v>3.43</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>28/10/2023 03:12</t>
+          <t>29/10/2023 02:12</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>1.94</v>
+        <v>3.36</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>29/10/2023 13:59</t>
+          <t>29/10/2023 13:40</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>3.06</v>
+        <v>3.09</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>28/10/2023 03:12</t>
+          <t>29/10/2023 02:12</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>3.16</v>
+        <v>3.01</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>29/10/2023 13:59</t>
+          <t>29/10/2023 13:40</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>3.62</v>
+        <v>2.12</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>28/10/2023 03:12</t>
+          <t>29/10/2023 02:12</t>
         </is>
       </c>
       <c r="T55" t="n">
-        <v>4.14</v>
+        <v>2.27</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>29/10/2023 13:59</t>
+          <t>29/10/2023 13:40</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/makedonikos-neapolis-paok/b7jd9NSm/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/diagoras-fc-ionikos/hrcxbfPA/</t>
         </is>
       </c>
     </row>
@@ -6737,71 +6737,71 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Apollon Pontou</t>
+          <t>Kalamata</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>AEK Athens FC B</t>
+          <t>Tilikratis L.</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>2.52</v>
+        <v>1.13</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>10/11/2023 02:13</t>
+          <t>11/11/2023 12:01</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>3.36</v>
+        <v>1.13</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>11/11/2023 13:49</t>
+          <t>11/11/2023 12:01</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>2.82</v>
+        <v>7.63</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>10/11/2023 02:13</t>
+          <t>11/11/2023 12:01</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>2.73</v>
+        <v>7.63</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>11/11/2023 13:49</t>
+          <t>11/11/2023 12:01</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>2.83</v>
+        <v>18.11</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>10/11/2023 02:13</t>
+          <t>11/11/2023 12:01</t>
         </is>
       </c>
       <c r="T69" t="n">
-        <v>2.45</v>
+        <v>18.11</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>11/11/2023 13:49</t>
+          <t>11/11/2023 12:01</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/apollon-pontou-aek/APStLKRa/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kalamata-tilikratis-lefkada/6m8bWTJR/</t>
         </is>
       </c>
     </row>
@@ -6829,71 +6829,71 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Kalamata</t>
+          <t>AEL Larissa</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Tilikratis L.</t>
+          <t>PAOK B</t>
         </is>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>1.13</v>
+        <v>1.43</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>11/11/2023 12:01</t>
+          <t>10/11/2023 02:13</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>11/11/2023 12:01</t>
+          <t>11/11/2023 13:40</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>7.63</v>
+        <v>3.99</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>11/11/2023 12:01</t>
+          <t>10/11/2023 02:13</t>
         </is>
       </c>
       <c r="P70" t="n">
-        <v>7.63</v>
+        <v>4.69</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>11/11/2023 12:01</t>
+          <t>11/11/2023 13:40</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>18.11</v>
+        <v>6.04</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>11/11/2023 12:01</t>
+          <t>10/11/2023 02:13</t>
         </is>
       </c>
       <c r="T70" t="n">
-        <v>18.11</v>
+        <v>9.68</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>11/11/2023 12:01</t>
+          <t>11/11/2023 13:40</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kalamata-tilikratis-lefkada/6m8bWTJR/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ael-larissa-paok/WYTxM0Cg/</t>
         </is>
       </c>
     </row>
@@ -6921,7 +6921,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>AEL Larissa</t>
+          <t>Apollon Pontou</t>
         </is>
       </c>
       <c r="G71" t="n">
@@ -6929,14 +6929,14 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>PAOK B</t>
+          <t>AEK Athens FC B</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J71" t="n">
-        <v>1.43</v>
+        <v>2.52</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6944,15 +6944,15 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>1.33</v>
+        <v>3.36</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>11/11/2023 13:40</t>
+          <t>11/11/2023 13:49</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.99</v>
+        <v>2.82</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -6960,15 +6960,15 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>4.69</v>
+        <v>2.73</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>11/11/2023 13:40</t>
+          <t>11/11/2023 13:49</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>6.04</v>
+        <v>2.83</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
@@ -6976,16 +6976,16 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>9.68</v>
+        <v>2.45</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>11/11/2023 13:40</t>
+          <t>11/11/2023 13:49</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ael-larissa-paok/WYTxM0Cg/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/apollon-pontou-aek/APStLKRa/</t>
         </is>
       </c>
     </row>
@@ -7078,6 +7078,558 @@
       <c r="V72" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/greece/super-league-2/kampaniakos-kozani-fc/xCUYMtcm/</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>45242.5625</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>PAE Egaleo</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>1</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Giouchtas</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>11/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:26</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>11/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:26</t>
+        </is>
+      </c>
+      <c r="R73" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>11/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T73" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:26</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/pae-egaleo-giouchtas/lCDgX94L/</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>45242.58333333334</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Panachaiki</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>1</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Ionikos</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>1</v>
+      </c>
+      <c r="J74" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>11/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>6.83</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:58</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>11/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:58</t>
+        </is>
+      </c>
+      <c r="R74" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>11/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T74" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:58</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/panachaiki-ionikos/2JgUQ7sk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45242.58333333334</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Levadiakos</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>2</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Aiolikos</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>11/11/2023 04:43</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>12/11/2023 11:59</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>11/11/2023 04:43</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>12/11/2023 12:05</t>
+        </is>
+      </c>
+      <c r="R75" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>11/11/2023 04:43</t>
+        </is>
+      </c>
+      <c r="T75" t="n">
+        <v>12.44</v>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>12/11/2023 11:59</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/levadiakos-aiolikos-fc/URrrJbdC/</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45242.58333333334</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Ilioupoli</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>1</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Athens Kallithea</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>2</v>
+      </c>
+      <c r="J76" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>11/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:55</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>11/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:55</t>
+        </is>
+      </c>
+      <c r="R76" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>11/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T76" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:55</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ilioupoli-athens-kallithea/GMcYPRde/</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45242.58333333334</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>PAE Chania</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>2</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Panathinaikos B</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>11/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>12/11/2023 12:05</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>11/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>12/11/2023 12:07</t>
+        </is>
+      </c>
+      <c r="R77" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>11/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T77" t="n">
+        <v>9.890000000000001</v>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>12/11/2023 12:07</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/pae-chania-panathinaikos/8dfQRmSr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45242.58333333334</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Niki Volos</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>3</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Iraklis 1908</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>11/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>12/11/2023 12:05</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>11/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>12/11/2023 12:12</t>
+        </is>
+      </c>
+      <c r="R78" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>11/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T78" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>12/11/2023 12:05</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/niki-volos-iraklis-fc/jypvKvs6/</t>
         </is>
       </c>
     </row>

--- a/2023/greece_super-league-2_2023-2024.xlsx
+++ b/2023/greece_super-league-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V78"/>
+  <dimension ref="A1:V81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4161,22 +4161,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Panachaiki</t>
+          <t>AEL Larissa</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>PAE Egaleo</t>
+          <t>Makedonikos</t>
         </is>
       </c>
       <c r="I41" t="n">
         <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>3.03</v>
+        <v>1.67</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,15 +4184,15 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>22/10/2023 14:59</t>
+          <t>22/10/2023 14:56</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>2.94</v>
+        <v>3.22</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,15 +4200,15 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.06</v>
+        <v>3.72</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>22/10/2023 14:57</t>
+          <t>22/10/2023 14:56</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>2.3</v>
+        <v>4.89</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,16 +4216,16 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>2.37</v>
+        <v>7.37</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>22/10/2023 14:59</t>
+          <t>22/10/2023 14:56</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/panachaiki-pae-egaleo/QV5L1xQo/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ael-larissa-makedonikos-neapolis/8KhP6U6k/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>AEL Larissa</t>
+          <t>Panachaiki</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Makedonikos</t>
+          <t>PAE Egaleo</t>
         </is>
       </c>
       <c r="I42" t="n">
         <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>1.67</v>
+        <v>3.03</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>22/10/2023 14:56</t>
+          <t>22/10/2023 14:59</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.22</v>
+        <v>2.94</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.72</v>
+        <v>3.06</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>22/10/2023 14:56</t>
+          <t>22/10/2023 14:57</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>4.89</v>
+        <v>2.3</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>7.37</v>
+        <v>2.37</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>22/10/2023 14:56</t>
+          <t>22/10/2023 14:59</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ael-larissa-makedonikos-neapolis/8KhP6U6k/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/panachaiki-pae-egaleo/QV5L1xQo/</t>
         </is>
       </c>
     </row>
@@ -4897,7 +4897,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Kalamata</t>
+          <t>Giouchtas</t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -4905,63 +4905,63 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Ilioupoli</t>
+          <t>Panathinaikos B</t>
         </is>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>1.44</v>
+        <v>1.83</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>27/10/2023 02:13</t>
+          <t>28/10/2023 01:12</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>1.38</v>
+        <v>1.91</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>28/10/2023 13:43</t>
+          <t>28/10/2023 13:55</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.96</v>
+        <v>3.35</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>27/10/2023 02:13</t>
+          <t>28/10/2023 01:12</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>4.35</v>
+        <v>3.24</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>28/10/2023 13:43</t>
+          <t>28/10/2023 13:55</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>5.97</v>
+        <v>4.09</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>27/10/2023 02:13</t>
+          <t>28/10/2023 01:12</t>
         </is>
       </c>
       <c r="T49" t="n">
-        <v>8.56</v>
+        <v>4.19</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>28/10/2023 13:43</t>
+          <t>28/10/2023 13:55</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kalamata-ilioupoli/bsP9un9q/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/giouchtas-panathinaikos/AJ7XbzA4/</t>
         </is>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Giouchtas</t>
+          <t>Kalamata</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -4997,63 +4997,63 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Panathinaikos B</t>
+          <t>Ilioupoli</t>
         </is>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>1.83</v>
+        <v>1.44</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>28/10/2023 01:12</t>
+          <t>27/10/2023 02:13</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>1.91</v>
+        <v>1.38</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>28/10/2023 13:55</t>
+          <t>28/10/2023 13:43</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.35</v>
+        <v>3.96</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>28/10/2023 01:12</t>
+          <t>27/10/2023 02:13</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.24</v>
+        <v>4.35</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>28/10/2023 13:55</t>
+          <t>28/10/2023 13:43</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>4.09</v>
+        <v>5.97</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>28/10/2023 01:12</t>
+          <t>27/10/2023 02:13</t>
         </is>
       </c>
       <c r="T50" t="n">
-        <v>4.19</v>
+        <v>8.56</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>28/10/2023 13:55</t>
+          <t>28/10/2023 13:43</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/giouchtas-panathinaikos/AJ7XbzA4/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kalamata-ilioupoli/bsP9un9q/</t>
         </is>
       </c>
     </row>
@@ -5173,22 +5173,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Makedonikos</t>
+          <t>Karditsa</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>PAOK B</t>
+          <t>AEL Larissa</t>
         </is>
       </c>
       <c r="I52" t="n">
         <v>2</v>
       </c>
       <c r="J52" t="n">
-        <v>1.95</v>
+        <v>3.52</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>1.94</v>
+        <v>3.94</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>29/10/2023 13:59</t>
+          <t>29/10/2023 13:57</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.06</v>
+        <v>2.91</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.16</v>
+        <v>3.08</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>29/10/2023 13:59</t>
+          <t>29/10/2023 13:57</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>3.62</v>
+        <v>2.05</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>4.14</v>
+        <v>2.03</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>29/10/2023 13:59</t>
+          <t>29/10/2023 13:57</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/makedonikos-neapolis-paok/b7jd9NSm/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-ael-larissa/46YNRVrF/</t>
         </is>
       </c>
     </row>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Karditsa</t>
+          <t>Apollon Pontou</t>
         </is>
       </c>
       <c r="G53" t="n">
@@ -5273,14 +5273,14 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>AEL Larissa</t>
+          <t>Kozani FC</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>3.52</v>
+        <v>2.73</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -5288,15 +5288,15 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>3.94</v>
+        <v>4.25</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>29/10/2023 13:57</t>
+          <t>29/10/2023 13:59</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>2.91</v>
+        <v>2.87</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -5304,15 +5304,15 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.08</v>
+        <v>3.12</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>29/10/2023 13:57</t>
+          <t>29/10/2023 13:45</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
@@ -5320,16 +5320,16 @@
         </is>
       </c>
       <c r="T53" t="n">
-        <v>2.03</v>
+        <v>1.93</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>29/10/2023 13:57</t>
+          <t>29/10/2023 13:59</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-ael-larissa/46YNRVrF/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/apollon-pontou-kozani-fc/AqZJSBT8/</t>
         </is>
       </c>
     </row>
@@ -5357,71 +5357,71 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Apollon Pontou</t>
+          <t>Diagoras</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Kozani FC</t>
+          <t>Ionikos</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>2.73</v>
+        <v>3.43</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>28/10/2023 03:12</t>
+          <t>29/10/2023 02:12</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>4.25</v>
+        <v>3.36</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>29/10/2023 13:59</t>
+          <t>29/10/2023 13:40</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>2.87</v>
+        <v>3.09</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>28/10/2023 03:12</t>
+          <t>29/10/2023 02:12</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.12</v>
+        <v>3.01</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>29/10/2023 13:45</t>
+          <t>29/10/2023 13:40</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>2.5</v>
+        <v>2.12</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>28/10/2023 03:12</t>
+          <t>29/10/2023 02:12</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>1.93</v>
+        <v>2.27</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>29/10/2023 13:59</t>
+          <t>29/10/2023 13:40</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/apollon-pontou-kozani-fc/AqZJSBT8/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/diagoras-fc-ionikos/hrcxbfPA/</t>
         </is>
       </c>
     </row>
@@ -5449,71 +5449,71 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Diagoras</t>
+          <t>Makedonikos</t>
         </is>
       </c>
       <c r="G55" t="n">
+        <v>3</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>PAOK B</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
         <v>2</v>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Ionikos</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
-        <v>1</v>
-      </c>
       <c r="J55" t="n">
-        <v>3.43</v>
+        <v>1.95</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>29/10/2023 02:12</t>
+          <t>28/10/2023 03:12</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>3.36</v>
+        <v>1.94</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>29/10/2023 13:40</t>
+          <t>29/10/2023 13:59</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>3.09</v>
+        <v>3.06</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>29/10/2023 02:12</t>
+          <t>28/10/2023 03:12</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>3.01</v>
+        <v>3.16</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>29/10/2023 13:40</t>
+          <t>29/10/2023 13:59</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>2.12</v>
+        <v>3.62</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>29/10/2023 02:12</t>
+          <t>28/10/2023 03:12</t>
         </is>
       </c>
       <c r="T55" t="n">
-        <v>2.27</v>
+        <v>4.14</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>29/10/2023 13:40</t>
+          <t>29/10/2023 13:59</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/diagoras-fc-ionikos/hrcxbfPA/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/makedonikos-neapolis-paok/b7jd9NSm/</t>
         </is>
       </c>
     </row>
@@ -5725,22 +5725,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>PAOK B</t>
+          <t>Ilioupoli</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Karditsa</t>
+          <t>Panachaiki</t>
         </is>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>1.99</v>
+        <v>1.66</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,15 +5748,15 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>2.38</v>
+        <v>1.38</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>04/11/2023 12:04</t>
+          <t>04/11/2023 13:44</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.12</v>
+        <v>3.48</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5764,15 +5764,15 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>2.89</v>
+        <v>4.36</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>04/11/2023 12:04</t>
+          <t>04/11/2023 13:48</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>3.44</v>
+        <v>4.41</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
@@ -5780,16 +5780,16 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>3.27</v>
+        <v>8.41</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>04/11/2023 12:04</t>
+          <t>04/11/2023 13:44</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/paok-karditsa/jLeG4asJ/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ilioupoli-panachaiki/GbFoZVZ8/</t>
         </is>
       </c>
     </row>
@@ -5817,71 +5817,71 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Ilioupoli</t>
+          <t>Iraklis 1908</t>
         </is>
       </c>
       <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Levadiakos</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
         <v>1</v>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Panachaiki</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
       <c r="J59" t="n">
-        <v>1.66</v>
+        <v>3.01</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>03/11/2023 02:13</t>
+          <t>04/11/2023 05:12</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>1.38</v>
+        <v>3.53</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>04/11/2023 13:44</t>
+          <t>04/11/2023 13:55</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.48</v>
+        <v>2.91</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>03/11/2023 02:13</t>
+          <t>04/11/2023 05:12</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>4.36</v>
+        <v>3</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>04/11/2023 13:48</t>
+          <t>04/11/2023 13:55</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>4.41</v>
+        <v>2.42</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>03/11/2023 02:13</t>
+          <t>04/11/2023 05:12</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>8.41</v>
+        <v>2.2</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>04/11/2023 13:44</t>
+          <t>04/11/2023 13:55</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ilioupoli-panachaiki/GbFoZVZ8/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/iraklis-fc-levadiakos/IRm2S2ZP/</t>
         </is>
       </c>
     </row>
@@ -5909,71 +5909,71 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Iraklis 1908</t>
+          <t>PAOK B</t>
         </is>
       </c>
       <c r="G60" t="n">
+        <v>2</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Karditsa</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>Levadiakos</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
-        <v>1</v>
-      </c>
       <c r="J60" t="n">
-        <v>3.01</v>
+        <v>1.99</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>04/11/2023 05:12</t>
+          <t>03/11/2023 02:13</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>3.53</v>
+        <v>2.38</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>04/11/2023 13:55</t>
+          <t>04/11/2023 12:04</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>2.91</v>
+        <v>3.12</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>04/11/2023 05:12</t>
+          <t>03/11/2023 02:13</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3</v>
+        <v>2.89</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>04/11/2023 13:55</t>
+          <t>04/11/2023 12:04</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>2.42</v>
+        <v>3.44</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>04/11/2023 05:12</t>
+          <t>03/11/2023 02:13</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>2.2</v>
+        <v>3.27</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>04/11/2023 13:55</t>
+          <t>04/11/2023 12:04</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/iraklis-fc-levadiakos/IRm2S2ZP/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/paok-karditsa/jLeG4asJ/</t>
         </is>
       </c>
     </row>
@@ -6093,22 +6093,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Ionikos</t>
+          <t>Kampaniakos</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Kalamata</t>
+          <t>Apollon Pontou</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>2.56</v>
+        <v>2.17</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,15 +6116,15 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>2.88</v>
+        <v>1.97</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>05/11/2023 13:59</t>
+          <t>05/11/2023 12:16</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>3</v>
+        <v>2.99</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -6132,15 +6132,15 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>3.15</v>
+        <v>3.11</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>05/11/2023 13:59</t>
+          <t>05/11/2023 12:16</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>2.82</v>
+        <v>3.42</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -6148,16 +6148,16 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>2.46</v>
+        <v>4.12</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>05/11/2023 13:59</t>
+          <t>05/11/2023 12:16</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ionikos-kalamata/2JXbBSs2/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kampaniakos-apollon-pontou/CUdC5uSC/</t>
         </is>
       </c>
     </row>
@@ -6185,22 +6185,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Panathinaikos B</t>
+          <t>Kozani FC</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>PAE Egaleo</t>
+          <t>AEL Larissa</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J63" t="n">
-        <v>2.48</v>
+        <v>3.62</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,15 +6208,15 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>2.59</v>
+        <v>4.52</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>05/11/2023 13:55</t>
+          <t>05/11/2023 13:40</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>2.88</v>
+        <v>2.95</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6224,15 +6224,15 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3.01</v>
+        <v>3.12</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>05/11/2023 13:55</t>
+          <t>05/11/2023 13:40</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -6240,16 +6240,16 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>2.83</v>
+        <v>1.88</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>05/11/2023 03:41</t>
+          <t>05/11/2023 13:40</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/panathinaikos-pae-egaleo/OSYfC8Se/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kozani-fc-ael-larissa/U5776LC6/</t>
         </is>
       </c>
     </row>
@@ -6277,71 +6277,71 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>AEK Athens FC B</t>
+          <t>Ionikos</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Niki Volos</t>
+          <t>Kalamata</t>
         </is>
       </c>
       <c r="I64" t="n">
+        <v>2</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>05/11/2023 03:13</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:59</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>3</v>
       </c>
-      <c r="J64" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>04/11/2023 02:12</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>05/11/2023 13:57</t>
-        </is>
-      </c>
-      <c r="N64" t="n">
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>05/11/2023 03:13</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
         <v>3.15</v>
       </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>04/11/2023 02:12</t>
-        </is>
-      </c>
-      <c r="P64" t="n">
-        <v>3.01</v>
-      </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>05/11/2023 13:57</t>
+          <t>05/11/2023 13:59</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>1.79</v>
+        <v>2.82</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>04/11/2023 02:12</t>
+          <t>05/11/2023 03:13</t>
         </is>
       </c>
       <c r="T64" t="n">
-        <v>2.02</v>
+        <v>2.46</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>05/11/2023 13:57</t>
+          <t>05/11/2023 13:59</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/aek-niki-volos/vykbTrKJ/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ionikos-kalamata/2JXbBSs2/</t>
         </is>
       </c>
     </row>
@@ -6369,7 +6369,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Kampaniakos</t>
+          <t>Panathinaikos B</t>
         </is>
       </c>
       <c r="G65" t="n">
@@ -6377,63 +6377,63 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Apollon Pontou</t>
+          <t>PAE Egaleo</t>
         </is>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>2.17</v>
+        <v>2.48</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>05/11/2023 03:13</t>
+          <t>04/11/2023 02:12</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>1.97</v>
+        <v>2.59</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>05/11/2023 12:16</t>
+          <t>05/11/2023 13:55</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>2.99</v>
+        <v>2.88</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>05/11/2023 03:13</t>
+          <t>04/11/2023 02:12</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.11</v>
+        <v>3.01</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>05/11/2023 12:16</t>
+          <t>05/11/2023 13:55</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>3.42</v>
+        <v>2.75</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>05/11/2023 03:13</t>
+          <t>04/11/2023 02:12</t>
         </is>
       </c>
       <c r="T65" t="n">
-        <v>4.12</v>
+        <v>2.83</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>05/11/2023 12:16</t>
+          <t>05/11/2023 03:41</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kampaniakos-apollon-pontou/CUdC5uSC/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/panathinaikos-pae-egaleo/OSYfC8Se/</t>
         </is>
       </c>
     </row>
@@ -6461,7 +6461,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Kozani FC</t>
+          <t>AEK Athens FC B</t>
         </is>
       </c>
       <c r="G66" t="n">
@@ -6469,14 +6469,14 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>AEL Larissa</t>
+          <t>Niki Volos</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J66" t="n">
-        <v>3.62</v>
+        <v>4.16</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -6484,15 +6484,15 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>4.52</v>
+        <v>4.09</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>05/11/2023 13:40</t>
+          <t>05/11/2023 13:57</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>2.95</v>
+        <v>3.15</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -6500,15 +6500,15 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.12</v>
+        <v>3.01</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>05/11/2023 13:40</t>
+          <t>05/11/2023 13:57</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>2</v>
+        <v>1.79</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>1.88</v>
+        <v>2.02</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>05/11/2023 13:40</t>
+          <t>05/11/2023 13:57</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kozani-fc-ael-larissa/U5776LC6/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/aek-niki-volos/vykbTrKJ/</t>
         </is>
       </c>
     </row>
@@ -7197,22 +7197,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Panachaiki</t>
+          <t>Niki Volos</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Ionikos</t>
+          <t>Iraklis 1908</t>
         </is>
       </c>
       <c r="I74" t="n">
         <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>4.2</v>
+        <v>1.87</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>6.83</v>
+        <v>2.02</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>12/11/2023 13:58</t>
+          <t>12/11/2023 12:05</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.26</v>
+        <v>3.03</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.77</v>
+        <v>3</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>12/11/2023 13:58</t>
+          <t>12/11/2023 12:12</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>1.75</v>
+        <v>3.98</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>1.52</v>
+        <v>4.13</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>12/11/2023 13:58</t>
+          <t>12/11/2023 12:05</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/panachaiki-ionikos/2JgUQ7sk/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/niki-volos-iraklis-fc/jypvKvs6/</t>
         </is>
       </c>
     </row>
@@ -7565,22 +7565,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Niki Volos</t>
+          <t>Panachaiki</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Iraklis 1908</t>
+          <t>Ionikos</t>
         </is>
       </c>
       <c r="I78" t="n">
         <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>1.87</v>
+        <v>4.2</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,15 +7588,15 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>2.02</v>
+        <v>6.83</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>12/11/2023 12:05</t>
+          <t>12/11/2023 13:58</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.03</v>
+        <v>3.26</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -7604,15 +7604,15 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3</v>
+        <v>3.77</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>12/11/2023 12:12</t>
+          <t>12/11/2023 13:58</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>3.98</v>
+        <v>1.75</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
@@ -7620,16 +7620,292 @@
         </is>
       </c>
       <c r="T78" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:58</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/panachaiki-ionikos/2JgUQ7sk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>45245.58333333334</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Iraklis 1908</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Apollon Pontou</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>14/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>15/11/2023 12:58</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>14/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P79" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>15/11/2023 12:58</t>
+        </is>
+      </c>
+      <c r="R79" t="n">
+        <v>7.84</v>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>14/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T79" t="n">
+        <v>7.94</v>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>15/11/2023 12:58</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/iraklis-fc-apollon-pontou/0UPRezZg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45245.58333333334</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Aiolikos</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Niki Volos</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>2</v>
+      </c>
+      <c r="J80" t="n">
         <v>4.13</v>
       </c>
-      <c r="U78" t="inlineStr">
-        <is>
-          <t>12/11/2023 12:05</t>
-        </is>
-      </c>
-      <c r="V78" t="inlineStr">
-        <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/niki-volos-iraklis-fc/jypvKvs6/</t>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>14/11/2023 15:18</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>15/11/2023 13:38</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>14/11/2023 15:18</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>15/11/2023 12:23</t>
+        </is>
+      </c>
+      <c r="R80" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>14/11/2023 15:18</t>
+        </is>
+      </c>
+      <c r="T80" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>15/11/2023 13:38</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/aiolikos-fc-niki-volos/rgFWffl0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45245.58333333334</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Makedonikos</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>2</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Levadiakos</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>2</v>
+      </c>
+      <c r="J81" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>14/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>15/11/2023 13:31</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>14/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>15/11/2023 13:49</t>
+        </is>
+      </c>
+      <c r="R81" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>14/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T81" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>15/11/2023 13:11</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/makedonikos-neapolis-levadiakos/ddJzfE36/</t>
         </is>
       </c>
     </row>

--- a/2023/greece_super-league-2_2023-2024.xlsx
+++ b/2023/greece_super-league-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V81"/>
+  <dimension ref="A1:V89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,7 +665,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Makedonikos</t>
+          <t>Athens Kallithea</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -673,14 +673,14 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Iraklis 1908</t>
+          <t>Panachaiki</t>
         </is>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.45</v>
+        <v>1.2</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -688,15 +688,15 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>4.53</v>
+        <v>1.1</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>23/09/2023 13:19</t>
+          <t>23/09/2023 14:11</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>2.77</v>
+        <v>5.49</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -704,15 +704,15 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3.1</v>
+        <v>8.34</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>23/09/2023 13:19</t>
+          <t>23/09/2023 14:28</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>2.9</v>
+        <v>10.71</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -720,16 +720,16 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>1.89</v>
+        <v>27.96</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>23/09/2023 13:19</t>
+          <t>23/09/2023 14:28</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/makedonikos-neapolis-iraklis-fc/Io8qMUd1/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/athens-kallithea-panachaiki/bu6CP33g/</t>
         </is>
       </c>
     </row>
@@ -757,7 +757,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Athens Kallithea</t>
+          <t>Makedonikos</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -765,14 +765,14 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Panachaiki</t>
+          <t>Iraklis 1908</t>
         </is>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1.2</v>
+        <v>2.45</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -780,15 +780,15 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>1.1</v>
+        <v>4.53</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>23/09/2023 14:11</t>
+          <t>23/09/2023 13:19</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>5.49</v>
+        <v>2.77</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -796,15 +796,15 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>8.34</v>
+        <v>3.1</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>23/09/2023 14:28</t>
+          <t>23/09/2023 13:19</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>10.71</v>
+        <v>2.9</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -812,16 +812,16 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>27.96</v>
+        <v>1.89</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>23/09/2023 14:28</t>
+          <t>23/09/2023 13:19</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/athens-kallithea-panachaiki/bu6CP33g/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/makedonikos-neapolis-iraklis-fc/Io8qMUd1/</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Karditsa</t>
+          <t>AEL Larissa</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -949,63 +949,63 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>AEK Athens FC B</t>
+          <t>Kampaniakos</t>
         </is>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>1.7</v>
+        <v>1.29</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>23/09/2023 03:13</t>
+          <t>23/09/2023 04:12</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>2.42</v>
+        <v>1.31</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>24/09/2023 14:42</t>
+          <t>23/09/2023 13:23</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.31</v>
+        <v>4.51</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>23/09/2023 03:13</t>
+          <t>23/09/2023 04:12</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.11</v>
+        <v>4.77</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>24/09/2023 14:41</t>
+          <t>24/09/2023 13:03</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>4.43</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>23/09/2023 03:13</t>
+          <t>23/09/2023 04:12</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>2.97</v>
+        <v>10.02</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>24/09/2023 14:42</t>
+          <t>23/09/2023 13:23</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-aek/bsoWqYl8/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ael-larissa-kampaniakos/2DC3RPYt/</t>
         </is>
       </c>
     </row>
@@ -1033,7 +1033,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Panathinaikos B</t>
+          <t>Tilikratis L.</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -1041,63 +1041,63 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Kalamata</t>
+          <t>PAE Egaleo</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>3.59</v>
+        <v>2.47</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>23/09/2023 03:13</t>
+          <t>23/09/2023 04:12</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>4.39</v>
+        <v>3.26</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>24/09/2023 14:57</t>
+          <t>24/09/2023 14:31</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3.03</v>
+        <v>2.82</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>23/09/2023 03:13</t>
+          <t>23/09/2023 04:12</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>24/09/2023 14:57</t>
+          <t>24/09/2023 13:02</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>1.97</v>
+        <v>2.82</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>23/09/2023 03:13</t>
+          <t>23/09/2023 04:12</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>1.85</v>
+        <v>2.32</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>24/09/2023 14:57</t>
+          <t>24/09/2023 14:31</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/panathinaikos-kalamata/Wh4KNsY5/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/tilikratis-lefkada-pae-egaleo/pd8OM1mC/</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tilikratis L.</t>
+          <t>Panathinaikos B</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -1133,63 +1133,63 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>PAE Egaleo</t>
+          <t>Kalamata</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J8" t="n">
-        <v>2.47</v>
+        <v>3.59</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>23/09/2023 04:12</t>
+          <t>23/09/2023 03:13</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>3.26</v>
+        <v>4.39</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>24/09/2023 14:31</t>
+          <t>24/09/2023 14:57</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>2.82</v>
+        <v>3.03</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>23/09/2023 04:12</t>
+          <t>23/09/2023 03:13</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>24/09/2023 13:02</t>
+          <t>24/09/2023 14:57</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>2.82</v>
+        <v>1.97</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>23/09/2023 04:12</t>
+          <t>23/09/2023 03:13</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>2.32</v>
+        <v>1.85</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>24/09/2023 14:31</t>
+          <t>24/09/2023 14:57</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/tilikratis-lefkada-pae-egaleo/pd8OM1mC/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/panathinaikos-kalamata/Wh4KNsY5/</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>AEL Larissa</t>
+          <t>Karditsa</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -1225,63 +1225,63 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Kampaniakos</t>
+          <t>AEK Athens FC B</t>
         </is>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>1.29</v>
+        <v>1.7</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>23/09/2023 04:12</t>
+          <t>23/09/2023 03:13</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>1.31</v>
+        <v>2.42</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>23/09/2023 13:23</t>
+          <t>24/09/2023 14:42</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>4.51</v>
+        <v>3.31</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>23/09/2023 04:12</t>
+          <t>23/09/2023 03:13</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>4.77</v>
+        <v>3.11</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>24/09/2023 13:03</t>
+          <t>24/09/2023 14:41</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>8.710000000000001</v>
+        <v>4.43</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>23/09/2023 04:12</t>
+          <t>23/09/2023 03:13</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>10.02</v>
+        <v>2.97</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>23/09/2023 13:23</t>
+          <t>24/09/2023 14:42</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ael-larissa-kampaniakos/2DC3RPYt/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-aek/bsoWqYl8/</t>
         </is>
       </c>
     </row>
@@ -1861,71 +1861,71 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ilioupoli</t>
+          <t>Iraklis 1908</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Ionikos</t>
+          <t>Karditsa</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>3.4</v>
+        <v>1.51</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>30/09/2023 03:42</t>
+          <t>30/09/2023 02:13</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>3.51</v>
+        <v>1.95</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>01/10/2023 14:27</t>
+          <t>01/10/2023 13:08</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.1</v>
+        <v>3.71</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>30/09/2023 03:42</t>
+          <t>30/09/2023 02:13</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.04</v>
+        <v>3.11</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>01/10/2023 14:31</t>
+          <t>01/10/2023 13:08</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>2.01</v>
+        <v>5.51</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>30/09/2023 03:42</t>
+          <t>30/09/2023 02:13</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>2.16</v>
+        <v>4.19</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>01/10/2023 14:27</t>
+          <t>01/10/2023 13:02</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ilioupoli-ionikos/rV8HXcB5/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/iraklis-fc-karditsa/vqFOewjB/</t>
         </is>
       </c>
     </row>
@@ -1953,71 +1953,71 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Iraklis 1908</t>
+          <t>Ilioupoli</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Karditsa</t>
+          <t>Ionikos</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J17" t="n">
-        <v>1.51</v>
+        <v>3.4</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>30/09/2023 02:13</t>
+          <t>30/09/2023 03:42</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>1.95</v>
+        <v>3.51</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>01/10/2023 13:08</t>
+          <t>01/10/2023 14:27</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.71</v>
+        <v>3.1</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>30/09/2023 02:13</t>
+          <t>30/09/2023 03:42</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.11</v>
+        <v>3.04</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>01/10/2023 13:08</t>
+          <t>01/10/2023 14:31</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>5.51</v>
+        <v>2.01</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>30/09/2023 02:13</t>
+          <t>30/09/2023 03:42</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>4.19</v>
+        <v>2.16</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>01/10/2023 13:02</t>
+          <t>01/10/2023 14:27</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/iraklis-fc-karditsa/vqFOewjB/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ilioupoli-ionikos/rV8HXcB5/</t>
         </is>
       </c>
     </row>
@@ -2505,71 +2505,71 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>AEL Larissa</t>
+          <t>Kozani FC</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Iraklis 1908</t>
+          <t>Makedonikos</t>
         </is>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1.95</v>
+        <v>2.36</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>10/10/2023 02:12</t>
+          <t>10/10/2023 11:12</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>1.96</v>
+        <v>2.63</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>11/10/2023 14:52</t>
+          <t>11/10/2023 14:58</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.06</v>
+        <v>2.79</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>10/10/2023 02:12</t>
+          <t>10/10/2023 11:12</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.04</v>
+        <v>2.86</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>11/10/2023 14:52</t>
+          <t>11/10/2023 14:58</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>3.62</v>
+        <v>3.1</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>10/10/2023 02:12</t>
+          <t>10/10/2023 11:12</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>4.31</v>
+        <v>2.93</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>11/10/2023 14:52</t>
+          <t>11/10/2023 14:16</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ael-larissa-iraklis-fc/WhhFbXES/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kozani-fc-makedonikos-neapolis/t4a21ZU9/</t>
         </is>
       </c>
     </row>
@@ -2597,71 +2597,71 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Karditsa</t>
+          <t>AEL Larissa</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aiolikos</t>
+          <t>Iraklis 1908</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>10/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
         <v>1.96</v>
       </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>10/10/2023 11:12</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1.86</v>
-      </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>11/10/2023 14:54</t>
+          <t>11/10/2023 14:52</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>2.97</v>
+        <v>3.06</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>10/10/2023 11:12</t>
+          <t>10/10/2023 02:12</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.27</v>
+        <v>3.04</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>11/10/2023 14:54</t>
+          <t>11/10/2023 14:52</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>3.86</v>
+        <v>3.62</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>10/10/2023 11:12</t>
+          <t>10/10/2023 02:12</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>4.4</v>
+        <v>4.31</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>11/10/2023 14:54</t>
+          <t>11/10/2023 14:52</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-aiolikos-fc/2JmBaDaM/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ael-larissa-iraklis-fc/WhhFbXES/</t>
         </is>
       </c>
     </row>
@@ -2689,22 +2689,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Kozani FC</t>
+          <t>Karditsa</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Makedonikos</t>
+          <t>Aiolikos</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>2.36</v>
+        <v>1.96</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2712,15 +2712,15 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2.63</v>
+        <v>1.86</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>11/10/2023 14:58</t>
+          <t>11/10/2023 14:54</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>2.79</v>
+        <v>2.97</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2728,15 +2728,15 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>2.86</v>
+        <v>3.27</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>11/10/2023 14:58</t>
+          <t>11/10/2023 14:54</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>3.1</v>
+        <v>3.86</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2744,16 +2744,16 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>2.93</v>
+        <v>4.4</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>11/10/2023 14:16</t>
+          <t>11/10/2023 14:54</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kozani-fc-makedonikos-neapolis/t4a21ZU9/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-aiolikos-fc/2JmBaDaM/</t>
         </is>
       </c>
     </row>
@@ -3057,71 +3057,71 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Makedonikos</t>
+          <t>Levadiakos</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Karditsa</t>
+          <t>Apollon Pontou</t>
         </is>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1.87</v>
+        <v>1.17</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>14/10/2023 02:12</t>
+          <t>15/10/2023 02:12</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2.41</v>
+        <v>1.09</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>15/10/2023 14:49</t>
+          <t>15/10/2023 14:59</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.02</v>
+        <v>6.45</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>14/10/2023 02:12</t>
+          <t>15/10/2023 02:12</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.12</v>
+        <v>9.52</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>15/10/2023 14:48</t>
+          <t>15/10/2023 14:59</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>3.99</v>
+        <v>13.81</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>14/10/2023 02:12</t>
+          <t>15/10/2023 02:12</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>2.98</v>
+        <v>24.08</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>15/10/2023 14:49</t>
+          <t>15/10/2023 14:59</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/makedonikos-neapolis-karditsa/t4LXGEUd/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/levadiakos-apollon-pontou/KfKyGYq3/</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Niki Volos</t>
+          <t>Makedonikos</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -3157,63 +3157,63 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Kozani FC</t>
+          <t>Karditsa</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>1.43</v>
+        <v>1.87</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>15/10/2023 02:12</t>
+          <t>14/10/2023 02:12</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>1.55</v>
+        <v>2.41</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>15/10/2023 11:11</t>
+          <t>15/10/2023 14:49</t>
         </is>
       </c>
       <c r="N30" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>14/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P30" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>15/10/2023 14:48</t>
+        </is>
+      </c>
+      <c r="R30" t="n">
         <v>3.99</v>
       </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>15/10/2023 02:12</t>
-        </is>
-      </c>
-      <c r="P30" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>15/10/2023 14:58</t>
-        </is>
-      </c>
-      <c r="R30" t="n">
-        <v>7.33</v>
-      </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>15/10/2023 02:12</t>
+          <t>14/10/2023 02:12</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>4.75</v>
+        <v>2.98</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>15/10/2023 14:58</t>
+          <t>15/10/2023 14:49</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/niki-volos-kozani-fc/S0XkhVid/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/makedonikos-neapolis-karditsa/t4LXGEUd/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Levadiakos</t>
+          <t>Niki Volos</t>
         </is>
       </c>
       <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Kozani FC</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
         <v>1</v>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Apollon Pontou</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
       <c r="J31" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.09</v>
+        <v>1.55</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>15/10/2023 14:59</t>
+          <t>15/10/2023 11:11</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>6.45</v>
+        <v>3.99</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>9.52</v>
+        <v>3.61</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>15/10/2023 14:59</t>
+          <t>15/10/2023 14:58</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>13.81</v>
+        <v>7.33</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>24.08</v>
+        <v>4.75</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>15/10/2023 14:59</t>
+          <t>15/10/2023 14:58</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/levadiakos-apollon-pontou/KfKyGYq3/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/niki-volos-kozani-fc/S0XkhVid/</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Kozani FC</t>
+          <t>Apollon Pontou</t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -3985,63 +3985,63 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Karditsa</t>
+          <t>Niki Volos</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J39" t="n">
-        <v>2.75</v>
+        <v>4.17</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>22/10/2023 12:12</t>
+          <t>21/10/2023 02:13</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2.58</v>
+        <v>9.99</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>22/10/2023 14:49</t>
+          <t>22/10/2023 14:56</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>2.74</v>
+        <v>3.18</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>22/10/2023 12:12</t>
+          <t>21/10/2023 02:13</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>2.74</v>
+        <v>4.44</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>22/10/2023 13:54</t>
+          <t>22/10/2023 14:56</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>2.92</v>
+        <v>1.78</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>22/10/2023 12:12</t>
+          <t>21/10/2023 02:13</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>3.14</v>
+        <v>1.34</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>22/10/2023 14:49</t>
+          <t>22/10/2023 14:56</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kozani-fc-karditsa/OnHhCjqS/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/apollon-pontou-niki-volos/UTgL7Aiq/</t>
         </is>
       </c>
     </row>
@@ -4069,7 +4069,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Apollon Pontou</t>
+          <t>AEL Larissa</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -4077,14 +4077,14 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Niki Volos</t>
+          <t>Makedonikos</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>4.17</v>
+        <v>1.67</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>9.99</v>
+        <v>1.5</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.18</v>
+        <v>3.22</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,7 +4108,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>4.44</v>
+        <v>3.72</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         </is>
       </c>
       <c r="R40" t="n">
-        <v>1.78</v>
+        <v>4.89</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>1.34</v>
+        <v>7.37</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/apollon-pontou-niki-volos/UTgL7Aiq/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ael-larissa-makedonikos-neapolis/8KhP6U6k/</t>
         </is>
       </c>
     </row>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>AEL Larissa</t>
+          <t>Kozani FC</t>
         </is>
       </c>
       <c r="G41" t="n">
@@ -4169,63 +4169,63 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Makedonikos</t>
+          <t>Karditsa</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>1.67</v>
+        <v>2.75</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>21/10/2023 02:13</t>
+          <t>22/10/2023 12:12</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>1.5</v>
+        <v>2.58</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>22/10/2023 14:56</t>
+          <t>22/10/2023 14:49</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.22</v>
+        <v>2.74</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>21/10/2023 02:13</t>
+          <t>22/10/2023 12:12</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.72</v>
+        <v>2.74</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>22/10/2023 14:56</t>
+          <t>22/10/2023 13:54</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>4.89</v>
+        <v>2.92</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>21/10/2023 02:13</t>
+          <t>22/10/2023 12:12</t>
         </is>
       </c>
       <c r="T41" t="n">
-        <v>7.37</v>
+        <v>3.14</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>22/10/2023 14:56</t>
+          <t>22/10/2023 14:49</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ael-larissa-makedonikos-neapolis/8KhP6U6k/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kozani-fc-karditsa/OnHhCjqS/</t>
         </is>
       </c>
     </row>
@@ -4713,71 +4713,71 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>PAE Egaleo</t>
+          <t>Giouchtas</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Athens Kallithea</t>
+          <t>Panathinaikos B</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>4.46</v>
+        <v>1.83</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>27/10/2023 02:13</t>
+          <t>28/10/2023 01:12</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>7.03</v>
+        <v>1.91</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>28/10/2023 12:23</t>
+          <t>28/10/2023 13:55</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.12</v>
+        <v>3.35</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>27/10/2023 02:13</t>
+          <t>28/10/2023 01:12</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.72</v>
+        <v>3.24</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>28/10/2023 12:23</t>
+          <t>28/10/2023 13:55</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>1.75</v>
+        <v>4.09</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>27/10/2023 02:13</t>
+          <t>28/10/2023 01:12</t>
         </is>
       </c>
       <c r="T47" t="n">
-        <v>1.52</v>
+        <v>4.19</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>28/10/2023 12:23</t>
+          <t>28/10/2023 13:55</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/pae-egaleo-athens-kallithea/WYetcEvH/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/giouchtas-panathinaikos/AJ7XbzA4/</t>
         </is>
       </c>
     </row>
@@ -4805,22 +4805,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>PAE Chania</t>
+          <t>Kalamata</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Panachaiki</t>
+          <t>Ilioupoli</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1.22</v>
+        <v>1.38</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>28/10/2023 13:34</t>
+          <t>28/10/2023 13:43</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>4.07</v>
+        <v>3.96</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>5.62</v>
+        <v>4.35</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>28/10/2023 13:58</t>
+          <t>28/10/2023 13:43</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>6.07</v>
+        <v>5.97</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>14.35</v>
+        <v>8.56</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>28/10/2023 13:58</t>
+          <t>28/10/2023 13:43</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/pae-chania-panachaiki/xYNDv6Ok/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kalamata-ilioupoli/bsP9un9q/</t>
         </is>
       </c>
     </row>
@@ -4897,71 +4897,71 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Giouchtas</t>
+          <t>PAE Chania</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Panathinaikos B</t>
+          <t>Panachaiki</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>1.83</v>
+        <v>1.42</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>28/10/2023 01:12</t>
+          <t>27/10/2023 02:13</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>1.91</v>
+        <v>1.22</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>28/10/2023 13:55</t>
+          <t>28/10/2023 13:34</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.35</v>
+        <v>4.07</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>28/10/2023 01:12</t>
+          <t>27/10/2023 02:13</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.24</v>
+        <v>5.62</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>28/10/2023 13:55</t>
+          <t>28/10/2023 13:58</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>4.09</v>
+        <v>6.07</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>28/10/2023 01:12</t>
+          <t>27/10/2023 02:13</t>
         </is>
       </c>
       <c r="T49" t="n">
-        <v>4.19</v>
+        <v>14.35</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>28/10/2023 13:55</t>
+          <t>28/10/2023 13:58</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/giouchtas-panathinaikos/AJ7XbzA4/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/pae-chania-panachaiki/xYNDv6Ok/</t>
         </is>
       </c>
     </row>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Kalamata</t>
+          <t>PAE Egaleo</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Ilioupoli</t>
+          <t>Athens Kallithea</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>1.44</v>
+        <v>4.46</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,15 +5012,15 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>1.38</v>
+        <v>7.03</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>28/10/2023 13:43</t>
+          <t>28/10/2023 12:23</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.96</v>
+        <v>3.12</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,15 +5028,15 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>4.35</v>
+        <v>3.72</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>28/10/2023 13:43</t>
+          <t>28/10/2023 12:23</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>5.97</v>
+        <v>1.75</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,16 +5044,16 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>8.56</v>
+        <v>1.52</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>28/10/2023 13:43</t>
+          <t>28/10/2023 12:23</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kalamata-ilioupoli/bsP9un9q/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/pae-egaleo-athens-kallithea/WYetcEvH/</t>
         </is>
       </c>
     </row>
@@ -5173,71 +5173,71 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Karditsa</t>
+          <t>Diagoras</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>AEL Larissa</t>
+          <t>Ionikos</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>3.52</v>
+        <v>3.43</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>28/10/2023 03:12</t>
+          <t>29/10/2023 02:12</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>3.94</v>
+        <v>3.36</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>29/10/2023 13:57</t>
+          <t>29/10/2023 13:40</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>2.91</v>
+        <v>3.09</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>28/10/2023 03:12</t>
+          <t>29/10/2023 02:12</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.08</v>
+        <v>3.01</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>29/10/2023 13:57</t>
+          <t>29/10/2023 13:40</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>2.05</v>
+        <v>2.12</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>28/10/2023 03:12</t>
+          <t>29/10/2023 02:12</t>
         </is>
       </c>
       <c r="T52" t="n">
-        <v>2.03</v>
+        <v>2.27</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>29/10/2023 13:57</t>
+          <t>29/10/2023 13:40</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-ael-larissa/46YNRVrF/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/diagoras-fc-ionikos/hrcxbfPA/</t>
         </is>
       </c>
     </row>
@@ -5357,71 +5357,71 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Diagoras</t>
+          <t>Karditsa</t>
         </is>
       </c>
       <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>AEL Larissa</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
         <v>2</v>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Ionikos</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
       <c r="J54" t="n">
-        <v>3.43</v>
+        <v>3.52</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>29/10/2023 02:12</t>
+          <t>28/10/2023 03:12</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>3.36</v>
+        <v>3.94</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>29/10/2023 13:40</t>
+          <t>29/10/2023 13:57</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.09</v>
+        <v>2.91</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>29/10/2023 02:12</t>
+          <t>28/10/2023 03:12</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.01</v>
+        <v>3.08</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>29/10/2023 13:40</t>
+          <t>29/10/2023 13:57</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>29/10/2023 02:12</t>
+          <t>28/10/2023 03:12</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>2.27</v>
+        <v>2.03</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>29/10/2023 13:40</t>
+          <t>29/10/2023 13:57</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/diagoras-fc-ionikos/hrcxbfPA/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-ael-larissa/46YNRVrF/</t>
         </is>
       </c>
     </row>
@@ -6093,22 +6093,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Kampaniakos</t>
+          <t>Ionikos</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Apollon Pontou</t>
+          <t>Kalamata</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J62" t="n">
-        <v>2.17</v>
+        <v>2.56</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,15 +6116,15 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>1.97</v>
+        <v>2.88</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>05/11/2023 12:16</t>
+          <t>05/11/2023 13:59</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>2.99</v>
+        <v>3</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -6132,15 +6132,15 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>3.11</v>
+        <v>3.15</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>05/11/2023 12:16</t>
+          <t>05/11/2023 13:59</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>3.42</v>
+        <v>2.82</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -6148,16 +6148,16 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>4.12</v>
+        <v>2.46</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>05/11/2023 12:16</t>
+          <t>05/11/2023 13:59</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kampaniakos-apollon-pontou/CUdC5uSC/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ionikos-kalamata/2JXbBSs2/</t>
         </is>
       </c>
     </row>
@@ -6185,22 +6185,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Kozani FC</t>
+          <t>Panathinaikos B</t>
         </is>
       </c>
       <c r="G63" t="n">
+        <v>1</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>PAE Egaleo</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>AEL Larissa</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
-        <v>2</v>
-      </c>
       <c r="J63" t="n">
-        <v>3.62</v>
+        <v>2.48</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,15 +6208,15 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>4.52</v>
+        <v>2.59</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>05/11/2023 13:40</t>
+          <t>05/11/2023 13:55</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>2.95</v>
+        <v>2.88</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6224,15 +6224,15 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3.12</v>
+        <v>3.01</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>05/11/2023 13:40</t>
+          <t>05/11/2023 13:55</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -6240,16 +6240,16 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>1.88</v>
+        <v>2.83</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>05/11/2023 13:40</t>
+          <t>05/11/2023 03:41</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kozani-fc-ael-larissa/U5776LC6/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/panathinaikos-pae-egaleo/OSYfC8Se/</t>
         </is>
       </c>
     </row>
@@ -6277,71 +6277,71 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Ionikos</t>
+          <t>AEK Athens FC B</t>
         </is>
       </c>
       <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Niki Volos</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
         <v>3</v>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Kalamata</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
-        <v>2</v>
-      </c>
       <c r="J64" t="n">
-        <v>2.56</v>
+        <v>4.16</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>05/11/2023 03:13</t>
+          <t>04/11/2023 02:12</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>2.88</v>
+        <v>4.09</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>05/11/2023 13:59</t>
+          <t>05/11/2023 13:57</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>05/11/2023 03:13</t>
+          <t>04/11/2023 02:12</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.15</v>
+        <v>3.01</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>05/11/2023 13:59</t>
+          <t>05/11/2023 13:57</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>2.82</v>
+        <v>1.79</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>05/11/2023 03:13</t>
+          <t>04/11/2023 02:12</t>
         </is>
       </c>
       <c r="T64" t="n">
-        <v>2.46</v>
+        <v>2.02</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>05/11/2023 13:59</t>
+          <t>05/11/2023 13:57</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ionikos-kalamata/2JXbBSs2/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/aek-niki-volos/vykbTrKJ/</t>
         </is>
       </c>
     </row>
@@ -6369,7 +6369,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Panathinaikos B</t>
+          <t>Kampaniakos</t>
         </is>
       </c>
       <c r="G65" t="n">
@@ -6377,63 +6377,63 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>PAE Egaleo</t>
+          <t>Apollon Pontou</t>
         </is>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>2.48</v>
+        <v>2.17</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>04/11/2023 02:12</t>
+          <t>05/11/2023 03:13</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>2.59</v>
+        <v>1.97</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>05/11/2023 13:55</t>
+          <t>05/11/2023 12:16</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>2.88</v>
+        <v>2.99</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>04/11/2023 02:12</t>
+          <t>05/11/2023 03:13</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.01</v>
+        <v>3.11</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>05/11/2023 13:55</t>
+          <t>05/11/2023 12:16</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>2.75</v>
+        <v>3.42</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>04/11/2023 02:12</t>
+          <t>05/11/2023 03:13</t>
         </is>
       </c>
       <c r="T65" t="n">
-        <v>2.83</v>
+        <v>4.12</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>05/11/2023 03:41</t>
+          <t>05/11/2023 12:16</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/panathinaikos-pae-egaleo/OSYfC8Se/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kampaniakos-apollon-pontou/CUdC5uSC/</t>
         </is>
       </c>
     </row>
@@ -6461,7 +6461,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>AEK Athens FC B</t>
+          <t>Kozani FC</t>
         </is>
       </c>
       <c r="G66" t="n">
@@ -6469,14 +6469,14 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Niki Volos</t>
+          <t>AEL Larissa</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J66" t="n">
-        <v>4.16</v>
+        <v>3.62</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -6484,15 +6484,15 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>4.09</v>
+        <v>4.52</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>05/11/2023 13:57</t>
+          <t>05/11/2023 13:40</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3.15</v>
+        <v>2.95</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -6500,15 +6500,15 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.01</v>
+        <v>3.12</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>05/11/2023 13:57</t>
+          <t>05/11/2023 13:40</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>1.79</v>
+        <v>2</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>2.02</v>
+        <v>1.88</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>05/11/2023 13:57</t>
+          <t>05/11/2023 13:40</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/aek-niki-volos/vykbTrKJ/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kozani-fc-ael-larissa/U5776LC6/</t>
         </is>
       </c>
     </row>
@@ -7197,71 +7197,71 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Niki Volos</t>
+          <t>Levadiakos</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Iraklis 1908</t>
+          <t>Aiolikos</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>1.87</v>
+        <v>1.24</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>11/11/2023 02:12</t>
+          <t>11/11/2023 04:43</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>2.02</v>
+        <v>1.27</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
+          <t>12/11/2023 11:59</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>11/11/2023 04:43</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
           <t>12/11/2023 12:05</t>
         </is>
       </c>
-      <c r="N74" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="O74" t="inlineStr">
-        <is>
-          <t>11/11/2023 02:12</t>
-        </is>
-      </c>
-      <c r="P74" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q74" t="inlineStr">
-        <is>
-          <t>12/11/2023 12:12</t>
-        </is>
-      </c>
       <c r="R74" t="n">
-        <v>3.98</v>
+        <v>10.75</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>11/11/2023 02:12</t>
+          <t>11/11/2023 04:43</t>
         </is>
       </c>
       <c r="T74" t="n">
-        <v>4.13</v>
+        <v>12.44</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>12/11/2023 12:05</t>
+          <t>12/11/2023 11:59</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/niki-volos-iraklis-fc/jypvKvs6/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/levadiakos-aiolikos-fc/URrrJbdC/</t>
         </is>
       </c>
     </row>
@@ -7289,71 +7289,71 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Levadiakos</t>
+          <t>Panachaiki</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aiolikos</t>
+          <t>Ionikos</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>1.24</v>
+        <v>4.2</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>11/11/2023 04:43</t>
+          <t>11/11/2023 02:12</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>1.27</v>
+        <v>6.83</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>12/11/2023 11:59</t>
+          <t>12/11/2023 13:58</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>4.72</v>
+        <v>3.26</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>11/11/2023 04:43</t>
+          <t>11/11/2023 02:12</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>4.98</v>
+        <v>3.77</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>12/11/2023 12:05</t>
+          <t>12/11/2023 13:58</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>10.75</v>
+        <v>1.75</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>11/11/2023 04:43</t>
+          <t>11/11/2023 02:12</t>
         </is>
       </c>
       <c r="T75" t="n">
-        <v>12.44</v>
+        <v>1.52</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>12/11/2023 11:59</t>
+          <t>12/11/2023 13:58</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/levadiakos-aiolikos-fc/URrrJbdC/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/panachaiki-ionikos/2JgUQ7sk/</t>
         </is>
       </c>
     </row>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Ilioupoli</t>
+          <t>Niki Volos</t>
         </is>
       </c>
       <c r="G76" t="n">
+        <v>3</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Iraklis 1908</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
         <v>1</v>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>Athens Kallithea</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
-        <v>2</v>
-      </c>
       <c r="J76" t="n">
-        <v>4.68</v>
+        <v>1.87</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>4.56</v>
+        <v>2.02</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>12/11/2023 13:55</t>
+          <t>12/11/2023 12:05</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.36</v>
+        <v>3.03</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.13</v>
+        <v>3</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>12/11/2023 13:55</t>
+          <t>12/11/2023 12:12</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>1.65</v>
+        <v>3.98</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>1.88</v>
+        <v>4.13</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>12/11/2023 13:55</t>
+          <t>12/11/2023 12:05</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ilioupoli-athens-kallithea/GMcYPRde/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/niki-volos-iraklis-fc/jypvKvs6/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>PAE Chania</t>
+          <t>Ilioupoli</t>
         </is>
       </c>
       <c r="G77" t="n">
+        <v>1</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Athens Kallithea</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
         <v>2</v>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>Panathinaikos B</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
       <c r="J77" t="n">
-        <v>1.37</v>
+        <v>4.68</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.32</v>
+        <v>4.56</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>12/11/2023 12:05</t>
+          <t>12/11/2023 13:55</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>4.28</v>
+        <v>3.36</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>4.79</v>
+        <v>3.13</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>12/11/2023 12:07</t>
+          <t>12/11/2023 13:55</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>6.55</v>
+        <v>1.65</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>9.890000000000001</v>
+        <v>1.88</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>12/11/2023 12:07</t>
+          <t>12/11/2023 13:55</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/pae-chania-panathinaikos/8dfQRmSr/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ilioupoli-athens-kallithea/GMcYPRde/</t>
         </is>
       </c>
     </row>
@@ -7565,22 +7565,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Panachaiki</t>
+          <t>PAE Chania</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Ionikos</t>
+          <t>Panathinaikos B</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>4.2</v>
+        <v>1.37</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,15 +7588,15 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>6.83</v>
+        <v>1.32</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>12/11/2023 13:58</t>
+          <t>12/11/2023 12:05</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.26</v>
+        <v>4.28</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -7604,15 +7604,15 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.77</v>
+        <v>4.79</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>12/11/2023 13:58</t>
+          <t>12/11/2023 12:07</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>1.75</v>
+        <v>6.55</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
@@ -7620,16 +7620,16 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>1.52</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>12/11/2023 13:58</t>
+          <t>12/11/2023 12:07</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/panachaiki-ionikos/2JgUQ7sk/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/pae-chania-panathinaikos/8dfQRmSr/</t>
         </is>
       </c>
     </row>
@@ -7657,7 +7657,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Iraklis 1908</t>
+          <t>Aiolikos</t>
         </is>
       </c>
       <c r="G79" t="n">
@@ -7665,63 +7665,63 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Apollon Pontou</t>
+          <t>Niki Volos</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J79" t="n">
-        <v>1.3</v>
+        <v>4.13</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>14/11/2023 02:12</t>
+          <t>14/11/2023 15:18</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>1.42</v>
+        <v>3.66</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>15/11/2023 12:58</t>
+          <t>15/11/2023 13:38</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>4.59</v>
+        <v>3.43</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>14/11/2023 02:12</t>
+          <t>14/11/2023 15:18</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>4.2</v>
+        <v>3.18</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>15/11/2023 12:58</t>
+          <t>15/11/2023 12:23</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>7.84</v>
+        <v>1.83</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>14/11/2023 02:12</t>
+          <t>14/11/2023 15:18</t>
         </is>
       </c>
       <c r="T79" t="n">
-        <v>7.94</v>
+        <v>2.07</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>15/11/2023 12:58</t>
+          <t>15/11/2023 13:38</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/iraklis-fc-apollon-pontou/0UPRezZg/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/aiolikos-fc-niki-volos/rgFWffl0/</t>
         </is>
       </c>
     </row>
@@ -7749,7 +7749,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Aiolikos</t>
+          <t>Iraklis 1908</t>
         </is>
       </c>
       <c r="G80" t="n">
@@ -7757,63 +7757,63 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Niki Volos</t>
+          <t>Apollon Pontou</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>4.13</v>
+        <v>1.3</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>14/11/2023 15:18</t>
+          <t>14/11/2023 02:12</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>3.66</v>
+        <v>1.42</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>15/11/2023 13:38</t>
+          <t>15/11/2023 12:58</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3.43</v>
+        <v>4.59</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>14/11/2023 15:18</t>
+          <t>14/11/2023 02:12</t>
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3.18</v>
+        <v>4.2</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>15/11/2023 12:23</t>
+          <t>15/11/2023 12:58</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>1.83</v>
+        <v>7.84</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>14/11/2023 15:18</t>
+          <t>14/11/2023 02:12</t>
         </is>
       </c>
       <c r="T80" t="n">
-        <v>2.07</v>
+        <v>7.94</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>15/11/2023 13:38</t>
+          <t>15/11/2023 12:58</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/aiolikos-fc-niki-volos/rgFWffl0/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/iraklis-fc-apollon-pontou/0UPRezZg/</t>
         </is>
       </c>
     </row>
@@ -7906,6 +7906,742 @@
       <c r="V81" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/greece/super-league-2/makedonikos-neapolis-levadiakos/ddJzfE36/</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45248.58333333334</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>PAE Egaleo</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Olympiacos Piraeus B</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>17/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>18/11/2023 13:58</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>17/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>18/11/2023 13:48</t>
+        </is>
+      </c>
+      <c r="R82" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>17/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T82" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>18/11/2023 13:58</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/pae-egaleo-olympiacos-piraeus/bomwPoC1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>45249.58333333334</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Kampaniakos</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>1</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Iraklis 1908</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>3</v>
+      </c>
+      <c r="J83" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>18/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>19/11/2023 12:04</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>18/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>19/11/2023 12:52</t>
+        </is>
+      </c>
+      <c r="R83" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>18/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T83" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>19/11/2023 12:52</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kampaniakos-iraklis-fc/6R0RGyBJ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>45249.58333333334</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Giouchtas</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>PAE Chania</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>18/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>19/11/2023 13:14</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>18/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>19/11/2023 12:51</t>
+        </is>
+      </c>
+      <c r="R84" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>18/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T84" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>19/11/2023 13:14</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/giouchtas-pae-chania/4rzPnk48/</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>45249.58333333334</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Ionikos</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Athens Kallithea</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>18/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>19/11/2023 13:29</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>18/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P85" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>19/11/2023 13:29</t>
+        </is>
+      </c>
+      <c r="R85" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>18/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T85" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>19/11/2023 13:29</t>
+        </is>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ionikos-athens-kallithea/v1SypmlR/</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>45249.58333333334</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Kalamata</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>1</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Diagoras</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>2</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>18/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>19/11/2023 13:49</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>18/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P86" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>19/11/2023 13:56</t>
+        </is>
+      </c>
+      <c r="R86" t="n">
+        <v>8.08</v>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>18/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T86" t="n">
+        <v>12.07</v>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>19/11/2023 13:56</t>
+        </is>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kalamata-diagoras-fc/xxnsO5R7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>45249.58333333334</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Tilikratis L.</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>2</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Panachaiki</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>2</v>
+      </c>
+      <c r="J87" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>18/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>19/11/2023 13:54</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>18/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P87" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>19/11/2023 13:54</t>
+        </is>
+      </c>
+      <c r="R87" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>18/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T87" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>19/11/2023 13:51</t>
+        </is>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/tilikratis-lefkada-panachaiki/rZYSo9JE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>45249.58333333334</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Apollon Pontou</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Aiolikos</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>19/11/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>19/11/2023 13:41</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>19/11/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P88" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>19/11/2023 13:24</t>
+        </is>
+      </c>
+      <c r="R88" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>19/11/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T88" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>19/11/2023 13:41</t>
+        </is>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/apollon-pontou-aiolikos-fc/pIaVFeQP/</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>45249.58333333334</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Karditsa</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>2</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Levadiakos</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>18/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>19/11/2023 13:50</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>18/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P89" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>19/11/2023 13:50</t>
+        </is>
+      </c>
+      <c r="R89" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>18/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T89" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>19/11/2023 13:50</t>
+        </is>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-levadiakos/2cncBFYt/</t>
         </is>
       </c>
     </row>

--- a/2023/greece_super-league-2_2023-2024.xlsx
+++ b/2023/greece_super-league-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V89"/>
+  <dimension ref="A1:V90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1585,71 +1585,71 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Panachaiki</t>
+          <t>PAOK B</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Panathinaikos B</t>
+          <t>Kampaniakos</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J13" t="n">
-        <v>2.03</v>
+        <v>1.46</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>29/09/2023 02:12</t>
+          <t>30/09/2023 03:12</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>2.78</v>
+        <v>1.52</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>30/09/2023 14:56</t>
+          <t>30/09/2023 13:01</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.16</v>
+        <v>4.27</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>29/09/2023 02:12</t>
+          <t>30/09/2023 03:12</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>2.92</v>
+        <v>4.05</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>30/09/2023 13:25</t>
+          <t>30/09/2023 13:17</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>3.27</v>
+        <v>5.93</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>29/09/2023 02:12</t>
+          <t>30/09/2023 03:12</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>2.72</v>
+        <v>6.09</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>30/09/2023 14:56</t>
+          <t>30/09/2023 13:17</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/panachaiki-panathinaikos/xh8LWHQB/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/paok-kampaniakos/S6W0xkkj/</t>
         </is>
       </c>
     </row>
@@ -1677,71 +1677,71 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>PAOK B</t>
+          <t>Panachaiki</t>
         </is>
       </c>
       <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Panathinaikos B</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
         <v>2</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Kampaniakos</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
-        <v>3</v>
-      </c>
       <c r="J14" t="n">
-        <v>1.46</v>
+        <v>2.03</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>30/09/2023 03:12</t>
+          <t>29/09/2023 02:12</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1.52</v>
+        <v>2.78</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>30/09/2023 13:01</t>
+          <t>30/09/2023 14:56</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>4.27</v>
+        <v>3.16</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>30/09/2023 03:12</t>
+          <t>29/09/2023 02:12</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>4.05</v>
+        <v>2.92</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>30/09/2023 13:17</t>
+          <t>30/09/2023 13:25</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>5.93</v>
+        <v>3.27</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>30/09/2023 03:12</t>
+          <t>29/09/2023 02:12</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>6.09</v>
+        <v>2.72</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>30/09/2023 13:17</t>
+          <t>30/09/2023 14:56</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/paok-kampaniakos/S6W0xkkj/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/panachaiki-panathinaikos/xh8LWHQB/</t>
         </is>
       </c>
     </row>
@@ -2505,71 +2505,71 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Kozani FC</t>
+          <t>AEL Larissa</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Makedonikos</t>
+          <t>Iraklis 1908</t>
         </is>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>2.36</v>
+        <v>1.95</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>10/10/2023 11:12</t>
+          <t>10/10/2023 02:12</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.63</v>
+        <v>1.96</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>11/10/2023 14:58</t>
+          <t>11/10/2023 14:52</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>2.79</v>
+        <v>3.06</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>10/10/2023 11:12</t>
+          <t>10/10/2023 02:12</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>2.86</v>
+        <v>3.04</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>11/10/2023 14:58</t>
+          <t>11/10/2023 14:52</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>3.1</v>
+        <v>3.62</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>10/10/2023 11:12</t>
+          <t>10/10/2023 02:12</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>2.93</v>
+        <v>4.31</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>11/10/2023 14:16</t>
+          <t>11/10/2023 14:52</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kozani-fc-makedonikos-neapolis/t4a21ZU9/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ael-larissa-iraklis-fc/WhhFbXES/</t>
         </is>
       </c>
     </row>
@@ -2597,71 +2597,71 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>AEL Larissa</t>
+          <t>Karditsa</t>
         </is>
       </c>
       <c r="G24" t="n">
+        <v>3</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Aiolikos</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
         <v>1</v>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Iraklis 1908</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
       <c r="J24" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>10/10/2023 02:12</t>
+          <t>10/10/2023 11:12</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>1.96</v>
+        <v>1.86</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>11/10/2023 14:52</t>
+          <t>11/10/2023 14:54</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.06</v>
+        <v>2.97</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>10/10/2023 02:12</t>
+          <t>10/10/2023 11:12</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.04</v>
+        <v>3.27</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>11/10/2023 14:52</t>
+          <t>11/10/2023 14:54</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>3.62</v>
+        <v>3.86</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>10/10/2023 02:12</t>
+          <t>10/10/2023 11:12</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>4.31</v>
+        <v>4.4</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>11/10/2023 14:52</t>
+          <t>11/10/2023 14:54</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ael-larissa-iraklis-fc/WhhFbXES/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-aiolikos-fc/2JmBaDaM/</t>
         </is>
       </c>
     </row>
@@ -2689,22 +2689,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Karditsa</t>
+          <t>Kozani FC</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Aiolikos</t>
+          <t>Makedonikos</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.96</v>
+        <v>2.36</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2712,15 +2712,15 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>1.86</v>
+        <v>2.63</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>11/10/2023 14:54</t>
+          <t>11/10/2023 14:58</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>2.97</v>
+        <v>2.79</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2728,15 +2728,15 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.27</v>
+        <v>2.86</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>11/10/2023 14:54</t>
+          <t>11/10/2023 14:58</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>3.86</v>
+        <v>3.1</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2744,16 +2744,16 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>4.4</v>
+        <v>2.93</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>11/10/2023 14:54</t>
+          <t>11/10/2023 14:16</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-aiolikos-fc/2JmBaDaM/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kozani-fc-makedonikos-neapolis/t4a21ZU9/</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Apollon Pontou</t>
+          <t>Kozani FC</t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -3985,63 +3985,63 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Niki Volos</t>
+          <t>Karditsa</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>4.17</v>
+        <v>2.75</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>21/10/2023 02:13</t>
+          <t>22/10/2023 12:12</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>9.99</v>
+        <v>2.58</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>22/10/2023 14:56</t>
+          <t>22/10/2023 14:49</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.18</v>
+        <v>2.74</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>21/10/2023 02:13</t>
+          <t>22/10/2023 12:12</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>4.44</v>
+        <v>2.74</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>22/10/2023 14:56</t>
+          <t>22/10/2023 13:54</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>1.78</v>
+        <v>2.92</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>21/10/2023 02:13</t>
+          <t>22/10/2023 12:12</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>1.34</v>
+        <v>3.14</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>22/10/2023 14:56</t>
+          <t>22/10/2023 14:49</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/apollon-pontou-niki-volos/UTgL7Aiq/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kozani-fc-karditsa/OnHhCjqS/</t>
         </is>
       </c>
     </row>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Kozani FC</t>
+          <t>Apollon Pontou</t>
         </is>
       </c>
       <c r="G41" t="n">
@@ -4169,63 +4169,63 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Karditsa</t>
+          <t>Niki Volos</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J41" t="n">
-        <v>2.75</v>
+        <v>4.17</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>22/10/2023 12:12</t>
+          <t>21/10/2023 02:13</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2.58</v>
+        <v>9.99</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>22/10/2023 14:49</t>
+          <t>22/10/2023 14:56</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>2.74</v>
+        <v>3.18</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>22/10/2023 12:12</t>
+          <t>21/10/2023 02:13</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>2.74</v>
+        <v>4.44</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>22/10/2023 13:54</t>
+          <t>22/10/2023 14:56</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>2.92</v>
+        <v>1.78</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>22/10/2023 12:12</t>
+          <t>21/10/2023 02:13</t>
         </is>
       </c>
       <c r="T41" t="n">
-        <v>3.14</v>
+        <v>1.34</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>22/10/2023 14:49</t>
+          <t>22/10/2023 14:56</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kozani-fc-karditsa/OnHhCjqS/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/apollon-pontou-niki-volos/UTgL7Aiq/</t>
         </is>
       </c>
     </row>
@@ -4621,71 +4621,71 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Levadiakos</t>
+          <t>PAE Chania</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>AEK Athens FC B</t>
+          <t>Panachaiki</t>
         </is>
       </c>
       <c r="I46" t="n">
         <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>1.3</v>
+        <v>1.42</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>28/10/2023 01:12</t>
+          <t>27/10/2023 02:13</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>28/10/2023 13:55</t>
+          <t>28/10/2023 13:34</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>4.78</v>
+        <v>4.07</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>28/10/2023 01:12</t>
+          <t>27/10/2023 02:13</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>4.28</v>
+        <v>5.62</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>28/10/2023 13:55</t>
+          <t>28/10/2023 13:58</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>9.51</v>
+        <v>6.07</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>28/10/2023 01:12</t>
+          <t>27/10/2023 02:13</t>
         </is>
       </c>
       <c r="T46" t="n">
-        <v>9.83</v>
+        <v>14.35</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>28/10/2023 13:55</t>
+          <t>28/10/2023 13:58</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/levadiakos-aek/xbk08srf/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/pae-chania-panachaiki/xYNDv6Ok/</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Giouchtas</t>
+          <t>Levadiakos</t>
         </is>
       </c>
       <c r="G47" t="n">
@@ -4721,14 +4721,14 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Panathinaikos B</t>
+          <t>AEK Athens FC B</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>1.83</v>
+        <v>1.3</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4736,7 +4736,7 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>1.91</v>
+        <v>1.36</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
@@ -4744,7 +4744,7 @@
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.35</v>
+        <v>4.78</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4752,7 +4752,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.24</v>
+        <v>4.28</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         </is>
       </c>
       <c r="R47" t="n">
-        <v>4.09</v>
+        <v>9.51</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>4.19</v>
+        <v>9.83</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/giouchtas-panathinaikos/AJ7XbzA4/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/levadiakos-aek/xbk08srf/</t>
         </is>
       </c>
     </row>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Kalamata</t>
+          <t>Giouchtas</t>
         </is>
       </c>
       <c r="G48" t="n">
@@ -4813,63 +4813,63 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Ilioupoli</t>
+          <t>Panathinaikos B</t>
         </is>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>1.44</v>
+        <v>1.83</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>27/10/2023 02:13</t>
+          <t>28/10/2023 01:12</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1.38</v>
+        <v>1.91</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>28/10/2023 13:43</t>
+          <t>28/10/2023 13:55</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.96</v>
+        <v>3.35</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>27/10/2023 02:13</t>
+          <t>28/10/2023 01:12</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>4.35</v>
+        <v>3.24</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>28/10/2023 13:43</t>
+          <t>28/10/2023 13:55</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>5.97</v>
+        <v>4.09</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>27/10/2023 02:13</t>
+          <t>28/10/2023 01:12</t>
         </is>
       </c>
       <c r="T48" t="n">
-        <v>8.56</v>
+        <v>4.19</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>28/10/2023 13:43</t>
+          <t>28/10/2023 13:55</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kalamata-ilioupoli/bsP9un9q/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/giouchtas-panathinaikos/AJ7XbzA4/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>PAE Chania</t>
+          <t>Kalamata</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Panachaiki</t>
+          <t>Ilioupoli</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>1.22</v>
+        <v>1.38</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>28/10/2023 13:34</t>
+          <t>28/10/2023 13:43</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>4.07</v>
+        <v>3.96</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>5.62</v>
+        <v>4.35</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>28/10/2023 13:58</t>
+          <t>28/10/2023 13:43</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>6.07</v>
+        <v>5.97</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,16 +4952,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>14.35</v>
+        <v>8.56</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>28/10/2023 13:58</t>
+          <t>28/10/2023 13:43</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/pae-chania-panachaiki/xYNDv6Ok/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kalamata-ilioupoli/bsP9un9q/</t>
         </is>
       </c>
     </row>
@@ -6093,22 +6093,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Ionikos</t>
+          <t>Kampaniakos</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Kalamata</t>
+          <t>Apollon Pontou</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>2.56</v>
+        <v>2.17</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,15 +6116,15 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>2.88</v>
+        <v>1.97</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>05/11/2023 13:59</t>
+          <t>05/11/2023 12:16</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>3</v>
+        <v>2.99</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -6132,15 +6132,15 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>3.15</v>
+        <v>3.11</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>05/11/2023 13:59</t>
+          <t>05/11/2023 12:16</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>2.82</v>
+        <v>3.42</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -6148,16 +6148,16 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>2.46</v>
+        <v>4.12</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>05/11/2023 13:59</t>
+          <t>05/11/2023 12:16</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ionikos-kalamata/2JXbBSs2/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kampaniakos-apollon-pontou/CUdC5uSC/</t>
         </is>
       </c>
     </row>
@@ -6185,22 +6185,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Panathinaikos B</t>
+          <t>AEK Athens FC B</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>PAE Egaleo</t>
+          <t>Niki Volos</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J63" t="n">
-        <v>2.48</v>
+        <v>4.16</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,15 +6208,15 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>2.59</v>
+        <v>4.09</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>05/11/2023 13:55</t>
+          <t>05/11/2023 13:57</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>2.88</v>
+        <v>3.15</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6228,11 +6228,11 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>05/11/2023 13:55</t>
+          <t>05/11/2023 13:57</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>2.75</v>
+        <v>1.79</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -6240,16 +6240,16 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>2.83</v>
+        <v>2.02</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>05/11/2023 03:41</t>
+          <t>05/11/2023 13:57</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/panathinaikos-pae-egaleo/OSYfC8Se/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/aek-niki-volos/vykbTrKJ/</t>
         </is>
       </c>
     </row>
@@ -6277,7 +6277,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>AEK Athens FC B</t>
+          <t>Kozani FC</t>
         </is>
       </c>
       <c r="G64" t="n">
@@ -6285,14 +6285,14 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Niki Volos</t>
+          <t>AEL Larissa</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J64" t="n">
-        <v>4.16</v>
+        <v>3.62</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,15 +6300,15 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>4.09</v>
+        <v>4.52</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>05/11/2023 13:57</t>
+          <t>05/11/2023 13:40</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.15</v>
+        <v>2.95</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.01</v>
+        <v>3.12</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>05/11/2023 13:57</t>
+          <t>05/11/2023 13:40</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>1.79</v>
+        <v>2</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>2.02</v>
+        <v>1.88</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>05/11/2023 13:57</t>
+          <t>05/11/2023 13:40</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/aek-niki-volos/vykbTrKJ/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kozani-fc-ael-larissa/U5776LC6/</t>
         </is>
       </c>
     </row>
@@ -6369,22 +6369,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Kampaniakos</t>
+          <t>Ionikos</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Apollon Pontou</t>
+          <t>Kalamata</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J65" t="n">
-        <v>2.17</v>
+        <v>2.56</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -6392,15 +6392,15 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>1.97</v>
+        <v>2.88</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>05/11/2023 12:16</t>
+          <t>05/11/2023 13:59</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>2.99</v>
+        <v>3</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -6408,15 +6408,15 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.11</v>
+        <v>3.15</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>05/11/2023 12:16</t>
+          <t>05/11/2023 13:59</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>3.42</v>
+        <v>2.82</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
@@ -6424,16 +6424,16 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>4.12</v>
+        <v>2.46</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>05/11/2023 12:16</t>
+          <t>05/11/2023 13:59</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kampaniakos-apollon-pontou/CUdC5uSC/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ionikos-kalamata/2JXbBSs2/</t>
         </is>
       </c>
     </row>
@@ -6461,22 +6461,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Kozani FC</t>
+          <t>Panathinaikos B</t>
         </is>
       </c>
       <c r="G66" t="n">
+        <v>1</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>PAE Egaleo</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>AEL Larissa</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
-        <v>2</v>
-      </c>
       <c r="J66" t="n">
-        <v>3.62</v>
+        <v>2.48</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -6484,15 +6484,15 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>4.52</v>
+        <v>2.59</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>05/11/2023 13:40</t>
+          <t>05/11/2023 13:55</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>2.95</v>
+        <v>2.88</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -6500,15 +6500,15 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.12</v>
+        <v>3.01</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>05/11/2023 13:40</t>
+          <t>05/11/2023 13:55</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>1.88</v>
+        <v>2.83</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>05/11/2023 13:40</t>
+          <t>05/11/2023 03:41</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kozani-fc-ael-larissa/U5776LC6/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/panathinaikos-pae-egaleo/OSYfC8Se/</t>
         </is>
       </c>
     </row>
@@ -7289,22 +7289,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Panachaiki</t>
+          <t>Niki Volos</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Ionikos</t>
+          <t>Iraklis 1908</t>
         </is>
       </c>
       <c r="I75" t="n">
         <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>4.2</v>
+        <v>1.87</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>6.83</v>
+        <v>2.02</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>12/11/2023 13:58</t>
+          <t>12/11/2023 12:05</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.26</v>
+        <v>3.03</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.77</v>
+        <v>3</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>12/11/2023 13:58</t>
+          <t>12/11/2023 12:12</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>1.75</v>
+        <v>3.98</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>1.52</v>
+        <v>4.13</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>12/11/2023 13:58</t>
+          <t>12/11/2023 12:05</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/panachaiki-ionikos/2JgUQ7sk/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/niki-volos-iraklis-fc/jypvKvs6/</t>
         </is>
       </c>
     </row>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Niki Volos</t>
+          <t>Ilioupoli</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Iraklis 1908</t>
+          <t>Athens Kallithea</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J76" t="n">
-        <v>1.87</v>
+        <v>4.68</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>2.02</v>
+        <v>4.56</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>12/11/2023 12:05</t>
+          <t>12/11/2023 13:55</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.03</v>
+        <v>3.36</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3</v>
+        <v>3.13</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>12/11/2023 12:12</t>
+          <t>12/11/2023 13:55</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>3.98</v>
+        <v>1.65</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>4.13</v>
+        <v>1.88</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>12/11/2023 12:05</t>
+          <t>12/11/2023 13:55</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/niki-volos-iraklis-fc/jypvKvs6/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ilioupoli-athens-kallithea/GMcYPRde/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Ilioupoli</t>
+          <t>PAE Chania</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Athens Kallithea</t>
+          <t>Panathinaikos B</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>4.68</v>
+        <v>1.37</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>4.56</v>
+        <v>1.32</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>12/11/2023 13:55</t>
+          <t>12/11/2023 12:05</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.36</v>
+        <v>4.28</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.13</v>
+        <v>4.79</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>12/11/2023 13:55</t>
+          <t>12/11/2023 12:07</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>1.65</v>
+        <v>6.55</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>1.88</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>12/11/2023 13:55</t>
+          <t>12/11/2023 12:07</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ilioupoli-athens-kallithea/GMcYPRde/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/pae-chania-panathinaikos/8dfQRmSr/</t>
         </is>
       </c>
     </row>
@@ -7565,22 +7565,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>PAE Chania</t>
+          <t>Panachaiki</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Panathinaikos B</t>
+          <t>Ionikos</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>1.37</v>
+        <v>4.2</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,15 +7588,15 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>1.32</v>
+        <v>6.83</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>12/11/2023 12:05</t>
+          <t>12/11/2023 13:58</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>4.28</v>
+        <v>3.26</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -7604,15 +7604,15 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>4.79</v>
+        <v>3.77</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>12/11/2023 12:07</t>
+          <t>12/11/2023 13:58</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>6.55</v>
+        <v>1.75</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
@@ -7620,16 +7620,16 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>9.890000000000001</v>
+        <v>1.52</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>12/11/2023 12:07</t>
+          <t>12/11/2023 13:58</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/pae-chania-panathinaikos/8dfQRmSr/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/panachaiki-ionikos/2JgUQ7sk/</t>
         </is>
       </c>
     </row>
@@ -8025,22 +8025,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Kampaniakos</t>
+          <t>Karditsa</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Iraklis 1908</t>
+          <t>Levadiakos</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>3.87</v>
+        <v>4.29</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8048,15 +8048,15 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>4.12</v>
+        <v>5.74</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>19/11/2023 12:04</t>
+          <t>19/11/2023 13:50</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.15</v>
+        <v>3.08</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -8064,15 +8064,15 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.11</v>
+        <v>3.31</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>19/11/2023 12:52</t>
+          <t>19/11/2023 13:50</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
@@ -8080,16 +8080,16 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>1.97</v>
+        <v>1.68</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>19/11/2023 12:52</t>
+          <t>19/11/2023 13:50</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kampaniakos-iraklis-fc/6R0RGyBJ/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-levadiakos/2cncBFYt/</t>
         </is>
       </c>
     </row>
@@ -8577,71 +8577,163 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Karditsa</t>
+          <t>Kampaniakos</t>
         </is>
       </c>
       <c r="G89" t="n">
+        <v>1</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Iraklis 1908</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>3</v>
+      </c>
+      <c r="J89" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>18/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>19/11/2023 12:04</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>18/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P89" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>19/11/2023 12:52</t>
+        </is>
+      </c>
+      <c r="R89" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>18/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T89" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>19/11/2023 12:52</t>
+        </is>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kampaniakos-iraklis-fc/6R0RGyBJ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45250.58333333334</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Niki Volos</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>1</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Makedonikos</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
         <v>2</v>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>Levadiakos</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>18/11/2023 02:12</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>19/11/2023 13:50</t>
-        </is>
-      </c>
-      <c r="N89" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="O89" t="inlineStr">
-        <is>
-          <t>18/11/2023 02:12</t>
-        </is>
-      </c>
-      <c r="P89" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="Q89" t="inlineStr">
-        <is>
-          <t>19/11/2023 13:50</t>
-        </is>
-      </c>
-      <c r="R89" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="S89" t="inlineStr">
-        <is>
-          <t>18/11/2023 02:12</t>
-        </is>
-      </c>
-      <c r="T89" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="U89" t="inlineStr">
-        <is>
-          <t>19/11/2023 13:50</t>
-        </is>
-      </c>
-      <c r="V89" t="inlineStr">
-        <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-levadiakos/2cncBFYt/</t>
+      <c r="J90" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>19/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>20/11/2023 13:53</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>19/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P90" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>20/11/2023 13:58</t>
+        </is>
+      </c>
+      <c r="R90" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>19/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T90" t="n">
+        <v>6.91</v>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>20/11/2023 13:58</t>
+        </is>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/niki-volos-makedonikos-neapolis/EXk1AZmm/</t>
         </is>
       </c>
     </row>

--- a/2023/greece_super-league-2_2023-2024.xlsx
+++ b/2023/greece_super-league-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V90"/>
+  <dimension ref="A1:V100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1585,71 +1585,71 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>PAOK B</t>
+          <t>Panachaiki</t>
         </is>
       </c>
       <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Panathinaikos B</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
         <v>2</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Kampaniakos</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
-        <v>3</v>
-      </c>
       <c r="J13" t="n">
-        <v>1.46</v>
+        <v>2.03</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>30/09/2023 03:12</t>
+          <t>29/09/2023 02:12</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>1.52</v>
+        <v>2.78</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>30/09/2023 13:01</t>
+          <t>30/09/2023 14:56</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>4.27</v>
+        <v>3.16</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>30/09/2023 03:12</t>
+          <t>29/09/2023 02:12</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>4.05</v>
+        <v>2.92</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>30/09/2023 13:17</t>
+          <t>30/09/2023 13:25</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>5.93</v>
+        <v>3.27</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>30/09/2023 03:12</t>
+          <t>29/09/2023 02:12</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>6.09</v>
+        <v>2.72</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>30/09/2023 13:17</t>
+          <t>30/09/2023 14:56</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/paok-kampaniakos/S6W0xkkj/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/panachaiki-panathinaikos/xh8LWHQB/</t>
         </is>
       </c>
     </row>
@@ -1677,71 +1677,71 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Panachaiki</t>
+          <t>PAOK B</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Panathinaikos B</t>
+          <t>Kampaniakos</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J14" t="n">
-        <v>2.03</v>
+        <v>1.46</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>29/09/2023 02:12</t>
+          <t>30/09/2023 03:12</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>2.78</v>
+        <v>1.52</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>30/09/2023 14:56</t>
+          <t>30/09/2023 13:01</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.16</v>
+        <v>4.27</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>29/09/2023 02:12</t>
+          <t>30/09/2023 03:12</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>2.92</v>
+        <v>4.05</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>30/09/2023 13:25</t>
+          <t>30/09/2023 13:17</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>3.27</v>
+        <v>5.93</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>29/09/2023 02:12</t>
+          <t>30/09/2023 03:12</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>2.72</v>
+        <v>6.09</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>30/09/2023 14:56</t>
+          <t>30/09/2023 13:17</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/panachaiki-panathinaikos/xh8LWHQB/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/paok-kampaniakos/S6W0xkkj/</t>
         </is>
       </c>
     </row>
@@ -2505,71 +2505,71 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>AEL Larissa</t>
+          <t>Karditsa</t>
         </is>
       </c>
       <c r="G23" t="n">
+        <v>3</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Aiolikos</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
         <v>1</v>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Iraklis 1908</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
       <c r="J23" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>10/10/2023 02:12</t>
+          <t>10/10/2023 11:12</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>1.96</v>
+        <v>1.86</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>11/10/2023 14:52</t>
+          <t>11/10/2023 14:54</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.06</v>
+        <v>2.97</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>10/10/2023 02:12</t>
+          <t>10/10/2023 11:12</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.04</v>
+        <v>3.27</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>11/10/2023 14:52</t>
+          <t>11/10/2023 14:54</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>3.62</v>
+        <v>3.86</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>10/10/2023 02:12</t>
+          <t>10/10/2023 11:12</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>4.31</v>
+        <v>4.4</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>11/10/2023 14:52</t>
+          <t>11/10/2023 14:54</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ael-larissa-iraklis-fc/WhhFbXES/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-aiolikos-fc/2JmBaDaM/</t>
         </is>
       </c>
     </row>
@@ -2597,22 +2597,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Karditsa</t>
+          <t>Kozani FC</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aiolikos</t>
+          <t>Makedonikos</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1.96</v>
+        <v>2.36</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,15 +2620,15 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>1.86</v>
+        <v>2.63</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>11/10/2023 14:54</t>
+          <t>11/10/2023 14:58</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>2.97</v>
+        <v>2.79</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,15 +2636,15 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.27</v>
+        <v>2.86</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>11/10/2023 14:54</t>
+          <t>11/10/2023 14:58</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>3.86</v>
+        <v>3.1</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>4.4</v>
+        <v>2.93</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>11/10/2023 14:54</t>
+          <t>11/10/2023 14:16</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-aiolikos-fc/2JmBaDaM/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kozani-fc-makedonikos-neapolis/t4a21ZU9/</t>
         </is>
       </c>
     </row>
@@ -2689,71 +2689,71 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Kozani FC</t>
+          <t>AEL Larissa</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Makedonikos</t>
+          <t>Iraklis 1908</t>
         </is>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>2.36</v>
+        <v>1.95</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>10/10/2023 11:12</t>
+          <t>10/10/2023 02:12</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2.63</v>
+        <v>1.96</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>11/10/2023 14:58</t>
+          <t>11/10/2023 14:52</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>2.79</v>
+        <v>3.06</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>10/10/2023 11:12</t>
+          <t>10/10/2023 02:12</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>2.86</v>
+        <v>3.04</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>11/10/2023 14:58</t>
+          <t>11/10/2023 14:52</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>3.1</v>
+        <v>3.62</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>10/10/2023 11:12</t>
+          <t>10/10/2023 02:12</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>2.93</v>
+        <v>4.31</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>11/10/2023 14:16</t>
+          <t>11/10/2023 14:52</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kozani-fc-makedonikos-neapolis/t4a21ZU9/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ael-larissa-iraklis-fc/WhhFbXES/</t>
         </is>
       </c>
     </row>
@@ -3517,22 +3517,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Athens Kallithea</t>
+          <t>PAOK B</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Giouchtas</t>
+          <t>Aiolikos</t>
         </is>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>1.3</v>
+        <v>1.57</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,15 +3540,15 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>1.23</v>
+        <v>1.75</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>21/10/2023 14:17</t>
+          <t>21/10/2023 14:43</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>4.55</v>
+        <v>3.91</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3556,15 +3556,15 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>5.44</v>
+        <v>3.66</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>21/10/2023 14:18</t>
+          <t>21/10/2023 14:43</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>10.53</v>
+        <v>5.06</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -3572,16 +3572,16 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>13.52</v>
+        <v>4.44</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>21/10/2023 14:17</t>
+          <t>21/10/2023 14:43</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/athens-kallithea-giouchtas/n5zBsZvU/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/paok-aiolikos-fc/fyiX48y2/</t>
         </is>
       </c>
     </row>
@@ -3701,22 +3701,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>PAOK B</t>
+          <t>Athens Kallithea</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aiolikos</t>
+          <t>Giouchtas</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>1.57</v>
+        <v>1.3</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,15 +3724,15 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>1.75</v>
+        <v>1.23</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>21/10/2023 14:43</t>
+          <t>21/10/2023 14:17</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.91</v>
+        <v>4.55</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3740,15 +3740,15 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.66</v>
+        <v>5.44</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>21/10/2023 14:43</t>
+          <t>21/10/2023 14:18</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>5.06</v>
+        <v>10.53</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3756,16 +3756,16 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>4.44</v>
+        <v>13.52</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>21/10/2023 14:43</t>
+          <t>21/10/2023 14:17</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/paok-aiolikos-fc/fyiX48y2/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/athens-kallithea-giouchtas/n5zBsZvU/</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Kozani FC</t>
+          <t>AEL Larissa</t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -3985,63 +3985,63 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Karditsa</t>
+          <t>Makedonikos</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>2.75</v>
+        <v>1.67</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>22/10/2023 12:12</t>
+          <t>21/10/2023 02:13</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2.58</v>
+        <v>1.5</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>22/10/2023 14:49</t>
+          <t>22/10/2023 14:56</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>2.74</v>
+        <v>3.22</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>22/10/2023 12:12</t>
+          <t>21/10/2023 02:13</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>2.74</v>
+        <v>3.72</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>22/10/2023 13:54</t>
+          <t>22/10/2023 14:56</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>2.92</v>
+        <v>4.89</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>22/10/2023 12:12</t>
+          <t>21/10/2023 02:13</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>3.14</v>
+        <v>7.37</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>22/10/2023 14:49</t>
+          <t>22/10/2023 14:56</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kozani-fc-karditsa/OnHhCjqS/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ael-larissa-makedonikos-neapolis/8KhP6U6k/</t>
         </is>
       </c>
     </row>
@@ -4069,22 +4069,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>AEL Larissa</t>
+          <t>Panachaiki</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Makedonikos</t>
+          <t>PAE Egaleo</t>
         </is>
       </c>
       <c r="I40" t="n">
         <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>1.67</v>
+        <v>3.03</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,15 +4092,15 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>22/10/2023 14:56</t>
+          <t>22/10/2023 14:59</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.22</v>
+        <v>2.94</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,15 +4108,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.72</v>
+        <v>3.06</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>22/10/2023 14:56</t>
+          <t>22/10/2023 14:57</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>4.89</v>
+        <v>2.3</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>7.37</v>
+        <v>2.37</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>22/10/2023 14:56</t>
+          <t>22/10/2023 14:59</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ael-larissa-makedonikos-neapolis/8KhP6U6k/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/panachaiki-pae-egaleo/QV5L1xQo/</t>
         </is>
       </c>
     </row>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Apollon Pontou</t>
+          <t>Kozani FC</t>
         </is>
       </c>
       <c r="G41" t="n">
@@ -4169,63 +4169,63 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Niki Volos</t>
+          <t>Karditsa</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>4.17</v>
+        <v>2.75</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>21/10/2023 02:13</t>
+          <t>22/10/2023 12:12</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>9.99</v>
+        <v>2.58</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>22/10/2023 14:56</t>
+          <t>22/10/2023 14:49</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.18</v>
+        <v>2.74</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>21/10/2023 02:13</t>
+          <t>22/10/2023 12:12</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>4.44</v>
+        <v>2.74</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>22/10/2023 14:56</t>
+          <t>22/10/2023 13:54</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>1.78</v>
+        <v>2.92</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>21/10/2023 02:13</t>
+          <t>22/10/2023 12:12</t>
         </is>
       </c>
       <c r="T41" t="n">
-        <v>1.34</v>
+        <v>3.14</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>22/10/2023 14:56</t>
+          <t>22/10/2023 14:49</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/apollon-pontou-niki-volos/UTgL7Aiq/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kozani-fc-karditsa/OnHhCjqS/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Panachaiki</t>
+          <t>Apollon Pontou</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>PAE Egaleo</t>
+          <t>Niki Volos</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J42" t="n">
-        <v>3.03</v>
+        <v>4.17</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>3.1</v>
+        <v>9.99</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>22/10/2023 14:59</t>
+          <t>22/10/2023 14:56</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>2.94</v>
+        <v>3.18</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.06</v>
+        <v>4.44</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>22/10/2023 14:57</t>
+          <t>22/10/2023 14:56</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>2.37</v>
+        <v>1.34</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>22/10/2023 14:59</t>
+          <t>22/10/2023 14:56</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/panachaiki-pae-egaleo/QV5L1xQo/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/apollon-pontou-niki-volos/UTgL7Aiq/</t>
         </is>
       </c>
     </row>
@@ -4621,22 +4621,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>PAE Chania</t>
+          <t>PAE Egaleo</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Panachaiki</t>
+          <t>Athens Kallithea</t>
         </is>
       </c>
       <c r="I46" t="n">
         <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>1.42</v>
+        <v>4.46</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,15 +4644,15 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>1.22</v>
+        <v>7.03</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>28/10/2023 13:34</t>
+          <t>28/10/2023 12:23</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>4.07</v>
+        <v>3.12</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4660,15 +4660,15 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>5.62</v>
+        <v>3.72</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>28/10/2023 13:58</t>
+          <t>28/10/2023 12:23</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>6.07</v>
+        <v>1.75</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
@@ -4676,16 +4676,16 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>14.35</v>
+        <v>1.52</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>28/10/2023 13:58</t>
+          <t>28/10/2023 12:23</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/pae-chania-panachaiki/xYNDv6Ok/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/pae-egaleo-athens-kallithea/WYetcEvH/</t>
         </is>
       </c>
     </row>
@@ -4713,71 +4713,71 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Levadiakos</t>
+          <t>PAE Chania</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>AEK Athens FC B</t>
+          <t>Panachaiki</t>
         </is>
       </c>
       <c r="I47" t="n">
         <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>1.3</v>
+        <v>1.42</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>28/10/2023 01:12</t>
+          <t>27/10/2023 02:13</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>28/10/2023 13:55</t>
+          <t>28/10/2023 13:34</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>4.78</v>
+        <v>4.07</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>28/10/2023 01:12</t>
+          <t>27/10/2023 02:13</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>4.28</v>
+        <v>5.62</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>28/10/2023 13:55</t>
+          <t>28/10/2023 13:58</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>9.51</v>
+        <v>6.07</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>28/10/2023 01:12</t>
+          <t>27/10/2023 02:13</t>
         </is>
       </c>
       <c r="T47" t="n">
-        <v>9.83</v>
+        <v>14.35</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>28/10/2023 13:55</t>
+          <t>28/10/2023 13:58</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/levadiakos-aek/xbk08srf/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/pae-chania-panachaiki/xYNDv6Ok/</t>
         </is>
       </c>
     </row>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Giouchtas</t>
+          <t>Levadiakos</t>
         </is>
       </c>
       <c r="G48" t="n">
@@ -4813,14 +4813,14 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Panathinaikos B</t>
+          <t>AEK Athens FC B</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>1.83</v>
+        <v>1.3</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1.91</v>
+        <v>1.36</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
@@ -4836,7 +4836,7 @@
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.35</v>
+        <v>4.78</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,7 +4844,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.24</v>
+        <v>4.28</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="R48" t="n">
-        <v>4.09</v>
+        <v>9.51</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>4.19</v>
+        <v>9.83</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/giouchtas-panathinaikos/AJ7XbzA4/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/levadiakos-aek/xbk08srf/</t>
         </is>
       </c>
     </row>
@@ -4989,71 +4989,71 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>PAE Egaleo</t>
+          <t>Giouchtas</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Athens Kallithea</t>
+          <t>Panathinaikos B</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>4.46</v>
+        <v>1.83</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>27/10/2023 02:13</t>
+          <t>28/10/2023 01:12</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>7.03</v>
+        <v>1.91</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>28/10/2023 12:23</t>
+          <t>28/10/2023 13:55</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.12</v>
+        <v>3.35</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>27/10/2023 02:13</t>
+          <t>28/10/2023 01:12</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.72</v>
+        <v>3.24</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>28/10/2023 12:23</t>
+          <t>28/10/2023 13:55</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>1.75</v>
+        <v>4.09</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>27/10/2023 02:13</t>
+          <t>28/10/2023 01:12</t>
         </is>
       </c>
       <c r="T50" t="n">
-        <v>1.52</v>
+        <v>4.19</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>28/10/2023 12:23</t>
+          <t>28/10/2023 13:55</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/pae-egaleo-athens-kallithea/WYetcEvH/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/giouchtas-panathinaikos/AJ7XbzA4/</t>
         </is>
       </c>
     </row>
@@ -5173,71 +5173,71 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Diagoras</t>
+          <t>Karditsa</t>
         </is>
       </c>
       <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>AEL Larissa</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
         <v>2</v>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Ionikos</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
       <c r="J52" t="n">
-        <v>3.43</v>
+        <v>3.52</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>29/10/2023 02:12</t>
+          <t>28/10/2023 03:12</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>3.36</v>
+        <v>3.94</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>29/10/2023 13:40</t>
+          <t>29/10/2023 13:57</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.09</v>
+        <v>2.91</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>29/10/2023 02:12</t>
+          <t>28/10/2023 03:12</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.01</v>
+        <v>3.08</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>29/10/2023 13:40</t>
+          <t>29/10/2023 13:57</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>29/10/2023 02:12</t>
+          <t>28/10/2023 03:12</t>
         </is>
       </c>
       <c r="T52" t="n">
-        <v>2.27</v>
+        <v>2.03</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>29/10/2023 13:40</t>
+          <t>29/10/2023 13:57</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/diagoras-fc-ionikos/hrcxbfPA/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-ael-larissa/46YNRVrF/</t>
         </is>
       </c>
     </row>
@@ -5357,71 +5357,71 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Karditsa</t>
+          <t>Diagoras</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>AEL Larissa</t>
+          <t>Ionikos</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>3.52</v>
+        <v>3.43</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>28/10/2023 03:12</t>
+          <t>29/10/2023 02:12</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>3.94</v>
+        <v>3.36</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>29/10/2023 13:57</t>
+          <t>29/10/2023 13:40</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>2.91</v>
+        <v>3.09</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>28/10/2023 03:12</t>
+          <t>29/10/2023 02:12</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.08</v>
+        <v>3.01</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>29/10/2023 13:57</t>
+          <t>29/10/2023 13:40</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>2.05</v>
+        <v>2.12</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>28/10/2023 03:12</t>
+          <t>29/10/2023 02:12</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>2.03</v>
+        <v>2.27</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>29/10/2023 13:57</t>
+          <t>29/10/2023 13:40</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-ael-larissa/46YNRVrF/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/diagoras-fc-ionikos/hrcxbfPA/</t>
         </is>
       </c>
     </row>
@@ -5725,22 +5725,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Ilioupoli</t>
+          <t>PAOK B</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Panachaiki</t>
+          <t>Karditsa</t>
         </is>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>1.66</v>
+        <v>1.99</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,15 +5748,15 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>1.38</v>
+        <v>2.38</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>04/11/2023 13:44</t>
+          <t>04/11/2023 12:04</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.48</v>
+        <v>3.12</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5764,15 +5764,15 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>4.36</v>
+        <v>2.89</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>04/11/2023 13:48</t>
+          <t>04/11/2023 12:04</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>4.41</v>
+        <v>3.44</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
@@ -5780,16 +5780,16 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>8.41</v>
+        <v>3.27</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>04/11/2023 13:44</t>
+          <t>04/11/2023 12:04</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ilioupoli-panachaiki/GbFoZVZ8/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/paok-karditsa/jLeG4asJ/</t>
         </is>
       </c>
     </row>
@@ -5817,71 +5817,71 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Iraklis 1908</t>
+          <t>Ilioupoli</t>
         </is>
       </c>
       <c r="G59" t="n">
+        <v>1</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Panachaiki</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Levadiakos</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
-        <v>1</v>
-      </c>
       <c r="J59" t="n">
-        <v>3.01</v>
+        <v>1.66</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>04/11/2023 05:12</t>
+          <t>03/11/2023 02:13</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>3.53</v>
+        <v>1.38</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>04/11/2023 13:55</t>
+          <t>04/11/2023 13:44</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>2.91</v>
+        <v>3.48</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>04/11/2023 05:12</t>
+          <t>03/11/2023 02:13</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3</v>
+        <v>4.36</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>04/11/2023 13:55</t>
+          <t>04/11/2023 13:48</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>2.42</v>
+        <v>4.41</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>04/11/2023 05:12</t>
+          <t>03/11/2023 02:13</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>2.2</v>
+        <v>8.41</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>04/11/2023 13:55</t>
+          <t>04/11/2023 13:44</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/iraklis-fc-levadiakos/IRm2S2ZP/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ilioupoli-panachaiki/GbFoZVZ8/</t>
         </is>
       </c>
     </row>
@@ -5909,71 +5909,71 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>PAOK B</t>
+          <t>Iraklis 1908</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Karditsa</t>
+          <t>Levadiakos</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>1.99</v>
+        <v>3.01</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>03/11/2023 02:13</t>
+          <t>04/11/2023 05:12</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2.38</v>
+        <v>3.53</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>04/11/2023 12:04</t>
+          <t>04/11/2023 13:55</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.12</v>
+        <v>2.91</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>03/11/2023 02:13</t>
+          <t>04/11/2023 05:12</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>2.89</v>
+        <v>3</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>04/11/2023 12:04</t>
+          <t>04/11/2023 13:55</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>3.44</v>
+        <v>2.42</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>03/11/2023 02:13</t>
+          <t>04/11/2023 05:12</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>3.27</v>
+        <v>2.2</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>04/11/2023 12:04</t>
+          <t>04/11/2023 13:55</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/paok-karditsa/jLeG4asJ/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/iraklis-fc-levadiakos/IRm2S2ZP/</t>
         </is>
       </c>
     </row>
@@ -6093,71 +6093,71 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Kampaniakos</t>
+          <t>Kozani FC</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Apollon Pontou</t>
+          <t>AEL Larissa</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J62" t="n">
-        <v>2.17</v>
+        <v>3.62</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>05/11/2023 03:13</t>
+          <t>04/11/2023 02:12</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>1.97</v>
+        <v>4.52</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>05/11/2023 12:16</t>
+          <t>05/11/2023 13:40</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>2.99</v>
+        <v>2.95</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>05/11/2023 03:13</t>
+          <t>04/11/2023 02:12</t>
         </is>
       </c>
       <c r="P62" t="n">
-        <v>3.11</v>
+        <v>3.12</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>05/11/2023 12:16</t>
+          <t>05/11/2023 13:40</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>3.42</v>
+        <v>2</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>05/11/2023 03:13</t>
+          <t>04/11/2023 02:12</t>
         </is>
       </c>
       <c r="T62" t="n">
-        <v>4.12</v>
+        <v>1.88</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>05/11/2023 12:16</t>
+          <t>05/11/2023 13:40</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kampaniakos-apollon-pontou/CUdC5uSC/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kozani-fc-ael-larissa/U5776LC6/</t>
         </is>
       </c>
     </row>
@@ -6185,71 +6185,71 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>AEK Athens FC B</t>
+          <t>Kampaniakos</t>
         </is>
       </c>
       <c r="G63" t="n">
+        <v>1</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Apollon Pontou</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Niki Volos</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
-        <v>3</v>
-      </c>
       <c r="J63" t="n">
-        <v>4.16</v>
+        <v>2.17</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>04/11/2023 02:12</t>
+          <t>05/11/2023 03:13</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>4.09</v>
+        <v>1.97</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>05/11/2023 13:57</t>
+          <t>05/11/2023 12:16</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.15</v>
+        <v>2.99</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>04/11/2023 02:12</t>
+          <t>05/11/2023 03:13</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3.01</v>
+        <v>3.11</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>05/11/2023 13:57</t>
+          <t>05/11/2023 12:16</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>1.79</v>
+        <v>3.42</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>04/11/2023 02:12</t>
+          <t>05/11/2023 03:13</t>
         </is>
       </c>
       <c r="T63" t="n">
-        <v>2.02</v>
+        <v>4.12</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>05/11/2023 13:57</t>
+          <t>05/11/2023 12:16</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/aek-niki-volos/vykbTrKJ/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kampaniakos-apollon-pontou/CUdC5uSC/</t>
         </is>
       </c>
     </row>
@@ -6277,71 +6277,71 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Kozani FC</t>
+          <t>Ionikos</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>AEL Larissa</t>
+          <t>Kalamata</t>
         </is>
       </c>
       <c r="I64" t="n">
         <v>2</v>
       </c>
       <c r="J64" t="n">
-        <v>3.62</v>
+        <v>2.56</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>04/11/2023 02:12</t>
+          <t>05/11/2023 03:13</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>4.52</v>
+        <v>2.88</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>05/11/2023 13:40</t>
+          <t>05/11/2023 13:59</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>04/11/2023 02:12</t>
+          <t>05/11/2023 03:13</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.12</v>
+        <v>3.15</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>05/11/2023 13:40</t>
+          <t>05/11/2023 13:59</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>2</v>
+        <v>2.82</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>04/11/2023 02:12</t>
+          <t>05/11/2023 03:13</t>
         </is>
       </c>
       <c r="T64" t="n">
-        <v>1.88</v>
+        <v>2.46</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>05/11/2023 13:40</t>
+          <t>05/11/2023 13:59</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kozani-fc-ael-larissa/U5776LC6/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ionikos-kalamata/2JXbBSs2/</t>
         </is>
       </c>
     </row>
@@ -6369,71 +6369,71 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Ionikos</t>
+          <t>Panathinaikos B</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Kalamata</t>
+          <t>PAE Egaleo</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>2.56</v>
+        <v>2.48</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>05/11/2023 03:13</t>
+          <t>04/11/2023 02:12</t>
         </is>
       </c>
       <c r="L65" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:55</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>2.88</v>
       </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>05/11/2023 13:59</t>
-        </is>
-      </c>
-      <c r="N65" t="n">
-        <v>3</v>
-      </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>05/11/2023 03:13</t>
+          <t>04/11/2023 02:12</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.15</v>
+        <v>3.01</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>05/11/2023 13:59</t>
+          <t>05/11/2023 13:55</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>2.82</v>
+        <v>2.75</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>05/11/2023 03:13</t>
+          <t>04/11/2023 02:12</t>
         </is>
       </c>
       <c r="T65" t="n">
-        <v>2.46</v>
+        <v>2.83</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>05/11/2023 13:59</t>
+          <t>05/11/2023 03:41</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ionikos-kalamata/2JXbBSs2/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/panathinaikos-pae-egaleo/OSYfC8Se/</t>
         </is>
       </c>
     </row>
@@ -6461,22 +6461,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Panathinaikos B</t>
+          <t>AEK Athens FC B</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>PAE Egaleo</t>
+          <t>Niki Volos</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J66" t="n">
-        <v>2.48</v>
+        <v>4.16</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -6484,15 +6484,15 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>2.59</v>
+        <v>4.09</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>05/11/2023 13:55</t>
+          <t>05/11/2023 13:57</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>2.88</v>
+        <v>3.15</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -6504,11 +6504,11 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>05/11/2023 13:55</t>
+          <t>05/11/2023 13:57</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>2.75</v>
+        <v>1.79</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>2.83</v>
+        <v>2.02</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>05/11/2023 03:41</t>
+          <t>05/11/2023 13:57</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/panathinaikos-pae-egaleo/OSYfC8Se/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/aek-niki-volos/vykbTrKJ/</t>
         </is>
       </c>
     </row>
@@ -6737,71 +6737,71 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Kalamata</t>
+          <t>AEL Larissa</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Tilikratis L.</t>
+          <t>PAOK B</t>
         </is>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>1.13</v>
+        <v>1.43</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>11/11/2023 12:01</t>
+          <t>10/11/2023 02:13</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>11/11/2023 12:01</t>
+          <t>11/11/2023 13:40</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>7.63</v>
+        <v>3.99</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>11/11/2023 12:01</t>
+          <t>10/11/2023 02:13</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>7.63</v>
+        <v>4.69</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>11/11/2023 12:01</t>
+          <t>11/11/2023 13:40</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>18.11</v>
+        <v>6.04</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>11/11/2023 12:01</t>
+          <t>10/11/2023 02:13</t>
         </is>
       </c>
       <c r="T69" t="n">
-        <v>18.11</v>
+        <v>9.68</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>11/11/2023 12:01</t>
+          <t>11/11/2023 13:40</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kalamata-tilikratis-lefkada/6m8bWTJR/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ael-larissa-paok/WYTxM0Cg/</t>
         </is>
       </c>
     </row>
@@ -6829,7 +6829,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>AEL Larissa</t>
+          <t>Apollon Pontou</t>
         </is>
       </c>
       <c r="G70" t="n">
@@ -6837,14 +6837,14 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>PAOK B</t>
+          <t>AEK Athens FC B</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J70" t="n">
-        <v>1.43</v>
+        <v>2.52</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>1.33</v>
+        <v>3.36</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>11/11/2023 13:40</t>
+          <t>11/11/2023 13:49</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.99</v>
+        <v>2.82</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>4.69</v>
+        <v>2.73</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>11/11/2023 13:40</t>
+          <t>11/11/2023 13:49</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>6.04</v>
+        <v>2.83</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>9.68</v>
+        <v>2.45</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>11/11/2023 13:40</t>
+          <t>11/11/2023 13:49</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ael-larissa-paok/WYTxM0Cg/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/apollon-pontou-aek/APStLKRa/</t>
         </is>
       </c>
     </row>
@@ -6921,71 +6921,71 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Apollon Pontou</t>
+          <t>Kalamata</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>AEK Athens FC B</t>
+          <t>Tilikratis L.</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>2.52</v>
+        <v>1.13</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>10/11/2023 02:13</t>
+          <t>11/11/2023 12:01</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>3.36</v>
+        <v>1.13</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>11/11/2023 13:49</t>
+          <t>11/11/2023 12:01</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>2.82</v>
+        <v>7.63</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>10/11/2023 02:13</t>
+          <t>11/11/2023 12:01</t>
         </is>
       </c>
       <c r="P71" t="n">
-        <v>2.73</v>
+        <v>7.63</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>11/11/2023 13:49</t>
+          <t>11/11/2023 12:01</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>2.83</v>
+        <v>18.11</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>10/11/2023 02:13</t>
+          <t>11/11/2023 12:01</t>
         </is>
       </c>
       <c r="T71" t="n">
-        <v>2.45</v>
+        <v>18.11</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>11/11/2023 13:49</t>
+          <t>11/11/2023 12:01</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/apollon-pontou-aek/APStLKRa/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kalamata-tilikratis-lefkada/6m8bWTJR/</t>
         </is>
       </c>
     </row>
@@ -7197,7 +7197,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Levadiakos</t>
+          <t>PAE Chania</t>
         </is>
       </c>
       <c r="G74" t="n">
@@ -7205,63 +7205,63 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Aiolikos</t>
+          <t>Panathinaikos B</t>
         </is>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>1.24</v>
+        <v>1.37</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>11/11/2023 04:43</t>
+          <t>11/11/2023 02:12</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>12/11/2023 11:59</t>
+          <t>12/11/2023 12:05</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>4.72</v>
+        <v>4.28</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>11/11/2023 04:43</t>
+          <t>11/11/2023 02:12</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>4.98</v>
+        <v>4.79</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>12/11/2023 12:05</t>
+          <t>12/11/2023 12:07</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>10.75</v>
+        <v>6.55</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>11/11/2023 04:43</t>
+          <t>11/11/2023 02:12</t>
         </is>
       </c>
       <c r="T74" t="n">
-        <v>12.44</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>12/11/2023 11:59</t>
+          <t>12/11/2023 12:07</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/levadiakos-aiolikos-fc/URrrJbdC/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/pae-chania-panathinaikos/8dfQRmSr/</t>
         </is>
       </c>
     </row>
@@ -7289,22 +7289,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Niki Volos</t>
+          <t>Ilioupoli</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Iraklis 1908</t>
+          <t>Athens Kallithea</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J75" t="n">
-        <v>1.87</v>
+        <v>4.68</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>2.02</v>
+        <v>4.56</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>12/11/2023 12:05</t>
+          <t>12/11/2023 13:55</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.03</v>
+        <v>3.36</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3</v>
+        <v>3.13</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>12/11/2023 12:12</t>
+          <t>12/11/2023 13:55</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>3.98</v>
+        <v>1.65</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>4.13</v>
+        <v>1.88</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>12/11/2023 12:05</t>
+          <t>12/11/2023 13:55</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/niki-volos-iraklis-fc/jypvKvs6/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ilioupoli-athens-kallithea/GMcYPRde/</t>
         </is>
       </c>
     </row>
@@ -7381,7 +7381,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Ilioupoli</t>
+          <t>Panachaiki</t>
         </is>
       </c>
       <c r="G76" t="n">
@@ -7389,14 +7389,14 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Athens Kallithea</t>
+          <t>Ionikos</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>4.68</v>
+        <v>4.2</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>4.56</v>
+        <v>6.83</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>12/11/2023 13:55</t>
+          <t>12/11/2023 13:58</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.36</v>
+        <v>3.26</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.13</v>
+        <v>3.77</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>12/11/2023 13:55</t>
+          <t>12/11/2023 13:58</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>1.88</v>
+        <v>1.52</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>12/11/2023 13:55</t>
+          <t>12/11/2023 13:58</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ilioupoli-athens-kallithea/GMcYPRde/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/panachaiki-ionikos/2JgUQ7sk/</t>
         </is>
       </c>
     </row>
@@ -7473,7 +7473,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>PAE Chania</t>
+          <t>Levadiakos</t>
         </is>
       </c>
       <c r="G77" t="n">
@@ -7481,63 +7481,63 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Panathinaikos B</t>
+          <t>Aiolikos</t>
         </is>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>1.37</v>
+        <v>1.24</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>11/11/2023 02:12</t>
+          <t>11/11/2023 04:43</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
+          <t>12/11/2023 11:59</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>11/11/2023 04:43</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
           <t>12/11/2023 12:05</t>
         </is>
       </c>
-      <c r="N77" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="O77" t="inlineStr">
-        <is>
-          <t>11/11/2023 02:12</t>
-        </is>
-      </c>
-      <c r="P77" t="n">
-        <v>4.79</v>
-      </c>
-      <c r="Q77" t="inlineStr">
-        <is>
-          <t>12/11/2023 12:07</t>
-        </is>
-      </c>
       <c r="R77" t="n">
-        <v>6.55</v>
+        <v>10.75</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>11/11/2023 02:12</t>
+          <t>11/11/2023 04:43</t>
         </is>
       </c>
       <c r="T77" t="n">
-        <v>9.890000000000001</v>
+        <v>12.44</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>12/11/2023 12:07</t>
+          <t>12/11/2023 11:59</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/pae-chania-panathinaikos/8dfQRmSr/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/levadiakos-aiolikos-fc/URrrJbdC/</t>
         </is>
       </c>
     </row>
@@ -7565,22 +7565,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Panachaiki</t>
+          <t>Niki Volos</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Ionikos</t>
+          <t>Iraklis 1908</t>
         </is>
       </c>
       <c r="I78" t="n">
         <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>4.2</v>
+        <v>1.87</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,15 +7588,15 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>6.83</v>
+        <v>2.02</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>12/11/2023 13:58</t>
+          <t>12/11/2023 12:05</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.26</v>
+        <v>3.03</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -7604,15 +7604,15 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.77</v>
+        <v>3</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>12/11/2023 13:58</t>
+          <t>12/11/2023 12:12</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>1.75</v>
+        <v>3.98</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
@@ -7620,16 +7620,16 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>1.52</v>
+        <v>4.13</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>12/11/2023 13:58</t>
+          <t>12/11/2023 12:05</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/panachaiki-ionikos/2JgUQ7sk/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/niki-volos-iraklis-fc/jypvKvs6/</t>
         </is>
       </c>
     </row>
@@ -8025,22 +8025,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Karditsa</t>
+          <t>Giouchtas</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Levadiakos</t>
+          <t>PAE Chania</t>
         </is>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>4.29</v>
+        <v>3.28</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8048,15 +8048,15 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>5.74</v>
+        <v>3.93</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>19/11/2023 13:50</t>
+          <t>19/11/2023 13:14</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.08</v>
+        <v>2.86</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -8064,15 +8064,15 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.31</v>
+        <v>3.05</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>19/11/2023 13:50</t>
+          <t>19/11/2023 12:51</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>1.79</v>
+        <v>2.17</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
@@ -8080,16 +8080,16 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>1.68</v>
+        <v>2.04</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>19/11/2023 13:50</t>
+          <t>19/11/2023 13:14</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-levadiakos/2cncBFYt/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/giouchtas-pae-chania/4rzPnk48/</t>
         </is>
       </c>
     </row>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Giouchtas</t>
+          <t>Ionikos</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -8125,14 +8125,14 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>PAE Chania</t>
+          <t>Athens Kallithea</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>3.28</v>
+        <v>3.12</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>3.93</v>
+        <v>2.89</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>19/11/2023 13:14</t>
+          <t>19/11/2023 13:29</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>2.86</v>
+        <v>2.85</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.05</v>
+        <v>2.91</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>19/11/2023 12:51</t>
+          <t>19/11/2023 13:29</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>2.17</v>
+        <v>2.26</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>2.04</v>
+        <v>2.62</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>19/11/2023 13:14</t>
+          <t>19/11/2023 13:29</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/giouchtas-pae-chania/4rzPnk48/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ionikos-athens-kallithea/v1SypmlR/</t>
         </is>
       </c>
     </row>
@@ -8209,22 +8209,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Ionikos</t>
+          <t>Kalamata</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Athens Kallithea</t>
+          <t>Diagoras</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J85" t="n">
-        <v>3.12</v>
+        <v>1.3</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>2.89</v>
+        <v>1.26</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>19/11/2023 13:29</t>
+          <t>19/11/2023 13:49</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>2.85</v>
+        <v>4.57</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>2.91</v>
+        <v>5.23</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>19/11/2023 13:29</t>
+          <t>19/11/2023 13:56</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>2.26</v>
+        <v>8.08</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>2.62</v>
+        <v>12.07</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>19/11/2023 13:29</t>
+          <t>19/11/2023 13:56</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ionikos-athens-kallithea/v1SypmlR/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kalamata-diagoras-fc/xxnsO5R7/</t>
         </is>
       </c>
     </row>
@@ -8301,22 +8301,22 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Kalamata</t>
+          <t>Tilikratis L.</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Diagoras</t>
+          <t>Panachaiki</t>
         </is>
       </c>
       <c r="I86" t="n">
         <v>2</v>
       </c>
       <c r="J86" t="n">
-        <v>1.3</v>
+        <v>2.27</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,15 +8324,15 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>1.26</v>
+        <v>2.31</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>19/11/2023 13:49</t>
+          <t>19/11/2023 13:54</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>4.57</v>
+        <v>2.92</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,15 +8340,15 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>5.23</v>
+        <v>2.95</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>19/11/2023 13:56</t>
+          <t>19/11/2023 13:54</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>8.08</v>
+        <v>3.02</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,16 +8356,16 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>12.07</v>
+        <v>3.35</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>19/11/2023 13:56</t>
+          <t>19/11/2023 13:51</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kalamata-diagoras-fc/xxnsO5R7/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/tilikratis-lefkada-panachaiki/rZYSo9JE/</t>
         </is>
       </c>
     </row>
@@ -8393,71 +8393,71 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Tilikratis L.</t>
+          <t>Apollon Pontou</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Panachaiki</t>
+          <t>Aiolikos</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>2.27</v>
+        <v>2.77</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>18/11/2023 02:12</t>
+          <t>19/11/2023 03:12</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.31</v>
+        <v>2.89</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>19/11/2023 13:54</t>
+          <t>19/11/2023 13:41</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>2.92</v>
+        <v>2.87</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>18/11/2023 02:12</t>
+          <t>19/11/2023 03:12</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>2.95</v>
+        <v>2.85</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>19/11/2023 13:54</t>
+          <t>19/11/2023 13:24</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>3.02</v>
+        <v>2.65</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>18/11/2023 02:12</t>
+          <t>19/11/2023 03:12</t>
         </is>
       </c>
       <c r="T87" t="n">
-        <v>3.35</v>
+        <v>2.67</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>19/11/2023 13:51</t>
+          <t>19/11/2023 13:41</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/tilikratis-lefkada-panachaiki/rZYSo9JE/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/apollon-pontou-aiolikos-fc/pIaVFeQP/</t>
         </is>
       </c>
     </row>
@@ -8485,71 +8485,71 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Apollon Pontou</t>
+          <t>Kampaniakos</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Aiolikos</t>
+          <t>Iraklis 1908</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J88" t="n">
-        <v>2.77</v>
+        <v>3.87</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>19/11/2023 03:12</t>
+          <t>18/11/2023 02:12</t>
         </is>
       </c>
       <c r="L88" t="n">
-        <v>2.89</v>
+        <v>4.12</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>19/11/2023 13:41</t>
+          <t>19/11/2023 12:04</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>2.87</v>
+        <v>3.15</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>19/11/2023 03:12</t>
+          <t>18/11/2023 02:12</t>
         </is>
       </c>
       <c r="P88" t="n">
-        <v>2.85</v>
+        <v>3.11</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>19/11/2023 13:24</t>
+          <t>19/11/2023 12:52</t>
         </is>
       </c>
       <c r="R88" t="n">
-        <v>2.65</v>
+        <v>1.85</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t>19/11/2023 03:12</t>
+          <t>18/11/2023 02:12</t>
         </is>
       </c>
       <c r="T88" t="n">
-        <v>2.67</v>
+        <v>1.97</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>19/11/2023 13:41</t>
+          <t>19/11/2023 12:52</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/apollon-pontou-aiolikos-fc/pIaVFeQP/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kampaniakos-iraklis-fc/6R0RGyBJ/</t>
         </is>
       </c>
     </row>
@@ -8577,22 +8577,22 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Kampaniakos</t>
+          <t>Karditsa</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Iraklis 1908</t>
+          <t>Levadiakos</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>3.87</v>
+        <v>4.29</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -8600,15 +8600,15 @@
         </is>
       </c>
       <c r="L89" t="n">
-        <v>4.12</v>
+        <v>5.74</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>19/11/2023 12:04</t>
+          <t>19/11/2023 13:50</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>3.15</v>
+        <v>3.08</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -8616,15 +8616,15 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>3.11</v>
+        <v>3.31</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>19/11/2023 12:52</t>
+          <t>19/11/2023 13:50</t>
         </is>
       </c>
       <c r="R89" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
@@ -8632,16 +8632,16 @@
         </is>
       </c>
       <c r="T89" t="n">
-        <v>1.97</v>
+        <v>1.68</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>19/11/2023 12:52</t>
+          <t>19/11/2023 13:50</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kampaniakos-iraklis-fc/6R0RGyBJ/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-levadiakos/2cncBFYt/</t>
         </is>
       </c>
     </row>
@@ -8734,6 +8734,926 @@
       <c r="V90" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/greece/super-league-2/niki-volos-makedonikos-neapolis/EXk1AZmm/</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>45255.58333333334</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Athens Kallithea</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>3</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Tilikratis L.</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>24/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>25/11/2023 13:09</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>24/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P91" t="n">
+        <v>8.289999999999999</v>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>25/11/2023 13:10</t>
+        </is>
+      </c>
+      <c r="R91" t="n">
+        <v>12.53</v>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>24/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T91" t="n">
+        <v>23.73</v>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>25/11/2023 13:10</t>
+        </is>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/athens-kallithea-tilikratis-lefkada/QL6KyPe7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>45255.58333333334</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Ionikos</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>2</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Panathinaikos B</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>24/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>25/11/2023 13:50</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>24/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P92" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>25/11/2023 13:50</t>
+        </is>
+      </c>
+      <c r="R92" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>24/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T92" t="n">
+        <v>6.93</v>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>25/11/2023 13:50</t>
+        </is>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ionikos-panathinaikos/O6PNzqBD/</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>45255.58333333334</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Iraklis 1908</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>1</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>AEK Athens FC B</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>24/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>25/11/2023 13:45</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>24/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P93" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>25/11/2023 13:45</t>
+        </is>
+      </c>
+      <c r="R93" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>24/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T93" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>25/11/2023 13:45</t>
+        </is>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/iraklis-fc-aek/zmvA8DIa/</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>45256.45833333334</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Aiolikos</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>4</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Kampaniakos</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>2</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>24/11/2023 23:13</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>26/11/2023 10:44</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>24/11/2023 23:13</t>
+        </is>
+      </c>
+      <c r="P94" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>26/11/2023 10:52</t>
+        </is>
+      </c>
+      <c r="R94" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>24/11/2023 23:13</t>
+        </is>
+      </c>
+      <c r="T94" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>26/11/2023 10:52</t>
+        </is>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/aiolikos-fc-kampaniakos/4MrE7XX5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>45256.58333333334</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>PAE Chania</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>2</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>PAE Egaleo</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>25/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:55</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>25/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P95" t="n">
+        <v>6.56</v>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:58</t>
+        </is>
+      </c>
+      <c r="R95" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>25/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T95" t="n">
+        <v>11.76</v>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:58</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/pae-chania-pae-egaleo/zXD7vRBl/</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>45256.58333333334</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Panachaiki</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>1</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Diagoras</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>1</v>
+      </c>
+      <c r="J96" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>25/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:40</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>25/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P96" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:40</t>
+        </is>
+      </c>
+      <c r="R96" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>25/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T96" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:40</t>
+        </is>
+      </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/panachaiki-diagoras-fc/h88CwoRf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>45256.58333333334</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Karditsa</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>2</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Niki Volos</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>25/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:46</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>25/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P97" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:46</t>
+        </is>
+      </c>
+      <c r="R97" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>25/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T97" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:46</t>
+        </is>
+      </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-niki-volos/vuyR4VHO/</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>45256.58333333334</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Makedonikos</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>3</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Apollon Pontou</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>25/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:44</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>25/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P98" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:59</t>
+        </is>
+      </c>
+      <c r="R98" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>25/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T98" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:59</t>
+        </is>
+      </c>
+      <c r="V98" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/makedonikos-neapolis-apollon-pontou/QyXM5B2I/</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>45256.58333333334</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Ilioupoli</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Giouchtas</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>25/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:59</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>25/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P99" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:59</t>
+        </is>
+      </c>
+      <c r="R99" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>25/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T99" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:59</t>
+        </is>
+      </c>
+      <c r="V99" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ilioupoli-giouchtas/Wb7Gx5t1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>45256.66666666666</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Olympiacos Piraeus B</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Kalamata</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>25/11/2023 04:13</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>26/11/2023 15:57</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>25/11/2023 04:13</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>26/11/2023 15:52</t>
+        </is>
+      </c>
+      <c r="R100" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>25/11/2023 04:13</t>
+        </is>
+      </c>
+      <c r="T100" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>26/11/2023 15:57</t>
+        </is>
+      </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/olympiacos-piraeus-kalamata/dtF3u7dr/</t>
         </is>
       </c>
     </row>

--- a/2023/greece_super-league-2_2023-2024.xlsx
+++ b/2023/greece_super-league-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V100"/>
+  <dimension ref="A1:V101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6093,22 +6093,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Kozani FC</t>
+          <t>Panathinaikos B</t>
         </is>
       </c>
       <c r="G62" t="n">
+        <v>1</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>PAE Egaleo</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>AEL Larissa</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
-        <v>2</v>
-      </c>
       <c r="J62" t="n">
-        <v>3.62</v>
+        <v>2.48</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,15 +6116,15 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>4.52</v>
+        <v>2.59</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>05/11/2023 13:40</t>
+          <t>05/11/2023 13:55</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>2.95</v>
+        <v>2.88</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -6132,15 +6132,15 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>3.12</v>
+        <v>3.01</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>05/11/2023 13:40</t>
+          <t>05/11/2023 13:55</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -6148,16 +6148,16 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>1.88</v>
+        <v>2.83</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>05/11/2023 13:40</t>
+          <t>05/11/2023 03:41</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kozani-fc-ael-larissa/U5776LC6/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/panathinaikos-pae-egaleo/OSYfC8Se/</t>
         </is>
       </c>
     </row>
@@ -6185,71 +6185,71 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Kampaniakos</t>
+          <t>AEK Athens FC B</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Apollon Pontou</t>
+          <t>Niki Volos</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J63" t="n">
-        <v>2.17</v>
+        <v>4.16</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>05/11/2023 03:13</t>
+          <t>04/11/2023 02:12</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>1.97</v>
+        <v>4.09</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>05/11/2023 12:16</t>
+          <t>05/11/2023 13:57</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>2.99</v>
+        <v>3.15</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>05/11/2023 03:13</t>
+          <t>04/11/2023 02:12</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3.11</v>
+        <v>3.01</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>05/11/2023 12:16</t>
+          <t>05/11/2023 13:57</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>3.42</v>
+        <v>1.79</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>05/11/2023 03:13</t>
+          <t>04/11/2023 02:12</t>
         </is>
       </c>
       <c r="T63" t="n">
-        <v>4.12</v>
+        <v>2.02</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>05/11/2023 12:16</t>
+          <t>05/11/2023 13:57</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kampaniakos-apollon-pontou/CUdC5uSC/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/aek-niki-volos/vykbTrKJ/</t>
         </is>
       </c>
     </row>
@@ -6277,22 +6277,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Ionikos</t>
+          <t>Kampaniakos</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Kalamata</t>
+          <t>Apollon Pontou</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>2.56</v>
+        <v>2.17</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,15 +6300,15 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>2.88</v>
+        <v>1.97</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>05/11/2023 13:59</t>
+          <t>05/11/2023 12:16</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3</v>
+        <v>2.99</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.15</v>
+        <v>3.11</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>05/11/2023 13:59</t>
+          <t>05/11/2023 12:16</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>2.82</v>
+        <v>3.42</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>2.46</v>
+        <v>4.12</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>05/11/2023 13:59</t>
+          <t>05/11/2023 12:16</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ionikos-kalamata/2JXbBSs2/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kampaniakos-apollon-pontou/CUdC5uSC/</t>
         </is>
       </c>
     </row>
@@ -6369,22 +6369,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Panathinaikos B</t>
+          <t>Kozani FC</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>PAE Egaleo</t>
+          <t>AEL Larissa</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J65" t="n">
-        <v>2.48</v>
+        <v>3.62</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -6392,15 +6392,15 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>2.59</v>
+        <v>4.52</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>05/11/2023 13:55</t>
+          <t>05/11/2023 13:40</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>2.88</v>
+        <v>2.95</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -6408,15 +6408,15 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.01</v>
+        <v>3.12</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>05/11/2023 13:55</t>
+          <t>05/11/2023 13:40</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
@@ -6424,16 +6424,16 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>2.83</v>
+        <v>1.88</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>05/11/2023 03:41</t>
+          <t>05/11/2023 13:40</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/panathinaikos-pae-egaleo/OSYfC8Se/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kozani-fc-ael-larissa/U5776LC6/</t>
         </is>
       </c>
     </row>
@@ -6461,71 +6461,71 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>AEK Athens FC B</t>
+          <t>Ionikos</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Niki Volos</t>
+          <t>Kalamata</t>
         </is>
       </c>
       <c r="I66" t="n">
+        <v>2</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>05/11/2023 03:13</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:59</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>3</v>
       </c>
-      <c r="J66" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>04/11/2023 02:12</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>05/11/2023 13:57</t>
-        </is>
-      </c>
-      <c r="N66" t="n">
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>05/11/2023 03:13</t>
+        </is>
+      </c>
+      <c r="P66" t="n">
         <v>3.15</v>
       </c>
-      <c r="O66" t="inlineStr">
-        <is>
-          <t>04/11/2023 02:12</t>
-        </is>
-      </c>
-      <c r="P66" t="n">
-        <v>3.01</v>
-      </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>05/11/2023 13:57</t>
+          <t>05/11/2023 13:59</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>1.79</v>
+        <v>2.82</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>04/11/2023 02:12</t>
+          <t>05/11/2023 03:13</t>
         </is>
       </c>
       <c r="T66" t="n">
-        <v>2.02</v>
+        <v>2.46</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>05/11/2023 13:57</t>
+          <t>05/11/2023 13:59</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/aek-niki-volos/vykbTrKJ/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ionikos-kalamata/2JXbBSs2/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>AEL Larissa</t>
+          <t>Kampaniakos</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>PAOK B</t>
+          <t>Kozani FC</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>1.43</v>
+        <v>2.61</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>1.33</v>
+        <v>2.94</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>11/11/2023 13:40</t>
+          <t>11/11/2023 13:03</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.99</v>
+        <v>2.87</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>4.69</v>
+        <v>2.79</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>11/11/2023 13:40</t>
+          <t>11/11/2023 13:03</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>6.04</v>
+        <v>2.61</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>9.68</v>
+        <v>2.68</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>11/11/2023 13:40</t>
+          <t>11/11/2023 13:03</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ael-larissa-paok/WYTxM0Cg/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kampaniakos-kozani-fc/xCUYMtcm/</t>
         </is>
       </c>
     </row>
@@ -7013,22 +7013,22 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Kampaniakos</t>
+          <t>AEL Larissa</t>
         </is>
       </c>
       <c r="G72" t="n">
+        <v>2</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>PAOK B</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>Kozani FC</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
       <c r="J72" t="n">
-        <v>2.61</v>
+        <v>1.43</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -7036,15 +7036,15 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>2.94</v>
+        <v>1.33</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>11/11/2023 13:03</t>
+          <t>11/11/2023 13:40</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>2.87</v>
+        <v>3.99</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -7052,15 +7052,15 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>2.79</v>
+        <v>4.69</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>11/11/2023 13:03</t>
+          <t>11/11/2023 13:40</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>2.61</v>
+        <v>6.04</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
@@ -7068,16 +7068,16 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>2.68</v>
+        <v>9.68</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>11/11/2023 13:03</t>
+          <t>11/11/2023 13:40</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kampaniakos-kozani-fc/xCUYMtcm/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ael-larissa-paok/WYTxM0Cg/</t>
         </is>
       </c>
     </row>
@@ -7197,22 +7197,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>PAE Chania</t>
+          <t>Niki Volos</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Panathinaikos B</t>
+          <t>Iraklis 1908</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>1.37</v>
+        <v>1.87</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,7 +7220,7 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>1.32</v>
+        <v>2.02</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         </is>
       </c>
       <c r="N74" t="n">
-        <v>4.28</v>
+        <v>3.03</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>4.79</v>
+        <v>3</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>12/11/2023 12:07</t>
+          <t>12/11/2023 12:12</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>6.55</v>
+        <v>3.98</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>9.890000000000001</v>
+        <v>4.13</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>12/11/2023 12:07</t>
+          <t>12/11/2023 12:05</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/pae-chania-panathinaikos/8dfQRmSr/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/niki-volos-iraklis-fc/jypvKvs6/</t>
         </is>
       </c>
     </row>
@@ -7289,71 +7289,71 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Ilioupoli</t>
+          <t>Levadiakos</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Athens Kallithea</t>
+          <t>Aiolikos</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>4.68</v>
+        <v>1.24</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>11/11/2023 02:12</t>
+          <t>11/11/2023 04:43</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>4.56</v>
+        <v>1.27</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>12/11/2023 13:55</t>
+          <t>12/11/2023 11:59</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.36</v>
+        <v>4.72</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>11/11/2023 02:12</t>
+          <t>11/11/2023 04:43</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.13</v>
+        <v>4.98</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>12/11/2023 13:55</t>
+          <t>12/11/2023 12:05</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>1.65</v>
+        <v>10.75</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>11/11/2023 02:12</t>
+          <t>11/11/2023 04:43</t>
         </is>
       </c>
       <c r="T75" t="n">
-        <v>1.88</v>
+        <v>12.44</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>12/11/2023 13:55</t>
+          <t>12/11/2023 11:59</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ilioupoli-athens-kallithea/GMcYPRde/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/levadiakos-aiolikos-fc/URrrJbdC/</t>
         </is>
       </c>
     </row>
@@ -7473,71 +7473,71 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Levadiakos</t>
+          <t>Ilioupoli</t>
         </is>
       </c>
       <c r="G77" t="n">
+        <v>1</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Athens Kallithea</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
         <v>2</v>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>Aiolikos</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
       <c r="J77" t="n">
-        <v>1.24</v>
+        <v>4.68</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>11/11/2023 04:43</t>
+          <t>11/11/2023 02:12</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.27</v>
+        <v>4.56</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>12/11/2023 11:59</t>
+          <t>12/11/2023 13:55</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>4.72</v>
+        <v>3.36</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>11/11/2023 04:43</t>
+          <t>11/11/2023 02:12</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>4.98</v>
+        <v>3.13</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>12/11/2023 12:05</t>
+          <t>12/11/2023 13:55</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>10.75</v>
+        <v>1.65</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>11/11/2023 04:43</t>
+          <t>11/11/2023 02:12</t>
         </is>
       </c>
       <c r="T77" t="n">
-        <v>12.44</v>
+        <v>1.88</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>12/11/2023 11:59</t>
+          <t>12/11/2023 13:55</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/levadiakos-aiolikos-fc/URrrJbdC/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ilioupoli-athens-kallithea/GMcYPRde/</t>
         </is>
       </c>
     </row>
@@ -7565,22 +7565,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Niki Volos</t>
+          <t>PAE Chania</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Iraklis 1908</t>
+          <t>Panathinaikos B</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>1.87</v>
+        <v>1.37</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,7 +7588,7 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>2.02</v>
+        <v>1.32</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.03</v>
+        <v>4.28</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -7604,15 +7604,15 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3</v>
+        <v>4.79</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>12/11/2023 12:12</t>
+          <t>12/11/2023 12:07</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>3.98</v>
+        <v>6.55</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
@@ -7620,16 +7620,16 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>4.13</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>12/11/2023 12:05</t>
+          <t>12/11/2023 12:07</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/niki-volos-iraklis-fc/jypvKvs6/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/pae-chania-panathinaikos/8dfQRmSr/</t>
         </is>
       </c>
     </row>
@@ -8761,22 +8761,22 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Athens Kallithea</t>
+          <t>Ionikos</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Tilikratis L.</t>
+          <t>Panathinaikos B</t>
         </is>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>1.16</v>
+        <v>1.41</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,15 +8784,15 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>1.11</v>
+        <v>1.45</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>25/11/2023 13:09</t>
+          <t>25/11/2023 13:50</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>6.22</v>
+        <v>4.04</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -8800,15 +8800,15 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>8.289999999999999</v>
+        <v>4.25</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>25/11/2023 13:10</t>
+          <t>25/11/2023 13:50</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>12.53</v>
+        <v>6.21</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
@@ -8816,16 +8816,16 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>23.73</v>
+        <v>6.93</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>25/11/2023 13:10</t>
+          <t>25/11/2023 13:50</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/athens-kallithea-tilikratis-lefkada/QL6KyPe7/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ionikos-panathinaikos/O6PNzqBD/</t>
         </is>
       </c>
     </row>
@@ -8853,22 +8853,22 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Ionikos</t>
+          <t>Athens Kallithea</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Panathinaikos B</t>
+          <t>Tilikratis L.</t>
         </is>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>1.41</v>
+        <v>1.16</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -8876,15 +8876,15 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>1.45</v>
+        <v>1.11</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>25/11/2023 13:50</t>
+          <t>25/11/2023 13:09</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>4.04</v>
+        <v>6.22</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -8892,15 +8892,15 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>4.25</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>25/11/2023 13:50</t>
+          <t>25/11/2023 13:10</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>6.21</v>
+        <v>12.53</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
@@ -8908,16 +8908,16 @@
         </is>
       </c>
       <c r="T92" t="n">
-        <v>6.93</v>
+        <v>23.73</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>25/11/2023 13:50</t>
+          <t>25/11/2023 13:10</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ionikos-panathinaikos/O6PNzqBD/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/athens-kallithea-tilikratis-lefkada/QL6KyPe7/</t>
         </is>
       </c>
     </row>
@@ -9129,22 +9129,22 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>PAE Chania</t>
+          <t>Panachaiki</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>PAE Egaleo</t>
+          <t>Diagoras</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="n">
-        <v>1.55</v>
+        <v>2.77</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -9152,15 +9152,15 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>1.2</v>
+        <v>2.63</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>26/11/2023 13:55</t>
+          <t>26/11/2023 13:40</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>3.48</v>
+        <v>2.87</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -9168,15 +9168,15 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>6.56</v>
+        <v>2.72</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>26/11/2023 13:58</t>
+          <t>26/11/2023 13:40</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>5.44</v>
+        <v>2.47</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
@@ -9184,16 +9184,16 @@
         </is>
       </c>
       <c r="T95" t="n">
-        <v>11.76</v>
+        <v>3.09</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>26/11/2023 13:58</t>
+          <t>26/11/2023 13:40</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/pae-chania-pae-egaleo/zXD7vRBl/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/panachaiki-diagoras-fc/h88CwoRf/</t>
         </is>
       </c>
     </row>
@@ -9221,22 +9221,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Panachaiki</t>
+          <t>Karditsa</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Diagoras</t>
+          <t>Niki Volos</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>2.77</v>
+        <v>3.26</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,15 +9244,15 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>2.63</v>
+        <v>3.72</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>26/11/2023 13:40</t>
+          <t>26/11/2023 13:46</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>2.87</v>
+        <v>2.83</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,15 +9260,15 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>2.72</v>
+        <v>2.91</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>26/11/2023 13:40</t>
+          <t>26/11/2023 13:46</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>2.47</v>
+        <v>2.2</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,16 +9276,16 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>3.09</v>
+        <v>2.18</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>26/11/2023 13:40</t>
+          <t>26/11/2023 13:46</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/panachaiki-diagoras-fc/h88CwoRf/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-niki-volos/vuyR4VHO/</t>
         </is>
       </c>
     </row>
@@ -9313,22 +9313,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Karditsa</t>
+          <t>Makedonikos</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Niki Volos</t>
+          <t>Apollon Pontou</t>
         </is>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>3.26</v>
+        <v>1.53</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -9336,15 +9336,15 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>3.72</v>
+        <v>1.54</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>26/11/2023 13:46</t>
+          <t>26/11/2023 13:44</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>2.83</v>
+        <v>3.51</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -9352,15 +9352,15 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>2.91</v>
+        <v>3.65</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>26/11/2023 13:46</t>
+          <t>26/11/2023 13:59</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>2.2</v>
+        <v>5.58</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
@@ -9368,16 +9368,16 @@
         </is>
       </c>
       <c r="T97" t="n">
-        <v>2.18</v>
+        <v>6.81</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>26/11/2023 13:46</t>
+          <t>26/11/2023 13:59</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-niki-volos/vuyR4VHO/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/makedonikos-neapolis-apollon-pontou/QyXM5B2I/</t>
         </is>
       </c>
     </row>
@@ -9405,22 +9405,22 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Makedonikos</t>
+          <t>Ilioupoli</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Apollon Pontou</t>
+          <t>Giouchtas</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>1.53</v>
+        <v>1.97</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -9428,15 +9428,15 @@
         </is>
       </c>
       <c r="L98" t="n">
-        <v>1.54</v>
+        <v>2.19</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>26/11/2023 13:44</t>
+          <t>26/11/2023 13:59</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>3.51</v>
+        <v>3.02</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>3.65</v>
+        <v>3.19</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
@@ -9452,7 +9452,7 @@
         </is>
       </c>
       <c r="R98" t="n">
-        <v>5.58</v>
+        <v>3.62</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
@@ -9460,7 +9460,7 @@
         </is>
       </c>
       <c r="T98" t="n">
-        <v>6.81</v>
+        <v>3.32</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/makedonikos-neapolis-apollon-pontou/QyXM5B2I/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ilioupoli-giouchtas/Wb7Gx5t1/</t>
         </is>
       </c>
     </row>
@@ -9497,22 +9497,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Ilioupoli</t>
+          <t>PAE Chania</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Giouchtas</t>
+          <t>PAE Egaleo</t>
         </is>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>1.97</v>
+        <v>1.55</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -9520,15 +9520,15 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>2.19</v>
+        <v>1.2</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>26/11/2023 13:59</t>
+          <t>26/11/2023 13:55</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>3.02</v>
+        <v>3.48</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -9536,15 +9536,15 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>3.19</v>
+        <v>6.56</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>26/11/2023 13:59</t>
+          <t>26/11/2023 13:58</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>3.62</v>
+        <v>5.44</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
@@ -9552,16 +9552,16 @@
         </is>
       </c>
       <c r="T99" t="n">
-        <v>3.32</v>
+        <v>11.76</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>26/11/2023 13:59</t>
+          <t>26/11/2023 13:58</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ilioupoli-giouchtas/Wb7Gx5t1/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/pae-chania-pae-egaleo/zXD7vRBl/</t>
         </is>
       </c>
     </row>
@@ -9654,6 +9654,98 @@
       <c r="V100" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/greece/super-league-2/olympiacos-piraeus-kalamata/dtF3u7dr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>45257.58333333334</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Levadiakos</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>1</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>AEL Larissa</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>1</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>26/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>27/11/2023 13:56</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>26/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P101" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>27/11/2023 13:56</t>
+        </is>
+      </c>
+      <c r="R101" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>26/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T101" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>27/11/2023 13:20</t>
+        </is>
+      </c>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/levadiakos-ael-larissa/rDsI6imC/</t>
         </is>
       </c>
     </row>

--- a/2023/greece_super-league-2_2023-2024.xlsx
+++ b/2023/greece_super-league-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V101"/>
+  <dimension ref="A1:V103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4897,7 +4897,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Kalamata</t>
+          <t>Giouchtas</t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -4905,63 +4905,63 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Ilioupoli</t>
+          <t>Panathinaikos B</t>
         </is>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>1.44</v>
+        <v>1.83</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>27/10/2023 02:13</t>
+          <t>28/10/2023 01:12</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>1.38</v>
+        <v>1.91</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>28/10/2023 13:43</t>
+          <t>28/10/2023 13:55</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.96</v>
+        <v>3.35</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>27/10/2023 02:13</t>
+          <t>28/10/2023 01:12</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>4.35</v>
+        <v>3.24</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>28/10/2023 13:43</t>
+          <t>28/10/2023 13:55</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>5.97</v>
+        <v>4.09</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>27/10/2023 02:13</t>
+          <t>28/10/2023 01:12</t>
         </is>
       </c>
       <c r="T49" t="n">
-        <v>8.56</v>
+        <v>4.19</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>28/10/2023 13:43</t>
+          <t>28/10/2023 13:55</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kalamata-ilioupoli/bsP9un9q/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/giouchtas-panathinaikos/AJ7XbzA4/</t>
         </is>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Giouchtas</t>
+          <t>Kalamata</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -4997,63 +4997,63 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Panathinaikos B</t>
+          <t>Ilioupoli</t>
         </is>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>1.83</v>
+        <v>1.44</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>28/10/2023 01:12</t>
+          <t>27/10/2023 02:13</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>1.91</v>
+        <v>1.38</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>28/10/2023 13:55</t>
+          <t>28/10/2023 13:43</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.35</v>
+        <v>3.96</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>28/10/2023 01:12</t>
+          <t>27/10/2023 02:13</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.24</v>
+        <v>4.35</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>28/10/2023 13:55</t>
+          <t>28/10/2023 13:43</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>4.09</v>
+        <v>5.97</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>28/10/2023 01:12</t>
+          <t>27/10/2023 02:13</t>
         </is>
       </c>
       <c r="T50" t="n">
-        <v>4.19</v>
+        <v>8.56</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>28/10/2023 13:55</t>
+          <t>28/10/2023 13:43</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/giouchtas-panathinaikos/AJ7XbzA4/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kalamata-ilioupoli/bsP9un9q/</t>
         </is>
       </c>
     </row>
@@ -5265,22 +5265,22 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Apollon Pontou</t>
+          <t>Makedonikos</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Kozani FC</t>
+          <t>PAOK B</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J53" t="n">
-        <v>2.73</v>
+        <v>1.95</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -5288,7 +5288,7 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>4.25</v>
+        <v>1.94</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="N53" t="n">
-        <v>2.87</v>
+        <v>3.06</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -5304,15 +5304,15 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.12</v>
+        <v>3.16</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>29/10/2023 13:45</t>
+          <t>29/10/2023 13:59</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>2.5</v>
+        <v>3.62</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         </is>
       </c>
       <c r="T53" t="n">
-        <v>1.93</v>
+        <v>4.14</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/apollon-pontou-kozani-fc/AqZJSBT8/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/makedonikos-neapolis-paok/b7jd9NSm/</t>
         </is>
       </c>
     </row>
@@ -5357,71 +5357,71 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Diagoras</t>
+          <t>Apollon Pontou</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Ionikos</t>
+          <t>Kozani FC</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>3.43</v>
+        <v>2.73</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>29/10/2023 02:12</t>
+          <t>28/10/2023 03:12</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>3.36</v>
+        <v>4.25</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>29/10/2023 13:40</t>
+          <t>29/10/2023 13:59</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.09</v>
+        <v>2.87</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>29/10/2023 02:12</t>
+          <t>28/10/2023 03:12</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.01</v>
+        <v>3.12</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>29/10/2023 13:40</t>
+          <t>29/10/2023 13:45</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>2.12</v>
+        <v>2.5</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>29/10/2023 02:12</t>
+          <t>28/10/2023 03:12</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>2.27</v>
+        <v>1.93</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>29/10/2023 13:40</t>
+          <t>29/10/2023 13:59</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/diagoras-fc-ionikos/hrcxbfPA/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/apollon-pontou-kozani-fc/AqZJSBT8/</t>
         </is>
       </c>
     </row>
@@ -5449,71 +5449,71 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Makedonikos</t>
+          <t>Diagoras</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>PAOK B</t>
+          <t>Ionikos</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>1.95</v>
+        <v>3.43</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>28/10/2023 03:12</t>
+          <t>29/10/2023 02:12</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>1.94</v>
+        <v>3.36</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>29/10/2023 13:59</t>
+          <t>29/10/2023 13:40</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>3.06</v>
+        <v>3.09</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>28/10/2023 03:12</t>
+          <t>29/10/2023 02:12</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>3.16</v>
+        <v>3.01</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>29/10/2023 13:59</t>
+          <t>29/10/2023 13:40</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>3.62</v>
+        <v>2.12</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>28/10/2023 03:12</t>
+          <t>29/10/2023 02:12</t>
         </is>
       </c>
       <c r="T55" t="n">
-        <v>4.14</v>
+        <v>2.27</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>29/10/2023 13:59</t>
+          <t>29/10/2023 13:40</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/makedonikos-neapolis-paok/b7jd9NSm/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/diagoras-fc-ionikos/hrcxbfPA/</t>
         </is>
       </c>
     </row>
@@ -5725,22 +5725,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>PAOK B</t>
+          <t>Ilioupoli</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Karditsa</t>
+          <t>Panachaiki</t>
         </is>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>1.99</v>
+        <v>1.66</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,15 +5748,15 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>2.38</v>
+        <v>1.38</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>04/11/2023 12:04</t>
+          <t>04/11/2023 13:44</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.12</v>
+        <v>3.48</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5764,15 +5764,15 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>2.89</v>
+        <v>4.36</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>04/11/2023 12:04</t>
+          <t>04/11/2023 13:48</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>3.44</v>
+        <v>4.41</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
@@ -5780,16 +5780,16 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>3.27</v>
+        <v>8.41</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>04/11/2023 12:04</t>
+          <t>04/11/2023 13:44</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/paok-karditsa/jLeG4asJ/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ilioupoli-panachaiki/GbFoZVZ8/</t>
         </is>
       </c>
     </row>
@@ -5817,71 +5817,71 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Ilioupoli</t>
+          <t>Iraklis 1908</t>
         </is>
       </c>
       <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Levadiakos</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
         <v>1</v>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Panachaiki</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
       <c r="J59" t="n">
-        <v>1.66</v>
+        <v>3.01</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>03/11/2023 02:13</t>
+          <t>04/11/2023 05:12</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>1.38</v>
+        <v>3.53</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>04/11/2023 13:44</t>
+          <t>04/11/2023 13:55</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.48</v>
+        <v>2.91</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>03/11/2023 02:13</t>
+          <t>04/11/2023 05:12</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>4.36</v>
+        <v>3</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>04/11/2023 13:48</t>
+          <t>04/11/2023 13:55</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>4.41</v>
+        <v>2.42</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>03/11/2023 02:13</t>
+          <t>04/11/2023 05:12</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>8.41</v>
+        <v>2.2</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>04/11/2023 13:44</t>
+          <t>04/11/2023 13:55</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ilioupoli-panachaiki/GbFoZVZ8/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/iraklis-fc-levadiakos/IRm2S2ZP/</t>
         </is>
       </c>
     </row>
@@ -5909,71 +5909,71 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Iraklis 1908</t>
+          <t>PAOK B</t>
         </is>
       </c>
       <c r="G60" t="n">
+        <v>2</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Karditsa</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>Levadiakos</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
-        <v>1</v>
-      </c>
       <c r="J60" t="n">
-        <v>3.01</v>
+        <v>1.99</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>04/11/2023 05:12</t>
+          <t>03/11/2023 02:13</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>3.53</v>
+        <v>2.38</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>04/11/2023 13:55</t>
+          <t>04/11/2023 12:04</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>2.91</v>
+        <v>3.12</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>04/11/2023 05:12</t>
+          <t>03/11/2023 02:13</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3</v>
+        <v>2.89</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>04/11/2023 13:55</t>
+          <t>04/11/2023 12:04</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>2.42</v>
+        <v>3.44</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>04/11/2023 05:12</t>
+          <t>03/11/2023 02:13</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>2.2</v>
+        <v>3.27</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>04/11/2023 13:55</t>
+          <t>04/11/2023 12:04</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/iraklis-fc-levadiakos/IRm2S2ZP/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/paok-karditsa/jLeG4asJ/</t>
         </is>
       </c>
     </row>
@@ -6737,71 +6737,71 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Kampaniakos</t>
+          <t>Kalamata</t>
         </is>
       </c>
       <c r="G69" t="n">
+        <v>3</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Tilikratis L.</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>Kozani FC</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
       <c r="J69" t="n">
-        <v>2.61</v>
+        <v>1.13</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>10/11/2023 02:13</t>
+          <t>11/11/2023 12:01</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2.94</v>
+        <v>1.13</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>11/11/2023 13:03</t>
+          <t>11/11/2023 12:01</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>2.87</v>
+        <v>7.63</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>10/11/2023 02:13</t>
+          <t>11/11/2023 12:01</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>2.79</v>
+        <v>7.63</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>11/11/2023 13:03</t>
+          <t>11/11/2023 12:01</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>2.61</v>
+        <v>18.11</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>10/11/2023 02:13</t>
+          <t>11/11/2023 12:01</t>
         </is>
       </c>
       <c r="T69" t="n">
-        <v>2.68</v>
+        <v>18.11</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>11/11/2023 13:03</t>
+          <t>11/11/2023 12:01</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kampaniakos-kozani-fc/xCUYMtcm/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kalamata-tilikratis-lefkada/6m8bWTJR/</t>
         </is>
       </c>
     </row>
@@ -6829,7 +6829,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Apollon Pontou</t>
+          <t>AEL Larissa</t>
         </is>
       </c>
       <c r="G70" t="n">
@@ -6837,14 +6837,14 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>AEK Athens FC B</t>
+          <t>PAOK B</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>2.52</v>
+        <v>1.43</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>3.36</v>
+        <v>1.33</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>11/11/2023 13:49</t>
+          <t>11/11/2023 13:40</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>2.82</v>
+        <v>3.99</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>2.73</v>
+        <v>4.69</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>11/11/2023 13:49</t>
+          <t>11/11/2023 13:40</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>2.83</v>
+        <v>6.04</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>2.45</v>
+        <v>9.68</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>11/11/2023 13:49</t>
+          <t>11/11/2023 13:40</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/apollon-pontou-aek/APStLKRa/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ael-larissa-paok/WYTxM0Cg/</t>
         </is>
       </c>
     </row>
@@ -6921,71 +6921,71 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Kalamata</t>
+          <t>Apollon Pontou</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Tilikratis L.</t>
+          <t>AEK Athens FC B</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J71" t="n">
-        <v>1.13</v>
+        <v>2.52</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>11/11/2023 12:01</t>
+          <t>10/11/2023 02:13</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>1.13</v>
+        <v>3.36</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>11/11/2023 12:01</t>
+          <t>11/11/2023 13:49</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>7.63</v>
+        <v>2.82</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>11/11/2023 12:01</t>
+          <t>10/11/2023 02:13</t>
         </is>
       </c>
       <c r="P71" t="n">
-        <v>7.63</v>
+        <v>2.73</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>11/11/2023 12:01</t>
+          <t>11/11/2023 13:49</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>18.11</v>
+        <v>2.83</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>11/11/2023 12:01</t>
+          <t>10/11/2023 02:13</t>
         </is>
       </c>
       <c r="T71" t="n">
-        <v>18.11</v>
+        <v>2.45</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>11/11/2023 12:01</t>
+          <t>11/11/2023 13:49</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kalamata-tilikratis-lefkada/6m8bWTJR/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/apollon-pontou-aek/APStLKRa/</t>
         </is>
       </c>
     </row>
@@ -7013,22 +7013,22 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>AEL Larissa</t>
+          <t>Kampaniakos</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>PAOK B</t>
+          <t>Kozani FC</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>1.43</v>
+        <v>2.61</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -7036,15 +7036,15 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>1.33</v>
+        <v>2.94</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>11/11/2023 13:40</t>
+          <t>11/11/2023 13:03</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.99</v>
+        <v>2.87</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -7052,15 +7052,15 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>4.69</v>
+        <v>2.79</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>11/11/2023 13:40</t>
+          <t>11/11/2023 13:03</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>6.04</v>
+        <v>2.61</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
@@ -7068,16 +7068,16 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>9.68</v>
+        <v>2.68</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>11/11/2023 13:40</t>
+          <t>11/11/2023 13:03</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ael-larissa-paok/WYTxM0Cg/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kampaniakos-kozani-fc/xCUYMtcm/</t>
         </is>
       </c>
     </row>
@@ -7197,22 +7197,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Niki Volos</t>
+          <t>Panachaiki</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Iraklis 1908</t>
+          <t>Ionikos</t>
         </is>
       </c>
       <c r="I74" t="n">
         <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>1.87</v>
+        <v>4.2</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>2.02</v>
+        <v>6.83</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>12/11/2023 12:05</t>
+          <t>12/11/2023 13:58</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.03</v>
+        <v>3.26</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3</v>
+        <v>3.77</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>12/11/2023 12:12</t>
+          <t>12/11/2023 13:58</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>3.98</v>
+        <v>1.75</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>4.13</v>
+        <v>1.52</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>12/11/2023 12:05</t>
+          <t>12/11/2023 13:58</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/niki-volos-iraklis-fc/jypvKvs6/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/panachaiki-ionikos/2JgUQ7sk/</t>
         </is>
       </c>
     </row>
@@ -7289,71 +7289,71 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Levadiakos</t>
+          <t>Niki Volos</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aiolikos</t>
+          <t>Iraklis 1908</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>1.24</v>
+        <v>1.87</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>11/11/2023 04:43</t>
+          <t>11/11/2023 02:12</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>1.27</v>
+        <v>2.02</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>12/11/2023 11:59</t>
+          <t>12/11/2023 12:05</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>4.72</v>
+        <v>3.03</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>11/11/2023 04:43</t>
+          <t>11/11/2023 02:12</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>4.98</v>
+        <v>3</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
+          <t>12/11/2023 12:12</t>
+        </is>
+      </c>
+      <c r="R75" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>11/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T75" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
           <t>12/11/2023 12:05</t>
         </is>
       </c>
-      <c r="R75" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="S75" t="inlineStr">
-        <is>
-          <t>11/11/2023 04:43</t>
-        </is>
-      </c>
-      <c r="T75" t="n">
-        <v>12.44</v>
-      </c>
-      <c r="U75" t="inlineStr">
-        <is>
-          <t>12/11/2023 11:59</t>
-        </is>
-      </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/levadiakos-aiolikos-fc/URrrJbdC/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/niki-volos-iraklis-fc/jypvKvs6/</t>
         </is>
       </c>
     </row>
@@ -7381,71 +7381,71 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Panachaiki</t>
+          <t>Levadiakos</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Ionikos</t>
+          <t>Aiolikos</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>4.2</v>
+        <v>1.24</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>11/11/2023 02:12</t>
+          <t>11/11/2023 04:43</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>6.83</v>
+        <v>1.27</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>12/11/2023 13:58</t>
+          <t>12/11/2023 11:59</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.26</v>
+        <v>4.72</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>11/11/2023 02:12</t>
+          <t>11/11/2023 04:43</t>
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.77</v>
+        <v>4.98</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>12/11/2023 13:58</t>
+          <t>12/11/2023 12:05</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>1.75</v>
+        <v>10.75</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>11/11/2023 02:12</t>
+          <t>11/11/2023 04:43</t>
         </is>
       </c>
       <c r="T76" t="n">
-        <v>1.52</v>
+        <v>12.44</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>12/11/2023 13:58</t>
+          <t>12/11/2023 11:59</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/panachaiki-ionikos/2JgUQ7sk/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/levadiakos-aiolikos-fc/URrrJbdC/</t>
         </is>
       </c>
     </row>
@@ -8761,22 +8761,22 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Ionikos</t>
+          <t>Athens Kallithea</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Panathinaikos B</t>
+          <t>Tilikratis L.</t>
         </is>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>1.41</v>
+        <v>1.16</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,15 +8784,15 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>1.45</v>
+        <v>1.11</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>25/11/2023 13:50</t>
+          <t>25/11/2023 13:09</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>4.04</v>
+        <v>6.22</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -8800,15 +8800,15 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>4.25</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>25/11/2023 13:50</t>
+          <t>25/11/2023 13:10</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>6.21</v>
+        <v>12.53</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
@@ -8816,16 +8816,16 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>6.93</v>
+        <v>23.73</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>25/11/2023 13:50</t>
+          <t>25/11/2023 13:10</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ionikos-panathinaikos/O6PNzqBD/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/athens-kallithea-tilikratis-lefkada/QL6KyPe7/</t>
         </is>
       </c>
     </row>
@@ -8853,22 +8853,22 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Athens Kallithea</t>
+          <t>Ionikos</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Tilikratis L.</t>
+          <t>Panathinaikos B</t>
         </is>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>1.16</v>
+        <v>1.41</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -8876,15 +8876,15 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>1.11</v>
+        <v>1.45</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>25/11/2023 13:09</t>
+          <t>25/11/2023 13:50</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>6.22</v>
+        <v>4.04</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -8892,15 +8892,15 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>8.289999999999999</v>
+        <v>4.25</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>25/11/2023 13:10</t>
+          <t>25/11/2023 13:50</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>12.53</v>
+        <v>6.21</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
@@ -8908,16 +8908,16 @@
         </is>
       </c>
       <c r="T92" t="n">
-        <v>23.73</v>
+        <v>6.93</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>25/11/2023 13:10</t>
+          <t>25/11/2023 13:50</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/athens-kallithea-tilikratis-lefkada/QL6KyPe7/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ionikos-panathinaikos/O6PNzqBD/</t>
         </is>
       </c>
     </row>
@@ -9129,22 +9129,22 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Panachaiki</t>
+          <t>Ilioupoli</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Diagoras</t>
+          <t>Giouchtas</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>2.77</v>
+        <v>1.97</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -9152,15 +9152,15 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>2.63</v>
+        <v>2.19</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>26/11/2023 13:40</t>
+          <t>26/11/2023 13:59</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>2.87</v>
+        <v>3.02</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -9168,15 +9168,15 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>2.72</v>
+        <v>3.19</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>26/11/2023 13:40</t>
+          <t>26/11/2023 13:59</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>2.47</v>
+        <v>3.62</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
@@ -9184,16 +9184,16 @@
         </is>
       </c>
       <c r="T95" t="n">
-        <v>3.09</v>
+        <v>3.32</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>26/11/2023 13:40</t>
+          <t>26/11/2023 13:59</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/panachaiki-diagoras-fc/h88CwoRf/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ilioupoli-giouchtas/Wb7Gx5t1/</t>
         </is>
       </c>
     </row>
@@ -9221,7 +9221,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Karditsa</t>
+          <t>PAE Chania</t>
         </is>
       </c>
       <c r="G96" t="n">
@@ -9229,14 +9229,14 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Niki Volos</t>
+          <t>PAE Egaleo</t>
         </is>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>3.26</v>
+        <v>1.55</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,15 +9244,15 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>3.72</v>
+        <v>1.2</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>26/11/2023 13:46</t>
+          <t>26/11/2023 13:55</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>2.83</v>
+        <v>3.48</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,15 +9260,15 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>2.91</v>
+        <v>6.56</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>26/11/2023 13:46</t>
+          <t>26/11/2023 13:58</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>2.2</v>
+        <v>5.44</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,16 +9276,16 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>2.18</v>
+        <v>11.76</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>26/11/2023 13:46</t>
+          <t>26/11/2023 13:58</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-niki-volos/vuyR4VHO/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/pae-chania-pae-egaleo/zXD7vRBl/</t>
         </is>
       </c>
     </row>
@@ -9313,22 +9313,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Makedonikos</t>
+          <t>Panachaiki</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Apollon Pontou</t>
+          <t>Diagoras</t>
         </is>
       </c>
       <c r="I97" t="n">
         <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>1.53</v>
+        <v>2.77</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -9336,15 +9336,15 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>1.54</v>
+        <v>2.63</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>26/11/2023 13:44</t>
+          <t>26/11/2023 13:40</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>3.51</v>
+        <v>2.87</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -9352,15 +9352,15 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>3.65</v>
+        <v>2.72</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>26/11/2023 13:59</t>
+          <t>26/11/2023 13:40</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>5.58</v>
+        <v>2.47</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
@@ -9368,16 +9368,16 @@
         </is>
       </c>
       <c r="T97" t="n">
-        <v>6.81</v>
+        <v>3.09</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>26/11/2023 13:59</t>
+          <t>26/11/2023 13:40</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/makedonikos-neapolis-apollon-pontou/QyXM5B2I/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/panachaiki-diagoras-fc/h88CwoRf/</t>
         </is>
       </c>
     </row>
@@ -9405,22 +9405,22 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Ilioupoli</t>
+          <t>Karditsa</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Giouchtas</t>
+          <t>Niki Volos</t>
         </is>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>1.97</v>
+        <v>3.26</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -9428,15 +9428,15 @@
         </is>
       </c>
       <c r="L98" t="n">
-        <v>2.19</v>
+        <v>3.72</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>26/11/2023 13:59</t>
+          <t>26/11/2023 13:46</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>3.02</v>
+        <v>2.83</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -9444,15 +9444,15 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>3.19</v>
+        <v>2.91</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>26/11/2023 13:59</t>
+          <t>26/11/2023 13:46</t>
         </is>
       </c>
       <c r="R98" t="n">
-        <v>3.62</v>
+        <v>2.2</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
@@ -9460,16 +9460,16 @@
         </is>
       </c>
       <c r="T98" t="n">
-        <v>3.32</v>
+        <v>2.18</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>26/11/2023 13:59</t>
+          <t>26/11/2023 13:46</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ilioupoli-giouchtas/Wb7Gx5t1/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-niki-volos/vuyR4VHO/</t>
         </is>
       </c>
     </row>
@@ -9497,22 +9497,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>PAE Chania</t>
+          <t>Makedonikos</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>PAE Egaleo</t>
+          <t>Apollon Pontou</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -9520,15 +9520,15 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>1.2</v>
+        <v>1.54</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>26/11/2023 13:55</t>
+          <t>26/11/2023 13:44</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>3.48</v>
+        <v>3.51</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -9536,15 +9536,15 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>6.56</v>
+        <v>3.65</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>26/11/2023 13:58</t>
+          <t>26/11/2023 13:59</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>5.44</v>
+        <v>5.58</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
@@ -9552,16 +9552,16 @@
         </is>
       </c>
       <c r="T99" t="n">
-        <v>11.76</v>
+        <v>6.81</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>26/11/2023 13:58</t>
+          <t>26/11/2023 13:59</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/pae-chania-pae-egaleo/zXD7vRBl/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/makedonikos-neapolis-apollon-pontou/QyXM5B2I/</t>
         </is>
       </c>
     </row>
@@ -9746,6 +9746,190 @@
       <c r="V101" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/greece/super-league-2/levadiakos-ael-larissa/rDsI6imC/</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>45259.58333333334</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Panathinaikos B</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Ilioupoli</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>2</v>
+      </c>
+      <c r="J102" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>28/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>29/11/2023 13:58</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>28/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P102" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>29/11/2023 13:57</t>
+        </is>
+      </c>
+      <c r="R102" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>28/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T102" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>29/11/2023 13:58</t>
+        </is>
+      </c>
+      <c r="V102" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/panathinaikos-ilioupoli/QcOXpTYK/</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>45259.58333333334</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Kozani FC</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>PAOK B</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>1</v>
+      </c>
+      <c r="J103" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>14/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>29/11/2023 12:20</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>14/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P103" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>29/11/2023 12:23</t>
+        </is>
+      </c>
+      <c r="R103" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>14/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T103" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>29/11/2023 12:20</t>
+        </is>
+      </c>
+      <c r="V103" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kozani-fc-paok/S2CKcd4s/</t>
         </is>
       </c>
     </row>

--- a/2023/greece_super-league-2_2023-2024.xlsx
+++ b/2023/greece_super-league-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V103"/>
+  <dimension ref="A1:V104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1585,71 +1585,71 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Panachaiki</t>
+          <t>PAOK B</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Panathinaikos B</t>
+          <t>Kampaniakos</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J13" t="n">
-        <v>2.03</v>
+        <v>1.46</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>29/09/2023 02:12</t>
+          <t>30/09/2023 03:12</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>2.78</v>
+        <v>1.52</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>30/09/2023 14:56</t>
+          <t>30/09/2023 13:01</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.16</v>
+        <v>4.27</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>29/09/2023 02:12</t>
+          <t>30/09/2023 03:12</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>2.92</v>
+        <v>4.05</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>30/09/2023 13:25</t>
+          <t>30/09/2023 13:17</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>3.27</v>
+        <v>5.93</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>29/09/2023 02:12</t>
+          <t>30/09/2023 03:12</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>2.72</v>
+        <v>6.09</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>30/09/2023 14:56</t>
+          <t>30/09/2023 13:17</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/panachaiki-panathinaikos/xh8LWHQB/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/paok-kampaniakos/S6W0xkkj/</t>
         </is>
       </c>
     </row>
@@ -1677,71 +1677,71 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>PAOK B</t>
+          <t>Panachaiki</t>
         </is>
       </c>
       <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Panathinaikos B</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
         <v>2</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Kampaniakos</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
-        <v>3</v>
-      </c>
       <c r="J14" t="n">
-        <v>1.46</v>
+        <v>2.03</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>30/09/2023 03:12</t>
+          <t>29/09/2023 02:12</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1.52</v>
+        <v>2.78</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>30/09/2023 13:01</t>
+          <t>30/09/2023 14:56</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>4.27</v>
+        <v>3.16</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>30/09/2023 03:12</t>
+          <t>29/09/2023 02:12</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>4.05</v>
+        <v>2.92</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>30/09/2023 13:17</t>
+          <t>30/09/2023 13:25</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>5.93</v>
+        <v>3.27</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>30/09/2023 03:12</t>
+          <t>29/09/2023 02:12</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>6.09</v>
+        <v>2.72</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>30/09/2023 13:17</t>
+          <t>30/09/2023 14:56</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/paok-kampaniakos/S6W0xkkj/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/panachaiki-panathinaikos/xh8LWHQB/</t>
         </is>
       </c>
     </row>
@@ -2505,71 +2505,71 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Karditsa</t>
+          <t>AEL Larissa</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Aiolikos</t>
+          <t>Iraklis 1908</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>10/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
         <v>1.96</v>
       </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>10/10/2023 11:12</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1.86</v>
-      </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>11/10/2023 14:54</t>
+          <t>11/10/2023 14:52</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>2.97</v>
+        <v>3.06</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>10/10/2023 11:12</t>
+          <t>10/10/2023 02:12</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.27</v>
+        <v>3.04</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>11/10/2023 14:54</t>
+          <t>11/10/2023 14:52</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>3.86</v>
+        <v>3.62</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>10/10/2023 11:12</t>
+          <t>10/10/2023 02:12</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>4.4</v>
+        <v>4.31</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>11/10/2023 14:54</t>
+          <t>11/10/2023 14:52</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-aiolikos-fc/2JmBaDaM/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ael-larissa-iraklis-fc/WhhFbXES/</t>
         </is>
       </c>
     </row>
@@ -2597,22 +2597,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Kozani FC</t>
+          <t>Karditsa</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Makedonikos</t>
+          <t>Aiolikos</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>2.36</v>
+        <v>1.96</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,15 +2620,15 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.63</v>
+        <v>1.86</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>11/10/2023 14:58</t>
+          <t>11/10/2023 14:54</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>2.79</v>
+        <v>2.97</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,15 +2636,15 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>2.86</v>
+        <v>3.27</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>11/10/2023 14:58</t>
+          <t>11/10/2023 14:54</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>3.1</v>
+        <v>3.86</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>2.93</v>
+        <v>4.4</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>11/10/2023 14:16</t>
+          <t>11/10/2023 14:54</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kozani-fc-makedonikos-neapolis/t4a21ZU9/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-aiolikos-fc/2JmBaDaM/</t>
         </is>
       </c>
     </row>
@@ -2689,71 +2689,71 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>AEL Larissa</t>
+          <t>Kozani FC</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Iraklis 1908</t>
+          <t>Makedonikos</t>
         </is>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.95</v>
+        <v>2.36</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>10/10/2023 02:12</t>
+          <t>10/10/2023 11:12</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>1.96</v>
+        <v>2.63</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>11/10/2023 14:52</t>
+          <t>11/10/2023 14:58</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.06</v>
+        <v>2.79</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>10/10/2023 02:12</t>
+          <t>10/10/2023 11:12</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.04</v>
+        <v>2.86</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>11/10/2023 14:52</t>
+          <t>11/10/2023 14:58</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>3.62</v>
+        <v>3.1</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>10/10/2023 02:12</t>
+          <t>10/10/2023 11:12</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>4.31</v>
+        <v>2.93</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>11/10/2023 14:52</t>
+          <t>11/10/2023 14:16</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ael-larissa-iraklis-fc/WhhFbXES/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kozani-fc-makedonikos-neapolis/t4a21ZU9/</t>
         </is>
       </c>
     </row>
@@ -2781,71 +2781,71 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Giouchtas</t>
+          <t>PAE Egaleo</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Panachaiki</t>
+          <t>Kalamata</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J26" t="n">
-        <v>1.76</v>
+        <v>2.62</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>14/10/2023 12:13</t>
+          <t>13/10/2023 02:13</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>1.68</v>
+        <v>4.93</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>14/10/2023 14:06</t>
+          <t>14/10/2023 14:52</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.44</v>
+        <v>2.71</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>14/10/2023 12:13</t>
+          <t>13/10/2023 02:13</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.46</v>
+        <v>3.53</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>14/10/2023 14:07</t>
+          <t>14/10/2023 14:52</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>4.73</v>
+        <v>2.75</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>14/10/2023 12:13</t>
+          <t>13/10/2023 02:13</t>
         </is>
       </c>
       <c r="T26" t="n">
-        <v>5.38</v>
+        <v>1.71</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>14/10/2023 14:06</t>
+          <t>14/10/2023 14:52</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/giouchtas-panachaiki/OlUjncQb/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/pae-egaleo-kalamata/dGsbpyeB/</t>
         </is>
       </c>
     </row>
@@ -2873,71 +2873,71 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>PAE Egaleo</t>
+          <t>Giouchtas</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Kalamata</t>
+          <t>Panachaiki</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>2.62</v>
+        <v>1.76</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>13/10/2023 02:13</t>
+          <t>14/10/2023 12:13</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>4.93</v>
+        <v>1.68</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>14/10/2023 14:52</t>
+          <t>14/10/2023 14:06</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>2.71</v>
+        <v>3.44</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>13/10/2023 02:13</t>
+          <t>14/10/2023 12:13</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.53</v>
+        <v>3.46</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>14/10/2023 14:52</t>
+          <t>14/10/2023 14:07</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>2.75</v>
+        <v>4.73</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>13/10/2023 02:13</t>
+          <t>14/10/2023 12:13</t>
         </is>
       </c>
       <c r="T27" t="n">
-        <v>1.71</v>
+        <v>5.38</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>14/10/2023 14:52</t>
+          <t>14/10/2023 14:06</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/pae-egaleo-kalamata/dGsbpyeB/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/giouchtas-panachaiki/OlUjncQb/</t>
         </is>
       </c>
     </row>
@@ -3517,22 +3517,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>PAOK B</t>
+          <t>Athens Kallithea</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Aiolikos</t>
+          <t>Giouchtas</t>
         </is>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>1.57</v>
+        <v>1.3</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,15 +3540,15 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>1.75</v>
+        <v>1.23</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>21/10/2023 14:43</t>
+          <t>21/10/2023 14:17</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.91</v>
+        <v>4.55</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3556,15 +3556,15 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.66</v>
+        <v>5.44</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>21/10/2023 14:43</t>
+          <t>21/10/2023 14:18</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>5.06</v>
+        <v>10.53</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -3572,16 +3572,16 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>4.44</v>
+        <v>13.52</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>21/10/2023 14:43</t>
+          <t>21/10/2023 14:17</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/paok-aiolikos-fc/fyiX48y2/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/athens-kallithea-giouchtas/n5zBsZvU/</t>
         </is>
       </c>
     </row>
@@ -3701,22 +3701,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Athens Kallithea</t>
+          <t>PAOK B</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Giouchtas</t>
+          <t>Aiolikos</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>1.3</v>
+        <v>1.57</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,15 +3724,15 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>1.23</v>
+        <v>1.75</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>21/10/2023 14:17</t>
+          <t>21/10/2023 14:43</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>4.55</v>
+        <v>3.91</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3740,15 +3740,15 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>5.44</v>
+        <v>3.66</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>21/10/2023 14:18</t>
+          <t>21/10/2023 14:43</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>10.53</v>
+        <v>5.06</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3756,16 +3756,16 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>13.52</v>
+        <v>4.44</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>21/10/2023 14:17</t>
+          <t>21/10/2023 14:43</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/athens-kallithea-giouchtas/n5zBsZvU/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/paok-aiolikos-fc/fyiX48y2/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>AEL Larissa</t>
+          <t>Panachaiki</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Makedonikos</t>
+          <t>PAE Egaleo</t>
         </is>
       </c>
       <c r="I39" t="n">
         <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>1.67</v>
+        <v>3.03</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>22/10/2023 14:56</t>
+          <t>22/10/2023 14:59</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.22</v>
+        <v>2.94</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.72</v>
+        <v>3.06</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>22/10/2023 14:56</t>
+          <t>22/10/2023 14:57</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>4.89</v>
+        <v>2.3</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>7.37</v>
+        <v>2.37</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>22/10/2023 14:56</t>
+          <t>22/10/2023 14:59</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ael-larissa-makedonikos-neapolis/8KhP6U6k/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/panachaiki-pae-egaleo/QV5L1xQo/</t>
         </is>
       </c>
     </row>
@@ -4069,22 +4069,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Panachaiki</t>
+          <t>AEL Larissa</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>PAE Egaleo</t>
+          <t>Makedonikos</t>
         </is>
       </c>
       <c r="I40" t="n">
         <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>3.03</v>
+        <v>1.67</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,15 +4092,15 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>22/10/2023 14:59</t>
+          <t>22/10/2023 14:56</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>2.94</v>
+        <v>3.22</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,15 +4108,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.06</v>
+        <v>3.72</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>22/10/2023 14:57</t>
+          <t>22/10/2023 14:56</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>2.3</v>
+        <v>4.89</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>2.37</v>
+        <v>7.37</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>22/10/2023 14:59</t>
+          <t>22/10/2023 14:56</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/panachaiki-pae-egaleo/QV5L1xQo/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ael-larissa-makedonikos-neapolis/8KhP6U6k/</t>
         </is>
       </c>
     </row>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Kozani FC</t>
+          <t>Apollon Pontou</t>
         </is>
       </c>
       <c r="G41" t="n">
@@ -4169,63 +4169,63 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Karditsa</t>
+          <t>Niki Volos</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J41" t="n">
-        <v>2.75</v>
+        <v>4.17</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>22/10/2023 12:12</t>
+          <t>21/10/2023 02:13</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2.58</v>
+        <v>9.99</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>22/10/2023 14:49</t>
+          <t>22/10/2023 14:56</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>2.74</v>
+        <v>3.18</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>22/10/2023 12:12</t>
+          <t>21/10/2023 02:13</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>2.74</v>
+        <v>4.44</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>22/10/2023 13:54</t>
+          <t>22/10/2023 14:56</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>2.92</v>
+        <v>1.78</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>22/10/2023 12:12</t>
+          <t>21/10/2023 02:13</t>
         </is>
       </c>
       <c r="T41" t="n">
-        <v>3.14</v>
+        <v>1.34</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>22/10/2023 14:49</t>
+          <t>22/10/2023 14:56</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kozani-fc-karditsa/OnHhCjqS/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/apollon-pontou-niki-volos/UTgL7Aiq/</t>
         </is>
       </c>
     </row>
@@ -4253,7 +4253,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Apollon Pontou</t>
+          <t>Kozani FC</t>
         </is>
       </c>
       <c r="G42" t="n">
@@ -4261,63 +4261,63 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Niki Volos</t>
+          <t>Karditsa</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>4.17</v>
+        <v>2.75</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>21/10/2023 02:13</t>
+          <t>22/10/2023 12:12</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>9.99</v>
+        <v>2.58</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>22/10/2023 14:56</t>
+          <t>22/10/2023 14:49</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.18</v>
+        <v>2.74</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>21/10/2023 02:13</t>
+          <t>22/10/2023 12:12</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>4.44</v>
+        <v>2.74</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>22/10/2023 14:56</t>
+          <t>22/10/2023 13:54</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>1.78</v>
+        <v>2.92</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>21/10/2023 02:13</t>
+          <t>22/10/2023 12:12</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>1.34</v>
+        <v>3.14</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>22/10/2023 14:56</t>
+          <t>22/10/2023 14:49</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/apollon-pontou-niki-volos/UTgL7Aiq/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kozani-fc-karditsa/OnHhCjqS/</t>
         </is>
       </c>
     </row>
@@ -4621,22 +4621,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>PAE Egaleo</t>
+          <t>Kalamata</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Athens Kallithea</t>
+          <t>Ilioupoli</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>4.46</v>
+        <v>1.44</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,15 +4644,15 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>7.03</v>
+        <v>1.38</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>28/10/2023 12:23</t>
+          <t>28/10/2023 13:43</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.12</v>
+        <v>3.96</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4660,15 +4660,15 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.72</v>
+        <v>4.35</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>28/10/2023 12:23</t>
+          <t>28/10/2023 13:43</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>1.75</v>
+        <v>5.97</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
@@ -4676,16 +4676,16 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>1.52</v>
+        <v>8.56</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>28/10/2023 12:23</t>
+          <t>28/10/2023 13:43</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/pae-egaleo-athens-kallithea/WYetcEvH/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kalamata-ilioupoli/bsP9un9q/</t>
         </is>
       </c>
     </row>
@@ -4713,71 +4713,71 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>PAE Chania</t>
+          <t>Levadiakos</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Panachaiki</t>
+          <t>AEK Athens FC B</t>
         </is>
       </c>
       <c r="I47" t="n">
         <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>1.42</v>
+        <v>1.3</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>27/10/2023 02:13</t>
+          <t>28/10/2023 01:12</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>28/10/2023 13:34</t>
+          <t>28/10/2023 13:55</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>4.07</v>
+        <v>4.78</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>27/10/2023 02:13</t>
+          <t>28/10/2023 01:12</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>5.62</v>
+        <v>4.28</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>28/10/2023 13:58</t>
+          <t>28/10/2023 13:55</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>6.07</v>
+        <v>9.51</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>27/10/2023 02:13</t>
+          <t>28/10/2023 01:12</t>
         </is>
       </c>
       <c r="T47" t="n">
-        <v>14.35</v>
+        <v>9.83</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>28/10/2023 13:58</t>
+          <t>28/10/2023 13:55</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/pae-chania-panachaiki/xYNDv6Ok/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/levadiakos-aek/xbk08srf/</t>
         </is>
       </c>
     </row>
@@ -4805,71 +4805,71 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Levadiakos</t>
+          <t>PAE Egaleo</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>AEK Athens FC B</t>
+          <t>Athens Kallithea</t>
         </is>
       </c>
       <c r="I48" t="n">
         <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>1.3</v>
+        <v>4.46</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>28/10/2023 01:12</t>
+          <t>27/10/2023 02:13</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1.36</v>
+        <v>7.03</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>28/10/2023 13:55</t>
+          <t>28/10/2023 12:23</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>4.78</v>
+        <v>3.12</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>28/10/2023 01:12</t>
+          <t>27/10/2023 02:13</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>4.28</v>
+        <v>3.72</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>28/10/2023 13:55</t>
+          <t>28/10/2023 12:23</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>9.51</v>
+        <v>1.75</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>28/10/2023 01:12</t>
+          <t>27/10/2023 02:13</t>
         </is>
       </c>
       <c r="T48" t="n">
-        <v>9.83</v>
+        <v>1.52</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>28/10/2023 13:55</t>
+          <t>28/10/2023 12:23</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/levadiakos-aek/xbk08srf/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/pae-egaleo-athens-kallithea/WYetcEvH/</t>
         </is>
       </c>
     </row>
@@ -4897,71 +4897,71 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Giouchtas</t>
+          <t>PAE Chania</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Panathinaikos B</t>
+          <t>Panachaiki</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>1.83</v>
+        <v>1.42</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>28/10/2023 01:12</t>
+          <t>27/10/2023 02:13</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>1.91</v>
+        <v>1.22</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>28/10/2023 13:55</t>
+          <t>28/10/2023 13:34</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.35</v>
+        <v>4.07</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>28/10/2023 01:12</t>
+          <t>27/10/2023 02:13</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.24</v>
+        <v>5.62</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>28/10/2023 13:55</t>
+          <t>28/10/2023 13:58</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>4.09</v>
+        <v>6.07</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>28/10/2023 01:12</t>
+          <t>27/10/2023 02:13</t>
         </is>
       </c>
       <c r="T49" t="n">
-        <v>4.19</v>
+        <v>14.35</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>28/10/2023 13:55</t>
+          <t>28/10/2023 13:58</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/giouchtas-panathinaikos/AJ7XbzA4/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/pae-chania-panachaiki/xYNDv6Ok/</t>
         </is>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Kalamata</t>
+          <t>Giouchtas</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -4997,63 +4997,63 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Ilioupoli</t>
+          <t>Panathinaikos B</t>
         </is>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>1.44</v>
+        <v>1.83</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>27/10/2023 02:13</t>
+          <t>28/10/2023 01:12</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>1.38</v>
+        <v>1.91</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>28/10/2023 13:43</t>
+          <t>28/10/2023 13:55</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.96</v>
+        <v>3.35</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>27/10/2023 02:13</t>
+          <t>28/10/2023 01:12</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>4.35</v>
+        <v>3.24</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>28/10/2023 13:43</t>
+          <t>28/10/2023 13:55</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>5.97</v>
+        <v>4.09</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>27/10/2023 02:13</t>
+          <t>28/10/2023 01:12</t>
         </is>
       </c>
       <c r="T50" t="n">
-        <v>8.56</v>
+        <v>4.19</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>28/10/2023 13:43</t>
+          <t>28/10/2023 13:55</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kalamata-ilioupoli/bsP9un9q/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/giouchtas-panathinaikos/AJ7XbzA4/</t>
         </is>
       </c>
     </row>
@@ -7289,71 +7289,71 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Niki Volos</t>
+          <t>Levadiakos</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Iraklis 1908</t>
+          <t>Aiolikos</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>1.87</v>
+        <v>1.24</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>11/11/2023 02:12</t>
+          <t>11/11/2023 04:43</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>2.02</v>
+        <v>1.27</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
+          <t>12/11/2023 11:59</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>11/11/2023 04:43</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
           <t>12/11/2023 12:05</t>
         </is>
       </c>
-      <c r="N75" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="O75" t="inlineStr">
-        <is>
-          <t>11/11/2023 02:12</t>
-        </is>
-      </c>
-      <c r="P75" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q75" t="inlineStr">
-        <is>
-          <t>12/11/2023 12:12</t>
-        </is>
-      </c>
       <c r="R75" t="n">
-        <v>3.98</v>
+        <v>10.75</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>11/11/2023 02:12</t>
+          <t>11/11/2023 04:43</t>
         </is>
       </c>
       <c r="T75" t="n">
-        <v>4.13</v>
+        <v>12.44</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>12/11/2023 12:05</t>
+          <t>12/11/2023 11:59</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/niki-volos-iraklis-fc/jypvKvs6/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/levadiakos-aiolikos-fc/URrrJbdC/</t>
         </is>
       </c>
     </row>
@@ -7381,71 +7381,71 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Levadiakos</t>
+          <t>Niki Volos</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aiolikos</t>
+          <t>Iraklis 1908</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>1.24</v>
+        <v>1.87</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>11/11/2023 04:43</t>
+          <t>11/11/2023 02:12</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.27</v>
+        <v>2.02</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>12/11/2023 11:59</t>
+          <t>12/11/2023 12:05</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>4.72</v>
+        <v>3.03</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>11/11/2023 04:43</t>
+          <t>11/11/2023 02:12</t>
         </is>
       </c>
       <c r="P76" t="n">
-        <v>4.98</v>
+        <v>3</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
+          <t>12/11/2023 12:12</t>
+        </is>
+      </c>
+      <c r="R76" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>11/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T76" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
           <t>12/11/2023 12:05</t>
         </is>
       </c>
-      <c r="R76" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="S76" t="inlineStr">
-        <is>
-          <t>11/11/2023 04:43</t>
-        </is>
-      </c>
-      <c r="T76" t="n">
-        <v>12.44</v>
-      </c>
-      <c r="U76" t="inlineStr">
-        <is>
-          <t>12/11/2023 11:59</t>
-        </is>
-      </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/levadiakos-aiolikos-fc/URrrJbdC/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/niki-volos-iraklis-fc/jypvKvs6/</t>
         </is>
       </c>
     </row>
@@ -9930,6 +9930,98 @@
       <c r="V103" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/greece/super-league-2/kozani-fc-paok/S2CKcd4s/</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>45260.52083333334</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>AEK Athens FC B</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>1</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Kampaniakos</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>14/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>30/11/2023 12:23</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>14/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P104" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>30/11/2023 12:22</t>
+        </is>
+      </c>
+      <c r="R104" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="S104" t="inlineStr">
+        <is>
+          <t>14/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T104" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>30/11/2023 12:23</t>
+        </is>
+      </c>
+      <c r="V104" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/aek-kampaniakos/MwRNdGJm/</t>
         </is>
       </c>
     </row>

--- a/2023/greece_super-league-2_2023-2024.xlsx
+++ b/2023/greece_super-league-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V104"/>
+  <dimension ref="A1:V105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8025,22 +8025,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Giouchtas</t>
+          <t>Karditsa</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>PAE Chania</t>
+          <t>Levadiakos</t>
         </is>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>3.28</v>
+        <v>4.29</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8048,15 +8048,15 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>3.93</v>
+        <v>5.74</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>19/11/2023 13:14</t>
+          <t>19/11/2023 13:50</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>2.86</v>
+        <v>3.08</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -8064,15 +8064,15 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.05</v>
+        <v>3.31</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>19/11/2023 12:51</t>
+          <t>19/11/2023 13:50</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>2.17</v>
+        <v>1.79</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
@@ -8080,16 +8080,16 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>2.04</v>
+        <v>1.68</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>19/11/2023 13:14</t>
+          <t>19/11/2023 13:50</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/giouchtas-pae-chania/4rzPnk48/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-levadiakos/2cncBFYt/</t>
         </is>
       </c>
     </row>
@@ -8117,22 +8117,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Ionikos</t>
+          <t>Kampaniakos</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Athens Kallithea</t>
+          <t>Iraklis 1908</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J84" t="n">
-        <v>3.12</v>
+        <v>3.87</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>2.89</v>
+        <v>4.12</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>19/11/2023 13:29</t>
+          <t>19/11/2023 12:04</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>2.85</v>
+        <v>3.15</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>2.91</v>
+        <v>3.11</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>19/11/2023 13:29</t>
+          <t>19/11/2023 12:52</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>2.26</v>
+        <v>1.85</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>2.62</v>
+        <v>1.97</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>19/11/2023 13:29</t>
+          <t>19/11/2023 12:52</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ionikos-athens-kallithea/v1SypmlR/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kampaniakos-iraklis-fc/6R0RGyBJ/</t>
         </is>
       </c>
     </row>
@@ -8209,71 +8209,71 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Kalamata</t>
+          <t>Apollon Pontou</t>
         </is>
       </c>
       <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Aiolikos</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
         <v>1</v>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>Diagoras</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
-        <v>2</v>
-      </c>
       <c r="J85" t="n">
-        <v>1.3</v>
+        <v>2.77</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>18/11/2023 02:12</t>
+          <t>19/11/2023 03:12</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>1.26</v>
+        <v>2.89</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>19/11/2023 13:49</t>
+          <t>19/11/2023 13:41</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>4.57</v>
+        <v>2.87</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>18/11/2023 02:12</t>
+          <t>19/11/2023 03:12</t>
         </is>
       </c>
       <c r="P85" t="n">
-        <v>5.23</v>
+        <v>2.85</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>19/11/2023 13:56</t>
+          <t>19/11/2023 13:24</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>8.08</v>
+        <v>2.65</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>18/11/2023 02:12</t>
+          <t>19/11/2023 03:12</t>
         </is>
       </c>
       <c r="T85" t="n">
-        <v>12.07</v>
+        <v>2.67</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>19/11/2023 13:56</t>
+          <t>19/11/2023 13:41</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kalamata-diagoras-fc/xxnsO5R7/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/apollon-pontou-aiolikos-fc/pIaVFeQP/</t>
         </is>
       </c>
     </row>
@@ -8393,71 +8393,71 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Apollon Pontou</t>
+          <t>Kalamata</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Aiolikos</t>
+          <t>Diagoras</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J87" t="n">
-        <v>2.77</v>
+        <v>1.3</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>19/11/2023 03:12</t>
+          <t>18/11/2023 02:12</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.89</v>
+        <v>1.26</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>19/11/2023 13:41</t>
+          <t>19/11/2023 13:49</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>2.87</v>
+        <v>4.57</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>19/11/2023 03:12</t>
+          <t>18/11/2023 02:12</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>2.85</v>
+        <v>5.23</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>19/11/2023 13:24</t>
+          <t>19/11/2023 13:56</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>2.65</v>
+        <v>8.08</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>19/11/2023 03:12</t>
+          <t>18/11/2023 02:12</t>
         </is>
       </c>
       <c r="T87" t="n">
-        <v>2.67</v>
+        <v>12.07</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>19/11/2023 13:41</t>
+          <t>19/11/2023 13:56</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/apollon-pontou-aiolikos-fc/pIaVFeQP/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kalamata-diagoras-fc/xxnsO5R7/</t>
         </is>
       </c>
     </row>
@@ -8485,22 +8485,22 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Kampaniakos</t>
+          <t>Ionikos</t>
         </is>
       </c>
       <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Athens Kallithea</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
         <v>1</v>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>Iraklis 1908</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
-        <v>3</v>
-      </c>
       <c r="J88" t="n">
-        <v>3.87</v>
+        <v>3.12</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -8508,15 +8508,15 @@
         </is>
       </c>
       <c r="L88" t="n">
-        <v>4.12</v>
+        <v>2.89</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>19/11/2023 12:04</t>
+          <t>19/11/2023 13:29</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>3.15</v>
+        <v>2.85</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -8524,15 +8524,15 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>3.11</v>
+        <v>2.91</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>19/11/2023 12:52</t>
+          <t>19/11/2023 13:29</t>
         </is>
       </c>
       <c r="R88" t="n">
-        <v>1.85</v>
+        <v>2.26</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
@@ -8540,16 +8540,16 @@
         </is>
       </c>
       <c r="T88" t="n">
-        <v>1.97</v>
+        <v>2.62</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>19/11/2023 12:52</t>
+          <t>19/11/2023 13:29</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kampaniakos-iraklis-fc/6R0RGyBJ/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ionikos-athens-kallithea/v1SypmlR/</t>
         </is>
       </c>
     </row>
@@ -8577,22 +8577,22 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Karditsa</t>
+          <t>Giouchtas</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Levadiakos</t>
+          <t>PAE Chania</t>
         </is>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>4.29</v>
+        <v>3.28</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -8600,15 +8600,15 @@
         </is>
       </c>
       <c r="L89" t="n">
-        <v>5.74</v>
+        <v>3.93</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>19/11/2023 13:50</t>
+          <t>19/11/2023 13:14</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>3.08</v>
+        <v>2.86</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -8616,15 +8616,15 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>3.31</v>
+        <v>3.05</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>19/11/2023 13:50</t>
+          <t>19/11/2023 12:51</t>
         </is>
       </c>
       <c r="R89" t="n">
-        <v>1.79</v>
+        <v>2.17</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
@@ -8632,16 +8632,16 @@
         </is>
       </c>
       <c r="T89" t="n">
-        <v>1.68</v>
+        <v>2.04</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>19/11/2023 13:50</t>
+          <t>19/11/2023 13:14</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-levadiakos/2cncBFYt/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/giouchtas-pae-chania/4rzPnk48/</t>
         </is>
       </c>
     </row>
@@ -8761,22 +8761,22 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Athens Kallithea</t>
+          <t>Iraklis 1908</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Tilikratis L.</t>
+          <t>AEK Athens FC B</t>
         </is>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>1.16</v>
+        <v>1.5</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,15 +8784,15 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>1.11</v>
+        <v>1.67</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>25/11/2023 13:09</t>
+          <t>25/11/2023 13:45</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>6.22</v>
+        <v>3.67</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -8800,15 +8800,15 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>8.289999999999999</v>
+        <v>3.53</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>25/11/2023 13:10</t>
+          <t>25/11/2023 13:45</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>12.53</v>
+        <v>5.66</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
@@ -8816,16 +8816,16 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>23.73</v>
+        <v>5.3</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>25/11/2023 13:10</t>
+          <t>25/11/2023 13:45</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/athens-kallithea-tilikratis-lefkada/QL6KyPe7/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/iraklis-fc-aek/zmvA8DIa/</t>
         </is>
       </c>
     </row>
@@ -8945,22 +8945,22 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Iraklis 1908</t>
+          <t>Athens Kallithea</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>AEK Athens FC B</t>
+          <t>Tilikratis L.</t>
         </is>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>1.5</v>
+        <v>1.16</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>1.67</v>
+        <v>1.11</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>25/11/2023 13:45</t>
+          <t>25/11/2023 13:09</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.67</v>
+        <v>6.22</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.53</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>25/11/2023 13:45</t>
+          <t>25/11/2023 13:10</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>5.66</v>
+        <v>12.53</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>5.3</v>
+        <v>23.73</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>25/11/2023 13:45</t>
+          <t>25/11/2023 13:10</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/iraklis-fc-aek/zmvA8DIa/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/athens-kallithea-tilikratis-lefkada/QL6KyPe7/</t>
         </is>
       </c>
     </row>
@@ -9129,22 +9129,22 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Ilioupoli</t>
+          <t>Makedonikos</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Giouchtas</t>
+          <t>Apollon Pontou</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="n">
-        <v>1.97</v>
+        <v>1.53</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -9152,48 +9152,48 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>2.19</v>
+        <v>1.54</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
+          <t>26/11/2023 13:44</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>25/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P95" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
           <t>26/11/2023 13:59</t>
         </is>
       </c>
-      <c r="N95" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="O95" t="inlineStr">
+      <c r="R95" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="S95" t="inlineStr">
         <is>
           <t>25/11/2023 02:12</t>
         </is>
       </c>
-      <c r="P95" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="Q95" t="inlineStr">
+      <c r="T95" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="U95" t="inlineStr">
         <is>
           <t>26/11/2023 13:59</t>
         </is>
       </c>
-      <c r="R95" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="S95" t="inlineStr">
-        <is>
-          <t>25/11/2023 02:12</t>
-        </is>
-      </c>
-      <c r="T95" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="U95" t="inlineStr">
-        <is>
-          <t>26/11/2023 13:59</t>
-        </is>
-      </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ilioupoli-giouchtas/Wb7Gx5t1/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/makedonikos-neapolis-apollon-pontou/QyXM5B2I/</t>
         </is>
       </c>
     </row>
@@ -9221,22 +9221,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>PAE Chania</t>
+          <t>Ilioupoli</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>PAE Egaleo</t>
+          <t>Giouchtas</t>
         </is>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>1.55</v>
+        <v>1.97</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,15 +9244,15 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>1.2</v>
+        <v>2.19</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>26/11/2023 13:55</t>
+          <t>26/11/2023 13:59</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.48</v>
+        <v>3.02</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,15 +9260,15 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>6.56</v>
+        <v>3.19</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>26/11/2023 13:58</t>
+          <t>26/11/2023 13:59</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>5.44</v>
+        <v>3.62</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,16 +9276,16 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>11.76</v>
+        <v>3.32</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>26/11/2023 13:58</t>
+          <t>26/11/2023 13:59</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/pae-chania-pae-egaleo/zXD7vRBl/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ilioupoli-giouchtas/Wb7Gx5t1/</t>
         </is>
       </c>
     </row>
@@ -9405,7 +9405,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Karditsa</t>
+          <t>PAE Chania</t>
         </is>
       </c>
       <c r="G98" t="n">
@@ -9413,14 +9413,14 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Niki Volos</t>
+          <t>PAE Egaleo</t>
         </is>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>3.26</v>
+        <v>1.55</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -9428,15 +9428,15 @@
         </is>
       </c>
       <c r="L98" t="n">
-        <v>3.72</v>
+        <v>1.2</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>26/11/2023 13:46</t>
+          <t>26/11/2023 13:55</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>2.83</v>
+        <v>3.48</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -9444,15 +9444,15 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>2.91</v>
+        <v>6.56</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>26/11/2023 13:46</t>
+          <t>26/11/2023 13:58</t>
         </is>
       </c>
       <c r="R98" t="n">
-        <v>2.2</v>
+        <v>5.44</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
@@ -9460,16 +9460,16 @@
         </is>
       </c>
       <c r="T98" t="n">
-        <v>2.18</v>
+        <v>11.76</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>26/11/2023 13:46</t>
+          <t>26/11/2023 13:58</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-niki-volos/vuyR4VHO/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/pae-chania-pae-egaleo/zXD7vRBl/</t>
         </is>
       </c>
     </row>
@@ -9497,22 +9497,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Makedonikos</t>
+          <t>Karditsa</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Apollon Pontou</t>
+          <t>Niki Volos</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>1.53</v>
+        <v>3.26</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -9520,15 +9520,15 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>1.54</v>
+        <v>3.72</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>26/11/2023 13:44</t>
+          <t>26/11/2023 13:46</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>3.51</v>
+        <v>2.83</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -9536,15 +9536,15 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>3.65</v>
+        <v>2.91</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>26/11/2023 13:59</t>
+          <t>26/11/2023 13:46</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>5.58</v>
+        <v>2.2</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
@@ -9552,16 +9552,16 @@
         </is>
       </c>
       <c r="T99" t="n">
-        <v>6.81</v>
+        <v>2.18</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>26/11/2023 13:59</t>
+          <t>26/11/2023 13:46</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/makedonikos-neapolis-apollon-pontou/QyXM5B2I/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-niki-volos/vuyR4VHO/</t>
         </is>
       </c>
     </row>
@@ -10022,6 +10022,98 @@
       <c r="V104" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/greece/super-league-2/aek-kampaniakos/MwRNdGJm/</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>45262.625</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Diagoras</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>2</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Athens Kallithea</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>1</v>
+      </c>
+      <c r="J105" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>01/12/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>02/12/2023 14:54</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>01/12/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P105" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>02/12/2023 14:54</t>
+        </is>
+      </c>
+      <c r="R105" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S105" t="inlineStr">
+        <is>
+          <t>01/12/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T105" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="U105" t="inlineStr">
+        <is>
+          <t>02/12/2023 14:54</t>
+        </is>
+      </c>
+      <c r="V105" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/diagoras-fc-athens-kallithea/nayJKsNB/</t>
         </is>
       </c>
     </row>

--- a/2023/greece_super-league-2_2023-2024.xlsx
+++ b/2023/greece_super-league-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V105"/>
+  <dimension ref="A1:V137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2781,71 +2781,71 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>PAE Egaleo</t>
+          <t>Giouchtas</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Kalamata</t>
+          <t>Panachaiki</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>2.62</v>
+        <v>1.76</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>13/10/2023 02:13</t>
+          <t>14/10/2023 12:13</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>4.93</v>
+        <v>1.68</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>14/10/2023 14:52</t>
+          <t>14/10/2023 14:06</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>2.71</v>
+        <v>3.44</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>13/10/2023 02:13</t>
+          <t>14/10/2023 12:13</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.53</v>
+        <v>3.46</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>14/10/2023 14:52</t>
+          <t>14/10/2023 14:07</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>2.75</v>
+        <v>4.73</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>13/10/2023 02:13</t>
+          <t>14/10/2023 12:13</t>
         </is>
       </c>
       <c r="T26" t="n">
-        <v>1.71</v>
+        <v>5.38</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>14/10/2023 14:52</t>
+          <t>14/10/2023 14:06</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/pae-egaleo-kalamata/dGsbpyeB/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/giouchtas-panachaiki/OlUjncQb/</t>
         </is>
       </c>
     </row>
@@ -2873,71 +2873,71 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Giouchtas</t>
+          <t>PAE Egaleo</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Panachaiki</t>
+          <t>Kalamata</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J27" t="n">
-        <v>1.76</v>
+        <v>2.62</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>14/10/2023 12:13</t>
+          <t>13/10/2023 02:13</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>1.68</v>
+        <v>4.93</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>14/10/2023 14:06</t>
+          <t>14/10/2023 14:52</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.44</v>
+        <v>2.71</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>14/10/2023 12:13</t>
+          <t>13/10/2023 02:13</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.46</v>
+        <v>3.53</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>14/10/2023 14:07</t>
+          <t>14/10/2023 14:52</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>4.73</v>
+        <v>2.75</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>14/10/2023 12:13</t>
+          <t>13/10/2023 02:13</t>
         </is>
       </c>
       <c r="T27" t="n">
-        <v>5.38</v>
+        <v>1.71</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>14/10/2023 14:06</t>
+          <t>14/10/2023 14:52</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/giouchtas-panachaiki/OlUjncQb/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/pae-egaleo-kalamata/dGsbpyeB/</t>
         </is>
       </c>
     </row>
@@ -3517,22 +3517,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Athens Kallithea</t>
+          <t>PAOK B</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Giouchtas</t>
+          <t>Aiolikos</t>
         </is>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>1.3</v>
+        <v>1.57</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,15 +3540,15 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>1.23</v>
+        <v>1.75</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>21/10/2023 14:17</t>
+          <t>21/10/2023 14:43</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>4.55</v>
+        <v>3.91</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3556,15 +3556,15 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>5.44</v>
+        <v>3.66</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>21/10/2023 14:18</t>
+          <t>21/10/2023 14:43</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>10.53</v>
+        <v>5.06</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -3572,16 +3572,16 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>13.52</v>
+        <v>4.44</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>21/10/2023 14:17</t>
+          <t>21/10/2023 14:43</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/athens-kallithea-giouchtas/n5zBsZvU/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/paok-aiolikos-fc/fyiX48y2/</t>
         </is>
       </c>
     </row>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Ionikos</t>
+          <t>Athens Kallithea</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -3617,7 +3617,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Tilikratis L.</t>
+          <t>Giouchtas</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -3632,11 +3632,11 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>21/10/2023 12:52</t>
+          <t>21/10/2023 14:17</t>
         </is>
       </c>
       <c r="N35" t="n">
@@ -3648,11 +3648,11 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>5.42</v>
+        <v>5.44</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>21/10/2023 13:02</t>
+          <t>21/10/2023 14:18</t>
         </is>
       </c>
       <c r="R35" t="n">
@@ -3664,16 +3664,16 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>14.23</v>
+        <v>13.52</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>21/10/2023 12:52</t>
+          <t>21/10/2023 14:17</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ionikos-tilikratis-lefkada/hry7rFPN/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/athens-kallithea-giouchtas/n5zBsZvU/</t>
         </is>
       </c>
     </row>
@@ -3701,22 +3701,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>PAOK B</t>
+          <t>Ionikos</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aiolikos</t>
+          <t>Tilikratis L.</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>1.57</v>
+        <v>1.3</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,15 +3724,15 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>1.75</v>
+        <v>1.22</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>21/10/2023 14:43</t>
+          <t>21/10/2023 12:52</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.91</v>
+        <v>4.55</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3740,15 +3740,15 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.66</v>
+        <v>5.42</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>21/10/2023 14:43</t>
+          <t>21/10/2023 13:02</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>5.06</v>
+        <v>10.53</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3756,16 +3756,16 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>4.44</v>
+        <v>14.23</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>21/10/2023 14:43</t>
+          <t>21/10/2023 12:52</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/paok-aiolikos-fc/fyiX48y2/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ionikos-tilikratis-lefkada/hry7rFPN/</t>
         </is>
       </c>
     </row>
@@ -4621,7 +4621,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Kalamata</t>
+          <t>Giouchtas</t>
         </is>
       </c>
       <c r="G46" t="n">
@@ -4629,63 +4629,63 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Ilioupoli</t>
+          <t>Panathinaikos B</t>
         </is>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>1.44</v>
+        <v>1.83</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>27/10/2023 02:13</t>
+          <t>28/10/2023 01:12</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>1.38</v>
+        <v>1.91</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>28/10/2023 13:43</t>
+          <t>28/10/2023 13:55</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.96</v>
+        <v>3.35</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>27/10/2023 02:13</t>
+          <t>28/10/2023 01:12</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>4.35</v>
+        <v>3.24</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>28/10/2023 13:43</t>
+          <t>28/10/2023 13:55</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>5.97</v>
+        <v>4.09</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>27/10/2023 02:13</t>
+          <t>28/10/2023 01:12</t>
         </is>
       </c>
       <c r="T46" t="n">
-        <v>8.56</v>
+        <v>4.19</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>28/10/2023 13:43</t>
+          <t>28/10/2023 13:55</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kalamata-ilioupoli/bsP9un9q/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/giouchtas-panathinaikos/AJ7XbzA4/</t>
         </is>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Giouchtas</t>
+          <t>Kalamata</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -4997,63 +4997,63 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Panathinaikos B</t>
+          <t>Ilioupoli</t>
         </is>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>1.83</v>
+        <v>1.44</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>28/10/2023 01:12</t>
+          <t>27/10/2023 02:13</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>1.91</v>
+        <v>1.38</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>28/10/2023 13:55</t>
+          <t>28/10/2023 13:43</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.35</v>
+        <v>3.96</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>28/10/2023 01:12</t>
+          <t>27/10/2023 02:13</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.24</v>
+        <v>4.35</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>28/10/2023 13:55</t>
+          <t>28/10/2023 13:43</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>4.09</v>
+        <v>5.97</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>28/10/2023 01:12</t>
+          <t>27/10/2023 02:13</t>
         </is>
       </c>
       <c r="T50" t="n">
-        <v>4.19</v>
+        <v>8.56</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>28/10/2023 13:55</t>
+          <t>28/10/2023 13:43</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/giouchtas-panathinaikos/AJ7XbzA4/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kalamata-ilioupoli/bsP9un9q/</t>
         </is>
       </c>
     </row>
@@ -5265,22 +5265,22 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Makedonikos</t>
+          <t>Apollon Pontou</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>PAOK B</t>
+          <t>Kozani FC</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>1.95</v>
+        <v>2.73</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -5288,7 +5288,7 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>1.94</v>
+        <v>4.25</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.06</v>
+        <v>2.87</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -5304,32 +5304,32 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.16</v>
+        <v>3.12</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
+          <t>29/10/2023 13:45</t>
+        </is>
+      </c>
+      <c r="R53" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>28/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T53" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
           <t>29/10/2023 13:59</t>
         </is>
       </c>
-      <c r="R53" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>28/10/2023 03:12</t>
-        </is>
-      </c>
-      <c r="T53" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="U53" t="inlineStr">
-        <is>
-          <t>29/10/2023 13:59</t>
-        </is>
-      </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/makedonikos-neapolis-paok/b7jd9NSm/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/apollon-pontou-kozani-fc/AqZJSBT8/</t>
         </is>
       </c>
     </row>
@@ -5357,71 +5357,71 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Apollon Pontou</t>
+          <t>Diagoras</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Kozani FC</t>
+          <t>Ionikos</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>2.73</v>
+        <v>3.43</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>28/10/2023 03:12</t>
+          <t>29/10/2023 02:12</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>4.25</v>
+        <v>3.36</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>29/10/2023 13:59</t>
+          <t>29/10/2023 13:40</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>2.87</v>
+        <v>3.09</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>28/10/2023 03:12</t>
+          <t>29/10/2023 02:12</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.12</v>
+        <v>3.01</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>29/10/2023 13:45</t>
+          <t>29/10/2023 13:40</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>2.5</v>
+        <v>2.12</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>28/10/2023 03:12</t>
+          <t>29/10/2023 02:12</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>1.93</v>
+        <v>2.27</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>29/10/2023 13:59</t>
+          <t>29/10/2023 13:40</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/apollon-pontou-kozani-fc/AqZJSBT8/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/diagoras-fc-ionikos/hrcxbfPA/</t>
         </is>
       </c>
     </row>
@@ -5449,71 +5449,71 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Diagoras</t>
+          <t>Makedonikos</t>
         </is>
       </c>
       <c r="G55" t="n">
+        <v>3</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>PAOK B</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
         <v>2</v>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Ionikos</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
-        <v>1</v>
-      </c>
       <c r="J55" t="n">
-        <v>3.43</v>
+        <v>1.95</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>29/10/2023 02:12</t>
+          <t>28/10/2023 03:12</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>3.36</v>
+        <v>1.94</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>29/10/2023 13:40</t>
+          <t>29/10/2023 13:59</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>3.09</v>
+        <v>3.06</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>29/10/2023 02:12</t>
+          <t>28/10/2023 03:12</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>3.01</v>
+        <v>3.16</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>29/10/2023 13:40</t>
+          <t>29/10/2023 13:59</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>2.12</v>
+        <v>3.62</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>29/10/2023 02:12</t>
+          <t>28/10/2023 03:12</t>
         </is>
       </c>
       <c r="T55" t="n">
-        <v>2.27</v>
+        <v>4.14</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>29/10/2023 13:40</t>
+          <t>29/10/2023 13:59</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/diagoras-fc-ionikos/hrcxbfPA/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/makedonikos-neapolis-paok/b7jd9NSm/</t>
         </is>
       </c>
     </row>
@@ -6093,22 +6093,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Panathinaikos B</t>
+          <t>AEK Athens FC B</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>PAE Egaleo</t>
+          <t>Niki Volos</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J62" t="n">
-        <v>2.48</v>
+        <v>4.16</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,15 +6116,15 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>2.59</v>
+        <v>4.09</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>05/11/2023 13:55</t>
+          <t>05/11/2023 13:57</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>2.88</v>
+        <v>3.15</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -6136,11 +6136,11 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>05/11/2023 13:55</t>
+          <t>05/11/2023 13:57</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>2.75</v>
+        <v>1.79</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -6148,16 +6148,16 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>2.83</v>
+        <v>2.02</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>05/11/2023 03:41</t>
+          <t>05/11/2023 13:57</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/panathinaikos-pae-egaleo/OSYfC8Se/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/aek-niki-volos/vykbTrKJ/</t>
         </is>
       </c>
     </row>
@@ -6185,71 +6185,71 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>AEK Athens FC B</t>
+          <t>Kampaniakos</t>
         </is>
       </c>
       <c r="G63" t="n">
+        <v>1</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Apollon Pontou</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Niki Volos</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
-        <v>3</v>
-      </c>
       <c r="J63" t="n">
-        <v>4.16</v>
+        <v>2.17</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>04/11/2023 02:12</t>
+          <t>05/11/2023 03:13</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>4.09</v>
+        <v>1.97</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>05/11/2023 13:57</t>
+          <t>05/11/2023 12:16</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.15</v>
+        <v>2.99</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>04/11/2023 02:12</t>
+          <t>05/11/2023 03:13</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3.01</v>
+        <v>3.11</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>05/11/2023 13:57</t>
+          <t>05/11/2023 12:16</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>1.79</v>
+        <v>3.42</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>04/11/2023 02:12</t>
+          <t>05/11/2023 03:13</t>
         </is>
       </c>
       <c r="T63" t="n">
-        <v>2.02</v>
+        <v>4.12</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>05/11/2023 13:57</t>
+          <t>05/11/2023 12:16</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/aek-niki-volos/vykbTrKJ/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kampaniakos-apollon-pontou/CUdC5uSC/</t>
         </is>
       </c>
     </row>
@@ -6277,71 +6277,71 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Kampaniakos</t>
+          <t>Kozani FC</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Apollon Pontou</t>
+          <t>AEL Larissa</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J64" t="n">
-        <v>2.17</v>
+        <v>3.62</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>05/11/2023 03:13</t>
+          <t>04/11/2023 02:12</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>1.97</v>
+        <v>4.52</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>05/11/2023 12:16</t>
+          <t>05/11/2023 13:40</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>2.99</v>
+        <v>2.95</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>05/11/2023 03:13</t>
+          <t>04/11/2023 02:12</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.11</v>
+        <v>3.12</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>05/11/2023 12:16</t>
+          <t>05/11/2023 13:40</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>3.42</v>
+        <v>2</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>05/11/2023 03:13</t>
+          <t>04/11/2023 02:12</t>
         </is>
       </c>
       <c r="T64" t="n">
-        <v>4.12</v>
+        <v>1.88</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>05/11/2023 12:16</t>
+          <t>05/11/2023 13:40</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kampaniakos-apollon-pontou/CUdC5uSC/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kozani-fc-ael-larissa/U5776LC6/</t>
         </is>
       </c>
     </row>
@@ -6369,71 +6369,71 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Kozani FC</t>
+          <t>Ionikos</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>AEL Larissa</t>
+          <t>Kalamata</t>
         </is>
       </c>
       <c r="I65" t="n">
         <v>2</v>
       </c>
       <c r="J65" t="n">
-        <v>3.62</v>
+        <v>2.56</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>04/11/2023 02:12</t>
+          <t>05/11/2023 03:13</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>4.52</v>
+        <v>2.88</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>05/11/2023 13:40</t>
+          <t>05/11/2023 13:59</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>04/11/2023 02:12</t>
+          <t>05/11/2023 03:13</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.12</v>
+        <v>3.15</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>05/11/2023 13:40</t>
+          <t>05/11/2023 13:59</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>2</v>
+        <v>2.82</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>04/11/2023 02:12</t>
+          <t>05/11/2023 03:13</t>
         </is>
       </c>
       <c r="T65" t="n">
-        <v>1.88</v>
+        <v>2.46</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>05/11/2023 13:40</t>
+          <t>05/11/2023 13:59</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kozani-fc-ael-larissa/U5776LC6/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ionikos-kalamata/2JXbBSs2/</t>
         </is>
       </c>
     </row>
@@ -6461,71 +6461,71 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Ionikos</t>
+          <t>Panathinaikos B</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Kalamata</t>
+          <t>PAE Egaleo</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>2.56</v>
+        <v>2.48</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>05/11/2023 03:13</t>
+          <t>04/11/2023 02:12</t>
         </is>
       </c>
       <c r="L66" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:55</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>2.88</v>
       </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>05/11/2023 13:59</t>
-        </is>
-      </c>
-      <c r="N66" t="n">
-        <v>3</v>
-      </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>05/11/2023 03:13</t>
+          <t>04/11/2023 02:12</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.15</v>
+        <v>3.01</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>05/11/2023 13:59</t>
+          <t>05/11/2023 13:55</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>2.82</v>
+        <v>2.75</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>05/11/2023 03:13</t>
+          <t>04/11/2023 02:12</t>
         </is>
       </c>
       <c r="T66" t="n">
-        <v>2.46</v>
+        <v>2.83</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>05/11/2023 13:59</t>
+          <t>05/11/2023 03:41</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ionikos-kalamata/2JXbBSs2/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/panathinaikos-pae-egaleo/OSYfC8Se/</t>
         </is>
       </c>
     </row>
@@ -7197,22 +7197,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Panachaiki</t>
+          <t>Niki Volos</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Ionikos</t>
+          <t>Iraklis 1908</t>
         </is>
       </c>
       <c r="I74" t="n">
         <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>4.2</v>
+        <v>1.87</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>6.83</v>
+        <v>2.02</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>12/11/2023 13:58</t>
+          <t>12/11/2023 12:05</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.26</v>
+        <v>3.03</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.77</v>
+        <v>3</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>12/11/2023 13:58</t>
+          <t>12/11/2023 12:12</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>1.75</v>
+        <v>3.98</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>1.52</v>
+        <v>4.13</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>12/11/2023 13:58</t>
+          <t>12/11/2023 12:05</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/panachaiki-ionikos/2JgUQ7sk/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/niki-volos-iraklis-fc/jypvKvs6/</t>
         </is>
       </c>
     </row>
@@ -7289,71 +7289,71 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Levadiakos</t>
+          <t>Panachaiki</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aiolikos</t>
+          <t>Ionikos</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>1.24</v>
+        <v>4.2</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>11/11/2023 04:43</t>
+          <t>11/11/2023 02:12</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>1.27</v>
+        <v>6.83</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>12/11/2023 11:59</t>
+          <t>12/11/2023 13:58</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>4.72</v>
+        <v>3.26</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>11/11/2023 04:43</t>
+          <t>11/11/2023 02:12</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>4.98</v>
+        <v>3.77</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>12/11/2023 12:05</t>
+          <t>12/11/2023 13:58</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>10.75</v>
+        <v>1.75</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>11/11/2023 04:43</t>
+          <t>11/11/2023 02:12</t>
         </is>
       </c>
       <c r="T75" t="n">
-        <v>12.44</v>
+        <v>1.52</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>12/11/2023 11:59</t>
+          <t>12/11/2023 13:58</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/levadiakos-aiolikos-fc/URrrJbdC/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/panachaiki-ionikos/2JgUQ7sk/</t>
         </is>
       </c>
     </row>
@@ -7381,71 +7381,71 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Niki Volos</t>
+          <t>Levadiakos</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Iraklis 1908</t>
+          <t>Aiolikos</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>1.87</v>
+        <v>1.24</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>11/11/2023 02:12</t>
+          <t>11/11/2023 04:43</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>2.02</v>
+        <v>1.27</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
+          <t>12/11/2023 11:59</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>11/11/2023 04:43</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
           <t>12/11/2023 12:05</t>
         </is>
       </c>
-      <c r="N76" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>11/11/2023 02:12</t>
-        </is>
-      </c>
-      <c r="P76" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q76" t="inlineStr">
-        <is>
-          <t>12/11/2023 12:12</t>
-        </is>
-      </c>
       <c r="R76" t="n">
-        <v>3.98</v>
+        <v>10.75</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>11/11/2023 02:12</t>
+          <t>11/11/2023 04:43</t>
         </is>
       </c>
       <c r="T76" t="n">
-        <v>4.13</v>
+        <v>12.44</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>12/11/2023 12:05</t>
+          <t>12/11/2023 11:59</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/niki-volos-iraklis-fc/jypvKvs6/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/levadiakos-aiolikos-fc/URrrJbdC/</t>
         </is>
       </c>
     </row>
@@ -7749,22 +7749,22 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Iraklis 1908</t>
+          <t>Makedonikos</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Apollon Pontou</t>
+          <t>Levadiakos</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J80" t="n">
-        <v>1.3</v>
+        <v>3.73</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -7772,15 +7772,15 @@
         </is>
       </c>
       <c r="L80" t="n">
-        <v>1.42</v>
+        <v>5.2</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>15/11/2023 12:58</t>
+          <t>15/11/2023 13:31</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>4.59</v>
+        <v>2.94</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -7788,15 +7788,15 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>15/11/2023 12:58</t>
+          <t>15/11/2023 13:49</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>7.84</v>
+        <v>1.97</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
@@ -7804,16 +7804,16 @@
         </is>
       </c>
       <c r="T80" t="n">
-        <v>7.94</v>
+        <v>1.78</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>15/11/2023 12:58</t>
+          <t>15/11/2023 13:11</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/iraklis-fc-apollon-pontou/0UPRezZg/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/makedonikos-neapolis-levadiakos/ddJzfE36/</t>
         </is>
       </c>
     </row>
@@ -7841,22 +7841,22 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Makedonikos</t>
+          <t>Iraklis 1908</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Levadiakos</t>
+          <t>Apollon Pontou</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J81" t="n">
-        <v>3.73</v>
+        <v>1.3</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -7864,15 +7864,15 @@
         </is>
       </c>
       <c r="L81" t="n">
-        <v>5.2</v>
+        <v>1.42</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>15/11/2023 13:31</t>
+          <t>15/11/2023 12:58</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>2.94</v>
+        <v>4.59</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -7880,15 +7880,15 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>15/11/2023 13:49</t>
+          <t>15/11/2023 12:58</t>
         </is>
       </c>
       <c r="R81" t="n">
-        <v>1.97</v>
+        <v>7.84</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
@@ -7896,16 +7896,16 @@
         </is>
       </c>
       <c r="T81" t="n">
-        <v>1.78</v>
+        <v>7.94</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>15/11/2023 13:11</t>
+          <t>15/11/2023 12:58</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/makedonikos-neapolis-levadiakos/ddJzfE36/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/iraklis-fc-apollon-pontou/0UPRezZg/</t>
         </is>
       </c>
     </row>
@@ -8025,71 +8025,71 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Karditsa</t>
+          <t>Apollon Pontou</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Levadiakos</t>
+          <t>Aiolikos</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>4.29</v>
+        <v>2.77</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>18/11/2023 02:12</t>
+          <t>19/11/2023 03:12</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>5.74</v>
+        <v>2.89</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>19/11/2023 13:50</t>
+          <t>19/11/2023 13:41</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.08</v>
+        <v>2.87</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>18/11/2023 02:12</t>
+          <t>19/11/2023 03:12</t>
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.31</v>
+        <v>2.85</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>19/11/2023 13:50</t>
+          <t>19/11/2023 13:24</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>1.79</v>
+        <v>2.65</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>18/11/2023 02:12</t>
+          <t>19/11/2023 03:12</t>
         </is>
       </c>
       <c r="T83" t="n">
-        <v>1.68</v>
+        <v>2.67</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>19/11/2023 13:50</t>
+          <t>19/11/2023 13:41</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-levadiakos/2cncBFYt/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/apollon-pontou-aiolikos-fc/pIaVFeQP/</t>
         </is>
       </c>
     </row>
@@ -8117,22 +8117,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Kampaniakos</t>
+          <t>Karditsa</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Iraklis 1908</t>
+          <t>Levadiakos</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>3.87</v>
+        <v>4.29</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>4.12</v>
+        <v>5.74</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>19/11/2023 12:04</t>
+          <t>19/11/2023 13:50</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.15</v>
+        <v>3.08</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.11</v>
+        <v>3.31</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>19/11/2023 12:52</t>
+          <t>19/11/2023 13:50</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>1.97</v>
+        <v>1.68</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>19/11/2023 12:52</t>
+          <t>19/11/2023 13:50</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kampaniakos-iraklis-fc/6R0RGyBJ/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-levadiakos/2cncBFYt/</t>
         </is>
       </c>
     </row>
@@ -8209,71 +8209,71 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Apollon Pontou</t>
+          <t>Kampaniakos</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aiolikos</t>
+          <t>Iraklis 1908</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J85" t="n">
-        <v>2.77</v>
+        <v>3.87</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>19/11/2023 03:12</t>
+          <t>18/11/2023 02:12</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>2.89</v>
+        <v>4.12</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>19/11/2023 13:41</t>
+          <t>19/11/2023 12:04</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>2.87</v>
+        <v>3.15</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>19/11/2023 03:12</t>
+          <t>18/11/2023 02:12</t>
         </is>
       </c>
       <c r="P85" t="n">
-        <v>2.85</v>
+        <v>3.11</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>19/11/2023 13:24</t>
+          <t>19/11/2023 12:52</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>2.65</v>
+        <v>1.85</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>19/11/2023 03:12</t>
+          <t>18/11/2023 02:12</t>
         </is>
       </c>
       <c r="T85" t="n">
-        <v>2.67</v>
+        <v>1.97</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>19/11/2023 13:41</t>
+          <t>19/11/2023 12:52</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/apollon-pontou-aiolikos-fc/pIaVFeQP/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kampaniakos-iraklis-fc/6R0RGyBJ/</t>
         </is>
       </c>
     </row>
@@ -8301,22 +8301,22 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Tilikratis L.</t>
+          <t>Kalamata</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Panachaiki</t>
+          <t>Diagoras</t>
         </is>
       </c>
       <c r="I86" t="n">
         <v>2</v>
       </c>
       <c r="J86" t="n">
-        <v>2.27</v>
+        <v>1.3</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,15 +8324,15 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>2.31</v>
+        <v>1.26</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>19/11/2023 13:54</t>
+          <t>19/11/2023 13:49</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>2.92</v>
+        <v>4.57</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,15 +8340,15 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>2.95</v>
+        <v>5.23</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>19/11/2023 13:54</t>
+          <t>19/11/2023 13:56</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>3.02</v>
+        <v>8.08</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,16 +8356,16 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>3.35</v>
+        <v>12.07</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>19/11/2023 13:51</t>
+          <t>19/11/2023 13:56</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/tilikratis-lefkada-panachaiki/rZYSo9JE/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kalamata-diagoras-fc/xxnsO5R7/</t>
         </is>
       </c>
     </row>
@@ -8393,22 +8393,22 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Kalamata</t>
+          <t>Ionikos</t>
         </is>
       </c>
       <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Athens Kallithea</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
         <v>1</v>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>Diagoras</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
-        <v>2</v>
-      </c>
       <c r="J87" t="n">
-        <v>1.3</v>
+        <v>3.12</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,15 +8416,15 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>1.26</v>
+        <v>2.89</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>19/11/2023 13:49</t>
+          <t>19/11/2023 13:29</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>4.57</v>
+        <v>2.85</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,15 +8432,15 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>5.23</v>
+        <v>2.91</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>19/11/2023 13:56</t>
+          <t>19/11/2023 13:29</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>8.08</v>
+        <v>2.26</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,16 +8448,16 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>12.07</v>
+        <v>2.62</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>19/11/2023 13:56</t>
+          <t>19/11/2023 13:29</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kalamata-diagoras-fc/xxnsO5R7/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ionikos-athens-kallithea/v1SypmlR/</t>
         </is>
       </c>
     </row>
@@ -8485,7 +8485,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Ionikos</t>
+          <t>Giouchtas</t>
         </is>
       </c>
       <c r="G88" t="n">
@@ -8493,14 +8493,14 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Athens Kallithea</t>
+          <t>PAE Chania</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>3.12</v>
+        <v>3.28</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -8508,15 +8508,15 @@
         </is>
       </c>
       <c r="L88" t="n">
-        <v>2.89</v>
+        <v>3.93</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>19/11/2023 13:29</t>
+          <t>19/11/2023 13:14</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -8524,15 +8524,15 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>2.91</v>
+        <v>3.05</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>19/11/2023 13:29</t>
+          <t>19/11/2023 12:51</t>
         </is>
       </c>
       <c r="R88" t="n">
-        <v>2.26</v>
+        <v>2.17</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
@@ -8540,16 +8540,16 @@
         </is>
       </c>
       <c r="T88" t="n">
-        <v>2.62</v>
+        <v>2.04</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>19/11/2023 13:29</t>
+          <t>19/11/2023 13:14</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ionikos-athens-kallithea/v1SypmlR/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/giouchtas-pae-chania/4rzPnk48/</t>
         </is>
       </c>
     </row>
@@ -8577,22 +8577,22 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Giouchtas</t>
+          <t>Tilikratis L.</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>PAE Chania</t>
+          <t>Panachaiki</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J89" t="n">
-        <v>3.28</v>
+        <v>2.27</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -8600,15 +8600,15 @@
         </is>
       </c>
       <c r="L89" t="n">
-        <v>3.93</v>
+        <v>2.31</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>19/11/2023 13:14</t>
+          <t>19/11/2023 13:54</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>2.86</v>
+        <v>2.92</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -8616,15 +8616,15 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>19/11/2023 12:51</t>
+          <t>19/11/2023 13:54</t>
         </is>
       </c>
       <c r="R89" t="n">
-        <v>2.17</v>
+        <v>3.02</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
@@ -8632,16 +8632,16 @@
         </is>
       </c>
       <c r="T89" t="n">
-        <v>2.04</v>
+        <v>3.35</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>19/11/2023 13:14</t>
+          <t>19/11/2023 13:51</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/giouchtas-pae-chania/4rzPnk48/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/tilikratis-lefkada-panachaiki/rZYSo9JE/</t>
         </is>
       </c>
     </row>
@@ -8761,22 +8761,22 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Iraklis 1908</t>
+          <t>Athens Kallithea</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>AEK Athens FC B</t>
+          <t>Tilikratis L.</t>
         </is>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>1.5</v>
+        <v>1.16</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,15 +8784,15 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>1.67</v>
+        <v>1.11</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>25/11/2023 13:45</t>
+          <t>25/11/2023 13:09</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.67</v>
+        <v>6.22</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -8800,15 +8800,15 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.53</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>25/11/2023 13:45</t>
+          <t>25/11/2023 13:10</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>5.66</v>
+        <v>12.53</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
@@ -8816,16 +8816,16 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>5.3</v>
+        <v>23.73</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>25/11/2023 13:45</t>
+          <t>25/11/2023 13:10</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/iraklis-fc-aek/zmvA8DIa/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/athens-kallithea-tilikratis-lefkada/QL6KyPe7/</t>
         </is>
       </c>
     </row>
@@ -8945,22 +8945,22 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Athens Kallithea</t>
+          <t>Iraklis 1908</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Tilikratis L.</t>
+          <t>AEK Athens FC B</t>
         </is>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>1.16</v>
+        <v>1.5</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>1.11</v>
+        <v>1.67</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>25/11/2023 13:09</t>
+          <t>25/11/2023 13:45</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>6.22</v>
+        <v>3.67</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>8.289999999999999</v>
+        <v>3.53</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>25/11/2023 13:10</t>
+          <t>25/11/2023 13:45</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>12.53</v>
+        <v>5.66</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>23.73</v>
+        <v>5.3</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>25/11/2023 13:10</t>
+          <t>25/11/2023 13:45</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/athens-kallithea-tilikratis-lefkada/QL6KyPe7/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/iraklis-fc-aek/zmvA8DIa/</t>
         </is>
       </c>
     </row>
@@ -9129,22 +9129,22 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Makedonikos</t>
+          <t>PAE Chania</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Apollon Pontou</t>
+          <t>PAE Egaleo</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -9152,15 +9152,15 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>1.54</v>
+        <v>1.2</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>26/11/2023 13:44</t>
+          <t>26/11/2023 13:55</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>3.51</v>
+        <v>3.48</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -9168,15 +9168,15 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3.65</v>
+        <v>6.56</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>26/11/2023 13:59</t>
+          <t>26/11/2023 13:58</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>5.58</v>
+        <v>5.44</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
@@ -9184,16 +9184,16 @@
         </is>
       </c>
       <c r="T95" t="n">
-        <v>6.81</v>
+        <v>11.76</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>26/11/2023 13:59</t>
+          <t>26/11/2023 13:58</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/makedonikos-neapolis-apollon-pontou/QyXM5B2I/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/pae-chania-pae-egaleo/zXD7vRBl/</t>
         </is>
       </c>
     </row>
@@ -9221,22 +9221,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Ilioupoli</t>
+          <t>Panachaiki</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Giouchtas</t>
+          <t>Diagoras</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="n">
-        <v>1.97</v>
+        <v>2.77</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,15 +9244,15 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>2.19</v>
+        <v>2.63</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>26/11/2023 13:59</t>
+          <t>26/11/2023 13:40</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.02</v>
+        <v>2.87</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,15 +9260,15 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.19</v>
+        <v>2.72</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>26/11/2023 13:59</t>
+          <t>26/11/2023 13:40</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>3.62</v>
+        <v>2.47</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,16 +9276,16 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>3.32</v>
+        <v>3.09</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>26/11/2023 13:59</t>
+          <t>26/11/2023 13:40</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ilioupoli-giouchtas/Wb7Gx5t1/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/panachaiki-diagoras-fc/h88CwoRf/</t>
         </is>
       </c>
     </row>
@@ -9313,22 +9313,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Panachaiki</t>
+          <t>Karditsa</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Diagoras</t>
+          <t>Niki Volos</t>
         </is>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>2.77</v>
+        <v>3.26</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -9336,15 +9336,15 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>2.63</v>
+        <v>3.72</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>26/11/2023 13:40</t>
+          <t>26/11/2023 13:46</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>2.87</v>
+        <v>2.83</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -9352,15 +9352,15 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>2.72</v>
+        <v>2.91</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>26/11/2023 13:40</t>
+          <t>26/11/2023 13:46</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>2.47</v>
+        <v>2.2</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
@@ -9368,16 +9368,16 @@
         </is>
       </c>
       <c r="T97" t="n">
-        <v>3.09</v>
+        <v>2.18</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>26/11/2023 13:40</t>
+          <t>26/11/2023 13:46</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/panachaiki-diagoras-fc/h88CwoRf/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-niki-volos/vuyR4VHO/</t>
         </is>
       </c>
     </row>
@@ -9405,22 +9405,22 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>PAE Chania</t>
+          <t>Makedonikos</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>PAE Egaleo</t>
+          <t>Apollon Pontou</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -9428,15 +9428,15 @@
         </is>
       </c>
       <c r="L98" t="n">
-        <v>1.2</v>
+        <v>1.54</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>26/11/2023 13:55</t>
+          <t>26/11/2023 13:44</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>3.48</v>
+        <v>3.51</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -9444,15 +9444,15 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>6.56</v>
+        <v>3.65</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>26/11/2023 13:58</t>
+          <t>26/11/2023 13:59</t>
         </is>
       </c>
       <c r="R98" t="n">
-        <v>5.44</v>
+        <v>5.58</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
@@ -9460,16 +9460,16 @@
         </is>
       </c>
       <c r="T98" t="n">
-        <v>11.76</v>
+        <v>6.81</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>26/11/2023 13:58</t>
+          <t>26/11/2023 13:59</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/pae-chania-pae-egaleo/zXD7vRBl/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/makedonikos-neapolis-apollon-pontou/QyXM5B2I/</t>
         </is>
       </c>
     </row>
@@ -9497,22 +9497,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Karditsa</t>
+          <t>Ilioupoli</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Niki Volos</t>
+          <t>Giouchtas</t>
         </is>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>3.26</v>
+        <v>1.97</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -9520,15 +9520,15 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>3.72</v>
+        <v>2.19</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>26/11/2023 13:46</t>
+          <t>26/11/2023 13:59</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>2.83</v>
+        <v>3.02</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -9536,15 +9536,15 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>2.91</v>
+        <v>3.19</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>26/11/2023 13:46</t>
+          <t>26/11/2023 13:59</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>2.2</v>
+        <v>3.62</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
@@ -9552,16 +9552,16 @@
         </is>
       </c>
       <c r="T99" t="n">
-        <v>2.18</v>
+        <v>3.32</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>26/11/2023 13:46</t>
+          <t>26/11/2023 13:59</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-niki-volos/vuyR4VHO/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ilioupoli-giouchtas/Wb7Gx5t1/</t>
         </is>
       </c>
     </row>
@@ -9773,7 +9773,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Panathinaikos B</t>
+          <t>Kozani FC</t>
         </is>
       </c>
       <c r="G102" t="n">
@@ -9781,63 +9781,63 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Ilioupoli</t>
+          <t>PAOK B</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J102" t="n">
-        <v>2.39</v>
+        <v>2.15</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>28/11/2023 02:12</t>
+          <t>14/11/2023 02:12</t>
         </is>
       </c>
       <c r="L102" t="n">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>29/11/2023 13:58</t>
+          <t>29/11/2023 12:20</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>2.88</v>
+        <v>2.95</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>28/11/2023 02:12</t>
+          <t>14/11/2023 02:12</t>
         </is>
       </c>
       <c r="P102" t="n">
-        <v>2.93</v>
+        <v>3.2</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>29/11/2023 13:57</t>
+          <t>29/11/2023 12:23</t>
         </is>
       </c>
       <c r="R102" t="n">
-        <v>2.86</v>
+        <v>3.23</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
-          <t>28/11/2023 02:12</t>
+          <t>14/11/2023 02:12</t>
         </is>
       </c>
       <c r="T102" t="n">
-        <v>2.46</v>
+        <v>4.06</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>29/11/2023 13:58</t>
+          <t>29/11/2023 12:20</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/panathinaikos-ilioupoli/QcOXpTYK/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kozani-fc-paok/S2CKcd4s/</t>
         </is>
       </c>
     </row>
@@ -9865,7 +9865,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Kozani FC</t>
+          <t>Panathinaikos B</t>
         </is>
       </c>
       <c r="G103" t="n">
@@ -9873,63 +9873,63 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>PAOK B</t>
+          <t>Ilioupoli</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J103" t="n">
-        <v>2.15</v>
+        <v>2.39</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>14/11/2023 02:12</t>
+          <t>28/11/2023 02:12</t>
         </is>
       </c>
       <c r="L103" t="n">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>29/11/2023 12:20</t>
+          <t>29/11/2023 13:58</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>2.95</v>
+        <v>2.88</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>14/11/2023 02:12</t>
+          <t>28/11/2023 02:12</t>
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3.2</v>
+        <v>2.93</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>29/11/2023 12:23</t>
+          <t>29/11/2023 13:57</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>3.23</v>
+        <v>2.86</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
-          <t>14/11/2023 02:12</t>
+          <t>28/11/2023 02:12</t>
         </is>
       </c>
       <c r="T103" t="n">
-        <v>4.06</v>
+        <v>2.46</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>29/11/2023 12:20</t>
+          <t>29/11/2023 13:58</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kozani-fc-paok/S2CKcd4s/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/panathinaikos-ilioupoli/QcOXpTYK/</t>
         </is>
       </c>
     </row>
@@ -10114,6 +10114,2950 @@
       <c r="V105" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/greece/super-league-2/diagoras-fc-athens-kallithea/nayJKsNB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>45263.58333333334</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>PAOK B</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>1</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Levadiakos</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>3</v>
+      </c>
+      <c r="J106" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>02/12/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:52</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>02/12/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P106" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:52</t>
+        </is>
+      </c>
+      <c r="R106" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>02/12/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T106" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U106" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:52</t>
+        </is>
+      </c>
+      <c r="V106" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/paok-levadiakos/z3SXNhIn/</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>45263.58333333334</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Giouchtas</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>2</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Ionikos</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>2</v>
+      </c>
+      <c r="J107" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>02/12/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:39</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>02/12/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P107" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:39</t>
+        </is>
+      </c>
+      <c r="R107" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="S107" t="inlineStr">
+        <is>
+          <t>02/12/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T107" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="U107" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:39</t>
+        </is>
+      </c>
+      <c r="V107" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/giouchtas-ionikos/YFwVHu7U/</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>45263.58333333334</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Ilioupoli</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>2</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>PAE Egaleo</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>02/12/2023 02:42</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:55</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>02/12/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P108" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:55</t>
+        </is>
+      </c>
+      <c r="R108" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>02/12/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T108" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="U108" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:55</t>
+        </is>
+      </c>
+      <c r="V108" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ilioupoli-pae-egaleo/fPvRILiO/</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>45263.58333333334</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Kalamata</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>1</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Panachaiki</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>02/12/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:50</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>02/12/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P109" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:50</t>
+        </is>
+      </c>
+      <c r="R109" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>02/12/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T109" t="n">
+        <v>14.57</v>
+      </c>
+      <c r="U109" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:50</t>
+        </is>
+      </c>
+      <c r="V109" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kalamata-panachaiki/Ct9uxqhn/</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>45263.58333333334</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Olympiacos Piraeus B</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>3</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>PAE Chania</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>02/12/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:52</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>02/12/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P110" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:50</t>
+        </is>
+      </c>
+      <c r="R110" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S110" t="inlineStr">
+        <is>
+          <t>02/12/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T110" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U110" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:50</t>
+        </is>
+      </c>
+      <c r="V110" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/olympiacos-piraeus-pae-chania/02uNJ1xI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>45263.58333333334</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Panathinaikos B</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>2</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Tilikratis L.</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>1</v>
+      </c>
+      <c r="J111" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>02/12/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:45</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>02/12/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P111" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:45</t>
+        </is>
+      </c>
+      <c r="R111" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t>02/12/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T111" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="U111" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:45</t>
+        </is>
+      </c>
+      <c r="V111" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/panathinaikos-tilikratis-lefkada/YkAywPxt/</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>45263.58333333334</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>AEK Athens FC B</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>2</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Aiolikos</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>1</v>
+      </c>
+      <c r="J112" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>02/12/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:42</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>02/12/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P112" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="Q112" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:42</t>
+        </is>
+      </c>
+      <c r="R112" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="S112" t="inlineStr">
+        <is>
+          <t>02/12/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T112" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="U112" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:42</t>
+        </is>
+      </c>
+      <c r="V112" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/aek-aiolikos-fc/fiBzPY2t/</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>45263.58333333334</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>AEL Larissa</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>1</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Niki Volos</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>02/12/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:59</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>02/12/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P113" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:59</t>
+        </is>
+      </c>
+      <c r="R113" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="S113" t="inlineStr">
+        <is>
+          <t>02/12/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T113" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="U113" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:59</t>
+        </is>
+      </c>
+      <c r="V113" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ael-larissa-niki-volos/8GQuMWna/</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>45263.58333333334</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Apollon Pontou</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>2</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Karditsa</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>1</v>
+      </c>
+      <c r="J114" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>02/12/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:33</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>02/12/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P114" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:33</t>
+        </is>
+      </c>
+      <c r="R114" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="S114" t="inlineStr">
+        <is>
+          <t>02/12/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T114" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="U114" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:33</t>
+        </is>
+      </c>
+      <c r="V114" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/apollon-pontou-karditsa/MJUqLj25/</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>45263.58333333334</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Iraklis 1908</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>1</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Kozani FC</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>1</v>
+      </c>
+      <c r="J115" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>02/12/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:50</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>02/12/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P115" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:50</t>
+        </is>
+      </c>
+      <c r="R115" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="S115" t="inlineStr">
+        <is>
+          <t>02/12/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T115" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="U115" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:50</t>
+        </is>
+      </c>
+      <c r="V115" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/iraklis-fc-kozani-fc/hrP8TEfP/</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>45264.58333333334</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Kampaniakos</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>1</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Makedonikos</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>2</v>
+      </c>
+      <c r="J116" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>03/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>04/12/2023 13:56</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>03/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P116" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>04/12/2023 13:59</t>
+        </is>
+      </c>
+      <c r="R116" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S116" t="inlineStr">
+        <is>
+          <t>03/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T116" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="U116" t="inlineStr">
+        <is>
+          <t>04/12/2023 13:59</t>
+        </is>
+      </c>
+      <c r="V116" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kampaniakos-makedonikos-neapolis/EgRyNCXh/</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>45269.58333333334</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Panachaiki</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>1</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Olympiacos Piraeus B</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>1</v>
+      </c>
+      <c r="J117" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>08/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>09/12/2023 13:54</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>08/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P117" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>09/12/2023 13:57</t>
+        </is>
+      </c>
+      <c r="R117" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t>08/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T117" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="U117" t="inlineStr">
+        <is>
+          <t>09/12/2023 13:57</t>
+        </is>
+      </c>
+      <c r="V117" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/panachaiki-olympiacos-piraeus/ILOMxN2r/</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>45269.58333333334</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Makedonikos</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>1</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>AEK Athens FC B</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>08/12/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>09/12/2023 13:59</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>08/12/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P118" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>09/12/2023 13:59</t>
+        </is>
+      </c>
+      <c r="R118" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="S118" t="inlineStr">
+        <is>
+          <t>08/12/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T118" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="U118" t="inlineStr">
+        <is>
+          <t>09/12/2023 13:59</t>
+        </is>
+      </c>
+      <c r="V118" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/makedonikos-neapolis-aek/AsnM121p/</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>45269.625</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Diagoras</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>1</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Panathinaikos B</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>09/12/2023 12:10</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>09/12/2023 14:39</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>09/12/2023 12:10</t>
+        </is>
+      </c>
+      <c r="P119" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>09/12/2023 14:38</t>
+        </is>
+      </c>
+      <c r="R119" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="S119" t="inlineStr">
+        <is>
+          <t>09/12/2023 12:10</t>
+        </is>
+      </c>
+      <c r="T119" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="U119" t="inlineStr">
+        <is>
+          <t>09/12/2023 14:39</t>
+        </is>
+      </c>
+      <c r="V119" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/diagoras-fc-panathinaikos/GOAbCqwI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>45270.58333333334</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Athens Kallithea</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>1</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Kalamata</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>09/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>10/12/2023 13:38</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>09/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P120" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>10/12/2023 13:38</t>
+        </is>
+      </c>
+      <c r="R120" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="S120" t="inlineStr">
+        <is>
+          <t>09/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T120" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="U120" t="inlineStr">
+        <is>
+          <t>10/12/2023 13:38</t>
+        </is>
+      </c>
+      <c r="V120" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/athens-kallithea-kalamata/8KYRfH7p/</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>45270.58333333334</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Tilikratis L.</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Giouchtas</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>09/12/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>10/12/2023 13:17</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>09/12/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P121" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="Q121" t="inlineStr">
+        <is>
+          <t>10/12/2023 13:17</t>
+        </is>
+      </c>
+      <c r="R121" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="S121" t="inlineStr">
+        <is>
+          <t>09/12/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T121" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="U121" t="inlineStr">
+        <is>
+          <t>10/12/2023 13:17</t>
+        </is>
+      </c>
+      <c r="V121" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/tilikratis-lefkada-giouchtas/nwxes3fR/</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>45270.58333333334</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Aiolikos</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>1</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Iraklis 1908</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
+        <v>1</v>
+      </c>
+      <c r="J122" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>09/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>10/12/2023 13:58</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>09/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P122" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="Q122" t="inlineStr">
+        <is>
+          <t>10/12/2023 13:58</t>
+        </is>
+      </c>
+      <c r="R122" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="S122" t="inlineStr">
+        <is>
+          <t>09/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T122" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="U122" t="inlineStr">
+        <is>
+          <t>10/12/2023 13:58</t>
+        </is>
+      </c>
+      <c r="V122" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/aiolikos-fc-iraklis-fc/rZIhJUWH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>45270.58333333334</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Karditsa</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Kampaniakos</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
+        <v>1</v>
+      </c>
+      <c r="J123" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>09/12/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>10/12/2023 13:57</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>09/12/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P123" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="Q123" t="inlineStr">
+        <is>
+          <t>10/12/2023 13:57</t>
+        </is>
+      </c>
+      <c r="R123" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="S123" t="inlineStr">
+        <is>
+          <t>09/12/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T123" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="U123" t="inlineStr">
+        <is>
+          <t>10/12/2023 13:57</t>
+        </is>
+      </c>
+      <c r="V123" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-kampaniakos/jwP8P5gi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>45271.58333333334</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>AEL Larissa</t>
+        </is>
+      </c>
+      <c r="G124" t="n">
+        <v>3</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Apollon Pontou</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>10/12/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>11/12/2023 13:57</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>10/12/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P124" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="Q124" t="inlineStr">
+        <is>
+          <t>11/12/2023 13:57</t>
+        </is>
+      </c>
+      <c r="R124" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="S124" t="inlineStr">
+        <is>
+          <t>10/12/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T124" t="n">
+        <v>16.47</v>
+      </c>
+      <c r="U124" t="inlineStr">
+        <is>
+          <t>11/12/2023 13:57</t>
+        </is>
+      </c>
+      <c r="V124" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ael-larissa-apollon-pontou/lOsCOP8c/</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>45271.58333333334</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Niki Volos</t>
+        </is>
+      </c>
+      <c r="G125" t="n">
+        <v>3</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>PAOK B</t>
+        </is>
+      </c>
+      <c r="I125" t="n">
+        <v>2</v>
+      </c>
+      <c r="J125" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>10/12/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>11/12/2023 13:51</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>10/12/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P125" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="Q125" t="inlineStr">
+        <is>
+          <t>11/12/2023 13:58</t>
+        </is>
+      </c>
+      <c r="R125" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="S125" t="inlineStr">
+        <is>
+          <t>10/12/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T125" t="n">
+        <v>7</v>
+      </c>
+      <c r="U125" t="inlineStr">
+        <is>
+          <t>11/12/2023 13:58</t>
+        </is>
+      </c>
+      <c r="V125" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/niki-volos-paok/lYpQ0MGj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>45273.58333333334</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Ionikos</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>5</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>PAE Egaleo</t>
+        </is>
+      </c>
+      <c r="I126" t="n">
+        <v>1</v>
+      </c>
+      <c r="J126" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>12/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>13/12/2023 13:59</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>12/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P126" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Q126" t="inlineStr">
+        <is>
+          <t>13/12/2023 13:59</t>
+        </is>
+      </c>
+      <c r="R126" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="S126" t="inlineStr">
+        <is>
+          <t>12/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T126" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="U126" t="inlineStr">
+        <is>
+          <t>13/12/2023 13:59</t>
+        </is>
+      </c>
+      <c r="V126" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ionikos-pae-egaleo/QNmnqPPE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>45273.58333333334</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>AEK Athens FC B</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>1</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Kozani FC</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>12/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>13/12/2023 13:54</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>12/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P127" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="Q127" t="inlineStr">
+        <is>
+          <t>13/12/2023 13:54</t>
+        </is>
+      </c>
+      <c r="R127" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="S127" t="inlineStr">
+        <is>
+          <t>12/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T127" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="U127" t="inlineStr">
+        <is>
+          <t>13/12/2023 13:54</t>
+        </is>
+      </c>
+      <c r="V127" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/aek-kozani-fc/U9HrhhYI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>45276.58333333334</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Kalamata</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Panathinaikos B</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>15/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>16/12/2023 13:59</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>15/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P128" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="Q128" t="inlineStr">
+        <is>
+          <t>16/12/2023 13:59</t>
+        </is>
+      </c>
+      <c r="R128" t="n">
+        <v>10.18</v>
+      </c>
+      <c r="S128" t="inlineStr">
+        <is>
+          <t>15/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T128" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="U128" t="inlineStr">
+        <is>
+          <t>16/12/2023 13:59</t>
+        </is>
+      </c>
+      <c r="V128" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kalamata-panathinaikos/KQzMZ7BM/</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>45276.58333333334</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Ilioupoli</t>
+        </is>
+      </c>
+      <c r="G129" t="n">
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Olympiacos Piraeus B</t>
+        </is>
+      </c>
+      <c r="I129" t="n">
+        <v>1</v>
+      </c>
+      <c r="J129" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>15/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>16/12/2023 13:57</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>15/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P129" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="Q129" t="inlineStr">
+        <is>
+          <t>16/12/2023 13:57</t>
+        </is>
+      </c>
+      <c r="R129" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="S129" t="inlineStr">
+        <is>
+          <t>15/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T129" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="U129" t="inlineStr">
+        <is>
+          <t>16/12/2023 13:57</t>
+        </is>
+      </c>
+      <c r="V129" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ilioupoli-olympiacos-piraeus/Y9Y9xAR3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>45276.58333333334</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Kampaniakos</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>AEL Larissa</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
+        <v>2</v>
+      </c>
+      <c r="J130" t="n">
+        <v>6.83</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>15/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>9.07</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>16/12/2023 13:57</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>15/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P130" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="Q130" t="inlineStr">
+        <is>
+          <t>16/12/2023 13:57</t>
+        </is>
+      </c>
+      <c r="R130" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="S130" t="inlineStr">
+        <is>
+          <t>15/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T130" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U130" t="inlineStr">
+        <is>
+          <t>16/12/2023 13:50</t>
+        </is>
+      </c>
+      <c r="V130" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kampaniakos-ael-larissa/lnQbFLVq/</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E131" s="2" t="n">
+        <v>45277.5</v>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Aiolikos</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Kozani FC</t>
+        </is>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>16/12/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>17/12/2023 11:59</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>16/12/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P131" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="Q131" t="inlineStr">
+        <is>
+          <t>17/12/2023 11:59</t>
+        </is>
+      </c>
+      <c r="R131" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="S131" t="inlineStr">
+        <is>
+          <t>16/12/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T131" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="U131" t="inlineStr">
+        <is>
+          <t>17/12/2023 11:59</t>
+        </is>
+      </c>
+      <c r="V131" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/aiolikos-fc-kozani-fc/MytKM3wA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>45277.54166666666</v>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>AEK Athens FC B</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Karditsa</t>
+        </is>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>16/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>17/12/2023 12:58</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>16/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P132" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="Q132" t="inlineStr">
+        <is>
+          <t>17/12/2023 12:58</t>
+        </is>
+      </c>
+      <c r="R132" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="S132" t="inlineStr">
+        <is>
+          <t>16/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T132" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="U132" t="inlineStr">
+        <is>
+          <t>17/12/2023 12:58</t>
+        </is>
+      </c>
+      <c r="V132" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/aek-karditsa/I3ZSKs8M/</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E133" s="2" t="n">
+        <v>45277.58333333334</v>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Panachaiki</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
+        <v>1</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Athens Kallithea</t>
+        </is>
+      </c>
+      <c r="I133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>16/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>10.92</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>17/12/2023 13:23</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>16/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P133" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="Q133" t="inlineStr">
+        <is>
+          <t>17/12/2023 13:23</t>
+        </is>
+      </c>
+      <c r="R133" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S133" t="inlineStr">
+        <is>
+          <t>16/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T133" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U133" t="inlineStr">
+        <is>
+          <t>17/12/2023 13:23</t>
+        </is>
+      </c>
+      <c r="V133" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/panachaiki-athens-kallithea/C0XDyUtA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>45277.66666666666</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Diagoras</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
+        <v>2</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Giouchtas</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>16/12/2023 04:13</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>17/12/2023 14:12</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>16/12/2023 04:13</t>
+        </is>
+      </c>
+      <c r="P134" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="Q134" t="inlineStr">
+        <is>
+          <t>17/12/2023 14:12</t>
+        </is>
+      </c>
+      <c r="R134" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="S134" t="inlineStr">
+        <is>
+          <t>16/12/2023 04:13</t>
+        </is>
+      </c>
+      <c r="T134" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="U134" t="inlineStr">
+        <is>
+          <t>17/12/2023 14:12</t>
+        </is>
+      </c>
+      <c r="V134" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/diagoras-fc-giouchtas/4bChUoZq/</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="n">
+        <v>45278.54166666666</v>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Iraklis 1908</t>
+        </is>
+      </c>
+      <c r="G135" t="n">
+        <v>5</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Makedonikos</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
+        <v>1</v>
+      </c>
+      <c r="J135" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>17/12/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>18/12/2023 12:59</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>17/12/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P135" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="Q135" t="inlineStr">
+        <is>
+          <t>18/12/2023 12:59</t>
+        </is>
+      </c>
+      <c r="R135" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="S135" t="inlineStr">
+        <is>
+          <t>17/12/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T135" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="U135" t="inlineStr">
+        <is>
+          <t>18/12/2023 12:59</t>
+        </is>
+      </c>
+      <c r="V135" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/iraklis-fc-makedonikos-neapolis/vDzPLNhG/</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>45278.58333333334</v>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Apollon Pontou</t>
+        </is>
+      </c>
+      <c r="G136" t="n">
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>PAOK B</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
+        <v>1</v>
+      </c>
+      <c r="J136" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>16/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>18/12/2023 13:43</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>16/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P136" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q136" t="inlineStr">
+        <is>
+          <t>18/12/2023 13:43</t>
+        </is>
+      </c>
+      <c r="R136" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="S136" t="inlineStr">
+        <is>
+          <t>16/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T136" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="U136" t="inlineStr">
+        <is>
+          <t>18/12/2023 13:43</t>
+        </is>
+      </c>
+      <c r="V136" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/apollon-pontou-paok/CQYWJ1NS/</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>45279.58333333334</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>PAE Egaleo</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
+        <v>1</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Tilikratis L.</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>18/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>19/12/2023 13:55</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>18/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P137" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="Q137" t="inlineStr">
+        <is>
+          <t>19/12/2023 13:55</t>
+        </is>
+      </c>
+      <c r="R137" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="S137" t="inlineStr">
+        <is>
+          <t>18/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T137" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="U137" t="inlineStr">
+        <is>
+          <t>19/12/2023 13:55</t>
+        </is>
+      </c>
+      <c r="V137" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/pae-egaleo-tilikratis-lefkada/2kQQYRQS/</t>
         </is>
       </c>
     </row>

--- a/2023/greece_super-league-2_2023-2024.xlsx
+++ b/2023/greece_super-league-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V137"/>
+  <dimension ref="A1:V138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3517,22 +3517,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>PAOK B</t>
+          <t>Ionikos</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Aiolikos</t>
+          <t>Tilikratis L.</t>
         </is>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>1.57</v>
+        <v>1.3</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,15 +3540,15 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>1.75</v>
+        <v>1.22</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>21/10/2023 14:43</t>
+          <t>21/10/2023 12:52</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.91</v>
+        <v>4.55</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3556,15 +3556,15 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.66</v>
+        <v>5.42</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>21/10/2023 14:43</t>
+          <t>21/10/2023 13:02</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>5.06</v>
+        <v>10.53</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -3572,16 +3572,16 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>4.44</v>
+        <v>14.23</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>21/10/2023 14:43</t>
+          <t>21/10/2023 12:52</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/paok-aiolikos-fc/fyiX48y2/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ionikos-tilikratis-lefkada/hry7rFPN/</t>
         </is>
       </c>
     </row>
@@ -3609,22 +3609,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Athens Kallithea</t>
+          <t>PAOK B</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Giouchtas</t>
+          <t>Aiolikos</t>
         </is>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>1.3</v>
+        <v>1.57</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,15 +3632,15 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.23</v>
+        <v>1.75</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>21/10/2023 14:17</t>
+          <t>21/10/2023 14:43</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>4.55</v>
+        <v>3.91</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3648,15 +3648,15 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>5.44</v>
+        <v>3.66</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>21/10/2023 14:18</t>
+          <t>21/10/2023 14:43</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>10.53</v>
+        <v>5.06</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -3664,16 +3664,16 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>13.52</v>
+        <v>4.44</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>21/10/2023 14:17</t>
+          <t>21/10/2023 14:43</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/athens-kallithea-giouchtas/n5zBsZvU/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/paok-aiolikos-fc/fyiX48y2/</t>
         </is>
       </c>
     </row>
@@ -3701,7 +3701,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Ionikos</t>
+          <t>Athens Kallithea</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -3709,7 +3709,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Tilikratis L.</t>
+          <t>Giouchtas</t>
         </is>
       </c>
       <c r="I36" t="n">
@@ -3724,11 +3724,11 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>21/10/2023 12:52</t>
+          <t>21/10/2023 14:17</t>
         </is>
       </c>
       <c r="N36" t="n">
@@ -3740,11 +3740,11 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>5.42</v>
+        <v>5.44</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>21/10/2023 13:02</t>
+          <t>21/10/2023 14:18</t>
         </is>
       </c>
       <c r="R36" t="n">
@@ -3756,16 +3756,16 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>14.23</v>
+        <v>13.52</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>21/10/2023 12:52</t>
+          <t>21/10/2023 14:17</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ionikos-tilikratis-lefkada/hry7rFPN/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/athens-kallithea-giouchtas/n5zBsZvU/</t>
         </is>
       </c>
     </row>
@@ -5173,22 +5173,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Karditsa</t>
+          <t>Makedonikos</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>AEL Larissa</t>
+          <t>PAOK B</t>
         </is>
       </c>
       <c r="I52" t="n">
         <v>2</v>
       </c>
       <c r="J52" t="n">
-        <v>3.52</v>
+        <v>1.95</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>3.94</v>
+        <v>1.94</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>29/10/2023 13:57</t>
+          <t>29/10/2023 13:59</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>2.91</v>
+        <v>3.06</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.08</v>
+        <v>3.16</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>29/10/2023 13:57</t>
+          <t>29/10/2023 13:59</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>2.05</v>
+        <v>3.62</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>2.03</v>
+        <v>4.14</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>29/10/2023 13:57</t>
+          <t>29/10/2023 13:59</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-ael-larissa/46YNRVrF/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/makedonikos-neapolis-paok/b7jd9NSm/</t>
         </is>
       </c>
     </row>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Apollon Pontou</t>
+          <t>Karditsa</t>
         </is>
       </c>
       <c r="G53" t="n">
@@ -5273,14 +5273,14 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Kozani FC</t>
+          <t>AEL Larissa</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J53" t="n">
-        <v>2.73</v>
+        <v>3.52</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -5288,15 +5288,15 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>4.25</v>
+        <v>3.94</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>29/10/2023 13:59</t>
+          <t>29/10/2023 13:57</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>2.87</v>
+        <v>2.91</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -5304,15 +5304,15 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.12</v>
+        <v>3.08</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>29/10/2023 13:45</t>
+          <t>29/10/2023 13:57</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
@@ -5320,16 +5320,16 @@
         </is>
       </c>
       <c r="T53" t="n">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>29/10/2023 13:59</t>
+          <t>29/10/2023 13:57</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/apollon-pontou-kozani-fc/AqZJSBT8/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-ael-larissa/46YNRVrF/</t>
         </is>
       </c>
     </row>
@@ -5357,71 +5357,71 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Diagoras</t>
+          <t>Apollon Pontou</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Ionikos</t>
+          <t>Kozani FC</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>3.43</v>
+        <v>2.73</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>29/10/2023 02:12</t>
+          <t>28/10/2023 03:12</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>3.36</v>
+        <v>4.25</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>29/10/2023 13:40</t>
+          <t>29/10/2023 13:59</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.09</v>
+        <v>2.87</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>29/10/2023 02:12</t>
+          <t>28/10/2023 03:12</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.01</v>
+        <v>3.12</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>29/10/2023 13:40</t>
+          <t>29/10/2023 13:45</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>2.12</v>
+        <v>2.5</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>29/10/2023 02:12</t>
+          <t>28/10/2023 03:12</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>2.27</v>
+        <v>1.93</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>29/10/2023 13:40</t>
+          <t>29/10/2023 13:59</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/diagoras-fc-ionikos/hrcxbfPA/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/apollon-pontou-kozani-fc/AqZJSBT8/</t>
         </is>
       </c>
     </row>
@@ -5449,71 +5449,71 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Makedonikos</t>
+          <t>Diagoras</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>PAOK B</t>
+          <t>Ionikos</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>1.95</v>
+        <v>3.43</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>28/10/2023 03:12</t>
+          <t>29/10/2023 02:12</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>1.94</v>
+        <v>3.36</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>29/10/2023 13:59</t>
+          <t>29/10/2023 13:40</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>3.06</v>
+        <v>3.09</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>28/10/2023 03:12</t>
+          <t>29/10/2023 02:12</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>3.16</v>
+        <v>3.01</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>29/10/2023 13:59</t>
+          <t>29/10/2023 13:40</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>3.62</v>
+        <v>2.12</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>28/10/2023 03:12</t>
+          <t>29/10/2023 02:12</t>
         </is>
       </c>
       <c r="T55" t="n">
-        <v>4.14</v>
+        <v>2.27</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>29/10/2023 13:59</t>
+          <t>29/10/2023 13:40</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/makedonikos-neapolis-paok/b7jd9NSm/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/diagoras-fc-ionikos/hrcxbfPA/</t>
         </is>
       </c>
     </row>
@@ -6093,71 +6093,71 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>AEK Athens FC B</t>
+          <t>Ionikos</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Niki Volos</t>
+          <t>Kalamata</t>
         </is>
       </c>
       <c r="I62" t="n">
+        <v>2</v>
+      </c>
+      <c r="J62" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>05/11/2023 03:13</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:59</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>3</v>
       </c>
-      <c r="J62" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>04/11/2023 02:12</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>05/11/2023 13:57</t>
-        </is>
-      </c>
-      <c r="N62" t="n">
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>05/11/2023 03:13</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
         <v>3.15</v>
       </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>04/11/2023 02:12</t>
-        </is>
-      </c>
-      <c r="P62" t="n">
-        <v>3.01</v>
-      </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>05/11/2023 13:57</t>
+          <t>05/11/2023 13:59</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>1.79</v>
+        <v>2.82</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>04/11/2023 02:12</t>
+          <t>05/11/2023 03:13</t>
         </is>
       </c>
       <c r="T62" t="n">
-        <v>2.02</v>
+        <v>2.46</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>05/11/2023 13:57</t>
+          <t>05/11/2023 13:59</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/aek-niki-volos/vykbTrKJ/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ionikos-kalamata/2JXbBSs2/</t>
         </is>
       </c>
     </row>
@@ -6185,7 +6185,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Kampaniakos</t>
+          <t>Panathinaikos B</t>
         </is>
       </c>
       <c r="G63" t="n">
@@ -6193,63 +6193,63 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Apollon Pontou</t>
+          <t>PAE Egaleo</t>
         </is>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>2.17</v>
+        <v>2.48</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>05/11/2023 03:13</t>
+          <t>04/11/2023 02:12</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>1.97</v>
+        <v>2.59</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>05/11/2023 12:16</t>
+          <t>05/11/2023 13:55</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>2.99</v>
+        <v>2.88</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>05/11/2023 03:13</t>
+          <t>04/11/2023 02:12</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3.11</v>
+        <v>3.01</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>05/11/2023 12:16</t>
+          <t>05/11/2023 13:55</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>3.42</v>
+        <v>2.75</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>05/11/2023 03:13</t>
+          <t>04/11/2023 02:12</t>
         </is>
       </c>
       <c r="T63" t="n">
-        <v>4.12</v>
+        <v>2.83</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>05/11/2023 12:16</t>
+          <t>05/11/2023 03:41</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kampaniakos-apollon-pontou/CUdC5uSC/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/panathinaikos-pae-egaleo/OSYfC8Se/</t>
         </is>
       </c>
     </row>
@@ -6277,7 +6277,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Kozani FC</t>
+          <t>AEK Athens FC B</t>
         </is>
       </c>
       <c r="G64" t="n">
@@ -6285,14 +6285,14 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>AEL Larissa</t>
+          <t>Niki Volos</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J64" t="n">
-        <v>3.62</v>
+        <v>4.16</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,15 +6300,15 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>4.52</v>
+        <v>4.09</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>05/11/2023 13:40</t>
+          <t>05/11/2023 13:57</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>2.95</v>
+        <v>3.15</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.12</v>
+        <v>3.01</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>05/11/2023 13:40</t>
+          <t>05/11/2023 13:57</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>2</v>
+        <v>1.79</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>1.88</v>
+        <v>2.02</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>05/11/2023 13:40</t>
+          <t>05/11/2023 13:57</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kozani-fc-ael-larissa/U5776LC6/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/aek-niki-volos/vykbTrKJ/</t>
         </is>
       </c>
     </row>
@@ -6369,22 +6369,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Ionikos</t>
+          <t>Kampaniakos</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Kalamata</t>
+          <t>Apollon Pontou</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>2.56</v>
+        <v>2.17</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -6392,15 +6392,15 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>2.88</v>
+        <v>1.97</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>05/11/2023 13:59</t>
+          <t>05/11/2023 12:16</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3</v>
+        <v>2.99</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -6408,15 +6408,15 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.15</v>
+        <v>3.11</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>05/11/2023 13:59</t>
+          <t>05/11/2023 12:16</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>2.82</v>
+        <v>3.42</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
@@ -6424,16 +6424,16 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>2.46</v>
+        <v>4.12</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>05/11/2023 13:59</t>
+          <t>05/11/2023 12:16</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ionikos-kalamata/2JXbBSs2/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kampaniakos-apollon-pontou/CUdC5uSC/</t>
         </is>
       </c>
     </row>
@@ -6461,22 +6461,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Panathinaikos B</t>
+          <t>Kozani FC</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>PAE Egaleo</t>
+          <t>AEL Larissa</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J66" t="n">
-        <v>2.48</v>
+        <v>3.62</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -6484,15 +6484,15 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>2.59</v>
+        <v>4.52</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>05/11/2023 13:55</t>
+          <t>05/11/2023 13:40</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>2.88</v>
+        <v>2.95</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -6500,15 +6500,15 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.01</v>
+        <v>3.12</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>05/11/2023 13:55</t>
+          <t>05/11/2023 13:40</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>2.83</v>
+        <v>1.88</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>05/11/2023 03:41</t>
+          <t>05/11/2023 13:40</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/panathinaikos-pae-egaleo/OSYfC8Se/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kozani-fc-ael-larissa/U5776LC6/</t>
         </is>
       </c>
     </row>
@@ -6737,71 +6737,71 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Kalamata</t>
+          <t>Kampaniakos</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Tilikratis L.</t>
+          <t>Kozani FC</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>1.13</v>
+        <v>2.61</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>11/11/2023 12:01</t>
+          <t>10/11/2023 02:13</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>1.13</v>
+        <v>2.94</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>11/11/2023 12:01</t>
+          <t>11/11/2023 13:03</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>7.63</v>
+        <v>2.87</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>11/11/2023 12:01</t>
+          <t>10/11/2023 02:13</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>7.63</v>
+        <v>2.79</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>11/11/2023 12:01</t>
+          <t>11/11/2023 13:03</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>18.11</v>
+        <v>2.61</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>11/11/2023 12:01</t>
+          <t>10/11/2023 02:13</t>
         </is>
       </c>
       <c r="T69" t="n">
-        <v>18.11</v>
+        <v>2.68</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>11/11/2023 12:01</t>
+          <t>11/11/2023 13:03</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kalamata-tilikratis-lefkada/6m8bWTJR/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kampaniakos-kozani-fc/xCUYMtcm/</t>
         </is>
       </c>
     </row>
@@ -6829,7 +6829,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>AEL Larissa</t>
+          <t>Apollon Pontou</t>
         </is>
       </c>
       <c r="G70" t="n">
@@ -6837,14 +6837,14 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>PAOK B</t>
+          <t>AEK Athens FC B</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J70" t="n">
-        <v>1.43</v>
+        <v>2.52</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>1.33</v>
+        <v>3.36</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>11/11/2023 13:40</t>
+          <t>11/11/2023 13:49</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.99</v>
+        <v>2.82</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>4.69</v>
+        <v>2.73</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>11/11/2023 13:40</t>
+          <t>11/11/2023 13:49</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>6.04</v>
+        <v>2.83</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>9.68</v>
+        <v>2.45</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>11/11/2023 13:40</t>
+          <t>11/11/2023 13:49</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ael-larissa-paok/WYTxM0Cg/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/apollon-pontou-aek/APStLKRa/</t>
         </is>
       </c>
     </row>
@@ -6921,7 +6921,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Apollon Pontou</t>
+          <t>AEL Larissa</t>
         </is>
       </c>
       <c r="G71" t="n">
@@ -6929,14 +6929,14 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>AEK Athens FC B</t>
+          <t>PAOK B</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>2.52</v>
+        <v>1.43</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6944,15 +6944,15 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>3.36</v>
+        <v>1.33</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>11/11/2023 13:49</t>
+          <t>11/11/2023 13:40</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>2.82</v>
+        <v>3.99</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -6960,15 +6960,15 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>2.73</v>
+        <v>4.69</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>11/11/2023 13:49</t>
+          <t>11/11/2023 13:40</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>2.83</v>
+        <v>6.04</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
@@ -6976,16 +6976,16 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>2.45</v>
+        <v>9.68</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>11/11/2023 13:49</t>
+          <t>11/11/2023 13:40</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/apollon-pontou-aek/APStLKRa/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ael-larissa-paok/WYTxM0Cg/</t>
         </is>
       </c>
     </row>
@@ -7013,71 +7013,71 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Kampaniakos</t>
+          <t>Kalamata</t>
         </is>
       </c>
       <c r="G72" t="n">
+        <v>3</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Tilikratis L.</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>Kozani FC</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
       <c r="J72" t="n">
-        <v>2.61</v>
+        <v>1.13</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>10/11/2023 02:13</t>
+          <t>11/11/2023 12:01</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>2.94</v>
+        <v>1.13</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>11/11/2023 13:03</t>
+          <t>11/11/2023 12:01</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>2.87</v>
+        <v>7.63</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>10/11/2023 02:13</t>
+          <t>11/11/2023 12:01</t>
         </is>
       </c>
       <c r="P72" t="n">
-        <v>2.79</v>
+        <v>7.63</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>11/11/2023 13:03</t>
+          <t>11/11/2023 12:01</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>2.61</v>
+        <v>18.11</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>10/11/2023 02:13</t>
+          <t>11/11/2023 12:01</t>
         </is>
       </c>
       <c r="T72" t="n">
-        <v>2.68</v>
+        <v>18.11</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>11/11/2023 13:03</t>
+          <t>11/11/2023 12:01</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kampaniakos-kozani-fc/xCUYMtcm/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kalamata-tilikratis-lefkada/6m8bWTJR/</t>
         </is>
       </c>
     </row>
@@ -7197,22 +7197,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Niki Volos</t>
+          <t>Ilioupoli</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Iraklis 1908</t>
+          <t>Athens Kallithea</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J74" t="n">
-        <v>1.87</v>
+        <v>4.68</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>2.02</v>
+        <v>4.56</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>12/11/2023 12:05</t>
+          <t>12/11/2023 13:55</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.03</v>
+        <v>3.36</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3</v>
+        <v>3.13</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>12/11/2023 12:12</t>
+          <t>12/11/2023 13:55</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>3.98</v>
+        <v>1.65</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>4.13</v>
+        <v>1.88</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>12/11/2023 12:05</t>
+          <t>12/11/2023 13:55</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/niki-volos-iraklis-fc/jypvKvs6/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ilioupoli-athens-kallithea/GMcYPRde/</t>
         </is>
       </c>
     </row>
@@ -7289,22 +7289,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Panachaiki</t>
+          <t>PAE Chania</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Ionikos</t>
+          <t>Panathinaikos B</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>4.2</v>
+        <v>1.37</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>6.83</v>
+        <v>1.32</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>12/11/2023 13:58</t>
+          <t>12/11/2023 12:05</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.26</v>
+        <v>4.28</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.77</v>
+        <v>4.79</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>12/11/2023 13:58</t>
+          <t>12/11/2023 12:07</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>1.75</v>
+        <v>6.55</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>1.52</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>12/11/2023 13:58</t>
+          <t>12/11/2023 12:07</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/panachaiki-ionikos/2JgUQ7sk/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/pae-chania-panathinaikos/8dfQRmSr/</t>
         </is>
       </c>
     </row>
@@ -7381,71 +7381,71 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Levadiakos</t>
+          <t>Panachaiki</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aiolikos</t>
+          <t>Ionikos</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>1.24</v>
+        <v>4.2</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>11/11/2023 04:43</t>
+          <t>11/11/2023 02:12</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.27</v>
+        <v>6.83</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>12/11/2023 11:59</t>
+          <t>12/11/2023 13:58</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>4.72</v>
+        <v>3.26</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>11/11/2023 04:43</t>
+          <t>11/11/2023 02:12</t>
         </is>
       </c>
       <c r="P76" t="n">
-        <v>4.98</v>
+        <v>3.77</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>12/11/2023 12:05</t>
+          <t>12/11/2023 13:58</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>10.75</v>
+        <v>1.75</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>11/11/2023 04:43</t>
+          <t>11/11/2023 02:12</t>
         </is>
       </c>
       <c r="T76" t="n">
-        <v>12.44</v>
+        <v>1.52</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>12/11/2023 11:59</t>
+          <t>12/11/2023 13:58</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/levadiakos-aiolikos-fc/URrrJbdC/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/panachaiki-ionikos/2JgUQ7sk/</t>
         </is>
       </c>
     </row>
@@ -7473,71 +7473,71 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Ilioupoli</t>
+          <t>Levadiakos</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Athens Kallithea</t>
+          <t>Aiolikos</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>4.68</v>
+        <v>1.24</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>11/11/2023 02:12</t>
+          <t>11/11/2023 04:43</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>4.56</v>
+        <v>1.27</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>12/11/2023 13:55</t>
+          <t>12/11/2023 11:59</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.36</v>
+        <v>4.72</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>11/11/2023 02:12</t>
+          <t>11/11/2023 04:43</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.13</v>
+        <v>4.98</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>12/11/2023 13:55</t>
+          <t>12/11/2023 12:05</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>1.65</v>
+        <v>10.75</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>11/11/2023 02:12</t>
+          <t>11/11/2023 04:43</t>
         </is>
       </c>
       <c r="T77" t="n">
-        <v>1.88</v>
+        <v>12.44</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>12/11/2023 13:55</t>
+          <t>12/11/2023 11:59</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ilioupoli-athens-kallithea/GMcYPRde/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/levadiakos-aiolikos-fc/URrrJbdC/</t>
         </is>
       </c>
     </row>
@@ -7565,22 +7565,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>PAE Chania</t>
+          <t>Niki Volos</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Panathinaikos B</t>
+          <t>Iraklis 1908</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>1.37</v>
+        <v>1.87</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,7 +7588,7 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>1.32</v>
+        <v>2.02</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="N78" t="n">
-        <v>4.28</v>
+        <v>3.03</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -7604,15 +7604,15 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>4.79</v>
+        <v>3</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>12/11/2023 12:07</t>
+          <t>12/11/2023 12:12</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>6.55</v>
+        <v>3.98</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
@@ -7620,16 +7620,16 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>9.890000000000001</v>
+        <v>4.13</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>12/11/2023 12:07</t>
+          <t>12/11/2023 12:05</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/pae-chania-panathinaikos/8dfQRmSr/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/niki-volos-iraklis-fc/jypvKvs6/</t>
         </is>
       </c>
     </row>
@@ -7749,22 +7749,22 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Makedonikos</t>
+          <t>Iraklis 1908</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Levadiakos</t>
+          <t>Apollon Pontou</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>3.73</v>
+        <v>1.3</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -7772,15 +7772,15 @@
         </is>
       </c>
       <c r="L80" t="n">
-        <v>5.2</v>
+        <v>1.42</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>15/11/2023 13:31</t>
+          <t>15/11/2023 12:58</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>2.94</v>
+        <v>4.59</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -7788,15 +7788,15 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>15/11/2023 13:49</t>
+          <t>15/11/2023 12:58</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>1.97</v>
+        <v>7.84</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
@@ -7804,16 +7804,16 @@
         </is>
       </c>
       <c r="T80" t="n">
-        <v>1.78</v>
+        <v>7.94</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>15/11/2023 13:11</t>
+          <t>15/11/2023 12:58</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/makedonikos-neapolis-levadiakos/ddJzfE36/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/iraklis-fc-apollon-pontou/0UPRezZg/</t>
         </is>
       </c>
     </row>
@@ -7841,22 +7841,22 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Iraklis 1908</t>
+          <t>Makedonikos</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Apollon Pontou</t>
+          <t>Levadiakos</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J81" t="n">
-        <v>1.3</v>
+        <v>3.73</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -7864,15 +7864,15 @@
         </is>
       </c>
       <c r="L81" t="n">
-        <v>1.42</v>
+        <v>5.2</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>15/11/2023 12:58</t>
+          <t>15/11/2023 13:31</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>4.59</v>
+        <v>2.94</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -7880,15 +7880,15 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>15/11/2023 12:58</t>
+          <t>15/11/2023 13:49</t>
         </is>
       </c>
       <c r="R81" t="n">
-        <v>7.84</v>
+        <v>1.97</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
@@ -7896,16 +7896,16 @@
         </is>
       </c>
       <c r="T81" t="n">
-        <v>7.94</v>
+        <v>1.78</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>15/11/2023 12:58</t>
+          <t>15/11/2023 13:11</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/iraklis-fc-apollon-pontou/0UPRezZg/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/makedonikos-neapolis-levadiakos/ddJzfE36/</t>
         </is>
       </c>
     </row>
@@ -8025,71 +8025,71 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Apollon Pontou</t>
+          <t>Karditsa</t>
         </is>
       </c>
       <c r="G83" t="n">
+        <v>2</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Levadiakos</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>Aiolikos</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
       <c r="J83" t="n">
-        <v>2.77</v>
+        <v>4.29</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>19/11/2023 03:12</t>
+          <t>18/11/2023 02:12</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>2.89</v>
+        <v>5.74</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>19/11/2023 13:41</t>
+          <t>19/11/2023 13:50</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>2.87</v>
+        <v>3.08</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>19/11/2023 03:12</t>
+          <t>18/11/2023 02:12</t>
         </is>
       </c>
       <c r="P83" t="n">
-        <v>2.85</v>
+        <v>3.31</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>19/11/2023 13:24</t>
+          <t>19/11/2023 13:50</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>2.65</v>
+        <v>1.79</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>19/11/2023 03:12</t>
+          <t>18/11/2023 02:12</t>
         </is>
       </c>
       <c r="T83" t="n">
-        <v>2.67</v>
+        <v>1.68</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>19/11/2023 13:41</t>
+          <t>19/11/2023 13:50</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/apollon-pontou-aiolikos-fc/pIaVFeQP/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-levadiakos/2cncBFYt/</t>
         </is>
       </c>
     </row>
@@ -8117,71 +8117,71 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Karditsa</t>
+          <t>Apollon Pontou</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Levadiakos</t>
+          <t>Aiolikos</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>4.29</v>
+        <v>2.77</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>18/11/2023 02:12</t>
+          <t>19/11/2023 03:12</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>5.74</v>
+        <v>2.89</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>19/11/2023 13:50</t>
+          <t>19/11/2023 13:41</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.08</v>
+        <v>2.87</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>18/11/2023 02:12</t>
+          <t>19/11/2023 03:12</t>
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.31</v>
+        <v>2.85</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>19/11/2023 13:50</t>
+          <t>19/11/2023 13:24</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>1.79</v>
+        <v>2.65</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>18/11/2023 02:12</t>
+          <t>19/11/2023 03:12</t>
         </is>
       </c>
       <c r="T84" t="n">
-        <v>1.68</v>
+        <v>2.67</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>19/11/2023 13:50</t>
+          <t>19/11/2023 13:41</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-levadiakos/2cncBFYt/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/apollon-pontou-aiolikos-fc/pIaVFeQP/</t>
         </is>
       </c>
     </row>
@@ -8209,22 +8209,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Kampaniakos</t>
+          <t>Tilikratis L.</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Iraklis 1908</t>
+          <t>Panachaiki</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J85" t="n">
-        <v>3.87</v>
+        <v>2.27</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>4.12</v>
+        <v>2.31</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>19/11/2023 12:04</t>
+          <t>19/11/2023 13:54</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.15</v>
+        <v>2.92</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.11</v>
+        <v>2.95</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>19/11/2023 12:52</t>
+          <t>19/11/2023 13:54</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>1.85</v>
+        <v>3.02</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>1.97</v>
+        <v>3.35</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>19/11/2023 12:52</t>
+          <t>19/11/2023 13:51</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kampaniakos-iraklis-fc/6R0RGyBJ/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/tilikratis-lefkada-panachaiki/rZYSo9JE/</t>
         </is>
       </c>
     </row>
@@ -8301,7 +8301,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Kalamata</t>
+          <t>Kampaniakos</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -8309,14 +8309,14 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Diagoras</t>
+          <t>Iraklis 1908</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J86" t="n">
-        <v>1.3</v>
+        <v>3.87</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,15 +8324,15 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>1.26</v>
+        <v>4.12</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>19/11/2023 13:49</t>
+          <t>19/11/2023 12:04</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>4.57</v>
+        <v>3.15</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,15 +8340,15 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>5.23</v>
+        <v>3.11</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>19/11/2023 13:56</t>
+          <t>19/11/2023 12:52</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>8.08</v>
+        <v>1.85</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,16 +8356,16 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>12.07</v>
+        <v>1.97</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>19/11/2023 13:56</t>
+          <t>19/11/2023 12:52</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kalamata-diagoras-fc/xxnsO5R7/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kampaniakos-iraklis-fc/6R0RGyBJ/</t>
         </is>
       </c>
     </row>
@@ -8577,22 +8577,22 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Tilikratis L.</t>
+          <t>Kalamata</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Panachaiki</t>
+          <t>Diagoras</t>
         </is>
       </c>
       <c r="I89" t="n">
         <v>2</v>
       </c>
       <c r="J89" t="n">
-        <v>2.27</v>
+        <v>1.3</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -8600,15 +8600,15 @@
         </is>
       </c>
       <c r="L89" t="n">
-        <v>2.31</v>
+        <v>1.26</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>19/11/2023 13:54</t>
+          <t>19/11/2023 13:49</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>2.92</v>
+        <v>4.57</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -8616,15 +8616,15 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>2.95</v>
+        <v>5.23</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>19/11/2023 13:54</t>
+          <t>19/11/2023 13:56</t>
         </is>
       </c>
       <c r="R89" t="n">
-        <v>3.02</v>
+        <v>8.08</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
@@ -8632,16 +8632,16 @@
         </is>
       </c>
       <c r="T89" t="n">
-        <v>3.35</v>
+        <v>12.07</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>19/11/2023 13:51</t>
+          <t>19/11/2023 13:56</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/tilikratis-lefkada-panachaiki/rZYSo9JE/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kalamata-diagoras-fc/xxnsO5R7/</t>
         </is>
       </c>
     </row>
@@ -8761,22 +8761,22 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Athens Kallithea</t>
+          <t>Iraklis 1908</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Tilikratis L.</t>
+          <t>AEK Athens FC B</t>
         </is>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>1.16</v>
+        <v>1.5</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,15 +8784,15 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>1.11</v>
+        <v>1.67</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>25/11/2023 13:09</t>
+          <t>25/11/2023 13:45</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>6.22</v>
+        <v>3.67</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -8800,15 +8800,15 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>8.289999999999999</v>
+        <v>3.53</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>25/11/2023 13:10</t>
+          <t>25/11/2023 13:45</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>12.53</v>
+        <v>5.66</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
@@ -8816,16 +8816,16 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>23.73</v>
+        <v>5.3</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>25/11/2023 13:10</t>
+          <t>25/11/2023 13:45</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/athens-kallithea-tilikratis-lefkada/QL6KyPe7/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/iraklis-fc-aek/zmvA8DIa/</t>
         </is>
       </c>
     </row>
@@ -8945,22 +8945,22 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Iraklis 1908</t>
+          <t>Athens Kallithea</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>AEK Athens FC B</t>
+          <t>Tilikratis L.</t>
         </is>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>1.5</v>
+        <v>1.16</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>1.67</v>
+        <v>1.11</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>25/11/2023 13:45</t>
+          <t>25/11/2023 13:09</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.67</v>
+        <v>6.22</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.53</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>25/11/2023 13:45</t>
+          <t>25/11/2023 13:10</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>5.66</v>
+        <v>12.53</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>5.3</v>
+        <v>23.73</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>25/11/2023 13:45</t>
+          <t>25/11/2023 13:10</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/iraklis-fc-aek/zmvA8DIa/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/athens-kallithea-tilikratis-lefkada/QL6KyPe7/</t>
         </is>
       </c>
     </row>
@@ -9221,22 +9221,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Panachaiki</t>
+          <t>Karditsa</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Diagoras</t>
+          <t>Niki Volos</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>2.77</v>
+        <v>3.26</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,15 +9244,15 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>2.63</v>
+        <v>3.72</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>26/11/2023 13:40</t>
+          <t>26/11/2023 13:46</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>2.87</v>
+        <v>2.83</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,15 +9260,15 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>2.72</v>
+        <v>2.91</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>26/11/2023 13:40</t>
+          <t>26/11/2023 13:46</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>2.47</v>
+        <v>2.2</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,16 +9276,16 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>3.09</v>
+        <v>2.18</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>26/11/2023 13:40</t>
+          <t>26/11/2023 13:46</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/panachaiki-diagoras-fc/h88CwoRf/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-niki-volos/vuyR4VHO/</t>
         </is>
       </c>
     </row>
@@ -9313,22 +9313,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Karditsa</t>
+          <t>Makedonikos</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Niki Volos</t>
+          <t>Apollon Pontou</t>
         </is>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>3.26</v>
+        <v>1.53</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -9336,15 +9336,15 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>3.72</v>
+        <v>1.54</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>26/11/2023 13:46</t>
+          <t>26/11/2023 13:44</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>2.83</v>
+        <v>3.51</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -9352,15 +9352,15 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>2.91</v>
+        <v>3.65</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>26/11/2023 13:46</t>
+          <t>26/11/2023 13:59</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>2.2</v>
+        <v>5.58</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
@@ -9368,16 +9368,16 @@
         </is>
       </c>
       <c r="T97" t="n">
-        <v>2.18</v>
+        <v>6.81</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>26/11/2023 13:46</t>
+          <t>26/11/2023 13:59</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-niki-volos/vuyR4VHO/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/makedonikos-neapolis-apollon-pontou/QyXM5B2I/</t>
         </is>
       </c>
     </row>
@@ -9405,22 +9405,22 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Makedonikos</t>
+          <t>Ilioupoli</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Apollon Pontou</t>
+          <t>Giouchtas</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>1.53</v>
+        <v>1.97</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -9428,15 +9428,15 @@
         </is>
       </c>
       <c r="L98" t="n">
-        <v>1.54</v>
+        <v>2.19</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>26/11/2023 13:44</t>
+          <t>26/11/2023 13:59</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>3.51</v>
+        <v>3.02</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>3.65</v>
+        <v>3.19</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
@@ -9452,7 +9452,7 @@
         </is>
       </c>
       <c r="R98" t="n">
-        <v>5.58</v>
+        <v>3.62</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
@@ -9460,7 +9460,7 @@
         </is>
       </c>
       <c r="T98" t="n">
-        <v>6.81</v>
+        <v>3.32</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/makedonikos-neapolis-apollon-pontou/QyXM5B2I/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ilioupoli-giouchtas/Wb7Gx5t1/</t>
         </is>
       </c>
     </row>
@@ -9497,22 +9497,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Ilioupoli</t>
+          <t>Panachaiki</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Giouchtas</t>
+          <t>Diagoras</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="n">
-        <v>1.97</v>
+        <v>2.77</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -9520,15 +9520,15 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>2.19</v>
+        <v>2.63</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>26/11/2023 13:59</t>
+          <t>26/11/2023 13:40</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>3.02</v>
+        <v>2.87</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -9536,15 +9536,15 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>3.19</v>
+        <v>2.72</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>26/11/2023 13:59</t>
+          <t>26/11/2023 13:40</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>3.62</v>
+        <v>2.47</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
@@ -9552,16 +9552,16 @@
         </is>
       </c>
       <c r="T99" t="n">
-        <v>3.32</v>
+        <v>3.09</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>26/11/2023 13:59</t>
+          <t>26/11/2023 13:40</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ilioupoli-giouchtas/Wb7Gx5t1/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/panachaiki-diagoras-fc/h88CwoRf/</t>
         </is>
       </c>
     </row>
@@ -10141,22 +10141,22 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>PAOK B</t>
+          <t>Giouchtas</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Levadiakos</t>
+          <t>Ionikos</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J106" t="n">
-        <v>4.7</v>
+        <v>3.23</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -10164,15 +10164,15 @@
         </is>
       </c>
       <c r="L106" t="n">
-        <v>6.1</v>
+        <v>3.35</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>03/12/2023 13:52</t>
+          <t>03/12/2023 13:39</t>
         </is>
       </c>
       <c r="N106" t="n">
-        <v>3.28</v>
+        <v>2.8</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
@@ -10180,15 +10180,15 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>3.7</v>
+        <v>2.79</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>03/12/2023 13:52</t>
+          <t>03/12/2023 13:39</t>
         </is>
       </c>
       <c r="R106" t="n">
-        <v>1.7</v>
+        <v>2.28</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
@@ -10196,16 +10196,16 @@
         </is>
       </c>
       <c r="T106" t="n">
-        <v>1.57</v>
+        <v>2.42</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>03/12/2023 13:52</t>
+          <t>03/12/2023 13:39</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/paok-levadiakos/z3SXNhIn/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/giouchtas-ionikos/YFwVHu7U/</t>
         </is>
       </c>
     </row>
@@ -10233,7 +10233,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Giouchtas</t>
+          <t>Ilioupoli</t>
         </is>
       </c>
       <c r="G107" t="n">
@@ -10241,63 +10241,63 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Ionikos</t>
+          <t>PAE Egaleo</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>3.23</v>
+        <v>2.1</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>02/12/2023 02:13</t>
+          <t>02/12/2023 02:42</t>
         </is>
       </c>
       <c r="L107" t="n">
-        <v>3.35</v>
+        <v>1.85</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>03/12/2023 13:39</t>
+          <t>03/12/2023 13:55</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>2.8</v>
+        <v>2.97</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>02/12/2023 02:13</t>
+          <t>02/12/2023 02:42</t>
         </is>
       </c>
       <c r="P107" t="n">
-        <v>2.79</v>
+        <v>3.16</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>03/12/2023 13:39</t>
+          <t>03/12/2023 13:55</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>2.28</v>
+        <v>3.39</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
-          <t>02/12/2023 02:13</t>
+          <t>02/12/2023 02:42</t>
         </is>
       </c>
       <c r="T107" t="n">
-        <v>2.42</v>
+        <v>4.65</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>03/12/2023 13:39</t>
+          <t>03/12/2023 13:55</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/giouchtas-ionikos/YFwVHu7U/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ilioupoli-pae-egaleo/fPvRILiO/</t>
         </is>
       </c>
     </row>
@@ -10325,71 +10325,71 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Ilioupoli</t>
+          <t>Kalamata</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>PAE Egaleo</t>
+          <t>Panachaiki</t>
         </is>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>2.1</v>
+        <v>1.25</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>02/12/2023 02:42</t>
+          <t>02/12/2023 02:13</t>
         </is>
       </c>
       <c r="L108" t="n">
-        <v>1.85</v>
+        <v>1.21</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>03/12/2023 13:55</t>
+          <t>03/12/2023 13:50</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>2.97</v>
+        <v>5.02</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>02/12/2023 02:42</t>
+          <t>02/12/2023 02:13</t>
         </is>
       </c>
       <c r="P108" t="n">
-        <v>3.16</v>
+        <v>5.58</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>03/12/2023 13:55</t>
+          <t>03/12/2023 13:50</t>
         </is>
       </c>
       <c r="R108" t="n">
-        <v>3.39</v>
+        <v>9.9</v>
       </c>
       <c r="S108" t="inlineStr">
         <is>
-          <t>02/12/2023 02:42</t>
+          <t>02/12/2023 02:13</t>
         </is>
       </c>
       <c r="T108" t="n">
-        <v>4.65</v>
+        <v>14.57</v>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>03/12/2023 13:55</t>
+          <t>03/12/2023 13:50</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ilioupoli-pae-egaleo/fPvRILiO/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kalamata-panachaiki/Ct9uxqhn/</t>
         </is>
       </c>
     </row>
@@ -10417,22 +10417,22 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Kalamata</t>
+          <t>Olympiacos Piraeus B</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Panachaiki</t>
+          <t>PAE Chania</t>
         </is>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>1.25</v>
+        <v>2.78</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -10440,48 +10440,48 @@
         </is>
       </c>
       <c r="L109" t="n">
-        <v>1.21</v>
+        <v>4.33</v>
       </c>
       <c r="M109" t="inlineStr">
         <is>
+          <t>03/12/2023 13:52</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>02/12/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P109" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Q109" t="inlineStr">
+        <is>
           <t>03/12/2023 13:50</t>
         </is>
       </c>
-      <c r="N109" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="O109" t="inlineStr">
+      <c r="R109" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S109" t="inlineStr">
         <is>
           <t>02/12/2023 02:13</t>
         </is>
       </c>
-      <c r="P109" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="Q109" t="inlineStr">
+      <c r="T109" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U109" t="inlineStr">
         <is>
           <t>03/12/2023 13:50</t>
         </is>
       </c>
-      <c r="R109" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="S109" t="inlineStr">
-        <is>
-          <t>02/12/2023 02:13</t>
-        </is>
-      </c>
-      <c r="T109" t="n">
-        <v>14.57</v>
-      </c>
-      <c r="U109" t="inlineStr">
-        <is>
-          <t>03/12/2023 13:50</t>
-        </is>
-      </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kalamata-panachaiki/Ct9uxqhn/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/olympiacos-piraeus-pae-chania/02uNJ1xI/</t>
         </is>
       </c>
     </row>
@@ -10509,22 +10509,22 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Olympiacos Piraeus B</t>
+          <t>Panathinaikos B</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>PAE Chania</t>
+          <t>Tilikratis L.</t>
         </is>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="n">
-        <v>2.78</v>
+        <v>1.81</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -10532,15 +10532,15 @@
         </is>
       </c>
       <c r="L110" t="n">
-        <v>4.33</v>
+        <v>1.6</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>03/12/2023 13:52</t>
+          <t>03/12/2023 13:45</t>
         </is>
       </c>
       <c r="N110" t="n">
-        <v>2.77</v>
+        <v>3.18</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
@@ -10548,15 +10548,15 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>3.05</v>
+        <v>3.87</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>03/12/2023 13:50</t>
+          <t>03/12/2023 13:45</t>
         </is>
       </c>
       <c r="R110" t="n">
-        <v>2.6</v>
+        <v>4.19</v>
       </c>
       <c r="S110" t="inlineStr">
         <is>
@@ -10564,16 +10564,16 @@
         </is>
       </c>
       <c r="T110" t="n">
-        <v>1.95</v>
+        <v>5.39</v>
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>03/12/2023 13:50</t>
+          <t>03/12/2023 13:45</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/olympiacos-piraeus-pae-chania/02uNJ1xI/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/panathinaikos-tilikratis-lefkada/YkAywPxt/</t>
         </is>
       </c>
     </row>
@@ -10601,7 +10601,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Panathinaikos B</t>
+          <t>AEK Athens FC B</t>
         </is>
       </c>
       <c r="G111" t="n">
@@ -10609,14 +10609,14 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Tilikratis L.</t>
+          <t>Aiolikos</t>
         </is>
       </c>
       <c r="I111" t="n">
         <v>1</v>
       </c>
       <c r="J111" t="n">
-        <v>1.81</v>
+        <v>2.83</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -10624,15 +10624,15 @@
         </is>
       </c>
       <c r="L111" t="n">
-        <v>1.6</v>
+        <v>2.43</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>03/12/2023 13:45</t>
+          <t>03/12/2023 13:42</t>
         </is>
       </c>
       <c r="N111" t="n">
-        <v>3.18</v>
+        <v>2.72</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
@@ -10640,15 +10640,15 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>3.87</v>
+        <v>2.98</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>03/12/2023 13:45</t>
+          <t>03/12/2023 13:42</t>
         </is>
       </c>
       <c r="R111" t="n">
-        <v>4.19</v>
+        <v>2.61</v>
       </c>
       <c r="S111" t="inlineStr">
         <is>
@@ -10656,16 +10656,16 @@
         </is>
       </c>
       <c r="T111" t="n">
-        <v>5.39</v>
+        <v>3.09</v>
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>03/12/2023 13:45</t>
+          <t>03/12/2023 13:42</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/panathinaikos-tilikratis-lefkada/YkAywPxt/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/aek-aiolikos-fc/fiBzPY2t/</t>
         </is>
       </c>
     </row>
@@ -10693,22 +10693,22 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>AEK Athens FC B</t>
+          <t>AEL Larissa</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Aiolikos</t>
+          <t>Niki Volos</t>
         </is>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>2.83</v>
+        <v>1.86</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -10716,15 +10716,15 @@
         </is>
       </c>
       <c r="L112" t="n">
-        <v>2.43</v>
+        <v>1.88</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>03/12/2023 13:42</t>
+          <t>03/12/2023 13:59</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>2.72</v>
+        <v>2.96</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
@@ -10732,15 +10732,15 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>2.98</v>
+        <v>3.11</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>03/12/2023 13:42</t>
+          <t>03/12/2023 13:59</t>
         </is>
       </c>
       <c r="R112" t="n">
-        <v>2.61</v>
+        <v>4.28</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
@@ -10748,16 +10748,16 @@
         </is>
       </c>
       <c r="T112" t="n">
-        <v>3.09</v>
+        <v>4.59</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>03/12/2023 13:42</t>
+          <t>03/12/2023 13:59</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/aek-aiolikos-fc/fiBzPY2t/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ael-larissa-niki-volos/8GQuMWna/</t>
         </is>
       </c>
     </row>
@@ -10785,22 +10785,22 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>AEL Larissa</t>
+          <t>Apollon Pontou</t>
         </is>
       </c>
       <c r="G113" t="n">
+        <v>2</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Karditsa</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
         <v>1</v>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>Niki Volos</t>
-        </is>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
       <c r="J113" t="n">
-        <v>1.86</v>
+        <v>3.51</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -10808,15 +10808,15 @@
         </is>
       </c>
       <c r="L113" t="n">
-        <v>1.88</v>
+        <v>3.95</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>03/12/2023 13:59</t>
+          <t>03/12/2023 13:33</t>
         </is>
       </c>
       <c r="N113" t="n">
-        <v>2.96</v>
+        <v>2.83</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
@@ -10824,15 +10824,15 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>3.11</v>
+        <v>2.85</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>03/12/2023 13:59</t>
+          <t>03/12/2023 13:33</t>
         </is>
       </c>
       <c r="R113" t="n">
-        <v>4.28</v>
+        <v>2.14</v>
       </c>
       <c r="S113" t="inlineStr">
         <is>
@@ -10840,16 +10840,16 @@
         </is>
       </c>
       <c r="T113" t="n">
-        <v>4.59</v>
+        <v>2.14</v>
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>03/12/2023 13:59</t>
+          <t>03/12/2023 13:33</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ael-larissa-niki-volos/8GQuMWna/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/apollon-pontou-karditsa/MJUqLj25/</t>
         </is>
       </c>
     </row>
@@ -10877,22 +10877,22 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Apollon Pontou</t>
+          <t>Iraklis 1908</t>
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Karditsa</t>
+          <t>Kozani FC</t>
         </is>
       </c>
       <c r="I114" t="n">
         <v>1</v>
       </c>
       <c r="J114" t="n">
-        <v>3.51</v>
+        <v>1.75</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -10900,15 +10900,15 @@
         </is>
       </c>
       <c r="L114" t="n">
-        <v>3.95</v>
+        <v>1.91</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>03/12/2023 13:33</t>
+          <t>03/12/2023 13:50</t>
         </is>
       </c>
       <c r="N114" t="n">
-        <v>2.83</v>
+        <v>3.12</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
@@ -10916,15 +10916,15 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>2.85</v>
+        <v>3.12</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>03/12/2023 13:33</t>
+          <t>03/12/2023 13:50</t>
         </is>
       </c>
       <c r="R114" t="n">
-        <v>2.14</v>
+        <v>4.71</v>
       </c>
       <c r="S114" t="inlineStr">
         <is>
@@ -10932,16 +10932,16 @@
         </is>
       </c>
       <c r="T114" t="n">
-        <v>2.14</v>
+        <v>4.4</v>
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>03/12/2023 13:33</t>
+          <t>03/12/2023 13:50</t>
         </is>
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/apollon-pontou-karditsa/MJUqLj25/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/iraklis-fc-kozani-fc/hrP8TEfP/</t>
         </is>
       </c>
     </row>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Iraklis 1908</t>
+          <t>PAOK B</t>
         </is>
       </c>
       <c r="G115" t="n">
@@ -10977,14 +10977,14 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Kozani FC</t>
+          <t>Levadiakos</t>
         </is>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J115" t="n">
-        <v>1.75</v>
+        <v>4.7</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -10992,15 +10992,15 @@
         </is>
       </c>
       <c r="L115" t="n">
-        <v>1.91</v>
+        <v>6.1</v>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>03/12/2023 13:50</t>
+          <t>03/12/2023 13:52</t>
         </is>
       </c>
       <c r="N115" t="n">
-        <v>3.12</v>
+        <v>3.28</v>
       </c>
       <c r="O115" t="inlineStr">
         <is>
@@ -11008,15 +11008,15 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>3.12</v>
+        <v>3.7</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>03/12/2023 13:50</t>
+          <t>03/12/2023 13:52</t>
         </is>
       </c>
       <c r="R115" t="n">
-        <v>4.71</v>
+        <v>1.7</v>
       </c>
       <c r="S115" t="inlineStr">
         <is>
@@ -11024,16 +11024,16 @@
         </is>
       </c>
       <c r="T115" t="n">
-        <v>4.4</v>
+        <v>1.57</v>
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>03/12/2023 13:50</t>
+          <t>03/12/2023 13:52</t>
         </is>
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/iraklis-fc-kozani-fc/hrP8TEfP/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/paok-levadiakos/z3SXNhIn/</t>
         </is>
       </c>
     </row>
@@ -11429,71 +11429,71 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Athens Kallithea</t>
+          <t>Karditsa</t>
         </is>
       </c>
       <c r="G120" t="n">
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Kampaniakos</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
         <v>1</v>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>Kalamata</t>
-        </is>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
       <c r="J120" t="n">
-        <v>1.81</v>
+        <v>1.59</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>09/12/2023 02:12</t>
+          <t>09/12/2023 02:13</t>
         </is>
       </c>
       <c r="L120" t="n">
-        <v>2.1</v>
+        <v>1.78</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>10/12/2023 13:38</t>
+          <t>10/12/2023 13:57</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>2.99</v>
+        <v>3.45</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>09/12/2023 02:12</t>
+          <t>09/12/2023 02:13</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>2.86</v>
+        <v>3.23</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>10/12/2023 13:38</t>
+          <t>10/12/2023 13:57</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>4.56</v>
+        <v>5.3</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
-          <t>09/12/2023 02:12</t>
+          <t>09/12/2023 02:13</t>
         </is>
       </c>
       <c r="T120" t="n">
-        <v>4.09</v>
+        <v>5.01</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>10/12/2023 13:38</t>
+          <t>10/12/2023 13:57</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/athens-kallithea-kalamata/8KYRfH7p/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-kampaniakos/jwP8P5gi/</t>
         </is>
       </c>
     </row>
@@ -11521,71 +11521,71 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Tilikratis L.</t>
+          <t>Aiolikos</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Giouchtas</t>
+          <t>Iraklis 1908</t>
         </is>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="n">
-        <v>3.25</v>
+        <v>2.99</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>09/12/2023 02:13</t>
+          <t>09/12/2023 02:12</t>
         </is>
       </c>
       <c r="L121" t="n">
-        <v>3.21</v>
+        <v>3.46</v>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>10/12/2023 13:17</t>
+          <t>10/12/2023 13:58</t>
         </is>
       </c>
       <c r="N121" t="n">
-        <v>2.94</v>
+        <v>2.76</v>
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>09/12/2023 02:13</t>
+          <t>09/12/2023 02:12</t>
         </is>
       </c>
       <c r="P121" t="n">
-        <v>3.03</v>
+        <v>3.02</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>10/12/2023 13:17</t>
+          <t>10/12/2023 13:58</t>
         </is>
       </c>
       <c r="R121" t="n">
-        <v>2.18</v>
+        <v>2.44</v>
       </c>
       <c r="S121" t="inlineStr">
         <is>
-          <t>09/12/2023 02:13</t>
+          <t>09/12/2023 02:12</t>
         </is>
       </c>
       <c r="T121" t="n">
-        <v>2.33</v>
+        <v>2.21</v>
       </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>10/12/2023 13:17</t>
+          <t>10/12/2023 13:58</t>
         </is>
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/tilikratis-lefkada-giouchtas/nwxes3fR/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/aiolikos-fc-iraklis-fc/rZIhJUWH/</t>
         </is>
       </c>
     </row>
@@ -11613,7 +11613,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Aiolikos</t>
+          <t>Athens Kallithea</t>
         </is>
       </c>
       <c r="G122" t="n">
@@ -11621,63 +11621,63 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Iraklis 1908</t>
+          <t>Kalamata</t>
         </is>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>09/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>10/12/2023 13:38</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>2.99</v>
       </c>
-      <c r="K122" t="inlineStr">
+      <c r="O122" t="inlineStr">
         <is>
           <t>09/12/2023 02:12</t>
         </is>
       </c>
-      <c r="L122" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="M122" t="inlineStr">
-        <is>
-          <t>10/12/2023 13:58</t>
-        </is>
-      </c>
-      <c r="N122" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="O122" t="inlineStr">
+      <c r="P122" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="Q122" t="inlineStr">
+        <is>
+          <t>10/12/2023 13:38</t>
+        </is>
+      </c>
+      <c r="R122" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="S122" t="inlineStr">
         <is>
           <t>09/12/2023 02:12</t>
         </is>
       </c>
-      <c r="P122" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="Q122" t="inlineStr">
-        <is>
-          <t>10/12/2023 13:58</t>
-        </is>
-      </c>
-      <c r="R122" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="S122" t="inlineStr">
-        <is>
-          <t>09/12/2023 02:12</t>
-        </is>
-      </c>
       <c r="T122" t="n">
-        <v>2.21</v>
+        <v>4.09</v>
       </c>
       <c r="U122" t="inlineStr">
         <is>
-          <t>10/12/2023 13:58</t>
+          <t>10/12/2023 13:38</t>
         </is>
       </c>
       <c r="V122" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/aiolikos-fc-iraklis-fc/rZIhJUWH/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/athens-kallithea-kalamata/8KYRfH7p/</t>
         </is>
       </c>
     </row>
@@ -11705,7 +11705,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Karditsa</t>
+          <t>Tilikratis L.</t>
         </is>
       </c>
       <c r="G123" t="n">
@@ -11713,14 +11713,14 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Kampaniakos</t>
+          <t>Giouchtas</t>
         </is>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" t="n">
-        <v>1.59</v>
+        <v>3.25</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -11728,15 +11728,15 @@
         </is>
       </c>
       <c r="L123" t="n">
-        <v>1.78</v>
+        <v>3.21</v>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>10/12/2023 13:57</t>
+          <t>10/12/2023 13:17</t>
         </is>
       </c>
       <c r="N123" t="n">
-        <v>3.45</v>
+        <v>2.94</v>
       </c>
       <c r="O123" t="inlineStr">
         <is>
@@ -11744,15 +11744,15 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>3.23</v>
+        <v>3.03</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>10/12/2023 13:57</t>
+          <t>10/12/2023 13:17</t>
         </is>
       </c>
       <c r="R123" t="n">
-        <v>5.3</v>
+        <v>2.18</v>
       </c>
       <c r="S123" t="inlineStr">
         <is>
@@ -11760,16 +11760,16 @@
         </is>
       </c>
       <c r="T123" t="n">
-        <v>5.01</v>
+        <v>2.33</v>
       </c>
       <c r="U123" t="inlineStr">
         <is>
-          <t>10/12/2023 13:57</t>
+          <t>10/12/2023 13:17</t>
         </is>
       </c>
       <c r="V123" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-kampaniakos/jwP8P5gi/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/tilikratis-lefkada-giouchtas/nwxes3fR/</t>
         </is>
       </c>
     </row>
@@ -12165,7 +12165,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Kalamata</t>
+          <t>Kampaniakos</t>
         </is>
       </c>
       <c r="G128" t="n">
@@ -12173,14 +12173,14 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Panathinaikos B</t>
+          <t>AEL Larissa</t>
         </is>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J128" t="n">
-        <v>1.25</v>
+        <v>6.83</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -12188,15 +12188,15 @@
         </is>
       </c>
       <c r="L128" t="n">
-        <v>1.23</v>
+        <v>9.07</v>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>16/12/2023 13:59</t>
+          <t>16/12/2023 13:57</t>
         </is>
       </c>
       <c r="N128" t="n">
-        <v>4.89</v>
+        <v>3.73</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
@@ -12204,15 +12204,15 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>5.6</v>
+        <v>4.29</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>16/12/2023 13:59</t>
+          <t>16/12/2023 13:57</t>
         </is>
       </c>
       <c r="R128" t="n">
-        <v>10.18</v>
+        <v>1.45</v>
       </c>
       <c r="S128" t="inlineStr">
         <is>
@@ -12220,16 +12220,16 @@
         </is>
       </c>
       <c r="T128" t="n">
-        <v>11.89</v>
+        <v>1.38</v>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>16/12/2023 13:59</t>
+          <t>16/12/2023 13:50</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kalamata-panathinaikos/KQzMZ7BM/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kampaniakos-ael-larissa/lnQbFLVq/</t>
         </is>
       </c>
     </row>
@@ -12349,7 +12349,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Kampaniakos</t>
+          <t>Kalamata</t>
         </is>
       </c>
       <c r="G130" t="n">
@@ -12357,14 +12357,14 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>AEL Larissa</t>
+          <t>Panathinaikos B</t>
         </is>
       </c>
       <c r="I130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J130" t="n">
-        <v>6.83</v>
+        <v>1.25</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -12372,15 +12372,15 @@
         </is>
       </c>
       <c r="L130" t="n">
-        <v>9.07</v>
+        <v>1.23</v>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>16/12/2023 13:57</t>
+          <t>16/12/2023 13:59</t>
         </is>
       </c>
       <c r="N130" t="n">
-        <v>3.73</v>
+        <v>4.89</v>
       </c>
       <c r="O130" t="inlineStr">
         <is>
@@ -12388,15 +12388,15 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>4.29</v>
+        <v>5.6</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>16/12/2023 13:57</t>
+          <t>16/12/2023 13:59</t>
         </is>
       </c>
       <c r="R130" t="n">
-        <v>1.45</v>
+        <v>10.18</v>
       </c>
       <c r="S130" t="inlineStr">
         <is>
@@ -12404,16 +12404,16 @@
         </is>
       </c>
       <c r="T130" t="n">
-        <v>1.38</v>
+        <v>11.89</v>
       </c>
       <c r="U130" t="inlineStr">
         <is>
-          <t>16/12/2023 13:50</t>
+          <t>16/12/2023 13:59</t>
         </is>
       </c>
       <c r="V130" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kampaniakos-ael-larissa/lnQbFLVq/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kalamata-panathinaikos/KQzMZ7BM/</t>
         </is>
       </c>
     </row>
@@ -13058,6 +13058,98 @@
       <c r="V137" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/greece/super-league-2/pae-egaleo-tilikratis-lefkada/2kQQYRQS/</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>45279.66666666666</v>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>PAE Chania</t>
+        </is>
+      </c>
+      <c r="G138" t="n">
+        <v>1</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Ionikos</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
+        <v>1</v>
+      </c>
+      <c r="J138" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>18/12/2023 04:12</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>19/12/2023 15:58</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>18/12/2023 04:12</t>
+        </is>
+      </c>
+      <c r="P138" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="Q138" t="inlineStr">
+        <is>
+          <t>19/12/2023 15:58</t>
+        </is>
+      </c>
+      <c r="R138" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="S138" t="inlineStr">
+        <is>
+          <t>18/12/2023 04:12</t>
+        </is>
+      </c>
+      <c r="T138" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="U138" t="inlineStr">
+        <is>
+          <t>19/12/2023 15:58</t>
+        </is>
+      </c>
+      <c r="V138" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/pae-chania-ionikos/6NWHzldG/</t>
         </is>
       </c>
     </row>

--- a/2023/greece_super-league-2_2023-2024.xlsx
+++ b/2023/greece_super-league-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V138"/>
+  <dimension ref="A1:V141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3517,22 +3517,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Ionikos</t>
+          <t>PAOK B</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Tilikratis L.</t>
+          <t>Aiolikos</t>
         </is>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>1.3</v>
+        <v>1.57</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,15 +3540,15 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>1.22</v>
+        <v>1.75</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>21/10/2023 12:52</t>
+          <t>21/10/2023 14:43</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>4.55</v>
+        <v>3.91</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3556,15 +3556,15 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>5.42</v>
+        <v>3.66</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>21/10/2023 13:02</t>
+          <t>21/10/2023 14:43</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>10.53</v>
+        <v>5.06</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -3572,16 +3572,16 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>14.23</v>
+        <v>4.44</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>21/10/2023 12:52</t>
+          <t>21/10/2023 14:43</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ionikos-tilikratis-lefkada/hry7rFPN/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/paok-aiolikos-fc/fyiX48y2/</t>
         </is>
       </c>
     </row>
@@ -3609,22 +3609,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>PAOK B</t>
+          <t>Ionikos</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aiolikos</t>
+          <t>Tilikratis L.</t>
         </is>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>1.57</v>
+        <v>1.3</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,15 +3632,15 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.75</v>
+        <v>1.22</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>21/10/2023 14:43</t>
+          <t>21/10/2023 12:52</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.91</v>
+        <v>4.55</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3648,15 +3648,15 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.66</v>
+        <v>5.42</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>21/10/2023 14:43</t>
+          <t>21/10/2023 13:02</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>5.06</v>
+        <v>10.53</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -3664,16 +3664,16 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>4.44</v>
+        <v>14.23</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>21/10/2023 14:43</t>
+          <t>21/10/2023 12:52</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/paok-aiolikos-fc/fyiX48y2/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ionikos-tilikratis-lefkada/hry7rFPN/</t>
         </is>
       </c>
     </row>
@@ -4621,7 +4621,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Giouchtas</t>
+          <t>Levadiakos</t>
         </is>
       </c>
       <c r="G46" t="n">
@@ -4629,14 +4629,14 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Panathinaikos B</t>
+          <t>AEK Athens FC B</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>1.83</v>
+        <v>1.3</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,7 +4644,7 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>1.91</v>
+        <v>1.36</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -4652,7 +4652,7 @@
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.35</v>
+        <v>4.78</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4660,7 +4660,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.24</v>
+        <v>4.28</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4668,7 +4668,7 @@
         </is>
       </c>
       <c r="R46" t="n">
-        <v>4.09</v>
+        <v>9.51</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>4.19</v>
+        <v>9.83</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/giouchtas-panathinaikos/AJ7XbzA4/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/levadiakos-aek/xbk08srf/</t>
         </is>
       </c>
     </row>
@@ -4713,71 +4713,71 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Levadiakos</t>
+          <t>PAE Egaleo</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>AEK Athens FC B</t>
+          <t>Athens Kallithea</t>
         </is>
       </c>
       <c r="I47" t="n">
         <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>1.3</v>
+        <v>4.46</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>28/10/2023 01:12</t>
+          <t>27/10/2023 02:13</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>1.36</v>
+        <v>7.03</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>28/10/2023 13:55</t>
+          <t>28/10/2023 12:23</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>4.78</v>
+        <v>3.12</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>28/10/2023 01:12</t>
+          <t>27/10/2023 02:13</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>4.28</v>
+        <v>3.72</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>28/10/2023 13:55</t>
+          <t>28/10/2023 12:23</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>9.51</v>
+        <v>1.75</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>28/10/2023 01:12</t>
+          <t>27/10/2023 02:13</t>
         </is>
       </c>
       <c r="T47" t="n">
-        <v>9.83</v>
+        <v>1.52</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>28/10/2023 13:55</t>
+          <t>28/10/2023 12:23</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/levadiakos-aek/xbk08srf/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/pae-egaleo-athens-kallithea/WYetcEvH/</t>
         </is>
       </c>
     </row>
@@ -4805,22 +4805,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>PAE Egaleo</t>
+          <t>PAE Chania</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Athens Kallithea</t>
+          <t>Panachaiki</t>
         </is>
       </c>
       <c r="I48" t="n">
         <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>4.46</v>
+        <v>1.42</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>7.03</v>
+        <v>1.22</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>28/10/2023 12:23</t>
+          <t>28/10/2023 13:34</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.12</v>
+        <v>4.07</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.72</v>
+        <v>5.62</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>28/10/2023 12:23</t>
+          <t>28/10/2023 13:58</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>1.75</v>
+        <v>6.07</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>1.52</v>
+        <v>14.35</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>28/10/2023 12:23</t>
+          <t>28/10/2023 13:58</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/pae-egaleo-athens-kallithea/WYetcEvH/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/pae-chania-panachaiki/xYNDv6Ok/</t>
         </is>
       </c>
     </row>
@@ -4897,71 +4897,71 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>PAE Chania</t>
+          <t>Giouchtas</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Panachaiki</t>
+          <t>Panathinaikos B</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>1.42</v>
+        <v>1.83</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>27/10/2023 02:13</t>
+          <t>28/10/2023 01:12</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>1.22</v>
+        <v>1.91</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>28/10/2023 13:34</t>
+          <t>28/10/2023 13:55</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>4.07</v>
+        <v>3.35</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>27/10/2023 02:13</t>
+          <t>28/10/2023 01:12</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>5.62</v>
+        <v>3.24</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>28/10/2023 13:58</t>
+          <t>28/10/2023 13:55</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>6.07</v>
+        <v>4.09</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>27/10/2023 02:13</t>
+          <t>28/10/2023 01:12</t>
         </is>
       </c>
       <c r="T49" t="n">
-        <v>14.35</v>
+        <v>4.19</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>28/10/2023 13:58</t>
+          <t>28/10/2023 13:55</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/pae-chania-panachaiki/xYNDv6Ok/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/giouchtas-panathinaikos/AJ7XbzA4/</t>
         </is>
       </c>
     </row>
@@ -5173,22 +5173,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Makedonikos</t>
+          <t>Karditsa</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>PAOK B</t>
+          <t>AEL Larissa</t>
         </is>
       </c>
       <c r="I52" t="n">
         <v>2</v>
       </c>
       <c r="J52" t="n">
-        <v>1.95</v>
+        <v>3.52</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>1.94</v>
+        <v>3.94</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>29/10/2023 13:59</t>
+          <t>29/10/2023 13:57</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.06</v>
+        <v>2.91</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.16</v>
+        <v>3.08</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>29/10/2023 13:59</t>
+          <t>29/10/2023 13:57</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>3.62</v>
+        <v>2.05</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>4.14</v>
+        <v>2.03</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>29/10/2023 13:59</t>
+          <t>29/10/2023 13:57</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/makedonikos-neapolis-paok/b7jd9NSm/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-ael-larissa/46YNRVrF/</t>
         </is>
       </c>
     </row>
@@ -5265,22 +5265,22 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Karditsa</t>
+          <t>Makedonikos</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>AEL Larissa</t>
+          <t>PAOK B</t>
         </is>
       </c>
       <c r="I53" t="n">
         <v>2</v>
       </c>
       <c r="J53" t="n">
-        <v>3.52</v>
+        <v>1.95</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -5288,15 +5288,15 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>3.94</v>
+        <v>1.94</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>29/10/2023 13:57</t>
+          <t>29/10/2023 13:59</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>2.91</v>
+        <v>3.06</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -5304,15 +5304,15 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.08</v>
+        <v>3.16</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>29/10/2023 13:57</t>
+          <t>29/10/2023 13:59</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>2.05</v>
+        <v>3.62</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
@@ -5320,16 +5320,16 @@
         </is>
       </c>
       <c r="T53" t="n">
-        <v>2.03</v>
+        <v>4.14</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>29/10/2023 13:57</t>
+          <t>29/10/2023 13:59</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-ael-larissa/46YNRVrF/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/makedonikos-neapolis-paok/b7jd9NSm/</t>
         </is>
       </c>
     </row>
@@ -5725,71 +5725,71 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Ilioupoli</t>
+          <t>Iraklis 1908</t>
         </is>
       </c>
       <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Levadiakos</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
         <v>1</v>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Panachaiki</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
       <c r="J58" t="n">
-        <v>1.66</v>
+        <v>3.01</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>03/11/2023 02:13</t>
+          <t>04/11/2023 05:12</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>1.38</v>
+        <v>3.53</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>04/11/2023 13:44</t>
+          <t>04/11/2023 13:55</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.48</v>
+        <v>2.91</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>03/11/2023 02:13</t>
+          <t>04/11/2023 05:12</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>4.36</v>
+        <v>3</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>04/11/2023 13:48</t>
+          <t>04/11/2023 13:55</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>4.41</v>
+        <v>2.42</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>03/11/2023 02:13</t>
+          <t>04/11/2023 05:12</t>
         </is>
       </c>
       <c r="T58" t="n">
-        <v>8.41</v>
+        <v>2.2</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>04/11/2023 13:44</t>
+          <t>04/11/2023 13:55</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ilioupoli-panachaiki/GbFoZVZ8/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/iraklis-fc-levadiakos/IRm2S2ZP/</t>
         </is>
       </c>
     </row>
@@ -5817,71 +5817,71 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Iraklis 1908</t>
+          <t>PAOK B</t>
         </is>
       </c>
       <c r="G59" t="n">
+        <v>2</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Karditsa</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Levadiakos</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
-        <v>1</v>
-      </c>
       <c r="J59" t="n">
-        <v>3.01</v>
+        <v>1.99</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>04/11/2023 05:12</t>
+          <t>03/11/2023 02:13</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>3.53</v>
+        <v>2.38</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>04/11/2023 13:55</t>
+          <t>04/11/2023 12:04</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>2.91</v>
+        <v>3.12</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>04/11/2023 05:12</t>
+          <t>03/11/2023 02:13</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3</v>
+        <v>2.89</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>04/11/2023 13:55</t>
+          <t>04/11/2023 12:04</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>2.42</v>
+        <v>3.44</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>04/11/2023 05:12</t>
+          <t>03/11/2023 02:13</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>2.2</v>
+        <v>3.27</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>04/11/2023 13:55</t>
+          <t>04/11/2023 12:04</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/iraklis-fc-levadiakos/IRm2S2ZP/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/paok-karditsa/jLeG4asJ/</t>
         </is>
       </c>
     </row>
@@ -5909,22 +5909,22 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>PAOK B</t>
+          <t>Ilioupoli</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Karditsa</t>
+          <t>Panachaiki</t>
         </is>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>1.99</v>
+        <v>1.66</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,15 +5932,15 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2.38</v>
+        <v>1.38</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>04/11/2023 12:04</t>
+          <t>04/11/2023 13:44</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.12</v>
+        <v>3.48</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5948,15 +5948,15 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>2.89</v>
+        <v>4.36</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>04/11/2023 12:04</t>
+          <t>04/11/2023 13:48</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>3.44</v>
+        <v>4.41</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>3.27</v>
+        <v>8.41</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>04/11/2023 12:04</t>
+          <t>04/11/2023 13:44</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/paok-karditsa/jLeG4asJ/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ilioupoli-panachaiki/GbFoZVZ8/</t>
         </is>
       </c>
     </row>
@@ -6921,71 +6921,71 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>AEL Larissa</t>
+          <t>Kalamata</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>PAOK B</t>
+          <t>Tilikratis L.</t>
         </is>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>1.43</v>
+        <v>1.13</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>10/11/2023 02:13</t>
+          <t>11/11/2023 12:01</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>11/11/2023 13:40</t>
+          <t>11/11/2023 12:01</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.99</v>
+        <v>7.63</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>10/11/2023 02:13</t>
+          <t>11/11/2023 12:01</t>
         </is>
       </c>
       <c r="P71" t="n">
-        <v>4.69</v>
+        <v>7.63</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>11/11/2023 13:40</t>
+          <t>11/11/2023 12:01</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>6.04</v>
+        <v>18.11</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>10/11/2023 02:13</t>
+          <t>11/11/2023 12:01</t>
         </is>
       </c>
       <c r="T71" t="n">
-        <v>9.68</v>
+        <v>18.11</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>11/11/2023 13:40</t>
+          <t>11/11/2023 12:01</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ael-larissa-paok/WYTxM0Cg/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kalamata-tilikratis-lefkada/6m8bWTJR/</t>
         </is>
       </c>
     </row>
@@ -7013,71 +7013,71 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Kalamata</t>
+          <t>AEL Larissa</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Tilikratis L.</t>
+          <t>PAOK B</t>
         </is>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>1.13</v>
+        <v>1.43</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>11/11/2023 12:01</t>
+          <t>10/11/2023 02:13</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>11/11/2023 12:01</t>
+          <t>11/11/2023 13:40</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>7.63</v>
+        <v>3.99</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>11/11/2023 12:01</t>
+          <t>10/11/2023 02:13</t>
         </is>
       </c>
       <c r="P72" t="n">
-        <v>7.63</v>
+        <v>4.69</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>11/11/2023 12:01</t>
+          <t>11/11/2023 13:40</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>18.11</v>
+        <v>6.04</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>11/11/2023 12:01</t>
+          <t>10/11/2023 02:13</t>
         </is>
       </c>
       <c r="T72" t="n">
-        <v>18.11</v>
+        <v>9.68</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>11/11/2023 12:01</t>
+          <t>11/11/2023 13:40</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kalamata-tilikratis-lefkada/6m8bWTJR/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ael-larissa-paok/WYTxM0Cg/</t>
         </is>
       </c>
     </row>
@@ -7657,7 +7657,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Aiolikos</t>
+          <t>Iraklis 1908</t>
         </is>
       </c>
       <c r="G79" t="n">
@@ -7665,63 +7665,63 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Niki Volos</t>
+          <t>Apollon Pontou</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>4.13</v>
+        <v>1.3</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>14/11/2023 15:18</t>
+          <t>14/11/2023 02:12</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>3.66</v>
+        <v>1.42</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>15/11/2023 13:38</t>
+          <t>15/11/2023 12:58</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.43</v>
+        <v>4.59</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>14/11/2023 15:18</t>
+          <t>14/11/2023 02:12</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.18</v>
+        <v>4.2</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>15/11/2023 12:23</t>
+          <t>15/11/2023 12:58</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>1.83</v>
+        <v>7.84</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>14/11/2023 15:18</t>
+          <t>14/11/2023 02:12</t>
         </is>
       </c>
       <c r="T79" t="n">
-        <v>2.07</v>
+        <v>7.94</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>15/11/2023 13:38</t>
+          <t>15/11/2023 12:58</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/aiolikos-fc-niki-volos/rgFWffl0/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/iraklis-fc-apollon-pontou/0UPRezZg/</t>
         </is>
       </c>
     </row>
@@ -7749,7 +7749,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Iraklis 1908</t>
+          <t>Aiolikos</t>
         </is>
       </c>
       <c r="G80" t="n">
@@ -7757,63 +7757,63 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Apollon Pontou</t>
+          <t>Niki Volos</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J80" t="n">
-        <v>1.3</v>
+        <v>4.13</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>14/11/2023 02:12</t>
+          <t>14/11/2023 15:18</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>1.42</v>
+        <v>3.66</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>15/11/2023 12:58</t>
+          <t>15/11/2023 13:38</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>4.59</v>
+        <v>3.43</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>14/11/2023 02:12</t>
+          <t>14/11/2023 15:18</t>
         </is>
       </c>
       <c r="P80" t="n">
-        <v>4.2</v>
+        <v>3.18</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>15/11/2023 12:58</t>
+          <t>15/11/2023 12:23</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>7.84</v>
+        <v>1.83</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>14/11/2023 02:12</t>
+          <t>14/11/2023 15:18</t>
         </is>
       </c>
       <c r="T80" t="n">
-        <v>7.94</v>
+        <v>2.07</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>15/11/2023 12:58</t>
+          <t>15/11/2023 13:38</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/iraklis-fc-apollon-pontou/0UPRezZg/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/aiolikos-fc-niki-volos/rgFWffl0/</t>
         </is>
       </c>
     </row>
@@ -8025,7 +8025,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Karditsa</t>
+          <t>Tilikratis L.</t>
         </is>
       </c>
       <c r="G83" t="n">
@@ -8033,14 +8033,14 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Levadiakos</t>
+          <t>Panachaiki</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J83" t="n">
-        <v>4.29</v>
+        <v>2.27</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8048,15 +8048,15 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>5.74</v>
+        <v>2.31</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>19/11/2023 13:50</t>
+          <t>19/11/2023 13:54</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.08</v>
+        <v>2.92</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -8064,15 +8064,15 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.31</v>
+        <v>2.95</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>19/11/2023 13:50</t>
+          <t>19/11/2023 13:54</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>1.79</v>
+        <v>3.02</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
@@ -8080,16 +8080,16 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>1.68</v>
+        <v>3.35</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>19/11/2023 13:50</t>
+          <t>19/11/2023 13:51</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-levadiakos/2cncBFYt/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/tilikratis-lefkada-panachaiki/rZYSo9JE/</t>
         </is>
       </c>
     </row>
@@ -8117,71 +8117,71 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Apollon Pontou</t>
+          <t>Kalamata</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aiolikos</t>
+          <t>Diagoras</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J84" t="n">
-        <v>2.77</v>
+        <v>1.3</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>19/11/2023 03:12</t>
+          <t>18/11/2023 02:12</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>2.89</v>
+        <v>1.26</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>19/11/2023 13:41</t>
+          <t>19/11/2023 13:49</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>2.87</v>
+        <v>4.57</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>19/11/2023 03:12</t>
+          <t>18/11/2023 02:12</t>
         </is>
       </c>
       <c r="P84" t="n">
-        <v>2.85</v>
+        <v>5.23</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>19/11/2023 13:24</t>
+          <t>19/11/2023 13:56</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>2.65</v>
+        <v>8.08</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>19/11/2023 03:12</t>
+          <t>18/11/2023 02:12</t>
         </is>
       </c>
       <c r="T84" t="n">
-        <v>2.67</v>
+        <v>12.07</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>19/11/2023 13:41</t>
+          <t>19/11/2023 13:56</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/apollon-pontou-aiolikos-fc/pIaVFeQP/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kalamata-diagoras-fc/xxnsO5R7/</t>
         </is>
       </c>
     </row>
@@ -8209,71 +8209,71 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Tilikratis L.</t>
+          <t>Apollon Pontou</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Panachaiki</t>
+          <t>Aiolikos</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>2.27</v>
+        <v>2.77</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>18/11/2023 02:12</t>
+          <t>19/11/2023 03:12</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>2.31</v>
+        <v>2.89</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>19/11/2023 13:54</t>
+          <t>19/11/2023 13:41</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>2.92</v>
+        <v>2.87</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>18/11/2023 02:12</t>
+          <t>19/11/2023 03:12</t>
         </is>
       </c>
       <c r="P85" t="n">
-        <v>2.95</v>
+        <v>2.85</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>19/11/2023 13:54</t>
+          <t>19/11/2023 13:24</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>3.02</v>
+        <v>2.65</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>18/11/2023 02:12</t>
+          <t>19/11/2023 03:12</t>
         </is>
       </c>
       <c r="T85" t="n">
-        <v>3.35</v>
+        <v>2.67</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>19/11/2023 13:51</t>
+          <t>19/11/2023 13:41</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/tilikratis-lefkada-panachaiki/rZYSo9JE/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/apollon-pontou-aiolikos-fc/pIaVFeQP/</t>
         </is>
       </c>
     </row>
@@ -8301,22 +8301,22 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Kampaniakos</t>
+          <t>Giouchtas</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Iraklis 1908</t>
+          <t>PAE Chania</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>3.87</v>
+        <v>3.28</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,15 +8324,15 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>4.12</v>
+        <v>3.93</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>19/11/2023 12:04</t>
+          <t>19/11/2023 13:14</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.15</v>
+        <v>2.86</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,15 +8340,15 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.11</v>
+        <v>3.05</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>19/11/2023 12:52</t>
+          <t>19/11/2023 12:51</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>1.85</v>
+        <v>2.17</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,16 +8356,16 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>1.97</v>
+        <v>2.04</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>19/11/2023 12:52</t>
+          <t>19/11/2023 13:14</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kampaniakos-iraklis-fc/6R0RGyBJ/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/giouchtas-pae-chania/4rzPnk48/</t>
         </is>
       </c>
     </row>
@@ -8393,22 +8393,22 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Ionikos</t>
+          <t>Kampaniakos</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Athens Kallithea</t>
+          <t>Iraklis 1908</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J87" t="n">
-        <v>3.12</v>
+        <v>3.87</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,15 +8416,15 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.89</v>
+        <v>4.12</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>19/11/2023 13:29</t>
+          <t>19/11/2023 12:04</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>2.85</v>
+        <v>3.15</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,15 +8432,15 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>2.91</v>
+        <v>3.11</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>19/11/2023 13:29</t>
+          <t>19/11/2023 12:52</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>2.26</v>
+        <v>1.85</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,16 +8448,16 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>2.62</v>
+        <v>1.97</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>19/11/2023 13:29</t>
+          <t>19/11/2023 12:52</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ionikos-athens-kallithea/v1SypmlR/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kampaniakos-iraklis-fc/6R0RGyBJ/</t>
         </is>
       </c>
     </row>
@@ -8485,7 +8485,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Giouchtas</t>
+          <t>Ionikos</t>
         </is>
       </c>
       <c r="G88" t="n">
@@ -8493,14 +8493,14 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>PAE Chania</t>
+          <t>Athens Kallithea</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="n">
-        <v>3.28</v>
+        <v>3.12</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -8508,15 +8508,15 @@
         </is>
       </c>
       <c r="L88" t="n">
-        <v>3.93</v>
+        <v>2.89</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>19/11/2023 13:14</t>
+          <t>19/11/2023 13:29</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>2.86</v>
+        <v>2.85</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -8524,15 +8524,15 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>3.05</v>
+        <v>2.91</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>19/11/2023 12:51</t>
+          <t>19/11/2023 13:29</t>
         </is>
       </c>
       <c r="R88" t="n">
-        <v>2.17</v>
+        <v>2.26</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
@@ -8540,16 +8540,16 @@
         </is>
       </c>
       <c r="T88" t="n">
-        <v>2.04</v>
+        <v>2.62</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>19/11/2023 13:14</t>
+          <t>19/11/2023 13:29</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/giouchtas-pae-chania/4rzPnk48/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ionikos-athens-kallithea/v1SypmlR/</t>
         </is>
       </c>
     </row>
@@ -8577,22 +8577,22 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Kalamata</t>
+          <t>Karditsa</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Diagoras</t>
+          <t>Levadiakos</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>1.3</v>
+        <v>4.29</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -8600,15 +8600,15 @@
         </is>
       </c>
       <c r="L89" t="n">
-        <v>1.26</v>
+        <v>5.74</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>19/11/2023 13:49</t>
+          <t>19/11/2023 13:50</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>4.57</v>
+        <v>3.08</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -8616,15 +8616,15 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>5.23</v>
+        <v>3.31</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>19/11/2023 13:56</t>
+          <t>19/11/2023 13:50</t>
         </is>
       </c>
       <c r="R89" t="n">
-        <v>8.08</v>
+        <v>1.79</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
@@ -8632,16 +8632,16 @@
         </is>
       </c>
       <c r="T89" t="n">
-        <v>12.07</v>
+        <v>1.68</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>19/11/2023 13:56</t>
+          <t>19/11/2023 13:50</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kalamata-diagoras-fc/xxnsO5R7/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-levadiakos/2cncBFYt/</t>
         </is>
       </c>
     </row>
@@ -8761,22 +8761,22 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Iraklis 1908</t>
+          <t>Athens Kallithea</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>AEK Athens FC B</t>
+          <t>Tilikratis L.</t>
         </is>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>1.5</v>
+        <v>1.16</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,15 +8784,15 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>1.67</v>
+        <v>1.11</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>25/11/2023 13:45</t>
+          <t>25/11/2023 13:09</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.67</v>
+        <v>6.22</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -8800,15 +8800,15 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.53</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>25/11/2023 13:45</t>
+          <t>25/11/2023 13:10</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>5.66</v>
+        <v>12.53</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
@@ -8816,16 +8816,16 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>5.3</v>
+        <v>23.73</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>25/11/2023 13:45</t>
+          <t>25/11/2023 13:10</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/iraklis-fc-aek/zmvA8DIa/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/athens-kallithea-tilikratis-lefkada/QL6KyPe7/</t>
         </is>
       </c>
     </row>
@@ -8945,22 +8945,22 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Athens Kallithea</t>
+          <t>Iraklis 1908</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Tilikratis L.</t>
+          <t>AEK Athens FC B</t>
         </is>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>1.16</v>
+        <v>1.5</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>1.11</v>
+        <v>1.67</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>25/11/2023 13:09</t>
+          <t>25/11/2023 13:45</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>6.22</v>
+        <v>3.67</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>8.289999999999999</v>
+        <v>3.53</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>25/11/2023 13:10</t>
+          <t>25/11/2023 13:45</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>12.53</v>
+        <v>5.66</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>23.73</v>
+        <v>5.3</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>25/11/2023 13:10</t>
+          <t>25/11/2023 13:45</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/athens-kallithea-tilikratis-lefkada/QL6KyPe7/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/iraklis-fc-aek/zmvA8DIa/</t>
         </is>
       </c>
     </row>
@@ -9129,22 +9129,22 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>PAE Chania</t>
+          <t>Ilioupoli</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>PAE Egaleo</t>
+          <t>Giouchtas</t>
         </is>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>1.55</v>
+        <v>1.97</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -9152,15 +9152,15 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>1.2</v>
+        <v>2.19</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>26/11/2023 13:55</t>
+          <t>26/11/2023 13:59</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>3.48</v>
+        <v>3.02</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -9168,15 +9168,15 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>6.56</v>
+        <v>3.19</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>26/11/2023 13:58</t>
+          <t>26/11/2023 13:59</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>5.44</v>
+        <v>3.62</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
@@ -9184,16 +9184,16 @@
         </is>
       </c>
       <c r="T95" t="n">
-        <v>11.76</v>
+        <v>3.32</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>26/11/2023 13:58</t>
+          <t>26/11/2023 13:59</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/pae-chania-pae-egaleo/zXD7vRBl/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ilioupoli-giouchtas/Wb7Gx5t1/</t>
         </is>
       </c>
     </row>
@@ -9221,7 +9221,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Karditsa</t>
+          <t>PAE Chania</t>
         </is>
       </c>
       <c r="G96" t="n">
@@ -9229,14 +9229,14 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Niki Volos</t>
+          <t>PAE Egaleo</t>
         </is>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>3.26</v>
+        <v>1.55</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,15 +9244,15 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>3.72</v>
+        <v>1.2</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>26/11/2023 13:46</t>
+          <t>26/11/2023 13:55</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>2.83</v>
+        <v>3.48</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,15 +9260,15 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>2.91</v>
+        <v>6.56</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>26/11/2023 13:46</t>
+          <t>26/11/2023 13:58</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>2.2</v>
+        <v>5.44</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,16 +9276,16 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>2.18</v>
+        <v>11.76</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>26/11/2023 13:46</t>
+          <t>26/11/2023 13:58</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-niki-volos/vuyR4VHO/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/pae-chania-pae-egaleo/zXD7vRBl/</t>
         </is>
       </c>
     </row>
@@ -9313,22 +9313,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Makedonikos</t>
+          <t>Panachaiki</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Apollon Pontou</t>
+          <t>Diagoras</t>
         </is>
       </c>
       <c r="I97" t="n">
         <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>1.53</v>
+        <v>2.77</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -9336,15 +9336,15 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>1.54</v>
+        <v>2.63</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>26/11/2023 13:44</t>
+          <t>26/11/2023 13:40</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>3.51</v>
+        <v>2.87</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -9352,15 +9352,15 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>3.65</v>
+        <v>2.72</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>26/11/2023 13:59</t>
+          <t>26/11/2023 13:40</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>5.58</v>
+        <v>2.47</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
@@ -9368,16 +9368,16 @@
         </is>
       </c>
       <c r="T97" t="n">
-        <v>6.81</v>
+        <v>3.09</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>26/11/2023 13:59</t>
+          <t>26/11/2023 13:40</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/makedonikos-neapolis-apollon-pontou/QyXM5B2I/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/panachaiki-diagoras-fc/h88CwoRf/</t>
         </is>
       </c>
     </row>
@@ -9405,22 +9405,22 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Ilioupoli</t>
+          <t>Karditsa</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Giouchtas</t>
+          <t>Niki Volos</t>
         </is>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>1.97</v>
+        <v>3.26</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -9428,15 +9428,15 @@
         </is>
       </c>
       <c r="L98" t="n">
-        <v>2.19</v>
+        <v>3.72</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>26/11/2023 13:59</t>
+          <t>26/11/2023 13:46</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>3.02</v>
+        <v>2.83</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -9444,15 +9444,15 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>3.19</v>
+        <v>2.91</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>26/11/2023 13:59</t>
+          <t>26/11/2023 13:46</t>
         </is>
       </c>
       <c r="R98" t="n">
-        <v>3.62</v>
+        <v>2.2</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
@@ -9460,16 +9460,16 @@
         </is>
       </c>
       <c r="T98" t="n">
-        <v>3.32</v>
+        <v>2.18</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>26/11/2023 13:59</t>
+          <t>26/11/2023 13:46</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ilioupoli-giouchtas/Wb7Gx5t1/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-niki-volos/vuyR4VHO/</t>
         </is>
       </c>
     </row>
@@ -9497,22 +9497,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Panachaiki</t>
+          <t>Makedonikos</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Diagoras</t>
+          <t>Apollon Pontou</t>
         </is>
       </c>
       <c r="I99" t="n">
         <v>1</v>
       </c>
       <c r="J99" t="n">
-        <v>2.77</v>
+        <v>1.53</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -9520,15 +9520,15 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>2.63</v>
+        <v>1.54</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>26/11/2023 13:40</t>
+          <t>26/11/2023 13:44</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>2.87</v>
+        <v>3.51</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -9536,15 +9536,15 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>2.72</v>
+        <v>3.65</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>26/11/2023 13:40</t>
+          <t>26/11/2023 13:59</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>2.47</v>
+        <v>5.58</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
@@ -9552,16 +9552,16 @@
         </is>
       </c>
       <c r="T99" t="n">
-        <v>3.09</v>
+        <v>6.81</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>26/11/2023 13:40</t>
+          <t>26/11/2023 13:59</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/panachaiki-diagoras-fc/h88CwoRf/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/makedonikos-neapolis-apollon-pontou/QyXM5B2I/</t>
         </is>
       </c>
     </row>
@@ -9773,7 +9773,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Kozani FC</t>
+          <t>Panathinaikos B</t>
         </is>
       </c>
       <c r="G102" t="n">
@@ -9781,63 +9781,63 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>PAOK B</t>
+          <t>Ilioupoli</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J102" t="n">
-        <v>2.15</v>
+        <v>2.39</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>14/11/2023 02:12</t>
+          <t>28/11/2023 02:12</t>
         </is>
       </c>
       <c r="L102" t="n">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>29/11/2023 12:20</t>
+          <t>29/11/2023 13:58</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>2.95</v>
+        <v>2.88</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>14/11/2023 02:12</t>
+          <t>28/11/2023 02:12</t>
         </is>
       </c>
       <c r="P102" t="n">
-        <v>3.2</v>
+        <v>2.93</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>29/11/2023 12:23</t>
+          <t>29/11/2023 13:57</t>
         </is>
       </c>
       <c r="R102" t="n">
-        <v>3.23</v>
+        <v>2.86</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
-          <t>14/11/2023 02:12</t>
+          <t>28/11/2023 02:12</t>
         </is>
       </c>
       <c r="T102" t="n">
-        <v>4.06</v>
+        <v>2.46</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>29/11/2023 12:20</t>
+          <t>29/11/2023 13:58</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kozani-fc-paok/S2CKcd4s/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/panathinaikos-ilioupoli/QcOXpTYK/</t>
         </is>
       </c>
     </row>
@@ -9865,7 +9865,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Panathinaikos B</t>
+          <t>Kozani FC</t>
         </is>
       </c>
       <c r="G103" t="n">
@@ -9873,63 +9873,63 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Ilioupoli</t>
+          <t>PAOK B</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J103" t="n">
-        <v>2.39</v>
+        <v>2.15</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>28/11/2023 02:12</t>
+          <t>14/11/2023 02:12</t>
         </is>
       </c>
       <c r="L103" t="n">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>29/11/2023 13:58</t>
+          <t>29/11/2023 12:20</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>2.88</v>
+        <v>2.95</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>28/11/2023 02:12</t>
+          <t>14/11/2023 02:12</t>
         </is>
       </c>
       <c r="P103" t="n">
-        <v>2.93</v>
+        <v>3.2</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>29/11/2023 13:57</t>
+          <t>29/11/2023 12:23</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>2.86</v>
+        <v>3.23</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
-          <t>28/11/2023 02:12</t>
+          <t>14/11/2023 02:12</t>
         </is>
       </c>
       <c r="T103" t="n">
-        <v>2.46</v>
+        <v>4.06</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>29/11/2023 13:58</t>
+          <t>29/11/2023 12:20</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/panathinaikos-ilioupoli/QcOXpTYK/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kozani-fc-paok/S2CKcd4s/</t>
         </is>
       </c>
     </row>
@@ -10141,22 +10141,22 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Giouchtas</t>
+          <t>AEL Larissa</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Ionikos</t>
+          <t>Niki Volos</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>3.23</v>
+        <v>1.86</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -10164,15 +10164,15 @@
         </is>
       </c>
       <c r="L106" t="n">
-        <v>3.35</v>
+        <v>1.88</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>03/12/2023 13:39</t>
+          <t>03/12/2023 13:59</t>
         </is>
       </c>
       <c r="N106" t="n">
-        <v>2.8</v>
+        <v>2.96</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
@@ -10180,15 +10180,15 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>2.79</v>
+        <v>3.11</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>03/12/2023 13:39</t>
+          <t>03/12/2023 13:59</t>
         </is>
       </c>
       <c r="R106" t="n">
-        <v>2.28</v>
+        <v>4.28</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
@@ -10196,16 +10196,16 @@
         </is>
       </c>
       <c r="T106" t="n">
-        <v>2.42</v>
+        <v>4.59</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>03/12/2023 13:39</t>
+          <t>03/12/2023 13:59</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/giouchtas-ionikos/YFwVHu7U/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ael-larissa-niki-volos/8GQuMWna/</t>
         </is>
       </c>
     </row>
@@ -10233,71 +10233,71 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Ilioupoli</t>
+          <t>Iraklis 1908</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>PAE Egaleo</t>
+          <t>Kozani FC</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="n">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>02/12/2023 02:42</t>
+          <t>02/12/2023 02:13</t>
         </is>
       </c>
       <c r="L107" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>03/12/2023 13:55</t>
+          <t>03/12/2023 13:50</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>2.97</v>
+        <v>3.12</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>02/12/2023 02:42</t>
+          <t>02/12/2023 02:13</t>
         </is>
       </c>
       <c r="P107" t="n">
-        <v>3.16</v>
+        <v>3.12</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>03/12/2023 13:55</t>
+          <t>03/12/2023 13:50</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>3.39</v>
+        <v>4.71</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
-          <t>02/12/2023 02:42</t>
+          <t>02/12/2023 02:13</t>
         </is>
       </c>
       <c r="T107" t="n">
-        <v>4.65</v>
+        <v>4.4</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>03/12/2023 13:55</t>
+          <t>03/12/2023 13:50</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ilioupoli-pae-egaleo/fPvRILiO/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/iraklis-fc-kozani-fc/hrP8TEfP/</t>
         </is>
       </c>
     </row>
@@ -10325,22 +10325,22 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Kalamata</t>
+          <t>Apollon Pontou</t>
         </is>
       </c>
       <c r="G108" t="n">
+        <v>2</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Karditsa</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
         <v>1</v>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>Panachaiki</t>
-        </is>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
       <c r="J108" t="n">
-        <v>1.25</v>
+        <v>3.51</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -10348,15 +10348,15 @@
         </is>
       </c>
       <c r="L108" t="n">
-        <v>1.21</v>
+        <v>3.95</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>03/12/2023 13:50</t>
+          <t>03/12/2023 13:33</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>5.02</v>
+        <v>2.83</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
@@ -10364,15 +10364,15 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>5.58</v>
+        <v>2.85</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>03/12/2023 13:50</t>
+          <t>03/12/2023 13:33</t>
         </is>
       </c>
       <c r="R108" t="n">
-        <v>9.9</v>
+        <v>2.14</v>
       </c>
       <c r="S108" t="inlineStr">
         <is>
@@ -10380,16 +10380,16 @@
         </is>
       </c>
       <c r="T108" t="n">
-        <v>14.57</v>
+        <v>2.14</v>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>03/12/2023 13:50</t>
+          <t>03/12/2023 13:33</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kalamata-panachaiki/Ct9uxqhn/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/apollon-pontou-karditsa/MJUqLj25/</t>
         </is>
       </c>
     </row>
@@ -10417,22 +10417,22 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Olympiacos Piraeus B</t>
+          <t>PAOK B</t>
         </is>
       </c>
       <c r="G109" t="n">
+        <v>1</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Levadiakos</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
         <v>3</v>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>PAE Chania</t>
-        </is>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
       <c r="J109" t="n">
-        <v>2.78</v>
+        <v>4.7</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -10440,7 +10440,7 @@
         </is>
       </c>
       <c r="L109" t="n">
-        <v>4.33</v>
+        <v>6.1</v>
       </c>
       <c r="M109" t="inlineStr">
         <is>
@@ -10448,7 +10448,7 @@
         </is>
       </c>
       <c r="N109" t="n">
-        <v>2.77</v>
+        <v>3.28</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
@@ -10456,15 +10456,15 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>3.05</v>
+        <v>3.7</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>03/12/2023 13:50</t>
+          <t>03/12/2023 13:52</t>
         </is>
       </c>
       <c r="R109" t="n">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="S109" t="inlineStr">
         <is>
@@ -10472,16 +10472,16 @@
         </is>
       </c>
       <c r="T109" t="n">
-        <v>1.95</v>
+        <v>1.57</v>
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>03/12/2023 13:50</t>
+          <t>03/12/2023 13:52</t>
         </is>
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/olympiacos-piraeus-pae-chania/02uNJ1xI/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/paok-levadiakos/z3SXNhIn/</t>
         </is>
       </c>
     </row>
@@ -10509,7 +10509,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Panathinaikos B</t>
+          <t>AEK Athens FC B</t>
         </is>
       </c>
       <c r="G110" t="n">
@@ -10517,14 +10517,14 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Tilikratis L.</t>
+          <t>Aiolikos</t>
         </is>
       </c>
       <c r="I110" t="n">
         <v>1</v>
       </c>
       <c r="J110" t="n">
-        <v>1.81</v>
+        <v>2.83</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -10532,15 +10532,15 @@
         </is>
       </c>
       <c r="L110" t="n">
-        <v>1.6</v>
+        <v>2.43</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>03/12/2023 13:45</t>
+          <t>03/12/2023 13:42</t>
         </is>
       </c>
       <c r="N110" t="n">
-        <v>3.18</v>
+        <v>2.72</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
@@ -10548,15 +10548,15 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>3.87</v>
+        <v>2.98</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>03/12/2023 13:45</t>
+          <t>03/12/2023 13:42</t>
         </is>
       </c>
       <c r="R110" t="n">
-        <v>4.19</v>
+        <v>2.61</v>
       </c>
       <c r="S110" t="inlineStr">
         <is>
@@ -10564,16 +10564,16 @@
         </is>
       </c>
       <c r="T110" t="n">
-        <v>5.39</v>
+        <v>3.09</v>
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>03/12/2023 13:45</t>
+          <t>03/12/2023 13:42</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/panathinaikos-tilikratis-lefkada/YkAywPxt/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/aek-aiolikos-fc/fiBzPY2t/</t>
         </is>
       </c>
     </row>
@@ -10601,7 +10601,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>AEK Athens FC B</t>
+          <t>Giouchtas</t>
         </is>
       </c>
       <c r="G111" t="n">
@@ -10609,14 +10609,14 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Aiolikos</t>
+          <t>Ionikos</t>
         </is>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J111" t="n">
-        <v>2.83</v>
+        <v>3.23</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -10624,15 +10624,15 @@
         </is>
       </c>
       <c r="L111" t="n">
-        <v>2.43</v>
+        <v>3.35</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>03/12/2023 13:42</t>
+          <t>03/12/2023 13:39</t>
         </is>
       </c>
       <c r="N111" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
@@ -10640,15 +10640,15 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>2.98</v>
+        <v>2.79</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>03/12/2023 13:42</t>
+          <t>03/12/2023 13:39</t>
         </is>
       </c>
       <c r="R111" t="n">
-        <v>2.61</v>
+        <v>2.28</v>
       </c>
       <c r="S111" t="inlineStr">
         <is>
@@ -10656,16 +10656,16 @@
         </is>
       </c>
       <c r="T111" t="n">
-        <v>3.09</v>
+        <v>2.42</v>
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>03/12/2023 13:42</t>
+          <t>03/12/2023 13:39</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/aek-aiolikos-fc/fiBzPY2t/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/giouchtas-ionikos/YFwVHu7U/</t>
         </is>
       </c>
     </row>
@@ -10693,22 +10693,22 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>AEL Larissa</t>
+          <t>Olympiacos Piraeus B</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Niki Volos</t>
+          <t>PAE Chania</t>
         </is>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>1.86</v>
+        <v>2.78</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -10716,15 +10716,15 @@
         </is>
       </c>
       <c r="L112" t="n">
-        <v>1.88</v>
+        <v>4.33</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>03/12/2023 13:59</t>
+          <t>03/12/2023 13:52</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>2.96</v>
+        <v>2.77</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
@@ -10732,15 +10732,15 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>3.11</v>
+        <v>3.05</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>03/12/2023 13:59</t>
+          <t>03/12/2023 13:50</t>
         </is>
       </c>
       <c r="R112" t="n">
-        <v>4.28</v>
+        <v>2.6</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
@@ -10748,16 +10748,16 @@
         </is>
       </c>
       <c r="T112" t="n">
-        <v>4.59</v>
+        <v>1.95</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>03/12/2023 13:59</t>
+          <t>03/12/2023 13:50</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ael-larissa-niki-volos/8GQuMWna/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/olympiacos-piraeus-pae-chania/02uNJ1xI/</t>
         </is>
       </c>
     </row>
@@ -10785,22 +10785,22 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Apollon Pontou</t>
+          <t>Kalamata</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Karditsa</t>
+          <t>Panachaiki</t>
         </is>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>3.51</v>
+        <v>1.25</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -10808,15 +10808,15 @@
         </is>
       </c>
       <c r="L113" t="n">
-        <v>3.95</v>
+        <v>1.21</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>03/12/2023 13:33</t>
+          <t>03/12/2023 13:50</t>
         </is>
       </c>
       <c r="N113" t="n">
-        <v>2.83</v>
+        <v>5.02</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
@@ -10824,15 +10824,15 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>2.85</v>
+        <v>5.58</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>03/12/2023 13:33</t>
+          <t>03/12/2023 13:50</t>
         </is>
       </c>
       <c r="R113" t="n">
-        <v>2.14</v>
+        <v>9.9</v>
       </c>
       <c r="S113" t="inlineStr">
         <is>
@@ -10840,16 +10840,16 @@
         </is>
       </c>
       <c r="T113" t="n">
-        <v>2.14</v>
+        <v>14.57</v>
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>03/12/2023 13:33</t>
+          <t>03/12/2023 13:50</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/apollon-pontou-karditsa/MJUqLj25/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kalamata-panachaiki/Ct9uxqhn/</t>
         </is>
       </c>
     </row>
@@ -10877,71 +10877,71 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Iraklis 1908</t>
+          <t>Ilioupoli</t>
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Kozani FC</t>
+          <t>PAE Egaleo</t>
         </is>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>02/12/2023 02:13</t>
+          <t>02/12/2023 02:42</t>
         </is>
       </c>
       <c r="L114" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>03/12/2023 13:50</t>
+          <t>03/12/2023 13:55</t>
         </is>
       </c>
       <c r="N114" t="n">
-        <v>3.12</v>
+        <v>2.97</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>02/12/2023 02:13</t>
+          <t>02/12/2023 02:42</t>
         </is>
       </c>
       <c r="P114" t="n">
-        <v>3.12</v>
+        <v>3.16</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>03/12/2023 13:50</t>
+          <t>03/12/2023 13:55</t>
         </is>
       </c>
       <c r="R114" t="n">
-        <v>4.71</v>
+        <v>3.39</v>
       </c>
       <c r="S114" t="inlineStr">
         <is>
-          <t>02/12/2023 02:13</t>
+          <t>02/12/2023 02:42</t>
         </is>
       </c>
       <c r="T114" t="n">
-        <v>4.4</v>
+        <v>4.65</v>
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>03/12/2023 13:50</t>
+          <t>03/12/2023 13:55</t>
         </is>
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/iraklis-fc-kozani-fc/hrP8TEfP/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ilioupoli-pae-egaleo/fPvRILiO/</t>
         </is>
       </c>
     </row>
@@ -10969,22 +10969,22 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>PAOK B</t>
+          <t>Panathinaikos B</t>
         </is>
       </c>
       <c r="G115" t="n">
+        <v>2</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Tilikratis L.</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
         <v>1</v>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>Levadiakos</t>
-        </is>
-      </c>
-      <c r="I115" t="n">
-        <v>3</v>
-      </c>
       <c r="J115" t="n">
-        <v>4.7</v>
+        <v>1.81</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -10992,15 +10992,15 @@
         </is>
       </c>
       <c r="L115" t="n">
-        <v>6.1</v>
+        <v>1.6</v>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>03/12/2023 13:52</t>
+          <t>03/12/2023 13:45</t>
         </is>
       </c>
       <c r="N115" t="n">
-        <v>3.28</v>
+        <v>3.18</v>
       </c>
       <c r="O115" t="inlineStr">
         <is>
@@ -11008,15 +11008,15 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>3.7</v>
+        <v>3.87</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>03/12/2023 13:52</t>
+          <t>03/12/2023 13:45</t>
         </is>
       </c>
       <c r="R115" t="n">
-        <v>1.7</v>
+        <v>4.19</v>
       </c>
       <c r="S115" t="inlineStr">
         <is>
@@ -11024,16 +11024,16 @@
         </is>
       </c>
       <c r="T115" t="n">
-        <v>1.57</v>
+        <v>5.39</v>
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>03/12/2023 13:52</t>
+          <t>03/12/2023 13:45</t>
         </is>
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/paok-levadiakos/z3SXNhIn/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/panathinaikos-tilikratis-lefkada/YkAywPxt/</t>
         </is>
       </c>
     </row>
@@ -11429,71 +11429,71 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Karditsa</t>
+          <t>Athens Kallithea</t>
         </is>
       </c>
       <c r="G120" t="n">
+        <v>1</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Kalamata</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>Kampaniakos</t>
-        </is>
-      </c>
-      <c r="I120" t="n">
-        <v>1</v>
-      </c>
       <c r="J120" t="n">
-        <v>1.59</v>
+        <v>1.81</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>09/12/2023 02:13</t>
+          <t>09/12/2023 02:12</t>
         </is>
       </c>
       <c r="L120" t="n">
-        <v>1.78</v>
+        <v>2.1</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>10/12/2023 13:57</t>
+          <t>10/12/2023 13:38</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>3.45</v>
+        <v>2.99</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>09/12/2023 02:13</t>
+          <t>09/12/2023 02:12</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>3.23</v>
+        <v>2.86</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>10/12/2023 13:57</t>
+          <t>10/12/2023 13:38</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>5.3</v>
+        <v>4.56</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
-          <t>09/12/2023 02:13</t>
+          <t>09/12/2023 02:12</t>
         </is>
       </c>
       <c r="T120" t="n">
-        <v>5.01</v>
+        <v>4.09</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>10/12/2023 13:57</t>
+          <t>10/12/2023 13:38</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-kampaniakos/jwP8P5gi/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/athens-kallithea-kalamata/8KYRfH7p/</t>
         </is>
       </c>
     </row>
@@ -11521,71 +11521,71 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Aiolikos</t>
+          <t>Tilikratis L.</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Iraklis 1908</t>
+          <t>Giouchtas</t>
         </is>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>2.99</v>
+        <v>3.25</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>09/12/2023 02:12</t>
+          <t>09/12/2023 02:13</t>
         </is>
       </c>
       <c r="L121" t="n">
-        <v>3.46</v>
+        <v>3.21</v>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>10/12/2023 13:58</t>
+          <t>10/12/2023 13:17</t>
         </is>
       </c>
       <c r="N121" t="n">
-        <v>2.76</v>
+        <v>2.94</v>
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>09/12/2023 02:12</t>
+          <t>09/12/2023 02:13</t>
         </is>
       </c>
       <c r="P121" t="n">
-        <v>3.02</v>
+        <v>3.03</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>10/12/2023 13:58</t>
+          <t>10/12/2023 13:17</t>
         </is>
       </c>
       <c r="R121" t="n">
-        <v>2.44</v>
+        <v>2.18</v>
       </c>
       <c r="S121" t="inlineStr">
         <is>
-          <t>09/12/2023 02:12</t>
+          <t>09/12/2023 02:13</t>
         </is>
       </c>
       <c r="T121" t="n">
-        <v>2.21</v>
+        <v>2.33</v>
       </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>10/12/2023 13:58</t>
+          <t>10/12/2023 13:17</t>
         </is>
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/aiolikos-fc-iraklis-fc/rZIhJUWH/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/tilikratis-lefkada-giouchtas/nwxes3fR/</t>
         </is>
       </c>
     </row>
@@ -11613,7 +11613,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Athens Kallithea</t>
+          <t>Aiolikos</t>
         </is>
       </c>
       <c r="G122" t="n">
@@ -11621,14 +11621,14 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Kalamata</t>
+          <t>Iraklis 1908</t>
         </is>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" t="n">
-        <v>1.81</v>
+        <v>2.99</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -11636,15 +11636,15 @@
         </is>
       </c>
       <c r="L122" t="n">
-        <v>2.1</v>
+        <v>3.46</v>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>10/12/2023 13:38</t>
+          <t>10/12/2023 13:58</t>
         </is>
       </c>
       <c r="N122" t="n">
-        <v>2.99</v>
+        <v>2.76</v>
       </c>
       <c r="O122" t="inlineStr">
         <is>
@@ -11652,15 +11652,15 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>2.86</v>
+        <v>3.02</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>10/12/2023 13:38</t>
+          <t>10/12/2023 13:58</t>
         </is>
       </c>
       <c r="R122" t="n">
-        <v>4.56</v>
+        <v>2.44</v>
       </c>
       <c r="S122" t="inlineStr">
         <is>
@@ -11668,16 +11668,16 @@
         </is>
       </c>
       <c r="T122" t="n">
-        <v>4.09</v>
+        <v>2.21</v>
       </c>
       <c r="U122" t="inlineStr">
         <is>
-          <t>10/12/2023 13:38</t>
+          <t>10/12/2023 13:58</t>
         </is>
       </c>
       <c r="V122" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/athens-kallithea-kalamata/8KYRfH7p/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/aiolikos-fc-iraklis-fc/rZIhJUWH/</t>
         </is>
       </c>
     </row>
@@ -11705,7 +11705,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Tilikratis L.</t>
+          <t>Karditsa</t>
         </is>
       </c>
       <c r="G123" t="n">
@@ -11713,14 +11713,14 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Giouchtas</t>
+          <t>Kampaniakos</t>
         </is>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" t="n">
-        <v>3.25</v>
+        <v>1.59</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -11728,15 +11728,15 @@
         </is>
       </c>
       <c r="L123" t="n">
-        <v>3.21</v>
+        <v>1.78</v>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>10/12/2023 13:17</t>
+          <t>10/12/2023 13:57</t>
         </is>
       </c>
       <c r="N123" t="n">
-        <v>2.94</v>
+        <v>3.45</v>
       </c>
       <c r="O123" t="inlineStr">
         <is>
@@ -11744,15 +11744,15 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>3.03</v>
+        <v>3.23</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>10/12/2023 13:17</t>
+          <t>10/12/2023 13:57</t>
         </is>
       </c>
       <c r="R123" t="n">
-        <v>2.18</v>
+        <v>5.3</v>
       </c>
       <c r="S123" t="inlineStr">
         <is>
@@ -11760,16 +11760,16 @@
         </is>
       </c>
       <c r="T123" t="n">
-        <v>2.33</v>
+        <v>5.01</v>
       </c>
       <c r="U123" t="inlineStr">
         <is>
-          <t>10/12/2023 13:17</t>
+          <t>10/12/2023 13:57</t>
         </is>
       </c>
       <c r="V123" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/tilikratis-lefkada-giouchtas/nwxes3fR/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-kampaniakos/jwP8P5gi/</t>
         </is>
       </c>
     </row>
@@ -11797,7 +11797,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>AEL Larissa</t>
+          <t>Niki Volos</t>
         </is>
       </c>
       <c r="G124" t="n">
@@ -11805,14 +11805,14 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Apollon Pontou</t>
+          <t>PAOK B</t>
         </is>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J124" t="n">
-        <v>1.19</v>
+        <v>1.57</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -11820,15 +11820,15 @@
         </is>
       </c>
       <c r="L124" t="n">
-        <v>1.18</v>
+        <v>1.5</v>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>11/12/2023 13:57</t>
+          <t>11/12/2023 13:51</t>
         </is>
       </c>
       <c r="N124" t="n">
-        <v>5.42</v>
+        <v>3.5</v>
       </c>
       <c r="O124" t="inlineStr">
         <is>
@@ -11836,15 +11836,15 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>6.03</v>
+        <v>3.83</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>11/12/2023 13:57</t>
+          <t>11/12/2023 13:58</t>
         </is>
       </c>
       <c r="R124" t="n">
-        <v>11.94</v>
+        <v>5.09</v>
       </c>
       <c r="S124" t="inlineStr">
         <is>
@@ -11852,16 +11852,16 @@
         </is>
       </c>
       <c r="T124" t="n">
-        <v>16.47</v>
+        <v>7</v>
       </c>
       <c r="U124" t="inlineStr">
         <is>
-          <t>11/12/2023 13:57</t>
+          <t>11/12/2023 13:58</t>
         </is>
       </c>
       <c r="V124" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ael-larissa-apollon-pontou/lOsCOP8c/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/niki-volos-paok/lYpQ0MGj/</t>
         </is>
       </c>
     </row>
@@ -11889,7 +11889,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Niki Volos</t>
+          <t>AEL Larissa</t>
         </is>
       </c>
       <c r="G125" t="n">
@@ -11897,14 +11897,14 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>PAOK B</t>
+          <t>Apollon Pontou</t>
         </is>
       </c>
       <c r="I125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J125" t="n">
-        <v>1.57</v>
+        <v>1.19</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -11912,15 +11912,15 @@
         </is>
       </c>
       <c r="L125" t="n">
-        <v>1.5</v>
+        <v>1.18</v>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>11/12/2023 13:51</t>
+          <t>11/12/2023 13:57</t>
         </is>
       </c>
       <c r="N125" t="n">
-        <v>3.5</v>
+        <v>5.42</v>
       </c>
       <c r="O125" t="inlineStr">
         <is>
@@ -11928,15 +11928,15 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>3.83</v>
+        <v>6.03</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>11/12/2023 13:58</t>
+          <t>11/12/2023 13:57</t>
         </is>
       </c>
       <c r="R125" t="n">
-        <v>5.09</v>
+        <v>11.94</v>
       </c>
       <c r="S125" t="inlineStr">
         <is>
@@ -11944,16 +11944,16 @@
         </is>
       </c>
       <c r="T125" t="n">
-        <v>7</v>
+        <v>16.47</v>
       </c>
       <c r="U125" t="inlineStr">
         <is>
-          <t>11/12/2023 13:58</t>
+          <t>11/12/2023 13:57</t>
         </is>
       </c>
       <c r="V125" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/niki-volos-paok/lYpQ0MGj/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ael-larissa-apollon-pontou/lOsCOP8c/</t>
         </is>
       </c>
     </row>
@@ -12165,7 +12165,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Kampaniakos</t>
+          <t>Ilioupoli</t>
         </is>
       </c>
       <c r="G128" t="n">
@@ -12173,14 +12173,14 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>AEL Larissa</t>
+          <t>Olympiacos Piraeus B</t>
         </is>
       </c>
       <c r="I128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J128" t="n">
-        <v>6.83</v>
+        <v>2.57</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         </is>
       </c>
       <c r="L128" t="n">
-        <v>9.07</v>
+        <v>2.27</v>
       </c>
       <c r="M128" t="inlineStr">
         <is>
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="N128" t="n">
-        <v>3.73</v>
+        <v>2.75</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
@@ -12204,7 +12204,7 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>4.29</v>
+        <v>2.86</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
@@ -12212,7 +12212,7 @@
         </is>
       </c>
       <c r="R128" t="n">
-        <v>1.45</v>
+        <v>2.84</v>
       </c>
       <c r="S128" t="inlineStr">
         <is>
@@ -12220,16 +12220,16 @@
         </is>
       </c>
       <c r="T128" t="n">
-        <v>1.38</v>
+        <v>3.56</v>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>16/12/2023 13:50</t>
+          <t>16/12/2023 13:57</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kampaniakos-ael-larissa/lnQbFLVq/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ilioupoli-olympiacos-piraeus/Y9Y9xAR3/</t>
         </is>
       </c>
     </row>
@@ -12257,7 +12257,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Ilioupoli</t>
+          <t>Kalamata</t>
         </is>
       </c>
       <c r="G129" t="n">
@@ -12265,14 +12265,14 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Olympiacos Piraeus B</t>
+          <t>Panathinaikos B</t>
         </is>
       </c>
       <c r="I129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>2.57</v>
+        <v>1.25</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -12280,15 +12280,15 @@
         </is>
       </c>
       <c r="L129" t="n">
-        <v>2.27</v>
+        <v>1.23</v>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>16/12/2023 13:57</t>
+          <t>16/12/2023 13:59</t>
         </is>
       </c>
       <c r="N129" t="n">
-        <v>2.75</v>
+        <v>4.89</v>
       </c>
       <c r="O129" t="inlineStr">
         <is>
@@ -12296,15 +12296,15 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>2.86</v>
+        <v>5.6</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>16/12/2023 13:57</t>
+          <t>16/12/2023 13:59</t>
         </is>
       </c>
       <c r="R129" t="n">
-        <v>2.84</v>
+        <v>10.18</v>
       </c>
       <c r="S129" t="inlineStr">
         <is>
@@ -12312,16 +12312,16 @@
         </is>
       </c>
       <c r="T129" t="n">
-        <v>3.56</v>
+        <v>11.89</v>
       </c>
       <c r="U129" t="inlineStr">
         <is>
-          <t>16/12/2023 13:57</t>
+          <t>16/12/2023 13:59</t>
         </is>
       </c>
       <c r="V129" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ilioupoli-olympiacos-piraeus/Y9Y9xAR3/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kalamata-panathinaikos/KQzMZ7BM/</t>
         </is>
       </c>
     </row>
@@ -12349,7 +12349,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Kalamata</t>
+          <t>Kampaniakos</t>
         </is>
       </c>
       <c r="G130" t="n">
@@ -12357,14 +12357,14 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Panathinaikos B</t>
+          <t>AEL Larissa</t>
         </is>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J130" t="n">
-        <v>1.25</v>
+        <v>6.83</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -12372,15 +12372,15 @@
         </is>
       </c>
       <c r="L130" t="n">
-        <v>1.23</v>
+        <v>9.07</v>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>16/12/2023 13:59</t>
+          <t>16/12/2023 13:57</t>
         </is>
       </c>
       <c r="N130" t="n">
-        <v>4.89</v>
+        <v>3.73</v>
       </c>
       <c r="O130" t="inlineStr">
         <is>
@@ -12388,15 +12388,15 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>5.6</v>
+        <v>4.29</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>16/12/2023 13:59</t>
+          <t>16/12/2023 13:57</t>
         </is>
       </c>
       <c r="R130" t="n">
-        <v>10.18</v>
+        <v>1.45</v>
       </c>
       <c r="S130" t="inlineStr">
         <is>
@@ -12404,16 +12404,16 @@
         </is>
       </c>
       <c r="T130" t="n">
-        <v>11.89</v>
+        <v>1.38</v>
       </c>
       <c r="U130" t="inlineStr">
         <is>
-          <t>16/12/2023 13:59</t>
+          <t>16/12/2023 13:50</t>
         </is>
       </c>
       <c r="V130" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kalamata-panathinaikos/KQzMZ7BM/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kampaniakos-ael-larissa/lnQbFLVq/</t>
         </is>
       </c>
     </row>
@@ -13150,6 +13150,282 @@
       <c r="V138" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/greece/super-league-2/pae-chania-ionikos/6NWHzldG/</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>45294.58333333334</v>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Kozani FC</t>
+        </is>
+      </c>
+      <c r="G139" t="n">
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Levadiakos</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>02/01/2024 03:12</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>03/01/2024 13:03</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>02/01/2024 03:12</t>
+        </is>
+      </c>
+      <c r="P139" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="Q139" t="inlineStr">
+        <is>
+          <t>03/01/2024 12:54</t>
+        </is>
+      </c>
+      <c r="R139" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="S139" t="inlineStr">
+        <is>
+          <t>02/01/2024 03:12</t>
+        </is>
+      </c>
+      <c r="T139" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U139" t="inlineStr">
+        <is>
+          <t>03/01/2024 13:03</t>
+        </is>
+      </c>
+      <c r="V139" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kozani-fc-levadiakos/A1E7Da0d/</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>45294.58333333334</v>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Karditsa</t>
+        </is>
+      </c>
+      <c r="G140" t="n">
+        <v>2</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Iraklis 1908</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
+        <v>1</v>
+      </c>
+      <c r="J140" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>02/01/2024 03:12</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>03/01/2024 13:59</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>02/01/2024 03:12</t>
+        </is>
+      </c>
+      <c r="P140" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="Q140" t="inlineStr">
+        <is>
+          <t>03/01/2024 13:58</t>
+        </is>
+      </c>
+      <c r="R140" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S140" t="inlineStr">
+        <is>
+          <t>02/01/2024 03:12</t>
+        </is>
+      </c>
+      <c r="T140" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U140" t="inlineStr">
+        <is>
+          <t>03/01/2024 13:58</t>
+        </is>
+      </c>
+      <c r="V140" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-iraklis-fc/Gb1gy3h3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>45294.58333333334</v>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Makedonikos</t>
+        </is>
+      </c>
+      <c r="G141" t="n">
+        <v>1</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Aiolikos</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
+        <v>1</v>
+      </c>
+      <c r="J141" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>02/01/2024 03:12</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>03/01/2024 13:59</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>02/01/2024 03:12</t>
+        </is>
+      </c>
+      <c r="P141" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="Q141" t="inlineStr">
+        <is>
+          <t>03/01/2024 13:59</t>
+        </is>
+      </c>
+      <c r="R141" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="S141" t="inlineStr">
+        <is>
+          <t>02/01/2024 03:12</t>
+        </is>
+      </c>
+      <c r="T141" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="U141" t="inlineStr">
+        <is>
+          <t>03/01/2024 13:59</t>
+        </is>
+      </c>
+      <c r="V141" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/makedonikos-neapolis-aiolikos-fc/x82kxqwc/</t>
         </is>
       </c>
     </row>

--- a/2023/greece_super-league-2_2023-2024.xlsx
+++ b/2023/greece_super-league-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V141"/>
+  <dimension ref="A1:V143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Kampaniakos</t>
+          <t>Apollon Pontou</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Kozani FC</t>
+          <t>AEK Athens FC B</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J69" t="n">
-        <v>2.61</v>
+        <v>2.52</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2.94</v>
+        <v>3.36</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>11/11/2023 13:03</t>
+          <t>11/11/2023 13:49</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>2.87</v>
+        <v>2.82</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>2.79</v>
+        <v>2.73</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>11/11/2023 13:03</t>
+          <t>11/11/2023 13:49</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>2.61</v>
+        <v>2.83</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>2.68</v>
+        <v>2.45</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>11/11/2023 13:03</t>
+          <t>11/11/2023 13:49</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kampaniakos-kozani-fc/xCUYMtcm/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/apollon-pontou-aek/APStLKRa/</t>
         </is>
       </c>
     </row>
@@ -6829,22 +6829,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Apollon Pontou</t>
+          <t>Kampaniakos</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>AEK Athens FC B</t>
+          <t>Kozani FC</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>2.52</v>
+        <v>2.61</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>3.36</v>
+        <v>2.94</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>11/11/2023 13:49</t>
+          <t>11/11/2023 13:03</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>2.82</v>
+        <v>2.87</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>2.73</v>
+        <v>2.79</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>11/11/2023 13:49</t>
+          <t>11/11/2023 13:03</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>2.83</v>
+        <v>2.61</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>2.45</v>
+        <v>2.68</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>11/11/2023 13:49</t>
+          <t>11/11/2023 13:03</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/apollon-pontou-aek/APStLKRa/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kampaniakos-kozani-fc/xCUYMtcm/</t>
         </is>
       </c>
     </row>
@@ -7657,22 +7657,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Iraklis 1908</t>
+          <t>Makedonikos</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Apollon Pontou</t>
+          <t>Levadiakos</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J79" t="n">
-        <v>1.3</v>
+        <v>3.73</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>1.42</v>
+        <v>5.2</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>15/11/2023 12:58</t>
+          <t>15/11/2023 13:31</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>4.59</v>
+        <v>2.94</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>15/11/2023 12:58</t>
+          <t>15/11/2023 13:49</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>7.84</v>
+        <v>1.97</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>7.94</v>
+        <v>1.78</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>15/11/2023 12:58</t>
+          <t>15/11/2023 13:11</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/iraklis-fc-apollon-pontou/0UPRezZg/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/makedonikos-neapolis-levadiakos/ddJzfE36/</t>
         </is>
       </c>
     </row>
@@ -7749,7 +7749,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Aiolikos</t>
+          <t>Iraklis 1908</t>
         </is>
       </c>
       <c r="G80" t="n">
@@ -7757,63 +7757,63 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Niki Volos</t>
+          <t>Apollon Pontou</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>4.13</v>
+        <v>1.3</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>14/11/2023 15:18</t>
+          <t>14/11/2023 02:12</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>3.66</v>
+        <v>1.42</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>15/11/2023 13:38</t>
+          <t>15/11/2023 12:58</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3.43</v>
+        <v>4.59</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>14/11/2023 15:18</t>
+          <t>14/11/2023 02:12</t>
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3.18</v>
+        <v>4.2</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>15/11/2023 12:23</t>
+          <t>15/11/2023 12:58</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>1.83</v>
+        <v>7.84</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>14/11/2023 15:18</t>
+          <t>14/11/2023 02:12</t>
         </is>
       </c>
       <c r="T80" t="n">
-        <v>2.07</v>
+        <v>7.94</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>15/11/2023 13:38</t>
+          <t>15/11/2023 12:58</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/aiolikos-fc-niki-volos/rgFWffl0/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/iraklis-fc-apollon-pontou/0UPRezZg/</t>
         </is>
       </c>
     </row>
@@ -7841,71 +7841,71 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Makedonikos</t>
+          <t>Aiolikos</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Levadiakos</t>
+          <t>Niki Volos</t>
         </is>
       </c>
       <c r="I81" t="n">
         <v>2</v>
       </c>
       <c r="J81" t="n">
-        <v>3.73</v>
+        <v>4.13</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>14/11/2023 02:12</t>
+          <t>14/11/2023 15:18</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>5.2</v>
+        <v>3.66</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>15/11/2023 13:31</t>
+          <t>15/11/2023 13:38</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>2.94</v>
+        <v>3.43</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>14/11/2023 02:12</t>
+          <t>14/11/2023 15:18</t>
         </is>
       </c>
       <c r="P81" t="n">
-        <v>3.1</v>
+        <v>3.18</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>15/11/2023 13:49</t>
+          <t>15/11/2023 12:23</t>
         </is>
       </c>
       <c r="R81" t="n">
-        <v>1.97</v>
+        <v>1.83</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>14/11/2023 02:12</t>
+          <t>14/11/2023 15:18</t>
         </is>
       </c>
       <c r="T81" t="n">
-        <v>1.78</v>
+        <v>2.07</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>15/11/2023 13:11</t>
+          <t>15/11/2023 13:38</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/makedonikos-neapolis-levadiakos/ddJzfE36/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/aiolikos-fc-niki-volos/rgFWffl0/</t>
         </is>
       </c>
     </row>
@@ -8025,22 +8025,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Tilikratis L.</t>
+          <t>Giouchtas</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Panachaiki</t>
+          <t>PAE Chania</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>2.27</v>
+        <v>3.28</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8048,15 +8048,15 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>2.31</v>
+        <v>3.93</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>19/11/2023 13:54</t>
+          <t>19/11/2023 13:14</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>2.92</v>
+        <v>2.86</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -8064,15 +8064,15 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>19/11/2023 13:54</t>
+          <t>19/11/2023 12:51</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>3.02</v>
+        <v>2.17</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
@@ -8080,16 +8080,16 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>3.35</v>
+        <v>2.04</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>19/11/2023 13:51</t>
+          <t>19/11/2023 13:14</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/tilikratis-lefkada-panachaiki/rZYSo9JE/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/giouchtas-pae-chania/4rzPnk48/</t>
         </is>
       </c>
     </row>
@@ -8117,22 +8117,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Kalamata</t>
+          <t>Ionikos</t>
         </is>
       </c>
       <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Athens Kallithea</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
         <v>1</v>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>Diagoras</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
       <c r="J84" t="n">
-        <v>1.3</v>
+        <v>3.12</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>1.26</v>
+        <v>2.89</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>19/11/2023 13:49</t>
+          <t>19/11/2023 13:29</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>4.57</v>
+        <v>2.85</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>5.23</v>
+        <v>2.91</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>19/11/2023 13:56</t>
+          <t>19/11/2023 13:29</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>8.08</v>
+        <v>2.26</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>12.07</v>
+        <v>2.62</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>19/11/2023 13:56</t>
+          <t>19/11/2023 13:29</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kalamata-diagoras-fc/xxnsO5R7/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ionikos-athens-kallithea/v1SypmlR/</t>
         </is>
       </c>
     </row>
@@ -8209,71 +8209,71 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Apollon Pontou</t>
+          <t>Kalamata</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aiolikos</t>
+          <t>Diagoras</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J85" t="n">
-        <v>2.77</v>
+        <v>1.3</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>19/11/2023 03:12</t>
+          <t>18/11/2023 02:12</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>2.89</v>
+        <v>1.26</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>19/11/2023 13:41</t>
+          <t>19/11/2023 13:49</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>2.87</v>
+        <v>4.57</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>19/11/2023 03:12</t>
+          <t>18/11/2023 02:12</t>
         </is>
       </c>
       <c r="P85" t="n">
-        <v>2.85</v>
+        <v>5.23</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>19/11/2023 13:24</t>
+          <t>19/11/2023 13:56</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>2.65</v>
+        <v>8.08</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>19/11/2023 03:12</t>
+          <t>18/11/2023 02:12</t>
         </is>
       </c>
       <c r="T85" t="n">
-        <v>2.67</v>
+        <v>12.07</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>19/11/2023 13:41</t>
+          <t>19/11/2023 13:56</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/apollon-pontou-aiolikos-fc/pIaVFeQP/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kalamata-diagoras-fc/xxnsO5R7/</t>
         </is>
       </c>
     </row>
@@ -8301,22 +8301,22 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Giouchtas</t>
+          <t>Tilikratis L.</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>PAE Chania</t>
+          <t>Panachaiki</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J86" t="n">
-        <v>3.28</v>
+        <v>2.27</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,15 +8324,15 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>3.93</v>
+        <v>2.31</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>19/11/2023 13:14</t>
+          <t>19/11/2023 13:54</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>2.86</v>
+        <v>2.92</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,15 +8340,15 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>19/11/2023 12:51</t>
+          <t>19/11/2023 13:54</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>2.17</v>
+        <v>3.02</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,16 +8356,16 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>2.04</v>
+        <v>3.35</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>19/11/2023 13:14</t>
+          <t>19/11/2023 13:51</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/giouchtas-pae-chania/4rzPnk48/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/tilikratis-lefkada-panachaiki/rZYSo9JE/</t>
         </is>
       </c>
     </row>
@@ -8393,71 +8393,71 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Kampaniakos</t>
+          <t>Apollon Pontou</t>
         </is>
       </c>
       <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Aiolikos</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
         <v>1</v>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>Iraklis 1908</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
-        <v>3</v>
-      </c>
       <c r="J87" t="n">
-        <v>3.87</v>
+        <v>2.77</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>18/11/2023 02:12</t>
+          <t>19/11/2023 03:12</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>4.12</v>
+        <v>2.89</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>19/11/2023 12:04</t>
+          <t>19/11/2023 13:41</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.15</v>
+        <v>2.87</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>18/11/2023 02:12</t>
+          <t>19/11/2023 03:12</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.11</v>
+        <v>2.85</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>19/11/2023 12:52</t>
+          <t>19/11/2023 13:24</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>1.85</v>
+        <v>2.65</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>18/11/2023 02:12</t>
+          <t>19/11/2023 03:12</t>
         </is>
       </c>
       <c r="T87" t="n">
-        <v>1.97</v>
+        <v>2.67</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>19/11/2023 12:52</t>
+          <t>19/11/2023 13:41</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kampaniakos-iraklis-fc/6R0RGyBJ/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/apollon-pontou-aiolikos-fc/pIaVFeQP/</t>
         </is>
       </c>
     </row>
@@ -8485,22 +8485,22 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Ionikos</t>
+          <t>Kampaniakos</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Athens Kallithea</t>
+          <t>Iraklis 1908</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J88" t="n">
-        <v>3.12</v>
+        <v>3.87</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -8508,15 +8508,15 @@
         </is>
       </c>
       <c r="L88" t="n">
-        <v>2.89</v>
+        <v>4.12</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>19/11/2023 13:29</t>
+          <t>19/11/2023 12:04</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>2.85</v>
+        <v>3.15</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -8524,15 +8524,15 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>2.91</v>
+        <v>3.11</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>19/11/2023 13:29</t>
+          <t>19/11/2023 12:52</t>
         </is>
       </c>
       <c r="R88" t="n">
-        <v>2.26</v>
+        <v>1.85</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
@@ -8540,16 +8540,16 @@
         </is>
       </c>
       <c r="T88" t="n">
-        <v>2.62</v>
+        <v>1.97</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>19/11/2023 13:29</t>
+          <t>19/11/2023 12:52</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ionikos-athens-kallithea/v1SypmlR/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kampaniakos-iraklis-fc/6R0RGyBJ/</t>
         </is>
       </c>
     </row>
@@ -8761,22 +8761,22 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Athens Kallithea</t>
+          <t>Iraklis 1908</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Tilikratis L.</t>
+          <t>AEK Athens FC B</t>
         </is>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>1.16</v>
+        <v>1.5</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,15 +8784,15 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>1.11</v>
+        <v>1.67</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>25/11/2023 13:09</t>
+          <t>25/11/2023 13:45</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>6.22</v>
+        <v>3.67</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -8800,15 +8800,15 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>8.289999999999999</v>
+        <v>3.53</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>25/11/2023 13:10</t>
+          <t>25/11/2023 13:45</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>12.53</v>
+        <v>5.66</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
@@ -8816,16 +8816,16 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>23.73</v>
+        <v>5.3</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>25/11/2023 13:10</t>
+          <t>25/11/2023 13:45</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/athens-kallithea-tilikratis-lefkada/QL6KyPe7/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/iraklis-fc-aek/zmvA8DIa/</t>
         </is>
       </c>
     </row>
@@ -8945,22 +8945,22 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Iraklis 1908</t>
+          <t>Athens Kallithea</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>AEK Athens FC B</t>
+          <t>Tilikratis L.</t>
         </is>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>1.5</v>
+        <v>1.16</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>1.67</v>
+        <v>1.11</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>25/11/2023 13:45</t>
+          <t>25/11/2023 13:09</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.67</v>
+        <v>6.22</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.53</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>25/11/2023 13:45</t>
+          <t>25/11/2023 13:10</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>5.66</v>
+        <v>12.53</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>5.3</v>
+        <v>23.73</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>25/11/2023 13:45</t>
+          <t>25/11/2023 13:10</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/iraklis-fc-aek/zmvA8DIa/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/athens-kallithea-tilikratis-lefkada/QL6KyPe7/</t>
         </is>
       </c>
     </row>
@@ -9129,22 +9129,22 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Ilioupoli</t>
+          <t>Makedonikos</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Giouchtas</t>
+          <t>Apollon Pontou</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="n">
-        <v>1.97</v>
+        <v>1.53</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -9152,48 +9152,48 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>2.19</v>
+        <v>1.54</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
+          <t>26/11/2023 13:44</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>25/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P95" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
           <t>26/11/2023 13:59</t>
         </is>
       </c>
-      <c r="N95" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="O95" t="inlineStr">
+      <c r="R95" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="S95" t="inlineStr">
         <is>
           <t>25/11/2023 02:12</t>
         </is>
       </c>
-      <c r="P95" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="Q95" t="inlineStr">
+      <c r="T95" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="U95" t="inlineStr">
         <is>
           <t>26/11/2023 13:59</t>
         </is>
       </c>
-      <c r="R95" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="S95" t="inlineStr">
-        <is>
-          <t>25/11/2023 02:12</t>
-        </is>
-      </c>
-      <c r="T95" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="U95" t="inlineStr">
-        <is>
-          <t>26/11/2023 13:59</t>
-        </is>
-      </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ilioupoli-giouchtas/Wb7Gx5t1/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/makedonikos-neapolis-apollon-pontou/QyXM5B2I/</t>
         </is>
       </c>
     </row>
@@ -9221,22 +9221,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>PAE Chania</t>
+          <t>Ilioupoli</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>PAE Egaleo</t>
+          <t>Giouchtas</t>
         </is>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>1.55</v>
+        <v>1.97</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,15 +9244,15 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>1.2</v>
+        <v>2.19</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>26/11/2023 13:55</t>
+          <t>26/11/2023 13:59</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.48</v>
+        <v>3.02</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,15 +9260,15 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>6.56</v>
+        <v>3.19</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>26/11/2023 13:58</t>
+          <t>26/11/2023 13:59</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>5.44</v>
+        <v>3.62</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,16 +9276,16 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>11.76</v>
+        <v>3.32</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>26/11/2023 13:58</t>
+          <t>26/11/2023 13:59</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/pae-chania-pae-egaleo/zXD7vRBl/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ilioupoli-giouchtas/Wb7Gx5t1/</t>
         </is>
       </c>
     </row>
@@ -9405,7 +9405,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Karditsa</t>
+          <t>PAE Chania</t>
         </is>
       </c>
       <c r="G98" t="n">
@@ -9413,14 +9413,14 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Niki Volos</t>
+          <t>PAE Egaleo</t>
         </is>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>3.26</v>
+        <v>1.55</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -9428,15 +9428,15 @@
         </is>
       </c>
       <c r="L98" t="n">
-        <v>3.72</v>
+        <v>1.2</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>26/11/2023 13:46</t>
+          <t>26/11/2023 13:55</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>2.83</v>
+        <v>3.48</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -9444,15 +9444,15 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>2.91</v>
+        <v>6.56</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>26/11/2023 13:46</t>
+          <t>26/11/2023 13:58</t>
         </is>
       </c>
       <c r="R98" t="n">
-        <v>2.2</v>
+        <v>5.44</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
@@ -9460,16 +9460,16 @@
         </is>
       </c>
       <c r="T98" t="n">
-        <v>2.18</v>
+        <v>11.76</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>26/11/2023 13:46</t>
+          <t>26/11/2023 13:58</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-niki-volos/vuyR4VHO/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/pae-chania-pae-egaleo/zXD7vRBl/</t>
         </is>
       </c>
     </row>
@@ -9497,22 +9497,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Makedonikos</t>
+          <t>Karditsa</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Apollon Pontou</t>
+          <t>Niki Volos</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>1.53</v>
+        <v>3.26</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -9520,15 +9520,15 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>1.54</v>
+        <v>3.72</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>26/11/2023 13:44</t>
+          <t>26/11/2023 13:46</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>3.51</v>
+        <v>2.83</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -9536,15 +9536,15 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>3.65</v>
+        <v>2.91</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>26/11/2023 13:59</t>
+          <t>26/11/2023 13:46</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>5.58</v>
+        <v>2.2</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
@@ -9552,16 +9552,16 @@
         </is>
       </c>
       <c r="T99" t="n">
-        <v>6.81</v>
+        <v>2.18</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>26/11/2023 13:59</t>
+          <t>26/11/2023 13:46</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/makedonikos-neapolis-apollon-pontou/QyXM5B2I/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-niki-volos/vuyR4VHO/</t>
         </is>
       </c>
     </row>
@@ -10325,22 +10325,22 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Apollon Pontou</t>
+          <t>PAOK B</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Karditsa</t>
+          <t>Levadiakos</t>
         </is>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J108" t="n">
-        <v>3.51</v>
+        <v>4.7</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -10348,15 +10348,15 @@
         </is>
       </c>
       <c r="L108" t="n">
-        <v>3.95</v>
+        <v>6.1</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>03/12/2023 13:33</t>
+          <t>03/12/2023 13:52</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>2.83</v>
+        <v>3.28</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
@@ -10364,15 +10364,15 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>2.85</v>
+        <v>3.7</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>03/12/2023 13:33</t>
+          <t>03/12/2023 13:52</t>
         </is>
       </c>
       <c r="R108" t="n">
-        <v>2.14</v>
+        <v>1.7</v>
       </c>
       <c r="S108" t="inlineStr">
         <is>
@@ -10380,16 +10380,16 @@
         </is>
       </c>
       <c r="T108" t="n">
-        <v>2.14</v>
+        <v>1.57</v>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>03/12/2023 13:33</t>
+          <t>03/12/2023 13:52</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/apollon-pontou-karditsa/MJUqLj25/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/paok-levadiakos/z3SXNhIn/</t>
         </is>
       </c>
     </row>
@@ -10417,22 +10417,22 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>PAOK B</t>
+          <t>Apollon Pontou</t>
         </is>
       </c>
       <c r="G109" t="n">
+        <v>2</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Karditsa</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
         <v>1</v>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>Levadiakos</t>
-        </is>
-      </c>
-      <c r="I109" t="n">
-        <v>3</v>
-      </c>
       <c r="J109" t="n">
-        <v>4.7</v>
+        <v>3.51</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -10440,15 +10440,15 @@
         </is>
       </c>
       <c r="L109" t="n">
-        <v>6.1</v>
+        <v>3.95</v>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>03/12/2023 13:52</t>
+          <t>03/12/2023 13:33</t>
         </is>
       </c>
       <c r="N109" t="n">
-        <v>3.28</v>
+        <v>2.83</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
@@ -10456,15 +10456,15 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>3.7</v>
+        <v>2.85</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>03/12/2023 13:52</t>
+          <t>03/12/2023 13:33</t>
         </is>
       </c>
       <c r="R109" t="n">
-        <v>1.7</v>
+        <v>2.14</v>
       </c>
       <c r="S109" t="inlineStr">
         <is>
@@ -10472,16 +10472,16 @@
         </is>
       </c>
       <c r="T109" t="n">
-        <v>1.57</v>
+        <v>2.14</v>
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>03/12/2023 13:52</t>
+          <t>03/12/2023 13:33</t>
         </is>
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/paok-levadiakos/z3SXNhIn/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/apollon-pontou-karditsa/MJUqLj25/</t>
         </is>
       </c>
     </row>
@@ -10601,7 +10601,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Giouchtas</t>
+          <t>Ilioupoli</t>
         </is>
       </c>
       <c r="G111" t="n">
@@ -10609,63 +10609,63 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Ionikos</t>
+          <t>PAE Egaleo</t>
         </is>
       </c>
       <c r="I111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>3.23</v>
+        <v>2.1</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>02/12/2023 02:13</t>
+          <t>02/12/2023 02:42</t>
         </is>
       </c>
       <c r="L111" t="n">
-        <v>3.35</v>
+        <v>1.85</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>03/12/2023 13:39</t>
+          <t>03/12/2023 13:55</t>
         </is>
       </c>
       <c r="N111" t="n">
-        <v>2.8</v>
+        <v>2.97</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>02/12/2023 02:13</t>
+          <t>02/12/2023 02:42</t>
         </is>
       </c>
       <c r="P111" t="n">
-        <v>2.79</v>
+        <v>3.16</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>03/12/2023 13:39</t>
+          <t>03/12/2023 13:55</t>
         </is>
       </c>
       <c r="R111" t="n">
-        <v>2.28</v>
+        <v>3.39</v>
       </c>
       <c r="S111" t="inlineStr">
         <is>
-          <t>02/12/2023 02:13</t>
+          <t>02/12/2023 02:42</t>
         </is>
       </c>
       <c r="T111" t="n">
-        <v>2.42</v>
+        <v>4.65</v>
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>03/12/2023 13:39</t>
+          <t>03/12/2023 13:55</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/giouchtas-ionikos/YFwVHu7U/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ilioupoli-pae-egaleo/fPvRILiO/</t>
         </is>
       </c>
     </row>
@@ -10877,7 +10877,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Ilioupoli</t>
+          <t>Giouchtas</t>
         </is>
       </c>
       <c r="G114" t="n">
@@ -10885,63 +10885,63 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>PAE Egaleo</t>
+          <t>Ionikos</t>
         </is>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J114" t="n">
-        <v>2.1</v>
+        <v>3.23</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>02/12/2023 02:42</t>
+          <t>02/12/2023 02:13</t>
         </is>
       </c>
       <c r="L114" t="n">
-        <v>1.85</v>
+        <v>3.35</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>03/12/2023 13:55</t>
+          <t>03/12/2023 13:39</t>
         </is>
       </c>
       <c r="N114" t="n">
-        <v>2.97</v>
+        <v>2.8</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>02/12/2023 02:42</t>
+          <t>02/12/2023 02:13</t>
         </is>
       </c>
       <c r="P114" t="n">
-        <v>3.16</v>
+        <v>2.79</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>03/12/2023 13:55</t>
+          <t>03/12/2023 13:39</t>
         </is>
       </c>
       <c r="R114" t="n">
-        <v>3.39</v>
+        <v>2.28</v>
       </c>
       <c r="S114" t="inlineStr">
         <is>
-          <t>02/12/2023 02:42</t>
+          <t>02/12/2023 02:13</t>
         </is>
       </c>
       <c r="T114" t="n">
-        <v>4.65</v>
+        <v>2.42</v>
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>03/12/2023 13:55</t>
+          <t>03/12/2023 13:39</t>
         </is>
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ilioupoli-pae-egaleo/fPvRILiO/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/giouchtas-ionikos/YFwVHu7U/</t>
         </is>
       </c>
     </row>
@@ -11797,7 +11797,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Niki Volos</t>
+          <t>AEL Larissa</t>
         </is>
       </c>
       <c r="G124" t="n">
@@ -11805,14 +11805,14 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>PAOK B</t>
+          <t>Apollon Pontou</t>
         </is>
       </c>
       <c r="I124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>1.57</v>
+        <v>1.19</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -11820,15 +11820,15 @@
         </is>
       </c>
       <c r="L124" t="n">
-        <v>1.5</v>
+        <v>1.18</v>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>11/12/2023 13:51</t>
+          <t>11/12/2023 13:57</t>
         </is>
       </c>
       <c r="N124" t="n">
-        <v>3.5</v>
+        <v>5.42</v>
       </c>
       <c r="O124" t="inlineStr">
         <is>
@@ -11836,15 +11836,15 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>3.83</v>
+        <v>6.03</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>11/12/2023 13:58</t>
+          <t>11/12/2023 13:57</t>
         </is>
       </c>
       <c r="R124" t="n">
-        <v>5.09</v>
+        <v>11.94</v>
       </c>
       <c r="S124" t="inlineStr">
         <is>
@@ -11852,16 +11852,16 @@
         </is>
       </c>
       <c r="T124" t="n">
-        <v>7</v>
+        <v>16.47</v>
       </c>
       <c r="U124" t="inlineStr">
         <is>
-          <t>11/12/2023 13:58</t>
+          <t>11/12/2023 13:57</t>
         </is>
       </c>
       <c r="V124" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/niki-volos-paok/lYpQ0MGj/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ael-larissa-apollon-pontou/lOsCOP8c/</t>
         </is>
       </c>
     </row>
@@ -11889,7 +11889,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>AEL Larissa</t>
+          <t>Niki Volos</t>
         </is>
       </c>
       <c r="G125" t="n">
@@ -11897,14 +11897,14 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Apollon Pontou</t>
+          <t>PAOK B</t>
         </is>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J125" t="n">
-        <v>1.19</v>
+        <v>1.57</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -11912,15 +11912,15 @@
         </is>
       </c>
       <c r="L125" t="n">
-        <v>1.18</v>
+        <v>1.5</v>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>11/12/2023 13:57</t>
+          <t>11/12/2023 13:51</t>
         </is>
       </c>
       <c r="N125" t="n">
-        <v>5.42</v>
+        <v>3.5</v>
       </c>
       <c r="O125" t="inlineStr">
         <is>
@@ -11928,15 +11928,15 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>6.03</v>
+        <v>3.83</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>11/12/2023 13:57</t>
+          <t>11/12/2023 13:58</t>
         </is>
       </c>
       <c r="R125" t="n">
-        <v>11.94</v>
+        <v>5.09</v>
       </c>
       <c r="S125" t="inlineStr">
         <is>
@@ -11944,16 +11944,16 @@
         </is>
       </c>
       <c r="T125" t="n">
-        <v>16.47</v>
+        <v>7</v>
       </c>
       <c r="U125" t="inlineStr">
         <is>
-          <t>11/12/2023 13:57</t>
+          <t>11/12/2023 13:58</t>
         </is>
       </c>
       <c r="V125" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ael-larissa-apollon-pontou/lOsCOP8c/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/niki-volos-paok/lYpQ0MGj/</t>
         </is>
       </c>
     </row>
@@ -11981,22 +11981,22 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Ionikos</t>
+          <t>AEK Athens FC B</t>
         </is>
       </c>
       <c r="G126" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>PAE Egaleo</t>
+          <t>Kozani FC</t>
         </is>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="n">
-        <v>1.6</v>
+        <v>2.66</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -12004,15 +12004,15 @@
         </is>
       </c>
       <c r="L126" t="n">
-        <v>1.54</v>
+        <v>2.21</v>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>13/12/2023 13:59</t>
+          <t>13/12/2023 13:54</t>
         </is>
       </c>
       <c r="N126" t="n">
-        <v>3.43</v>
+        <v>2.69</v>
       </c>
       <c r="O126" t="inlineStr">
         <is>
@@ -12020,15 +12020,15 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>3.8</v>
+        <v>2.59</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>13/12/2023 13:59</t>
+          <t>13/12/2023 13:54</t>
         </is>
       </c>
       <c r="R126" t="n">
-        <v>5.27</v>
+        <v>2.79</v>
       </c>
       <c r="S126" t="inlineStr">
         <is>
@@ -12036,16 +12036,16 @@
         </is>
       </c>
       <c r="T126" t="n">
-        <v>5.17</v>
+        <v>4.29</v>
       </c>
       <c r="U126" t="inlineStr">
         <is>
-          <t>13/12/2023 13:59</t>
+          <t>13/12/2023 13:54</t>
         </is>
       </c>
       <c r="V126" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ionikos-pae-egaleo/QNmnqPPE/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/aek-kozani-fc/U9HrhhYI/</t>
         </is>
       </c>
     </row>
@@ -12073,22 +12073,22 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>AEK Athens FC B</t>
+          <t>Ionikos</t>
         </is>
       </c>
       <c r="G127" t="n">
+        <v>5</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>PAE Egaleo</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
         <v>1</v>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>Kozani FC</t>
-        </is>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
       <c r="J127" t="n">
-        <v>2.66</v>
+        <v>1.6</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -12096,15 +12096,15 @@
         </is>
       </c>
       <c r="L127" t="n">
-        <v>2.21</v>
+        <v>1.54</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>13/12/2023 13:54</t>
+          <t>13/12/2023 13:59</t>
         </is>
       </c>
       <c r="N127" t="n">
-        <v>2.69</v>
+        <v>3.43</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
@@ -12112,15 +12112,15 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>2.59</v>
+        <v>3.8</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>13/12/2023 13:54</t>
+          <t>13/12/2023 13:59</t>
         </is>
       </c>
       <c r="R127" t="n">
-        <v>2.79</v>
+        <v>5.27</v>
       </c>
       <c r="S127" t="inlineStr">
         <is>
@@ -12128,16 +12128,16 @@
         </is>
       </c>
       <c r="T127" t="n">
-        <v>4.29</v>
+        <v>5.17</v>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>13/12/2023 13:54</t>
+          <t>13/12/2023 13:59</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/aek-kozani-fc/U9HrhhYI/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ionikos-pae-egaleo/QNmnqPPE/</t>
         </is>
       </c>
     </row>
@@ -13177,22 +13177,22 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Kozani FC</t>
+          <t>Karditsa</t>
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Levadiakos</t>
+          <t>Iraklis 1908</t>
         </is>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" t="n">
-        <v>5.26</v>
+        <v>2.86</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -13200,15 +13200,15 @@
         </is>
       </c>
       <c r="L139" t="n">
-        <v>5.66</v>
+        <v>3.39</v>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>03/01/2024 13:03</t>
+          <t>03/01/2024 13:59</t>
         </is>
       </c>
       <c r="N139" t="n">
-        <v>3.18</v>
+        <v>2.7</v>
       </c>
       <c r="O139" t="inlineStr">
         <is>
@@ -13216,15 +13216,15 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>3.17</v>
+        <v>2.42</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>03/01/2024 12:54</t>
+          <t>03/01/2024 13:58</t>
         </is>
       </c>
       <c r="R139" t="n">
-        <v>1.66</v>
+        <v>2.6</v>
       </c>
       <c r="S139" t="inlineStr">
         <is>
@@ -13232,16 +13232,16 @@
         </is>
       </c>
       <c r="T139" t="n">
-        <v>1.73</v>
+        <v>2.75</v>
       </c>
       <c r="U139" t="inlineStr">
         <is>
-          <t>03/01/2024 13:03</t>
+          <t>03/01/2024 13:58</t>
         </is>
       </c>
       <c r="V139" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kozani-fc-levadiakos/A1E7Da0d/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-iraklis-fc/Gb1gy3h3/</t>
         </is>
       </c>
     </row>
@@ -13269,22 +13269,22 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Karditsa</t>
+          <t>Kozani FC</t>
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Iraklis 1908</t>
+          <t>Levadiakos</t>
         </is>
       </c>
       <c r="I140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140" t="n">
-        <v>2.86</v>
+        <v>5.26</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -13292,15 +13292,15 @@
         </is>
       </c>
       <c r="L140" t="n">
-        <v>3.39</v>
+        <v>5.66</v>
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>03/01/2024 13:59</t>
+          <t>03/01/2024 13:03</t>
         </is>
       </c>
       <c r="N140" t="n">
-        <v>2.7</v>
+        <v>3.18</v>
       </c>
       <c r="O140" t="inlineStr">
         <is>
@@ -13308,15 +13308,15 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>2.42</v>
+        <v>3.17</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>03/01/2024 13:58</t>
+          <t>03/01/2024 12:54</t>
         </is>
       </c>
       <c r="R140" t="n">
-        <v>2.6</v>
+        <v>1.66</v>
       </c>
       <c r="S140" t="inlineStr">
         <is>
@@ -13324,16 +13324,16 @@
         </is>
       </c>
       <c r="T140" t="n">
-        <v>2.75</v>
+        <v>1.73</v>
       </c>
       <c r="U140" t="inlineStr">
         <is>
-          <t>03/01/2024 13:58</t>
+          <t>03/01/2024 13:03</t>
         </is>
       </c>
       <c r="V140" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-iraklis-fc/Gb1gy3h3/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kozani-fc-levadiakos/A1E7Da0d/</t>
         </is>
       </c>
     </row>
@@ -13426,6 +13426,190 @@
       <c r="V141" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/greece/super-league-2/makedonikos-neapolis-aiolikos-fc/x82kxqwc/</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>45295.58333333334</v>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Kampaniakos</t>
+        </is>
+      </c>
+      <c r="G142" t="n">
+        <v>2</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>PAOK B</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>03/01/2024 02:12</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>04/01/2024 13:56</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>03/01/2024 02:12</t>
+        </is>
+      </c>
+      <c r="P142" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="Q142" t="inlineStr">
+        <is>
+          <t>04/01/2024 13:56</t>
+        </is>
+      </c>
+      <c r="R142" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="S142" t="inlineStr">
+        <is>
+          <t>03/01/2024 02:12</t>
+        </is>
+      </c>
+      <c r="T142" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="U142" t="inlineStr">
+        <is>
+          <t>04/01/2024 13:56</t>
+        </is>
+      </c>
+      <c r="V142" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kampaniakos-paok/CQf2ZtNF/</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>45295.625</v>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>AEL Larissa</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
+        <v>1</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>AEK Athens FC B</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>03/01/2024 03:12</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>04/01/2024 14:59</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>03/01/2024 03:12</t>
+        </is>
+      </c>
+      <c r="P143" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="Q143" t="inlineStr">
+        <is>
+          <t>04/01/2024 14:59</t>
+        </is>
+      </c>
+      <c r="R143" t="n">
+        <v>9.68</v>
+      </c>
+      <c r="S143" t="inlineStr">
+        <is>
+          <t>03/01/2024 03:12</t>
+        </is>
+      </c>
+      <c r="T143" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="U143" t="inlineStr">
+        <is>
+          <t>04/01/2024 14:59</t>
+        </is>
+      </c>
+      <c r="V143" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ael-larissa-aek/bNjbzN79/</t>
         </is>
       </c>
     </row>

--- a/2023/greece_super-league-2_2023-2024.xlsx
+++ b/2023/greece_super-league-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V143"/>
+  <dimension ref="A1:V144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,7 +665,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Athens Kallithea</t>
+          <t>Makedonikos</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -673,14 +673,14 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Panachaiki</t>
+          <t>Iraklis 1908</t>
         </is>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1.2</v>
+        <v>2.45</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -688,15 +688,15 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>1.1</v>
+        <v>4.53</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>23/09/2023 14:11</t>
+          <t>23/09/2023 13:19</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>5.49</v>
+        <v>2.77</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -704,15 +704,15 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>8.34</v>
+        <v>3.1</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>23/09/2023 14:28</t>
+          <t>23/09/2023 13:19</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>10.71</v>
+        <v>2.9</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -720,16 +720,16 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>27.96</v>
+        <v>1.89</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>23/09/2023 14:28</t>
+          <t>23/09/2023 13:19</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/athens-kallithea-panachaiki/bu6CP33g/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/makedonikos-neapolis-iraklis-fc/Io8qMUd1/</t>
         </is>
       </c>
     </row>
@@ -757,7 +757,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Makedonikos</t>
+          <t>Athens Kallithea</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -765,14 +765,14 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Iraklis 1908</t>
+          <t>Panachaiki</t>
         </is>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.45</v>
+        <v>1.2</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -780,15 +780,15 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>4.53</v>
+        <v>1.1</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>23/09/2023 13:19</t>
+          <t>23/09/2023 14:11</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>2.77</v>
+        <v>5.49</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -796,15 +796,15 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3.1</v>
+        <v>8.34</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>23/09/2023 13:19</t>
+          <t>23/09/2023 14:28</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>2.9</v>
+        <v>10.71</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -812,16 +812,16 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>1.89</v>
+        <v>27.96</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>23/09/2023 13:19</t>
+          <t>23/09/2023 14:28</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/makedonikos-neapolis-iraklis-fc/Io8qMUd1/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/athens-kallithea-panachaiki/bu6CP33g/</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>AEL Larissa</t>
+          <t>Karditsa</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -949,63 +949,63 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Kampaniakos</t>
+          <t>AEK Athens FC B</t>
         </is>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>1.29</v>
+        <v>1.7</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>23/09/2023 04:12</t>
+          <t>23/09/2023 03:13</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1.31</v>
+        <v>2.42</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>23/09/2023 13:23</t>
+          <t>24/09/2023 14:42</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>4.51</v>
+        <v>3.31</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>23/09/2023 04:12</t>
+          <t>23/09/2023 03:13</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>4.77</v>
+        <v>3.11</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>24/09/2023 13:03</t>
+          <t>24/09/2023 14:41</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>8.710000000000001</v>
+        <v>4.43</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>23/09/2023 04:12</t>
+          <t>23/09/2023 03:13</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>10.02</v>
+        <v>2.97</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>23/09/2023 13:23</t>
+          <t>24/09/2023 14:42</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ael-larissa-kampaniakos/2DC3RPYt/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-aek/bsoWqYl8/</t>
         </is>
       </c>
     </row>
@@ -1033,7 +1033,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tilikratis L.</t>
+          <t>Panathinaikos B</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -1041,63 +1041,63 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>PAE Egaleo</t>
+          <t>Kalamata</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J7" t="n">
-        <v>2.47</v>
+        <v>3.59</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>23/09/2023 04:12</t>
+          <t>23/09/2023 03:13</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>3.26</v>
+        <v>4.39</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>24/09/2023 14:31</t>
+          <t>24/09/2023 14:57</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>2.82</v>
+        <v>3.03</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>23/09/2023 04:12</t>
+          <t>23/09/2023 03:13</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>24/09/2023 13:02</t>
+          <t>24/09/2023 14:57</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>2.82</v>
+        <v>1.97</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>23/09/2023 04:12</t>
+          <t>23/09/2023 03:13</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>2.32</v>
+        <v>1.85</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>24/09/2023 14:31</t>
+          <t>24/09/2023 14:57</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/tilikratis-lefkada-pae-egaleo/pd8OM1mC/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/panathinaikos-kalamata/Wh4KNsY5/</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Panathinaikos B</t>
+          <t>Tilikratis L.</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -1133,63 +1133,63 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Kalamata</t>
+          <t>PAE Egaleo</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>3.59</v>
+        <v>2.47</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>23/09/2023 03:13</t>
+          <t>23/09/2023 04:12</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>4.39</v>
+        <v>3.26</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>24/09/2023 14:57</t>
+          <t>24/09/2023 14:31</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.03</v>
+        <v>2.82</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>23/09/2023 03:13</t>
+          <t>23/09/2023 04:12</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>24/09/2023 14:57</t>
+          <t>24/09/2023 13:02</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>1.97</v>
+        <v>2.82</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>23/09/2023 03:13</t>
+          <t>23/09/2023 04:12</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>1.85</v>
+        <v>2.32</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>24/09/2023 14:57</t>
+          <t>24/09/2023 14:31</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/panathinaikos-kalamata/Wh4KNsY5/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/tilikratis-lefkada-pae-egaleo/pd8OM1mC/</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Karditsa</t>
+          <t>AEL Larissa</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -1225,63 +1225,63 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>AEK Athens FC B</t>
+          <t>Kampaniakos</t>
         </is>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>1.7</v>
+        <v>1.29</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>23/09/2023 03:13</t>
+          <t>23/09/2023 04:12</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>2.42</v>
+        <v>1.31</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>24/09/2023 14:42</t>
+          <t>23/09/2023 13:23</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.31</v>
+        <v>4.51</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>23/09/2023 03:13</t>
+          <t>23/09/2023 04:12</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3.11</v>
+        <v>4.77</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>24/09/2023 14:41</t>
+          <t>24/09/2023 13:03</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>4.43</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>23/09/2023 03:13</t>
+          <t>23/09/2023 04:12</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>2.97</v>
+        <v>10.02</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>24/09/2023 14:42</t>
+          <t>23/09/2023 13:23</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-aek/bsoWqYl8/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ael-larissa-kampaniakos/2DC3RPYt/</t>
         </is>
       </c>
     </row>
@@ -1585,71 +1585,71 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>PAOK B</t>
+          <t>Panachaiki</t>
         </is>
       </c>
       <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Panathinaikos B</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
         <v>2</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Kampaniakos</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
-        <v>3</v>
-      </c>
       <c r="J13" t="n">
-        <v>1.46</v>
+        <v>2.03</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>30/09/2023 03:12</t>
+          <t>29/09/2023 02:12</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>1.52</v>
+        <v>2.78</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>30/09/2023 13:01</t>
+          <t>30/09/2023 14:56</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>4.27</v>
+        <v>3.16</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>30/09/2023 03:12</t>
+          <t>29/09/2023 02:12</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>4.05</v>
+        <v>2.92</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>30/09/2023 13:17</t>
+          <t>30/09/2023 13:25</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>5.93</v>
+        <v>3.27</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>30/09/2023 03:12</t>
+          <t>29/09/2023 02:12</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>6.09</v>
+        <v>2.72</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>30/09/2023 13:17</t>
+          <t>30/09/2023 14:56</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/paok-kampaniakos/S6W0xkkj/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/panachaiki-panathinaikos/xh8LWHQB/</t>
         </is>
       </c>
     </row>
@@ -1677,71 +1677,71 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Panachaiki</t>
+          <t>PAOK B</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Panathinaikos B</t>
+          <t>Kampaniakos</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J14" t="n">
-        <v>2.03</v>
+        <v>1.46</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>29/09/2023 02:12</t>
+          <t>30/09/2023 03:12</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>2.78</v>
+        <v>1.52</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>30/09/2023 14:56</t>
+          <t>30/09/2023 13:01</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.16</v>
+        <v>4.27</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>29/09/2023 02:12</t>
+          <t>30/09/2023 03:12</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>2.92</v>
+        <v>4.05</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>30/09/2023 13:25</t>
+          <t>30/09/2023 13:17</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>3.27</v>
+        <v>5.93</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>29/09/2023 02:12</t>
+          <t>30/09/2023 03:12</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>2.72</v>
+        <v>6.09</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>30/09/2023 14:56</t>
+          <t>30/09/2023 13:17</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/panachaiki-panathinaikos/xh8LWHQB/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/paok-kampaniakos/S6W0xkkj/</t>
         </is>
       </c>
     </row>
@@ -1861,71 +1861,71 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Iraklis 1908</t>
+          <t>Ilioupoli</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Karditsa</t>
+          <t>Ionikos</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J16" t="n">
-        <v>1.51</v>
+        <v>3.4</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>30/09/2023 02:13</t>
+          <t>30/09/2023 03:42</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1.95</v>
+        <v>3.51</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>01/10/2023 13:08</t>
+          <t>01/10/2023 14:27</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.71</v>
+        <v>3.1</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>30/09/2023 02:13</t>
+          <t>30/09/2023 03:42</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.11</v>
+        <v>3.04</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>01/10/2023 13:08</t>
+          <t>01/10/2023 14:31</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>5.51</v>
+        <v>2.01</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>30/09/2023 02:13</t>
+          <t>30/09/2023 03:42</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>4.19</v>
+        <v>2.16</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>01/10/2023 13:02</t>
+          <t>01/10/2023 14:27</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/iraklis-fc-karditsa/vqFOewjB/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ilioupoli-ionikos/rV8HXcB5/</t>
         </is>
       </c>
     </row>
@@ -1953,71 +1953,71 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Ilioupoli</t>
+          <t>Iraklis 1908</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Ionikos</t>
+          <t>Karditsa</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>3.4</v>
+        <v>1.51</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>30/09/2023 03:42</t>
+          <t>30/09/2023 02:13</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>3.51</v>
+        <v>1.95</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>01/10/2023 14:27</t>
+          <t>01/10/2023 13:08</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.1</v>
+        <v>3.71</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>30/09/2023 03:42</t>
+          <t>30/09/2023 02:13</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.04</v>
+        <v>3.11</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>01/10/2023 14:31</t>
+          <t>01/10/2023 13:08</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2.01</v>
+        <v>5.51</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>30/09/2023 03:42</t>
+          <t>30/09/2023 02:13</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>2.16</v>
+        <v>4.19</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>01/10/2023 14:27</t>
+          <t>01/10/2023 13:02</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ilioupoli-ionikos/rV8HXcB5/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/iraklis-fc-karditsa/vqFOewjB/</t>
         </is>
       </c>
     </row>
@@ -3057,22 +3057,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Levadiakos</t>
+          <t>Niki Volos</t>
         </is>
       </c>
       <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Kozani FC</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
         <v>1</v>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Apollon Pontou</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
       <c r="J29" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.09</v>
+        <v>1.55</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>15/10/2023 14:59</t>
+          <t>15/10/2023 11:11</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>6.45</v>
+        <v>3.99</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>9.52</v>
+        <v>3.61</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>15/10/2023 14:59</t>
+          <t>15/10/2023 14:58</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>13.81</v>
+        <v>7.33</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>24.08</v>
+        <v>4.75</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>15/10/2023 14:59</t>
+          <t>15/10/2023 14:58</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/levadiakos-apollon-pontou/KfKyGYq3/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/niki-volos-kozani-fc/S0XkhVid/</t>
         </is>
       </c>
     </row>
@@ -3149,71 +3149,71 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Makedonikos</t>
+          <t>Levadiakos</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Karditsa</t>
+          <t>Apollon Pontou</t>
         </is>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>1.87</v>
+        <v>1.17</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>14/10/2023 02:12</t>
+          <t>15/10/2023 02:12</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2.41</v>
+        <v>1.09</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>15/10/2023 14:49</t>
+          <t>15/10/2023 14:59</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.02</v>
+        <v>6.45</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>14/10/2023 02:12</t>
+          <t>15/10/2023 02:12</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.12</v>
+        <v>9.52</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>15/10/2023 14:48</t>
+          <t>15/10/2023 14:59</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>3.99</v>
+        <v>13.81</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>14/10/2023 02:12</t>
+          <t>15/10/2023 02:12</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>2.98</v>
+        <v>24.08</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>15/10/2023 14:49</t>
+          <t>15/10/2023 14:59</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/makedonikos-neapolis-karditsa/t4LXGEUd/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/levadiakos-apollon-pontou/KfKyGYq3/</t>
         </is>
       </c>
     </row>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Niki Volos</t>
+          <t>Makedonikos</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -3249,63 +3249,63 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Kozani FC</t>
+          <t>Karditsa</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1.43</v>
+        <v>1.87</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>15/10/2023 02:12</t>
+          <t>14/10/2023 02:12</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.55</v>
+        <v>2.41</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>15/10/2023 11:11</t>
+          <t>15/10/2023 14:49</t>
         </is>
       </c>
       <c r="N31" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>14/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P31" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>15/10/2023 14:48</t>
+        </is>
+      </c>
+      <c r="R31" t="n">
         <v>3.99</v>
       </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>15/10/2023 02:12</t>
-        </is>
-      </c>
-      <c r="P31" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>15/10/2023 14:58</t>
-        </is>
-      </c>
-      <c r="R31" t="n">
-        <v>7.33</v>
-      </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>15/10/2023 02:12</t>
+          <t>14/10/2023 02:12</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>4.75</v>
+        <v>2.98</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>15/10/2023 14:58</t>
+          <t>15/10/2023 14:49</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/niki-volos-kozani-fc/S0XkhVid/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/makedonikos-neapolis-karditsa/t4LXGEUd/</t>
         </is>
       </c>
     </row>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Ionikos</t>
+          <t>Athens Kallithea</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -3617,7 +3617,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Tilikratis L.</t>
+          <t>Giouchtas</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -3632,11 +3632,11 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>21/10/2023 12:52</t>
+          <t>21/10/2023 14:17</t>
         </is>
       </c>
       <c r="N35" t="n">
@@ -3648,11 +3648,11 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>5.42</v>
+        <v>5.44</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>21/10/2023 13:02</t>
+          <t>21/10/2023 14:18</t>
         </is>
       </c>
       <c r="R35" t="n">
@@ -3664,16 +3664,16 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>14.23</v>
+        <v>13.52</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>21/10/2023 12:52</t>
+          <t>21/10/2023 14:17</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ionikos-tilikratis-lefkada/hry7rFPN/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/athens-kallithea-giouchtas/n5zBsZvU/</t>
         </is>
       </c>
     </row>
@@ -3701,7 +3701,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Athens Kallithea</t>
+          <t>Ionikos</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -3709,7 +3709,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Giouchtas</t>
+          <t>Tilikratis L.</t>
         </is>
       </c>
       <c r="I36" t="n">
@@ -3724,11 +3724,11 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>21/10/2023 14:17</t>
+          <t>21/10/2023 12:52</t>
         </is>
       </c>
       <c r="N36" t="n">
@@ -3740,11 +3740,11 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>5.44</v>
+        <v>5.42</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>21/10/2023 14:18</t>
+          <t>21/10/2023 13:02</t>
         </is>
       </c>
       <c r="R36" t="n">
@@ -3756,16 +3756,16 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>13.52</v>
+        <v>14.23</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>21/10/2023 14:17</t>
+          <t>21/10/2023 12:52</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/athens-kallithea-giouchtas/n5zBsZvU/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ionikos-tilikratis-lefkada/hry7rFPN/</t>
         </is>
       </c>
     </row>
@@ -3793,22 +3793,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Ilioupoli</t>
+          <t>Kalamata</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Diagoras</t>
+          <t>PAE Chania</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J37" t="n">
-        <v>1.99</v>
+        <v>1.87</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3816,15 +3816,15 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2.02</v>
+        <v>1.56</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>22/10/2023 12:26</t>
+          <t>22/10/2023 12:50</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.14</v>
+        <v>3.02</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3832,15 +3832,15 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.18</v>
+        <v>3.75</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>22/10/2023 12:26</t>
+          <t>22/10/2023 12:50</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>3.41</v>
+        <v>3.99</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
@@ -3848,16 +3848,16 @@
         </is>
       </c>
       <c r="T37" t="n">
-        <v>3.83</v>
+        <v>6.08</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>22/10/2023 11:44</t>
+          <t>22/10/2023 12:50</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ilioupoli-diagoras-fc/lEMxwgmo/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kalamata-pae-chania/4M4P0duh/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Kalamata</t>
+          <t>Ilioupoli</t>
         </is>
       </c>
       <c r="G38" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Diagoras</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>PAE Chania</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
-        <v>2</v>
-      </c>
       <c r="J38" t="n">
-        <v>1.87</v>
+        <v>1.99</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,15 +3908,15 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>1.56</v>
+        <v>2.02</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>22/10/2023 12:50</t>
+          <t>22/10/2023 12:26</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.02</v>
+        <v>3.14</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,15 +3924,15 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.75</v>
+        <v>3.18</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>22/10/2023 12:50</t>
+          <t>22/10/2023 12:26</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>3.99</v>
+        <v>3.41</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>6.08</v>
+        <v>3.83</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>22/10/2023 12:50</t>
+          <t>22/10/2023 11:44</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kalamata-pae-chania/4M4P0duh/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ilioupoli-diagoras-fc/lEMxwgmo/</t>
         </is>
       </c>
     </row>
@@ -4621,71 +4621,71 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Levadiakos</t>
+          <t>PAE Chania</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>AEK Athens FC B</t>
+          <t>Panachaiki</t>
         </is>
       </c>
       <c r="I46" t="n">
         <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>1.3</v>
+        <v>1.42</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>28/10/2023 01:12</t>
+          <t>27/10/2023 02:13</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>28/10/2023 13:55</t>
+          <t>28/10/2023 13:34</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>4.78</v>
+        <v>4.07</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>28/10/2023 01:12</t>
+          <t>27/10/2023 02:13</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>4.28</v>
+        <v>5.62</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>28/10/2023 13:55</t>
+          <t>28/10/2023 13:58</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>9.51</v>
+        <v>6.07</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>28/10/2023 01:12</t>
+          <t>27/10/2023 02:13</t>
         </is>
       </c>
       <c r="T46" t="n">
-        <v>9.83</v>
+        <v>14.35</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>28/10/2023 13:55</t>
+          <t>28/10/2023 13:58</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/levadiakos-aek/xbk08srf/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/pae-chania-panachaiki/xYNDv6Ok/</t>
         </is>
       </c>
     </row>
@@ -4713,22 +4713,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>PAE Egaleo</t>
+          <t>Kalamata</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Athens Kallithea</t>
+          <t>Ilioupoli</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>4.46</v>
+        <v>1.44</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4736,15 +4736,15 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>7.03</v>
+        <v>1.38</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>28/10/2023 12:23</t>
+          <t>28/10/2023 13:43</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.12</v>
+        <v>3.96</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4752,15 +4752,15 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.72</v>
+        <v>4.35</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>28/10/2023 12:23</t>
+          <t>28/10/2023 13:43</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>1.75</v>
+        <v>5.97</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -4768,16 +4768,16 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>1.52</v>
+        <v>8.56</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>28/10/2023 12:23</t>
+          <t>28/10/2023 13:43</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/pae-egaleo-athens-kallithea/WYetcEvH/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kalamata-ilioupoli/bsP9un9q/</t>
         </is>
       </c>
     </row>
@@ -4805,71 +4805,71 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>PAE Chania</t>
+          <t>Giouchtas</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Panachaiki</t>
+          <t>Panathinaikos B</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>1.42</v>
+        <v>1.83</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>27/10/2023 02:13</t>
+          <t>28/10/2023 01:12</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1.22</v>
+        <v>1.91</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>28/10/2023 13:34</t>
+          <t>28/10/2023 13:55</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>4.07</v>
+        <v>3.35</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>27/10/2023 02:13</t>
+          <t>28/10/2023 01:12</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>5.62</v>
+        <v>3.24</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>28/10/2023 13:58</t>
+          <t>28/10/2023 13:55</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>6.07</v>
+        <v>4.09</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>27/10/2023 02:13</t>
+          <t>28/10/2023 01:12</t>
         </is>
       </c>
       <c r="T48" t="n">
-        <v>14.35</v>
+        <v>4.19</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>28/10/2023 13:58</t>
+          <t>28/10/2023 13:55</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/pae-chania-panachaiki/xYNDv6Ok/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/giouchtas-panathinaikos/AJ7XbzA4/</t>
         </is>
       </c>
     </row>
@@ -4897,7 +4897,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Giouchtas</t>
+          <t>Levadiakos</t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -4905,14 +4905,14 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Panathinaikos B</t>
+          <t>AEK Athens FC B</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>1.83</v>
+        <v>1.3</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>1.91</v>
+        <v>1.36</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.35</v>
+        <v>4.78</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.24</v>
+        <v>4.28</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4944,7 +4944,7 @@
         </is>
       </c>
       <c r="R49" t="n">
-        <v>4.09</v>
+        <v>9.51</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>4.19</v>
+        <v>9.83</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/giouchtas-panathinaikos/AJ7XbzA4/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/levadiakos-aek/xbk08srf/</t>
         </is>
       </c>
     </row>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Kalamata</t>
+          <t>PAE Egaleo</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Ilioupoli</t>
+          <t>Athens Kallithea</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>1.44</v>
+        <v>4.46</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,15 +5012,15 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>1.38</v>
+        <v>7.03</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>28/10/2023 13:43</t>
+          <t>28/10/2023 12:23</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.96</v>
+        <v>3.12</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,15 +5028,15 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>4.35</v>
+        <v>3.72</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>28/10/2023 13:43</t>
+          <t>28/10/2023 12:23</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>5.97</v>
+        <v>1.75</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,16 +5044,16 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>8.56</v>
+        <v>1.52</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>28/10/2023 13:43</t>
+          <t>28/10/2023 12:23</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kalamata-ilioupoli/bsP9un9q/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/pae-egaleo-athens-kallithea/WYetcEvH/</t>
         </is>
       </c>
     </row>
@@ -5173,22 +5173,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Karditsa</t>
+          <t>Makedonikos</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>AEL Larissa</t>
+          <t>PAOK B</t>
         </is>
       </c>
       <c r="I52" t="n">
         <v>2</v>
       </c>
       <c r="J52" t="n">
-        <v>3.52</v>
+        <v>1.95</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>3.94</v>
+        <v>1.94</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>29/10/2023 13:57</t>
+          <t>29/10/2023 13:59</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>2.91</v>
+        <v>3.06</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.08</v>
+        <v>3.16</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>29/10/2023 13:57</t>
+          <t>29/10/2023 13:59</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>2.05</v>
+        <v>3.62</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>2.03</v>
+        <v>4.14</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>29/10/2023 13:57</t>
+          <t>29/10/2023 13:59</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-ael-larissa/46YNRVrF/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/makedonikos-neapolis-paok/b7jd9NSm/</t>
         </is>
       </c>
     </row>
@@ -5265,22 +5265,22 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Makedonikos</t>
+          <t>Apollon Pontou</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>PAOK B</t>
+          <t>Kozani FC</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>1.95</v>
+        <v>2.73</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -5288,7 +5288,7 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>1.94</v>
+        <v>4.25</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.06</v>
+        <v>2.87</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -5304,32 +5304,32 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.16</v>
+        <v>3.12</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
+          <t>29/10/2023 13:45</t>
+        </is>
+      </c>
+      <c r="R53" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>28/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T53" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
           <t>29/10/2023 13:59</t>
         </is>
       </c>
-      <c r="R53" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>28/10/2023 03:12</t>
-        </is>
-      </c>
-      <c r="T53" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="U53" t="inlineStr">
-        <is>
-          <t>29/10/2023 13:59</t>
-        </is>
-      </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/makedonikos-neapolis-paok/b7jd9NSm/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/apollon-pontou-kozani-fc/AqZJSBT8/</t>
         </is>
       </c>
     </row>
@@ -5357,7 +5357,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Apollon Pontou</t>
+          <t>Karditsa</t>
         </is>
       </c>
       <c r="G54" t="n">
@@ -5365,14 +5365,14 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Kozani FC</t>
+          <t>AEL Larissa</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J54" t="n">
-        <v>2.73</v>
+        <v>3.52</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -5380,15 +5380,15 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>4.25</v>
+        <v>3.94</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>29/10/2023 13:59</t>
+          <t>29/10/2023 13:57</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>2.87</v>
+        <v>2.91</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5396,15 +5396,15 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.12</v>
+        <v>3.08</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>29/10/2023 13:45</t>
+          <t>29/10/2023 13:57</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>29/10/2023 13:59</t>
+          <t>29/10/2023 13:57</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/apollon-pontou-kozani-fc/AqZJSBT8/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-ael-larissa/46YNRVrF/</t>
         </is>
       </c>
     </row>
@@ -5725,71 +5725,71 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Iraklis 1908</t>
+          <t>Ilioupoli</t>
         </is>
       </c>
       <c r="G58" t="n">
+        <v>1</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Panachaiki</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Levadiakos</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
-        <v>1</v>
-      </c>
       <c r="J58" t="n">
-        <v>3.01</v>
+        <v>1.66</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>04/11/2023 05:12</t>
+          <t>03/11/2023 02:13</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>3.53</v>
+        <v>1.38</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>04/11/2023 13:55</t>
+          <t>04/11/2023 13:44</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>2.91</v>
+        <v>3.48</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>04/11/2023 05:12</t>
+          <t>03/11/2023 02:13</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3</v>
+        <v>4.36</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>04/11/2023 13:55</t>
+          <t>04/11/2023 13:48</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>2.42</v>
+        <v>4.41</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>04/11/2023 05:12</t>
+          <t>03/11/2023 02:13</t>
         </is>
       </c>
       <c r="T58" t="n">
-        <v>2.2</v>
+        <v>8.41</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>04/11/2023 13:55</t>
+          <t>04/11/2023 13:44</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/iraklis-fc-levadiakos/IRm2S2ZP/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ilioupoli-panachaiki/GbFoZVZ8/</t>
         </is>
       </c>
     </row>
@@ -5817,71 +5817,71 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>PAOK B</t>
+          <t>Iraklis 1908</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Karditsa</t>
+          <t>Levadiakos</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>1.99</v>
+        <v>3.01</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>03/11/2023 02:13</t>
+          <t>04/11/2023 05:12</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>2.38</v>
+        <v>3.53</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>04/11/2023 12:04</t>
+          <t>04/11/2023 13:55</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.12</v>
+        <v>2.91</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>03/11/2023 02:13</t>
+          <t>04/11/2023 05:12</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>2.89</v>
+        <v>3</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>04/11/2023 12:04</t>
+          <t>04/11/2023 13:55</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>3.44</v>
+        <v>2.42</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>03/11/2023 02:13</t>
+          <t>04/11/2023 05:12</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>3.27</v>
+        <v>2.2</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>04/11/2023 12:04</t>
+          <t>04/11/2023 13:55</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/paok-karditsa/jLeG4asJ/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/iraklis-fc-levadiakos/IRm2S2ZP/</t>
         </is>
       </c>
     </row>
@@ -5909,22 +5909,22 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Ilioupoli</t>
+          <t>PAOK B</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Panachaiki</t>
+          <t>Karditsa</t>
         </is>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>1.66</v>
+        <v>1.99</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,15 +5932,15 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>1.38</v>
+        <v>2.38</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>04/11/2023 13:44</t>
+          <t>04/11/2023 12:04</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.48</v>
+        <v>3.12</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5948,15 +5948,15 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>4.36</v>
+        <v>2.89</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>04/11/2023 13:48</t>
+          <t>04/11/2023 12:04</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>4.41</v>
+        <v>3.44</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>8.41</v>
+        <v>3.27</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>04/11/2023 13:44</t>
+          <t>04/11/2023 12:04</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ilioupoli-panachaiki/GbFoZVZ8/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/paok-karditsa/jLeG4asJ/</t>
         </is>
       </c>
     </row>
@@ -6093,22 +6093,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Ionikos</t>
+          <t>Kampaniakos</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Kalamata</t>
+          <t>Apollon Pontou</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>2.56</v>
+        <v>2.17</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,15 +6116,15 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>2.88</v>
+        <v>1.97</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>05/11/2023 13:59</t>
+          <t>05/11/2023 12:16</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>3</v>
+        <v>2.99</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -6132,15 +6132,15 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>3.15</v>
+        <v>3.11</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>05/11/2023 13:59</t>
+          <t>05/11/2023 12:16</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>2.82</v>
+        <v>3.42</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -6148,16 +6148,16 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>2.46</v>
+        <v>4.12</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>05/11/2023 13:59</t>
+          <t>05/11/2023 12:16</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ionikos-kalamata/2JXbBSs2/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kampaniakos-apollon-pontou/CUdC5uSC/</t>
         </is>
       </c>
     </row>
@@ -6185,22 +6185,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Panathinaikos B</t>
+          <t>AEK Athens FC B</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>PAE Egaleo</t>
+          <t>Niki Volos</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J63" t="n">
-        <v>2.48</v>
+        <v>4.16</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,15 +6208,15 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>2.59</v>
+        <v>4.09</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>05/11/2023 13:55</t>
+          <t>05/11/2023 13:57</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>2.88</v>
+        <v>3.15</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6228,11 +6228,11 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>05/11/2023 13:55</t>
+          <t>05/11/2023 13:57</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>2.75</v>
+        <v>1.79</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -6240,16 +6240,16 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>2.83</v>
+        <v>2.02</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>05/11/2023 03:41</t>
+          <t>05/11/2023 13:57</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/panathinaikos-pae-egaleo/OSYfC8Se/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/aek-niki-volos/vykbTrKJ/</t>
         </is>
       </c>
     </row>
@@ -6277,7 +6277,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>AEK Athens FC B</t>
+          <t>Kozani FC</t>
         </is>
       </c>
       <c r="G64" t="n">
@@ -6285,14 +6285,14 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Niki Volos</t>
+          <t>AEL Larissa</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J64" t="n">
-        <v>4.16</v>
+        <v>3.62</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,15 +6300,15 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>4.09</v>
+        <v>4.52</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>05/11/2023 13:57</t>
+          <t>05/11/2023 13:40</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.15</v>
+        <v>2.95</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.01</v>
+        <v>3.12</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>05/11/2023 13:57</t>
+          <t>05/11/2023 13:40</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>1.79</v>
+        <v>2</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>2.02</v>
+        <v>1.88</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>05/11/2023 13:57</t>
+          <t>05/11/2023 13:40</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/aek-niki-volos/vykbTrKJ/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kozani-fc-ael-larissa/U5776LC6/</t>
         </is>
       </c>
     </row>
@@ -6369,22 +6369,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Kampaniakos</t>
+          <t>Ionikos</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Apollon Pontou</t>
+          <t>Kalamata</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J65" t="n">
-        <v>2.17</v>
+        <v>2.56</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -6392,15 +6392,15 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>1.97</v>
+        <v>2.88</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>05/11/2023 12:16</t>
+          <t>05/11/2023 13:59</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>2.99</v>
+        <v>3</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -6408,15 +6408,15 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.11</v>
+        <v>3.15</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>05/11/2023 12:16</t>
+          <t>05/11/2023 13:59</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>3.42</v>
+        <v>2.82</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
@@ -6424,16 +6424,16 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>4.12</v>
+        <v>2.46</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>05/11/2023 12:16</t>
+          <t>05/11/2023 13:59</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kampaniakos-apollon-pontou/CUdC5uSC/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ionikos-kalamata/2JXbBSs2/</t>
         </is>
       </c>
     </row>
@@ -6461,22 +6461,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Kozani FC</t>
+          <t>Panathinaikos B</t>
         </is>
       </c>
       <c r="G66" t="n">
+        <v>1</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>PAE Egaleo</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>AEL Larissa</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
-        <v>2</v>
-      </c>
       <c r="J66" t="n">
-        <v>3.62</v>
+        <v>2.48</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -6484,15 +6484,15 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>4.52</v>
+        <v>2.59</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>05/11/2023 13:40</t>
+          <t>05/11/2023 13:55</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>2.95</v>
+        <v>2.88</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -6500,15 +6500,15 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.12</v>
+        <v>3.01</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>05/11/2023 13:40</t>
+          <t>05/11/2023 13:55</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>1.88</v>
+        <v>2.83</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>05/11/2023 13:40</t>
+          <t>05/11/2023 03:41</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kozani-fc-ael-larissa/U5776LC6/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/panathinaikos-pae-egaleo/OSYfC8Se/</t>
         </is>
       </c>
     </row>
@@ -6737,71 +6737,71 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Apollon Pontou</t>
+          <t>Kalamata</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>AEK Athens FC B</t>
+          <t>Tilikratis L.</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>2.52</v>
+        <v>1.13</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>10/11/2023 02:13</t>
+          <t>11/11/2023 12:01</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>3.36</v>
+        <v>1.13</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>11/11/2023 13:49</t>
+          <t>11/11/2023 12:01</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>2.82</v>
+        <v>7.63</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>10/11/2023 02:13</t>
+          <t>11/11/2023 12:01</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>2.73</v>
+        <v>7.63</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>11/11/2023 13:49</t>
+          <t>11/11/2023 12:01</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>2.83</v>
+        <v>18.11</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>10/11/2023 02:13</t>
+          <t>11/11/2023 12:01</t>
         </is>
       </c>
       <c r="T69" t="n">
-        <v>2.45</v>
+        <v>18.11</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>11/11/2023 13:49</t>
+          <t>11/11/2023 12:01</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/apollon-pontou-aek/APStLKRa/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kalamata-tilikratis-lefkada/6m8bWTJR/</t>
         </is>
       </c>
     </row>
@@ -6829,22 +6829,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Kampaniakos</t>
+          <t>AEL Larissa</t>
         </is>
       </c>
       <c r="G70" t="n">
+        <v>2</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>PAOK B</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>Kozani FC</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
-        <v>1</v>
-      </c>
       <c r="J70" t="n">
-        <v>2.61</v>
+        <v>1.43</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>2.94</v>
+        <v>1.33</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>11/11/2023 13:03</t>
+          <t>11/11/2023 13:40</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>2.87</v>
+        <v>3.99</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>2.79</v>
+        <v>4.69</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>11/11/2023 13:03</t>
+          <t>11/11/2023 13:40</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>2.61</v>
+        <v>6.04</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>2.68</v>
+        <v>9.68</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>11/11/2023 13:03</t>
+          <t>11/11/2023 13:40</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kampaniakos-kozani-fc/xCUYMtcm/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ael-larissa-paok/WYTxM0Cg/</t>
         </is>
       </c>
     </row>
@@ -6921,71 +6921,71 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Kalamata</t>
+          <t>Apollon Pontou</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Tilikratis L.</t>
+          <t>AEK Athens FC B</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J71" t="n">
-        <v>1.13</v>
+        <v>2.52</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>11/11/2023 12:01</t>
+          <t>10/11/2023 02:13</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>1.13</v>
+        <v>3.36</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>11/11/2023 12:01</t>
+          <t>11/11/2023 13:49</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>7.63</v>
+        <v>2.82</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>11/11/2023 12:01</t>
+          <t>10/11/2023 02:13</t>
         </is>
       </c>
       <c r="P71" t="n">
-        <v>7.63</v>
+        <v>2.73</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>11/11/2023 12:01</t>
+          <t>11/11/2023 13:49</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>18.11</v>
+        <v>2.83</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>11/11/2023 12:01</t>
+          <t>10/11/2023 02:13</t>
         </is>
       </c>
       <c r="T71" t="n">
-        <v>18.11</v>
+        <v>2.45</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>11/11/2023 12:01</t>
+          <t>11/11/2023 13:49</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kalamata-tilikratis-lefkada/6m8bWTJR/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/apollon-pontou-aek/APStLKRa/</t>
         </is>
       </c>
     </row>
@@ -7013,22 +7013,22 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>AEL Larissa</t>
+          <t>Kampaniakos</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>PAOK B</t>
+          <t>Kozani FC</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>1.43</v>
+        <v>2.61</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -7036,15 +7036,15 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>1.33</v>
+        <v>2.94</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>11/11/2023 13:40</t>
+          <t>11/11/2023 13:03</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.99</v>
+        <v>2.87</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -7052,15 +7052,15 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>4.69</v>
+        <v>2.79</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>11/11/2023 13:40</t>
+          <t>11/11/2023 13:03</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>6.04</v>
+        <v>2.61</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
@@ -7068,16 +7068,16 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>9.68</v>
+        <v>2.68</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>11/11/2023 13:40</t>
+          <t>11/11/2023 13:03</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ael-larissa-paok/WYTxM0Cg/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kampaniakos-kozani-fc/xCUYMtcm/</t>
         </is>
       </c>
     </row>
@@ -7197,71 +7197,71 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Ilioupoli</t>
+          <t>Levadiakos</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Athens Kallithea</t>
+          <t>Aiolikos</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>4.68</v>
+        <v>1.24</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>11/11/2023 02:12</t>
+          <t>11/11/2023 04:43</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>4.56</v>
+        <v>1.27</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>12/11/2023 13:55</t>
+          <t>12/11/2023 11:59</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.36</v>
+        <v>4.72</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>11/11/2023 02:12</t>
+          <t>11/11/2023 04:43</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.13</v>
+        <v>4.98</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>12/11/2023 13:55</t>
+          <t>12/11/2023 12:05</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>1.65</v>
+        <v>10.75</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>11/11/2023 02:12</t>
+          <t>11/11/2023 04:43</t>
         </is>
       </c>
       <c r="T74" t="n">
-        <v>1.88</v>
+        <v>12.44</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>12/11/2023 13:55</t>
+          <t>12/11/2023 11:59</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ilioupoli-athens-kallithea/GMcYPRde/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/levadiakos-aiolikos-fc/URrrJbdC/</t>
         </is>
       </c>
     </row>
@@ -7289,22 +7289,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>PAE Chania</t>
+          <t>Niki Volos</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Panathinaikos B</t>
+          <t>Iraklis 1908</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>1.37</v>
+        <v>1.87</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>1.32</v>
+        <v>2.02</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
@@ -7320,7 +7320,7 @@
         </is>
       </c>
       <c r="N75" t="n">
-        <v>4.28</v>
+        <v>3.03</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>4.79</v>
+        <v>3</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>12/11/2023 12:07</t>
+          <t>12/11/2023 12:12</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>6.55</v>
+        <v>3.98</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>9.890000000000001</v>
+        <v>4.13</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>12/11/2023 12:07</t>
+          <t>12/11/2023 12:05</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/pae-chania-panathinaikos/8dfQRmSr/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/niki-volos-iraklis-fc/jypvKvs6/</t>
         </is>
       </c>
     </row>
@@ -7381,7 +7381,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Panachaiki</t>
+          <t>Ilioupoli</t>
         </is>
       </c>
       <c r="G76" t="n">
@@ -7389,14 +7389,14 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Ionikos</t>
+          <t>Athens Kallithea</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J76" t="n">
-        <v>4.2</v>
+        <v>4.68</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>6.83</v>
+        <v>4.56</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>12/11/2023 13:58</t>
+          <t>12/11/2023 13:55</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.26</v>
+        <v>3.36</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.77</v>
+        <v>3.13</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>12/11/2023 13:58</t>
+          <t>12/11/2023 13:55</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>1.52</v>
+        <v>1.88</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>12/11/2023 13:58</t>
+          <t>12/11/2023 13:55</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/panachaiki-ionikos/2JgUQ7sk/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ilioupoli-athens-kallithea/GMcYPRde/</t>
         </is>
       </c>
     </row>
@@ -7473,7 +7473,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Levadiakos</t>
+          <t>PAE Chania</t>
         </is>
       </c>
       <c r="G77" t="n">
@@ -7481,63 +7481,63 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aiolikos</t>
+          <t>Panathinaikos B</t>
         </is>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>1.24</v>
+        <v>1.37</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>11/11/2023 04:43</t>
+          <t>11/11/2023 02:12</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>12/11/2023 11:59</t>
+          <t>12/11/2023 12:05</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>4.72</v>
+        <v>4.28</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>11/11/2023 04:43</t>
+          <t>11/11/2023 02:12</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>4.98</v>
+        <v>4.79</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>12/11/2023 12:05</t>
+          <t>12/11/2023 12:07</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>10.75</v>
+        <v>6.55</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>11/11/2023 04:43</t>
+          <t>11/11/2023 02:12</t>
         </is>
       </c>
       <c r="T77" t="n">
-        <v>12.44</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>12/11/2023 11:59</t>
+          <t>12/11/2023 12:07</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/levadiakos-aiolikos-fc/URrrJbdC/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/pae-chania-panathinaikos/8dfQRmSr/</t>
         </is>
       </c>
     </row>
@@ -7565,22 +7565,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Niki Volos</t>
+          <t>Panachaiki</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Iraklis 1908</t>
+          <t>Ionikos</t>
         </is>
       </c>
       <c r="I78" t="n">
         <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>1.87</v>
+        <v>4.2</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,15 +7588,15 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>2.02</v>
+        <v>6.83</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>12/11/2023 12:05</t>
+          <t>12/11/2023 13:58</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.03</v>
+        <v>3.26</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -7604,15 +7604,15 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3</v>
+        <v>3.77</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>12/11/2023 12:12</t>
+          <t>12/11/2023 13:58</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>3.98</v>
+        <v>1.75</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
@@ -7620,16 +7620,16 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>4.13</v>
+        <v>1.52</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>12/11/2023 12:05</t>
+          <t>12/11/2023 13:58</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/niki-volos-iraklis-fc/jypvKvs6/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/panachaiki-ionikos/2JgUQ7sk/</t>
         </is>
       </c>
     </row>
@@ -7657,71 +7657,71 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Makedonikos</t>
+          <t>Aiolikos</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Levadiakos</t>
+          <t>Niki Volos</t>
         </is>
       </c>
       <c r="I79" t="n">
         <v>2</v>
       </c>
       <c r="J79" t="n">
-        <v>3.73</v>
+        <v>4.13</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>14/11/2023 02:12</t>
+          <t>14/11/2023 15:18</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>5.2</v>
+        <v>3.66</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>15/11/2023 13:31</t>
+          <t>15/11/2023 13:38</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>2.94</v>
+        <v>3.43</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>14/11/2023 02:12</t>
+          <t>14/11/2023 15:18</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.1</v>
+        <v>3.18</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>15/11/2023 13:49</t>
+          <t>15/11/2023 12:23</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>1.97</v>
+        <v>1.83</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>14/11/2023 02:12</t>
+          <t>14/11/2023 15:18</t>
         </is>
       </c>
       <c r="T79" t="n">
-        <v>1.78</v>
+        <v>2.07</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>15/11/2023 13:11</t>
+          <t>15/11/2023 13:38</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/makedonikos-neapolis-levadiakos/ddJzfE36/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/aiolikos-fc-niki-volos/rgFWffl0/</t>
         </is>
       </c>
     </row>
@@ -7841,71 +7841,71 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Aiolikos</t>
+          <t>Makedonikos</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Niki Volos</t>
+          <t>Levadiakos</t>
         </is>
       </c>
       <c r="I81" t="n">
         <v>2</v>
       </c>
       <c r="J81" t="n">
-        <v>4.13</v>
+        <v>3.73</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>14/11/2023 15:18</t>
+          <t>14/11/2023 02:12</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>3.66</v>
+        <v>5.2</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>15/11/2023 13:38</t>
+          <t>15/11/2023 13:31</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>3.43</v>
+        <v>2.94</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>14/11/2023 15:18</t>
+          <t>14/11/2023 02:12</t>
         </is>
       </c>
       <c r="P81" t="n">
-        <v>3.18</v>
+        <v>3.1</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>15/11/2023 12:23</t>
+          <t>15/11/2023 13:49</t>
         </is>
       </c>
       <c r="R81" t="n">
-        <v>1.83</v>
+        <v>1.97</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>14/11/2023 15:18</t>
+          <t>14/11/2023 02:12</t>
         </is>
       </c>
       <c r="T81" t="n">
-        <v>2.07</v>
+        <v>1.78</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>15/11/2023 13:38</t>
+          <t>15/11/2023 13:11</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/aiolikos-fc-niki-volos/rgFWffl0/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/makedonikos-neapolis-levadiakos/ddJzfE36/</t>
         </is>
       </c>
     </row>
@@ -8025,22 +8025,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Giouchtas</t>
+          <t>Karditsa</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>PAE Chania</t>
+          <t>Levadiakos</t>
         </is>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>3.28</v>
+        <v>4.29</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8048,15 +8048,15 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>3.93</v>
+        <v>5.74</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>19/11/2023 13:14</t>
+          <t>19/11/2023 13:50</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>2.86</v>
+        <v>3.08</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -8064,15 +8064,15 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.05</v>
+        <v>3.31</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>19/11/2023 12:51</t>
+          <t>19/11/2023 13:50</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>2.17</v>
+        <v>1.79</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
@@ -8080,16 +8080,16 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>2.04</v>
+        <v>1.68</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>19/11/2023 13:14</t>
+          <t>19/11/2023 13:50</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/giouchtas-pae-chania/4rzPnk48/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-levadiakos/2cncBFYt/</t>
         </is>
       </c>
     </row>
@@ -8117,22 +8117,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Ionikos</t>
+          <t>Kampaniakos</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Athens Kallithea</t>
+          <t>Iraklis 1908</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J84" t="n">
-        <v>3.12</v>
+        <v>3.87</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>2.89</v>
+        <v>4.12</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>19/11/2023 13:29</t>
+          <t>19/11/2023 12:04</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>2.85</v>
+        <v>3.15</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>2.91</v>
+        <v>3.11</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>19/11/2023 13:29</t>
+          <t>19/11/2023 12:52</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>2.26</v>
+        <v>1.85</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>2.62</v>
+        <v>1.97</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>19/11/2023 13:29</t>
+          <t>19/11/2023 12:52</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ionikos-athens-kallithea/v1SypmlR/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kampaniakos-iraklis-fc/6R0RGyBJ/</t>
         </is>
       </c>
     </row>
@@ -8209,22 +8209,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Kalamata</t>
+          <t>Tilikratis L.</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Diagoras</t>
+          <t>Panachaiki</t>
         </is>
       </c>
       <c r="I85" t="n">
         <v>2</v>
       </c>
       <c r="J85" t="n">
-        <v>1.3</v>
+        <v>2.27</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>1.26</v>
+        <v>2.31</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>19/11/2023 13:49</t>
+          <t>19/11/2023 13:54</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>4.57</v>
+        <v>2.92</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>5.23</v>
+        <v>2.95</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>19/11/2023 13:56</t>
+          <t>19/11/2023 13:54</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>8.08</v>
+        <v>3.02</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>12.07</v>
+        <v>3.35</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>19/11/2023 13:56</t>
+          <t>19/11/2023 13:51</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kalamata-diagoras-fc/xxnsO5R7/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/tilikratis-lefkada-panachaiki/rZYSo9JE/</t>
         </is>
       </c>
     </row>
@@ -8301,71 +8301,71 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Tilikratis L.</t>
+          <t>Apollon Pontou</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Panachaiki</t>
+          <t>Aiolikos</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J86" t="n">
-        <v>2.27</v>
+        <v>2.77</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>18/11/2023 02:12</t>
+          <t>19/11/2023 03:12</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>2.31</v>
+        <v>2.89</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>19/11/2023 13:54</t>
+          <t>19/11/2023 13:41</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>2.92</v>
+        <v>2.87</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>18/11/2023 02:12</t>
+          <t>19/11/2023 03:12</t>
         </is>
       </c>
       <c r="P86" t="n">
-        <v>2.95</v>
+        <v>2.85</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>19/11/2023 13:54</t>
+          <t>19/11/2023 13:24</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>3.02</v>
+        <v>2.65</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t>18/11/2023 02:12</t>
+          <t>19/11/2023 03:12</t>
         </is>
       </c>
       <c r="T86" t="n">
-        <v>3.35</v>
+        <v>2.67</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>19/11/2023 13:51</t>
+          <t>19/11/2023 13:41</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/tilikratis-lefkada-panachaiki/rZYSo9JE/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/apollon-pontou-aiolikos-fc/pIaVFeQP/</t>
         </is>
       </c>
     </row>
@@ -8393,7 +8393,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Apollon Pontou</t>
+          <t>Ionikos</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -8401,18 +8401,18 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Aiolikos</t>
+          <t>Athens Kallithea</t>
         </is>
       </c>
       <c r="I87" t="n">
         <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>2.77</v>
+        <v>3.12</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>19/11/2023 03:12</t>
+          <t>18/11/2023 02:12</t>
         </is>
       </c>
       <c r="L87" t="n">
@@ -8420,44 +8420,44 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>19/11/2023 13:41</t>
+          <t>19/11/2023 13:29</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>19/11/2023 03:12</t>
+          <t>18/11/2023 02:12</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>2.85</v>
+        <v>2.91</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>19/11/2023 13:24</t>
+          <t>19/11/2023 13:29</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>2.65</v>
+        <v>2.26</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>19/11/2023 03:12</t>
+          <t>18/11/2023 02:12</t>
         </is>
       </c>
       <c r="T87" t="n">
-        <v>2.67</v>
+        <v>2.62</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>19/11/2023 13:41</t>
+          <t>19/11/2023 13:29</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/apollon-pontou-aiolikos-fc/pIaVFeQP/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ionikos-athens-kallithea/v1SypmlR/</t>
         </is>
       </c>
     </row>
@@ -8485,22 +8485,22 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Kampaniakos</t>
+          <t>Giouchtas</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Iraklis 1908</t>
+          <t>PAE Chania</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>3.87</v>
+        <v>3.28</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -8508,15 +8508,15 @@
         </is>
       </c>
       <c r="L88" t="n">
-        <v>4.12</v>
+        <v>3.93</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>19/11/2023 12:04</t>
+          <t>19/11/2023 13:14</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>3.15</v>
+        <v>2.86</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -8524,15 +8524,15 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>3.11</v>
+        <v>3.05</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>19/11/2023 12:52</t>
+          <t>19/11/2023 12:51</t>
         </is>
       </c>
       <c r="R88" t="n">
-        <v>1.85</v>
+        <v>2.17</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
@@ -8540,16 +8540,16 @@
         </is>
       </c>
       <c r="T88" t="n">
-        <v>1.97</v>
+        <v>2.04</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>19/11/2023 12:52</t>
+          <t>19/11/2023 13:14</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kampaniakos-iraklis-fc/6R0RGyBJ/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/giouchtas-pae-chania/4rzPnk48/</t>
         </is>
       </c>
     </row>
@@ -8577,22 +8577,22 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Karditsa</t>
+          <t>Kalamata</t>
         </is>
       </c>
       <c r="G89" t="n">
+        <v>1</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Diagoras</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
         <v>2</v>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>Levadiakos</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
       <c r="J89" t="n">
-        <v>4.29</v>
+        <v>1.3</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -8600,15 +8600,15 @@
         </is>
       </c>
       <c r="L89" t="n">
-        <v>5.74</v>
+        <v>1.26</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>19/11/2023 13:50</t>
+          <t>19/11/2023 13:49</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>3.08</v>
+        <v>4.57</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -8616,15 +8616,15 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>3.31</v>
+        <v>5.23</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>19/11/2023 13:50</t>
+          <t>19/11/2023 13:56</t>
         </is>
       </c>
       <c r="R89" t="n">
-        <v>1.79</v>
+        <v>8.08</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
@@ -8632,16 +8632,16 @@
         </is>
       </c>
       <c r="T89" t="n">
-        <v>1.68</v>
+        <v>12.07</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>19/11/2023 13:50</t>
+          <t>19/11/2023 13:56</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-levadiakos/2cncBFYt/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kalamata-diagoras-fc/xxnsO5R7/</t>
         </is>
       </c>
     </row>
@@ -9221,22 +9221,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Ilioupoli</t>
+          <t>Panachaiki</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Giouchtas</t>
+          <t>Diagoras</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="n">
-        <v>1.97</v>
+        <v>2.77</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,15 +9244,15 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>2.19</v>
+        <v>2.63</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>26/11/2023 13:59</t>
+          <t>26/11/2023 13:40</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.02</v>
+        <v>2.87</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,15 +9260,15 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.19</v>
+        <v>2.72</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>26/11/2023 13:59</t>
+          <t>26/11/2023 13:40</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>3.62</v>
+        <v>2.47</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,16 +9276,16 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>3.32</v>
+        <v>3.09</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>26/11/2023 13:59</t>
+          <t>26/11/2023 13:40</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ilioupoli-giouchtas/Wb7Gx5t1/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/panachaiki-diagoras-fc/h88CwoRf/</t>
         </is>
       </c>
     </row>
@@ -9313,22 +9313,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Panachaiki</t>
+          <t>Ilioupoli</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Diagoras</t>
+          <t>Giouchtas</t>
         </is>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>2.77</v>
+        <v>1.97</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -9336,15 +9336,15 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>2.63</v>
+        <v>2.19</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>26/11/2023 13:40</t>
+          <t>26/11/2023 13:59</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>2.87</v>
+        <v>3.02</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -9352,15 +9352,15 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>2.72</v>
+        <v>3.19</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>26/11/2023 13:40</t>
+          <t>26/11/2023 13:59</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>2.47</v>
+        <v>3.62</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
@@ -9368,16 +9368,16 @@
         </is>
       </c>
       <c r="T97" t="n">
-        <v>3.09</v>
+        <v>3.32</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>26/11/2023 13:40</t>
+          <t>26/11/2023 13:59</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/panachaiki-diagoras-fc/h88CwoRf/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ilioupoli-giouchtas/Wb7Gx5t1/</t>
         </is>
       </c>
     </row>
@@ -9405,7 +9405,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>PAE Chania</t>
+          <t>Karditsa</t>
         </is>
       </c>
       <c r="G98" t="n">
@@ -9413,14 +9413,14 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>PAE Egaleo</t>
+          <t>Niki Volos</t>
         </is>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>1.55</v>
+        <v>3.26</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -9428,15 +9428,15 @@
         </is>
       </c>
       <c r="L98" t="n">
-        <v>1.2</v>
+        <v>3.72</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>26/11/2023 13:55</t>
+          <t>26/11/2023 13:46</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>3.48</v>
+        <v>2.83</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -9444,15 +9444,15 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>6.56</v>
+        <v>2.91</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>26/11/2023 13:58</t>
+          <t>26/11/2023 13:46</t>
         </is>
       </c>
       <c r="R98" t="n">
-        <v>5.44</v>
+        <v>2.2</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
@@ -9460,16 +9460,16 @@
         </is>
       </c>
       <c r="T98" t="n">
-        <v>11.76</v>
+        <v>2.18</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>26/11/2023 13:58</t>
+          <t>26/11/2023 13:46</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/pae-chania-pae-egaleo/zXD7vRBl/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-niki-volos/vuyR4VHO/</t>
         </is>
       </c>
     </row>
@@ -9497,7 +9497,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Karditsa</t>
+          <t>PAE Chania</t>
         </is>
       </c>
       <c r="G99" t="n">
@@ -9505,14 +9505,14 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Niki Volos</t>
+          <t>PAE Egaleo</t>
         </is>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>3.26</v>
+        <v>1.55</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -9520,15 +9520,15 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>3.72</v>
+        <v>1.2</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>26/11/2023 13:46</t>
+          <t>26/11/2023 13:55</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>2.83</v>
+        <v>3.48</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -9536,15 +9536,15 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>2.91</v>
+        <v>6.56</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>26/11/2023 13:46</t>
+          <t>26/11/2023 13:58</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>2.2</v>
+        <v>5.44</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
@@ -9552,16 +9552,16 @@
         </is>
       </c>
       <c r="T99" t="n">
-        <v>2.18</v>
+        <v>11.76</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>26/11/2023 13:46</t>
+          <t>26/11/2023 13:58</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-niki-volos/vuyR4VHO/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/pae-chania-pae-egaleo/zXD7vRBl/</t>
         </is>
       </c>
     </row>
@@ -10141,7 +10141,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>AEL Larissa</t>
+          <t>PAOK B</t>
         </is>
       </c>
       <c r="G106" t="n">
@@ -10149,14 +10149,14 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Niki Volos</t>
+          <t>Levadiakos</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J106" t="n">
-        <v>1.86</v>
+        <v>4.7</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -10164,15 +10164,15 @@
         </is>
       </c>
       <c r="L106" t="n">
-        <v>1.88</v>
+        <v>6.1</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>03/12/2023 13:59</t>
+          <t>03/12/2023 13:52</t>
         </is>
       </c>
       <c r="N106" t="n">
-        <v>2.96</v>
+        <v>3.28</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
@@ -10180,15 +10180,15 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>3.11</v>
+        <v>3.7</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>03/12/2023 13:59</t>
+          <t>03/12/2023 13:52</t>
         </is>
       </c>
       <c r="R106" t="n">
-        <v>4.28</v>
+        <v>1.7</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
@@ -10196,16 +10196,16 @@
         </is>
       </c>
       <c r="T106" t="n">
-        <v>4.59</v>
+        <v>1.57</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>03/12/2023 13:59</t>
+          <t>03/12/2023 13:52</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ael-larissa-niki-volos/8GQuMWna/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/paok-levadiakos/z3SXNhIn/</t>
         </is>
       </c>
     </row>
@@ -10233,22 +10233,22 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Iraklis 1908</t>
+          <t>AEK Athens FC B</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Kozani FC</t>
+          <t>Aiolikos</t>
         </is>
       </c>
       <c r="I107" t="n">
         <v>1</v>
       </c>
       <c r="J107" t="n">
-        <v>1.75</v>
+        <v>2.83</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -10256,15 +10256,15 @@
         </is>
       </c>
       <c r="L107" t="n">
-        <v>1.91</v>
+        <v>2.43</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>03/12/2023 13:50</t>
+          <t>03/12/2023 13:42</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>3.12</v>
+        <v>2.72</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
@@ -10272,15 +10272,15 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>3.12</v>
+        <v>2.98</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>03/12/2023 13:50</t>
+          <t>03/12/2023 13:42</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>4.71</v>
+        <v>2.61</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
@@ -10288,16 +10288,16 @@
         </is>
       </c>
       <c r="T107" t="n">
-        <v>4.4</v>
+        <v>3.09</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>03/12/2023 13:50</t>
+          <t>03/12/2023 13:42</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/iraklis-fc-kozani-fc/hrP8TEfP/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/aek-aiolikos-fc/fiBzPY2t/</t>
         </is>
       </c>
     </row>
@@ -10325,7 +10325,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>PAOK B</t>
+          <t>Iraklis 1908</t>
         </is>
       </c>
       <c r="G108" t="n">
@@ -10333,14 +10333,14 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Levadiakos</t>
+          <t>Kozani FC</t>
         </is>
       </c>
       <c r="I108" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J108" t="n">
-        <v>4.7</v>
+        <v>1.75</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -10348,15 +10348,15 @@
         </is>
       </c>
       <c r="L108" t="n">
-        <v>6.1</v>
+        <v>1.91</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>03/12/2023 13:52</t>
+          <t>03/12/2023 13:50</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>3.28</v>
+        <v>3.12</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
@@ -10364,15 +10364,15 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>3.7</v>
+        <v>3.12</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>03/12/2023 13:52</t>
+          <t>03/12/2023 13:50</t>
         </is>
       </c>
       <c r="R108" t="n">
-        <v>1.7</v>
+        <v>4.71</v>
       </c>
       <c r="S108" t="inlineStr">
         <is>
@@ -10380,16 +10380,16 @@
         </is>
       </c>
       <c r="T108" t="n">
-        <v>1.57</v>
+        <v>4.4</v>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>03/12/2023 13:52</t>
+          <t>03/12/2023 13:50</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/paok-levadiakos/z3SXNhIn/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/iraklis-fc-kozani-fc/hrP8TEfP/</t>
         </is>
       </c>
     </row>
@@ -10509,22 +10509,22 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>AEK Athens FC B</t>
+          <t>AEL Larissa</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Aiolikos</t>
+          <t>Niki Volos</t>
         </is>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>2.83</v>
+        <v>1.86</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -10532,15 +10532,15 @@
         </is>
       </c>
       <c r="L110" t="n">
-        <v>2.43</v>
+        <v>1.88</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>03/12/2023 13:42</t>
+          <t>03/12/2023 13:59</t>
         </is>
       </c>
       <c r="N110" t="n">
-        <v>2.72</v>
+        <v>2.96</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
@@ -10548,15 +10548,15 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>2.98</v>
+        <v>3.11</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>03/12/2023 13:42</t>
+          <t>03/12/2023 13:59</t>
         </is>
       </c>
       <c r="R110" t="n">
-        <v>2.61</v>
+        <v>4.28</v>
       </c>
       <c r="S110" t="inlineStr">
         <is>
@@ -10564,16 +10564,16 @@
         </is>
       </c>
       <c r="T110" t="n">
-        <v>3.09</v>
+        <v>4.59</v>
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>03/12/2023 13:42</t>
+          <t>03/12/2023 13:59</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/aek-aiolikos-fc/fiBzPY2t/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ael-larissa-niki-volos/8GQuMWna/</t>
         </is>
       </c>
     </row>
@@ -10601,7 +10601,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Ilioupoli</t>
+          <t>Panathinaikos B</t>
         </is>
       </c>
       <c r="G111" t="n">
@@ -10609,63 +10609,63 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>PAE Egaleo</t>
+          <t>Tilikratis L.</t>
         </is>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="n">
-        <v>2.1</v>
+        <v>1.81</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>02/12/2023 02:42</t>
+          <t>02/12/2023 02:13</t>
         </is>
       </c>
       <c r="L111" t="n">
-        <v>1.85</v>
+        <v>1.6</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>03/12/2023 13:55</t>
+          <t>03/12/2023 13:45</t>
         </is>
       </c>
       <c r="N111" t="n">
-        <v>2.97</v>
+        <v>3.18</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>02/12/2023 02:42</t>
+          <t>02/12/2023 02:13</t>
         </is>
       </c>
       <c r="P111" t="n">
-        <v>3.16</v>
+        <v>3.87</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>03/12/2023 13:55</t>
+          <t>03/12/2023 13:45</t>
         </is>
       </c>
       <c r="R111" t="n">
-        <v>3.39</v>
+        <v>4.19</v>
       </c>
       <c r="S111" t="inlineStr">
         <is>
-          <t>02/12/2023 02:42</t>
+          <t>02/12/2023 02:13</t>
         </is>
       </c>
       <c r="T111" t="n">
-        <v>4.65</v>
+        <v>5.39</v>
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>03/12/2023 13:55</t>
+          <t>03/12/2023 13:45</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ilioupoli-pae-egaleo/fPvRILiO/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/panathinaikos-tilikratis-lefkada/YkAywPxt/</t>
         </is>
       </c>
     </row>
@@ -10693,22 +10693,22 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Olympiacos Piraeus B</t>
+          <t>Kalamata</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>PAE Chania</t>
+          <t>Panachaiki</t>
         </is>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>2.78</v>
+        <v>1.25</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -10716,15 +10716,15 @@
         </is>
       </c>
       <c r="L112" t="n">
-        <v>4.33</v>
+        <v>1.21</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>03/12/2023 13:52</t>
+          <t>03/12/2023 13:50</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>2.77</v>
+        <v>5.02</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
@@ -10732,7 +10732,7 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>3.05</v>
+        <v>5.58</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
@@ -10740,7 +10740,7 @@
         </is>
       </c>
       <c r="R112" t="n">
-        <v>2.6</v>
+        <v>9.9</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         </is>
       </c>
       <c r="T112" t="n">
-        <v>1.95</v>
+        <v>14.57</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
@@ -10757,7 +10757,7 @@
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/olympiacos-piraeus-pae-chania/02uNJ1xI/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kalamata-panachaiki/Ct9uxqhn/</t>
         </is>
       </c>
     </row>
@@ -10785,22 +10785,22 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Kalamata</t>
+          <t>Giouchtas</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Panachaiki</t>
+          <t>Ionikos</t>
         </is>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J113" t="n">
-        <v>1.25</v>
+        <v>3.23</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -10808,15 +10808,15 @@
         </is>
       </c>
       <c r="L113" t="n">
-        <v>1.21</v>
+        <v>3.35</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>03/12/2023 13:50</t>
+          <t>03/12/2023 13:39</t>
         </is>
       </c>
       <c r="N113" t="n">
-        <v>5.02</v>
+        <v>2.8</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
@@ -10824,15 +10824,15 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>5.58</v>
+        <v>2.79</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>03/12/2023 13:50</t>
+          <t>03/12/2023 13:39</t>
         </is>
       </c>
       <c r="R113" t="n">
-        <v>9.9</v>
+        <v>2.28</v>
       </c>
       <c r="S113" t="inlineStr">
         <is>
@@ -10840,16 +10840,16 @@
         </is>
       </c>
       <c r="T113" t="n">
-        <v>14.57</v>
+        <v>2.42</v>
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>03/12/2023 13:50</t>
+          <t>03/12/2023 13:39</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kalamata-panachaiki/Ct9uxqhn/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/giouchtas-ionikos/YFwVHu7U/</t>
         </is>
       </c>
     </row>
@@ -10877,22 +10877,22 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Giouchtas</t>
+          <t>Olympiacos Piraeus B</t>
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Ionikos</t>
+          <t>PAE Chania</t>
         </is>
       </c>
       <c r="I114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>3.23</v>
+        <v>2.78</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -10900,15 +10900,15 @@
         </is>
       </c>
       <c r="L114" t="n">
-        <v>3.35</v>
+        <v>4.33</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>03/12/2023 13:39</t>
+          <t>03/12/2023 13:52</t>
         </is>
       </c>
       <c r="N114" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
@@ -10916,15 +10916,15 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>2.79</v>
+        <v>3.05</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>03/12/2023 13:39</t>
+          <t>03/12/2023 13:50</t>
         </is>
       </c>
       <c r="R114" t="n">
-        <v>2.28</v>
+        <v>2.6</v>
       </c>
       <c r="S114" t="inlineStr">
         <is>
@@ -10932,16 +10932,16 @@
         </is>
       </c>
       <c r="T114" t="n">
-        <v>2.42</v>
+        <v>1.95</v>
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>03/12/2023 13:39</t>
+          <t>03/12/2023 13:50</t>
         </is>
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/giouchtas-ionikos/YFwVHu7U/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/olympiacos-piraeus-pae-chania/02uNJ1xI/</t>
         </is>
       </c>
     </row>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Panathinaikos B</t>
+          <t>Ilioupoli</t>
         </is>
       </c>
       <c r="G115" t="n">
@@ -10977,63 +10977,63 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Tilikratis L.</t>
+          <t>PAE Egaleo</t>
         </is>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>1.81</v>
+        <v>2.1</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>02/12/2023 02:13</t>
+          <t>02/12/2023 02:42</t>
         </is>
       </c>
       <c r="L115" t="n">
-        <v>1.6</v>
+        <v>1.85</v>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>03/12/2023 13:45</t>
+          <t>03/12/2023 13:55</t>
         </is>
       </c>
       <c r="N115" t="n">
-        <v>3.18</v>
+        <v>2.97</v>
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>02/12/2023 02:13</t>
+          <t>02/12/2023 02:42</t>
         </is>
       </c>
       <c r="P115" t="n">
-        <v>3.87</v>
+        <v>3.16</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>03/12/2023 13:45</t>
+          <t>03/12/2023 13:55</t>
         </is>
       </c>
       <c r="R115" t="n">
-        <v>4.19</v>
+        <v>3.39</v>
       </c>
       <c r="S115" t="inlineStr">
         <is>
-          <t>02/12/2023 02:13</t>
+          <t>02/12/2023 02:42</t>
         </is>
       </c>
       <c r="T115" t="n">
-        <v>5.39</v>
+        <v>4.65</v>
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>03/12/2023 13:45</t>
+          <t>03/12/2023 13:55</t>
         </is>
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/panathinaikos-tilikratis-lefkada/YkAywPxt/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ilioupoli-pae-egaleo/fPvRILiO/</t>
         </is>
       </c>
     </row>
@@ -11429,71 +11429,71 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Athens Kallithea</t>
+          <t>Tilikratis L.</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Kalamata</t>
+          <t>Giouchtas</t>
         </is>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>1.81</v>
+        <v>3.25</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>09/12/2023 02:12</t>
+          <t>09/12/2023 02:13</t>
         </is>
       </c>
       <c r="L120" t="n">
-        <v>2.1</v>
+        <v>3.21</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>10/12/2023 13:38</t>
+          <t>10/12/2023 13:17</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>2.99</v>
+        <v>2.94</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>09/12/2023 02:12</t>
+          <t>09/12/2023 02:13</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>2.86</v>
+        <v>3.03</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>10/12/2023 13:38</t>
+          <t>10/12/2023 13:17</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>4.56</v>
+        <v>2.18</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
-          <t>09/12/2023 02:12</t>
+          <t>09/12/2023 02:13</t>
         </is>
       </c>
       <c r="T120" t="n">
-        <v>4.09</v>
+        <v>2.33</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>10/12/2023 13:38</t>
+          <t>10/12/2023 13:17</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/athens-kallithea-kalamata/8KYRfH7p/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/tilikratis-lefkada-giouchtas/nwxes3fR/</t>
         </is>
       </c>
     </row>
@@ -11521,71 +11521,71 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Tilikratis L.</t>
+          <t>Aiolikos</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Giouchtas</t>
+          <t>Iraklis 1908</t>
         </is>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="n">
-        <v>3.25</v>
+        <v>2.99</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>09/12/2023 02:13</t>
+          <t>09/12/2023 02:12</t>
         </is>
       </c>
       <c r="L121" t="n">
-        <v>3.21</v>
+        <v>3.46</v>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>10/12/2023 13:17</t>
+          <t>10/12/2023 13:58</t>
         </is>
       </c>
       <c r="N121" t="n">
-        <v>2.94</v>
+        <v>2.76</v>
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>09/12/2023 02:13</t>
+          <t>09/12/2023 02:12</t>
         </is>
       </c>
       <c r="P121" t="n">
-        <v>3.03</v>
+        <v>3.02</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>10/12/2023 13:17</t>
+          <t>10/12/2023 13:58</t>
         </is>
       </c>
       <c r="R121" t="n">
-        <v>2.18</v>
+        <v>2.44</v>
       </c>
       <c r="S121" t="inlineStr">
         <is>
-          <t>09/12/2023 02:13</t>
+          <t>09/12/2023 02:12</t>
         </is>
       </c>
       <c r="T121" t="n">
-        <v>2.33</v>
+        <v>2.21</v>
       </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>10/12/2023 13:17</t>
+          <t>10/12/2023 13:58</t>
         </is>
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/tilikratis-lefkada-giouchtas/nwxes3fR/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/aiolikos-fc-iraklis-fc/rZIhJUWH/</t>
         </is>
       </c>
     </row>
@@ -11613,71 +11613,71 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Aiolikos</t>
+          <t>Karditsa</t>
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Iraklis 1908</t>
+          <t>Kampaniakos</t>
         </is>
       </c>
       <c r="I122" t="n">
         <v>1</v>
       </c>
       <c r="J122" t="n">
-        <v>2.99</v>
+        <v>1.59</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>09/12/2023 02:12</t>
+          <t>09/12/2023 02:13</t>
         </is>
       </c>
       <c r="L122" t="n">
-        <v>3.46</v>
+        <v>1.78</v>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>10/12/2023 13:58</t>
+          <t>10/12/2023 13:57</t>
         </is>
       </c>
       <c r="N122" t="n">
-        <v>2.76</v>
+        <v>3.45</v>
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>09/12/2023 02:12</t>
+          <t>09/12/2023 02:13</t>
         </is>
       </c>
       <c r="P122" t="n">
-        <v>3.02</v>
+        <v>3.23</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>10/12/2023 13:58</t>
+          <t>10/12/2023 13:57</t>
         </is>
       </c>
       <c r="R122" t="n">
-        <v>2.44</v>
+        <v>5.3</v>
       </c>
       <c r="S122" t="inlineStr">
         <is>
-          <t>09/12/2023 02:12</t>
+          <t>09/12/2023 02:13</t>
         </is>
       </c>
       <c r="T122" t="n">
-        <v>2.21</v>
+        <v>5.01</v>
       </c>
       <c r="U122" t="inlineStr">
         <is>
-          <t>10/12/2023 13:58</t>
+          <t>10/12/2023 13:57</t>
         </is>
       </c>
       <c r="V122" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/aiolikos-fc-iraklis-fc/rZIhJUWH/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-kampaniakos/jwP8P5gi/</t>
         </is>
       </c>
     </row>
@@ -11705,71 +11705,71 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Karditsa</t>
+          <t>Athens Kallithea</t>
         </is>
       </c>
       <c r="G123" t="n">
+        <v>1</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Kalamata</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>Kampaniakos</t>
-        </is>
-      </c>
-      <c r="I123" t="n">
-        <v>1</v>
-      </c>
       <c r="J123" t="n">
-        <v>1.59</v>
+        <v>1.81</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>09/12/2023 02:13</t>
+          <t>09/12/2023 02:12</t>
         </is>
       </c>
       <c r="L123" t="n">
-        <v>1.78</v>
+        <v>2.1</v>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>10/12/2023 13:57</t>
+          <t>10/12/2023 13:38</t>
         </is>
       </c>
       <c r="N123" t="n">
-        <v>3.45</v>
+        <v>2.99</v>
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>09/12/2023 02:13</t>
+          <t>09/12/2023 02:12</t>
         </is>
       </c>
       <c r="P123" t="n">
-        <v>3.23</v>
+        <v>2.86</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>10/12/2023 13:57</t>
+          <t>10/12/2023 13:38</t>
         </is>
       </c>
       <c r="R123" t="n">
-        <v>5.3</v>
+        <v>4.56</v>
       </c>
       <c r="S123" t="inlineStr">
         <is>
-          <t>09/12/2023 02:13</t>
+          <t>09/12/2023 02:12</t>
         </is>
       </c>
       <c r="T123" t="n">
-        <v>5.01</v>
+        <v>4.09</v>
       </c>
       <c r="U123" t="inlineStr">
         <is>
-          <t>10/12/2023 13:57</t>
+          <t>10/12/2023 13:38</t>
         </is>
       </c>
       <c r="V123" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-kampaniakos/jwP8P5gi/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/athens-kallithea-kalamata/8KYRfH7p/</t>
         </is>
       </c>
     </row>
@@ -12165,7 +12165,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Ilioupoli</t>
+          <t>Kampaniakos</t>
         </is>
       </c>
       <c r="G128" t="n">
@@ -12173,14 +12173,14 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Olympiacos Piraeus B</t>
+          <t>AEL Larissa</t>
         </is>
       </c>
       <c r="I128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J128" t="n">
-        <v>2.57</v>
+        <v>6.83</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         </is>
       </c>
       <c r="L128" t="n">
-        <v>2.27</v>
+        <v>9.07</v>
       </c>
       <c r="M128" t="inlineStr">
         <is>
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="N128" t="n">
-        <v>2.75</v>
+        <v>3.73</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
@@ -12204,7 +12204,7 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>2.86</v>
+        <v>4.29</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
@@ -12212,7 +12212,7 @@
         </is>
       </c>
       <c r="R128" t="n">
-        <v>2.84</v>
+        <v>1.45</v>
       </c>
       <c r="S128" t="inlineStr">
         <is>
@@ -12220,16 +12220,16 @@
         </is>
       </c>
       <c r="T128" t="n">
-        <v>3.56</v>
+        <v>1.38</v>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>16/12/2023 13:57</t>
+          <t>16/12/2023 13:50</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ilioupoli-olympiacos-piraeus/Y9Y9xAR3/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kampaniakos-ael-larissa/lnQbFLVq/</t>
         </is>
       </c>
     </row>
@@ -12257,7 +12257,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Kalamata</t>
+          <t>Ilioupoli</t>
         </is>
       </c>
       <c r="G129" t="n">
@@ -12265,14 +12265,14 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Panathinaikos B</t>
+          <t>Olympiacos Piraeus B</t>
         </is>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="n">
-        <v>1.25</v>
+        <v>2.57</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -12280,15 +12280,15 @@
         </is>
       </c>
       <c r="L129" t="n">
-        <v>1.23</v>
+        <v>2.27</v>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>16/12/2023 13:59</t>
+          <t>16/12/2023 13:57</t>
         </is>
       </c>
       <c r="N129" t="n">
-        <v>4.89</v>
+        <v>2.75</v>
       </c>
       <c r="O129" t="inlineStr">
         <is>
@@ -12296,15 +12296,15 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>5.6</v>
+        <v>2.86</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>16/12/2023 13:59</t>
+          <t>16/12/2023 13:57</t>
         </is>
       </c>
       <c r="R129" t="n">
-        <v>10.18</v>
+        <v>2.84</v>
       </c>
       <c r="S129" t="inlineStr">
         <is>
@@ -12312,16 +12312,16 @@
         </is>
       </c>
       <c r="T129" t="n">
-        <v>11.89</v>
+        <v>3.56</v>
       </c>
       <c r="U129" t="inlineStr">
         <is>
-          <t>16/12/2023 13:59</t>
+          <t>16/12/2023 13:57</t>
         </is>
       </c>
       <c r="V129" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kalamata-panathinaikos/KQzMZ7BM/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ilioupoli-olympiacos-piraeus/Y9Y9xAR3/</t>
         </is>
       </c>
     </row>
@@ -12349,7 +12349,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Kampaniakos</t>
+          <t>Kalamata</t>
         </is>
       </c>
       <c r="G130" t="n">
@@ -12357,14 +12357,14 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>AEL Larissa</t>
+          <t>Panathinaikos B</t>
         </is>
       </c>
       <c r="I130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J130" t="n">
-        <v>6.83</v>
+        <v>1.25</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -12372,15 +12372,15 @@
         </is>
       </c>
       <c r="L130" t="n">
-        <v>9.07</v>
+        <v>1.23</v>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>16/12/2023 13:57</t>
+          <t>16/12/2023 13:59</t>
         </is>
       </c>
       <c r="N130" t="n">
-        <v>3.73</v>
+        <v>4.89</v>
       </c>
       <c r="O130" t="inlineStr">
         <is>
@@ -12388,15 +12388,15 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>4.29</v>
+        <v>5.6</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>16/12/2023 13:57</t>
+          <t>16/12/2023 13:59</t>
         </is>
       </c>
       <c r="R130" t="n">
-        <v>1.45</v>
+        <v>10.18</v>
       </c>
       <c r="S130" t="inlineStr">
         <is>
@@ -12404,16 +12404,16 @@
         </is>
       </c>
       <c r="T130" t="n">
-        <v>1.38</v>
+        <v>11.89</v>
       </c>
       <c r="U130" t="inlineStr">
         <is>
-          <t>16/12/2023 13:50</t>
+          <t>16/12/2023 13:59</t>
         </is>
       </c>
       <c r="V130" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kampaniakos-ael-larissa/lnQbFLVq/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kalamata-panathinaikos/KQzMZ7BM/</t>
         </is>
       </c>
     </row>
@@ -13610,6 +13610,98 @@
       <c r="V143" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/greece/super-league-2/ael-larissa-aek/bNjbzN79/</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>45297.52083333334</v>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Olympiacos Piraeus B</t>
+        </is>
+      </c>
+      <c r="G144" t="n">
+        <v>1</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Athens Kallithea</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
+        <v>2</v>
+      </c>
+      <c r="J144" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>05/01/2024 00:42</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>06/01/2024 11:45</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>05/01/2024 00:42</t>
+        </is>
+      </c>
+      <c r="P144" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="Q144" t="inlineStr">
+        <is>
+          <t>06/01/2024 11:45</t>
+        </is>
+      </c>
+      <c r="R144" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="S144" t="inlineStr">
+        <is>
+          <t>05/01/2024 00:42</t>
+        </is>
+      </c>
+      <c r="T144" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="U144" t="inlineStr">
+        <is>
+          <t>06/01/2024 11:45</t>
+        </is>
+      </c>
+      <c r="V144" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/olympiacos-piraeus-athens-kallithea/xQPaSP3d/</t>
         </is>
       </c>
     </row>

--- a/2023/greece_super-league-2_2023-2024.xlsx
+++ b/2023/greece_super-league-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V144"/>
+  <dimension ref="A1:V151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7381,7 +7381,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Ilioupoli</t>
+          <t>Panachaiki</t>
         </is>
       </c>
       <c r="G76" t="n">
@@ -7389,14 +7389,14 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Athens Kallithea</t>
+          <t>Ionikos</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>4.68</v>
+        <v>4.2</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>4.56</v>
+        <v>6.83</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>12/11/2023 13:55</t>
+          <t>12/11/2023 13:58</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.36</v>
+        <v>3.26</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.13</v>
+        <v>3.77</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>12/11/2023 13:55</t>
+          <t>12/11/2023 13:58</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>1.88</v>
+        <v>1.52</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>12/11/2023 13:55</t>
+          <t>12/11/2023 13:58</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ilioupoli-athens-kallithea/GMcYPRde/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/panachaiki-ionikos/2JgUQ7sk/</t>
         </is>
       </c>
     </row>
@@ -7565,7 +7565,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Panachaiki</t>
+          <t>Ilioupoli</t>
         </is>
       </c>
       <c r="G78" t="n">
@@ -7573,14 +7573,14 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Ionikos</t>
+          <t>Athens Kallithea</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J78" t="n">
-        <v>4.2</v>
+        <v>4.68</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,15 +7588,15 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>6.83</v>
+        <v>4.56</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>12/11/2023 13:58</t>
+          <t>12/11/2023 13:55</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.26</v>
+        <v>3.36</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -7604,15 +7604,15 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.77</v>
+        <v>3.13</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>12/11/2023 13:58</t>
+          <t>12/11/2023 13:55</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
@@ -7620,16 +7620,16 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>1.52</v>
+        <v>1.88</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>12/11/2023 13:58</t>
+          <t>12/11/2023 13:55</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/panachaiki-ionikos/2JgUQ7sk/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ilioupoli-athens-kallithea/GMcYPRde/</t>
         </is>
       </c>
     </row>
@@ -8209,71 +8209,71 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Tilikratis L.</t>
+          <t>Apollon Pontou</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Panachaiki</t>
+          <t>Aiolikos</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>2.27</v>
+        <v>2.77</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>18/11/2023 02:12</t>
+          <t>19/11/2023 03:12</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>2.31</v>
+        <v>2.89</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>19/11/2023 13:54</t>
+          <t>19/11/2023 13:41</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>2.92</v>
+        <v>2.87</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>18/11/2023 02:12</t>
+          <t>19/11/2023 03:12</t>
         </is>
       </c>
       <c r="P85" t="n">
-        <v>2.95</v>
+        <v>2.85</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>19/11/2023 13:54</t>
+          <t>19/11/2023 13:24</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>3.02</v>
+        <v>2.65</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>18/11/2023 02:12</t>
+          <t>19/11/2023 03:12</t>
         </is>
       </c>
       <c r="T85" t="n">
-        <v>3.35</v>
+        <v>2.67</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>19/11/2023 13:51</t>
+          <t>19/11/2023 13:41</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/tilikratis-lefkada-panachaiki/rZYSo9JE/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/apollon-pontou-aiolikos-fc/pIaVFeQP/</t>
         </is>
       </c>
     </row>
@@ -8301,71 +8301,71 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Apollon Pontou</t>
+          <t>Tilikratis L.</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Aiolikos</t>
+          <t>Panachaiki</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J86" t="n">
-        <v>2.77</v>
+        <v>2.27</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>19/11/2023 03:12</t>
+          <t>18/11/2023 02:12</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>2.89</v>
+        <v>2.31</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>19/11/2023 13:41</t>
+          <t>19/11/2023 13:54</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>2.87</v>
+        <v>2.92</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>19/11/2023 03:12</t>
+          <t>18/11/2023 02:12</t>
         </is>
       </c>
       <c r="P86" t="n">
-        <v>2.85</v>
+        <v>2.95</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>19/11/2023 13:24</t>
+          <t>19/11/2023 13:54</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>2.65</v>
+        <v>3.02</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t>19/11/2023 03:12</t>
+          <t>18/11/2023 02:12</t>
         </is>
       </c>
       <c r="T86" t="n">
-        <v>2.67</v>
+        <v>3.35</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>19/11/2023 13:41</t>
+          <t>19/11/2023 13:51</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/apollon-pontou-aiolikos-fc/pIaVFeQP/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/tilikratis-lefkada-panachaiki/rZYSo9JE/</t>
         </is>
       </c>
     </row>
@@ -8393,22 +8393,22 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Ionikos</t>
+          <t>Kalamata</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Athens Kallithea</t>
+          <t>Diagoras</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J87" t="n">
-        <v>3.12</v>
+        <v>1.3</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,15 +8416,15 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.89</v>
+        <v>1.26</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>19/11/2023 13:29</t>
+          <t>19/11/2023 13:49</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>2.85</v>
+        <v>4.57</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,15 +8432,15 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>2.91</v>
+        <v>5.23</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>19/11/2023 13:29</t>
+          <t>19/11/2023 13:56</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>2.26</v>
+        <v>8.08</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,16 +8448,16 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>2.62</v>
+        <v>12.07</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>19/11/2023 13:29</t>
+          <t>19/11/2023 13:56</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ionikos-athens-kallithea/v1SypmlR/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kalamata-diagoras-fc/xxnsO5R7/</t>
         </is>
       </c>
     </row>
@@ -8485,7 +8485,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Giouchtas</t>
+          <t>Ionikos</t>
         </is>
       </c>
       <c r="G88" t="n">
@@ -8493,14 +8493,14 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>PAE Chania</t>
+          <t>Athens Kallithea</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="n">
-        <v>3.28</v>
+        <v>3.12</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -8508,15 +8508,15 @@
         </is>
       </c>
       <c r="L88" t="n">
-        <v>3.93</v>
+        <v>2.89</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>19/11/2023 13:14</t>
+          <t>19/11/2023 13:29</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>2.86</v>
+        <v>2.85</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -8524,15 +8524,15 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>3.05</v>
+        <v>2.91</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>19/11/2023 12:51</t>
+          <t>19/11/2023 13:29</t>
         </is>
       </c>
       <c r="R88" t="n">
-        <v>2.17</v>
+        <v>2.26</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
@@ -8540,16 +8540,16 @@
         </is>
       </c>
       <c r="T88" t="n">
-        <v>2.04</v>
+        <v>2.62</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>19/11/2023 13:14</t>
+          <t>19/11/2023 13:29</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/giouchtas-pae-chania/4rzPnk48/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ionikos-athens-kallithea/v1SypmlR/</t>
         </is>
       </c>
     </row>
@@ -8577,22 +8577,22 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Kalamata</t>
+          <t>Giouchtas</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Diagoras</t>
+          <t>PAE Chania</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>1.3</v>
+        <v>3.28</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -8600,15 +8600,15 @@
         </is>
       </c>
       <c r="L89" t="n">
-        <v>1.26</v>
+        <v>3.93</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>19/11/2023 13:49</t>
+          <t>19/11/2023 13:14</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>4.57</v>
+        <v>2.86</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -8616,15 +8616,15 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>5.23</v>
+        <v>3.05</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>19/11/2023 13:56</t>
+          <t>19/11/2023 12:51</t>
         </is>
       </c>
       <c r="R89" t="n">
-        <v>8.08</v>
+        <v>2.17</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
@@ -8632,16 +8632,16 @@
         </is>
       </c>
       <c r="T89" t="n">
-        <v>12.07</v>
+        <v>2.04</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>19/11/2023 13:56</t>
+          <t>19/11/2023 13:14</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kalamata-diagoras-fc/xxnsO5R7/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/giouchtas-pae-chania/4rzPnk48/</t>
         </is>
       </c>
     </row>
@@ -9221,22 +9221,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Panachaiki</t>
+          <t>PAE Chania</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Diagoras</t>
+          <t>PAE Egaleo</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>2.77</v>
+        <v>1.55</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,15 +9244,15 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>2.63</v>
+        <v>1.2</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>26/11/2023 13:40</t>
+          <t>26/11/2023 13:55</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>2.87</v>
+        <v>3.48</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,15 +9260,15 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>2.72</v>
+        <v>6.56</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>26/11/2023 13:40</t>
+          <t>26/11/2023 13:58</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>2.47</v>
+        <v>5.44</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,16 +9276,16 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>3.09</v>
+        <v>11.76</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>26/11/2023 13:40</t>
+          <t>26/11/2023 13:58</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/panachaiki-diagoras-fc/h88CwoRf/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/pae-chania-pae-egaleo/zXD7vRBl/</t>
         </is>
       </c>
     </row>
@@ -9313,22 +9313,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Ilioupoli</t>
+          <t>Panachaiki</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Giouchtas</t>
+          <t>Diagoras</t>
         </is>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>1.97</v>
+        <v>2.77</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -9336,15 +9336,15 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>2.19</v>
+        <v>2.63</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>26/11/2023 13:59</t>
+          <t>26/11/2023 13:40</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>3.02</v>
+        <v>2.87</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -9352,15 +9352,15 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>3.19</v>
+        <v>2.72</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>26/11/2023 13:59</t>
+          <t>26/11/2023 13:40</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>3.62</v>
+        <v>2.47</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
@@ -9368,16 +9368,16 @@
         </is>
       </c>
       <c r="T97" t="n">
-        <v>3.32</v>
+        <v>3.09</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>26/11/2023 13:59</t>
+          <t>26/11/2023 13:40</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ilioupoli-giouchtas/Wb7Gx5t1/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/panachaiki-diagoras-fc/h88CwoRf/</t>
         </is>
       </c>
     </row>
@@ -9405,22 +9405,22 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Karditsa</t>
+          <t>Ilioupoli</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Niki Volos</t>
+          <t>Giouchtas</t>
         </is>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>3.26</v>
+        <v>1.97</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -9428,15 +9428,15 @@
         </is>
       </c>
       <c r="L98" t="n">
-        <v>3.72</v>
+        <v>2.19</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>26/11/2023 13:46</t>
+          <t>26/11/2023 13:59</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>2.83</v>
+        <v>3.02</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -9444,15 +9444,15 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>2.91</v>
+        <v>3.19</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>26/11/2023 13:46</t>
+          <t>26/11/2023 13:59</t>
         </is>
       </c>
       <c r="R98" t="n">
-        <v>2.2</v>
+        <v>3.62</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
@@ -9460,16 +9460,16 @@
         </is>
       </c>
       <c r="T98" t="n">
-        <v>2.18</v>
+        <v>3.32</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>26/11/2023 13:46</t>
+          <t>26/11/2023 13:59</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-niki-volos/vuyR4VHO/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ilioupoli-giouchtas/Wb7Gx5t1/</t>
         </is>
       </c>
     </row>
@@ -9497,7 +9497,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>PAE Chania</t>
+          <t>Karditsa</t>
         </is>
       </c>
       <c r="G99" t="n">
@@ -9505,14 +9505,14 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>PAE Egaleo</t>
+          <t>Niki Volos</t>
         </is>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>1.55</v>
+        <v>3.26</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -9520,15 +9520,15 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>1.2</v>
+        <v>3.72</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>26/11/2023 13:55</t>
+          <t>26/11/2023 13:46</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>3.48</v>
+        <v>2.83</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -9536,15 +9536,15 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>6.56</v>
+        <v>2.91</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>26/11/2023 13:58</t>
+          <t>26/11/2023 13:46</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>5.44</v>
+        <v>2.2</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
@@ -9552,16 +9552,16 @@
         </is>
       </c>
       <c r="T99" t="n">
-        <v>11.76</v>
+        <v>2.18</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>26/11/2023 13:58</t>
+          <t>26/11/2023 13:46</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/pae-chania-pae-egaleo/zXD7vRBl/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-niki-volos/vuyR4VHO/</t>
         </is>
       </c>
     </row>
@@ -10141,7 +10141,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>PAOK B</t>
+          <t>AEL Larissa</t>
         </is>
       </c>
       <c r="G106" t="n">
@@ -10149,14 +10149,14 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Levadiakos</t>
+          <t>Niki Volos</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>4.7</v>
+        <v>1.86</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -10164,15 +10164,15 @@
         </is>
       </c>
       <c r="L106" t="n">
-        <v>6.1</v>
+        <v>1.88</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>03/12/2023 13:52</t>
+          <t>03/12/2023 13:59</t>
         </is>
       </c>
       <c r="N106" t="n">
-        <v>3.28</v>
+        <v>2.96</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
@@ -10180,15 +10180,15 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>3.7</v>
+        <v>3.11</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>03/12/2023 13:52</t>
+          <t>03/12/2023 13:59</t>
         </is>
       </c>
       <c r="R106" t="n">
-        <v>1.7</v>
+        <v>4.28</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
@@ -10196,16 +10196,16 @@
         </is>
       </c>
       <c r="T106" t="n">
-        <v>1.57</v>
+        <v>4.59</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>03/12/2023 13:52</t>
+          <t>03/12/2023 13:59</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/paok-levadiakos/z3SXNhIn/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ael-larissa-niki-volos/8GQuMWna/</t>
         </is>
       </c>
     </row>
@@ -10233,22 +10233,22 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>AEK Athens FC B</t>
+          <t>PAOK B</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Aiolikos</t>
+          <t>Levadiakos</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J107" t="n">
-        <v>2.83</v>
+        <v>4.7</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -10256,15 +10256,15 @@
         </is>
       </c>
       <c r="L107" t="n">
-        <v>2.43</v>
+        <v>6.1</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>03/12/2023 13:42</t>
+          <t>03/12/2023 13:52</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>2.72</v>
+        <v>3.28</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
@@ -10272,15 +10272,15 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>2.98</v>
+        <v>3.7</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>03/12/2023 13:42</t>
+          <t>03/12/2023 13:52</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>2.61</v>
+        <v>1.7</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
@@ -10288,16 +10288,16 @@
         </is>
       </c>
       <c r="T107" t="n">
-        <v>3.09</v>
+        <v>1.57</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>03/12/2023 13:42</t>
+          <t>03/12/2023 13:52</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/aek-aiolikos-fc/fiBzPY2t/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/paok-levadiakos/z3SXNhIn/</t>
         </is>
       </c>
     </row>
@@ -10325,22 +10325,22 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Iraklis 1908</t>
+          <t>Apollon Pontou</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Kozani FC</t>
+          <t>Karditsa</t>
         </is>
       </c>
       <c r="I108" t="n">
         <v>1</v>
       </c>
       <c r="J108" t="n">
-        <v>1.75</v>
+        <v>3.51</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -10348,15 +10348,15 @@
         </is>
       </c>
       <c r="L108" t="n">
-        <v>1.91</v>
+        <v>3.95</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>03/12/2023 13:50</t>
+          <t>03/12/2023 13:33</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>3.12</v>
+        <v>2.83</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
@@ -10364,15 +10364,15 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>3.12</v>
+        <v>2.85</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>03/12/2023 13:50</t>
+          <t>03/12/2023 13:33</t>
         </is>
       </c>
       <c r="R108" t="n">
-        <v>4.71</v>
+        <v>2.14</v>
       </c>
       <c r="S108" t="inlineStr">
         <is>
@@ -10380,16 +10380,16 @@
         </is>
       </c>
       <c r="T108" t="n">
-        <v>4.4</v>
+        <v>2.14</v>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>03/12/2023 13:50</t>
+          <t>03/12/2023 13:33</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/iraklis-fc-kozani-fc/hrP8TEfP/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/apollon-pontou-karditsa/MJUqLj25/</t>
         </is>
       </c>
     </row>
@@ -10417,7 +10417,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Apollon Pontou</t>
+          <t>AEK Athens FC B</t>
         </is>
       </c>
       <c r="G109" t="n">
@@ -10425,14 +10425,14 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Karditsa</t>
+          <t>Aiolikos</t>
         </is>
       </c>
       <c r="I109" t="n">
         <v>1</v>
       </c>
       <c r="J109" t="n">
-        <v>3.51</v>
+        <v>2.83</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -10440,15 +10440,15 @@
         </is>
       </c>
       <c r="L109" t="n">
-        <v>3.95</v>
+        <v>2.43</v>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>03/12/2023 13:33</t>
+          <t>03/12/2023 13:42</t>
         </is>
       </c>
       <c r="N109" t="n">
-        <v>2.83</v>
+        <v>2.72</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
@@ -10456,15 +10456,15 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>2.85</v>
+        <v>2.98</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>03/12/2023 13:33</t>
+          <t>03/12/2023 13:42</t>
         </is>
       </c>
       <c r="R109" t="n">
-        <v>2.14</v>
+        <v>2.61</v>
       </c>
       <c r="S109" t="inlineStr">
         <is>
@@ -10472,16 +10472,16 @@
         </is>
       </c>
       <c r="T109" t="n">
-        <v>2.14</v>
+        <v>3.09</v>
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>03/12/2023 13:33</t>
+          <t>03/12/2023 13:42</t>
         </is>
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/apollon-pontou-karditsa/MJUqLj25/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/aek-aiolikos-fc/fiBzPY2t/</t>
         </is>
       </c>
     </row>
@@ -10509,7 +10509,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>AEL Larissa</t>
+          <t>Iraklis 1908</t>
         </is>
       </c>
       <c r="G110" t="n">
@@ -10517,14 +10517,14 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Niki Volos</t>
+          <t>Kozani FC</t>
         </is>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -10532,15 +10532,15 @@
         </is>
       </c>
       <c r="L110" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>03/12/2023 13:59</t>
+          <t>03/12/2023 13:50</t>
         </is>
       </c>
       <c r="N110" t="n">
-        <v>2.96</v>
+        <v>3.12</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
@@ -10548,15 +10548,15 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>3.11</v>
+        <v>3.12</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>03/12/2023 13:59</t>
+          <t>03/12/2023 13:50</t>
         </is>
       </c>
       <c r="R110" t="n">
-        <v>4.28</v>
+        <v>4.71</v>
       </c>
       <c r="S110" t="inlineStr">
         <is>
@@ -10564,16 +10564,16 @@
         </is>
       </c>
       <c r="T110" t="n">
-        <v>4.59</v>
+        <v>4.4</v>
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>03/12/2023 13:59</t>
+          <t>03/12/2023 13:50</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ael-larissa-niki-volos/8GQuMWna/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/iraklis-fc-kozani-fc/hrP8TEfP/</t>
         </is>
       </c>
     </row>
@@ -10601,22 +10601,22 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Panathinaikos B</t>
+          <t>Olympiacos Piraeus B</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Tilikratis L.</t>
+          <t>PAE Chania</t>
         </is>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>1.81</v>
+        <v>2.78</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -10624,15 +10624,15 @@
         </is>
       </c>
       <c r="L111" t="n">
-        <v>1.6</v>
+        <v>4.33</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>03/12/2023 13:45</t>
+          <t>03/12/2023 13:52</t>
         </is>
       </c>
       <c r="N111" t="n">
-        <v>3.18</v>
+        <v>2.77</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
@@ -10640,15 +10640,15 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>3.87</v>
+        <v>3.05</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>03/12/2023 13:45</t>
+          <t>03/12/2023 13:50</t>
         </is>
       </c>
       <c r="R111" t="n">
-        <v>4.19</v>
+        <v>2.6</v>
       </c>
       <c r="S111" t="inlineStr">
         <is>
@@ -10656,16 +10656,16 @@
         </is>
       </c>
       <c r="T111" t="n">
-        <v>5.39</v>
+        <v>1.95</v>
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>03/12/2023 13:45</t>
+          <t>03/12/2023 13:50</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/panathinaikos-tilikratis-lefkada/YkAywPxt/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/olympiacos-piraeus-pae-chania/02uNJ1xI/</t>
         </is>
       </c>
     </row>
@@ -10785,7 +10785,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Giouchtas</t>
+          <t>Ilioupoli</t>
         </is>
       </c>
       <c r="G113" t="n">
@@ -10793,63 +10793,63 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Ionikos</t>
+          <t>PAE Egaleo</t>
         </is>
       </c>
       <c r="I113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>3.23</v>
+        <v>2.1</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>02/12/2023 02:13</t>
+          <t>02/12/2023 02:42</t>
         </is>
       </c>
       <c r="L113" t="n">
-        <v>3.35</v>
+        <v>1.85</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>03/12/2023 13:39</t>
+          <t>03/12/2023 13:55</t>
         </is>
       </c>
       <c r="N113" t="n">
-        <v>2.8</v>
+        <v>2.97</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>02/12/2023 02:13</t>
+          <t>02/12/2023 02:42</t>
         </is>
       </c>
       <c r="P113" t="n">
-        <v>2.79</v>
+        <v>3.16</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>03/12/2023 13:39</t>
+          <t>03/12/2023 13:55</t>
         </is>
       </c>
       <c r="R113" t="n">
-        <v>2.28</v>
+        <v>3.39</v>
       </c>
       <c r="S113" t="inlineStr">
         <is>
-          <t>02/12/2023 02:13</t>
+          <t>02/12/2023 02:42</t>
         </is>
       </c>
       <c r="T113" t="n">
-        <v>2.42</v>
+        <v>4.65</v>
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>03/12/2023 13:39</t>
+          <t>03/12/2023 13:55</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/giouchtas-ionikos/YFwVHu7U/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ilioupoli-pae-egaleo/fPvRILiO/</t>
         </is>
       </c>
     </row>
@@ -10877,22 +10877,22 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Olympiacos Piraeus B</t>
+          <t>Panathinaikos B</t>
         </is>
       </c>
       <c r="G114" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>PAE Chania</t>
+          <t>Tilikratis L.</t>
         </is>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="n">
-        <v>2.78</v>
+        <v>1.81</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -10900,15 +10900,15 @@
         </is>
       </c>
       <c r="L114" t="n">
-        <v>4.33</v>
+        <v>1.6</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>03/12/2023 13:52</t>
+          <t>03/12/2023 13:45</t>
         </is>
       </c>
       <c r="N114" t="n">
-        <v>2.77</v>
+        <v>3.18</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
@@ -10916,15 +10916,15 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>3.05</v>
+        <v>3.87</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>03/12/2023 13:50</t>
+          <t>03/12/2023 13:45</t>
         </is>
       </c>
       <c r="R114" t="n">
-        <v>2.6</v>
+        <v>4.19</v>
       </c>
       <c r="S114" t="inlineStr">
         <is>
@@ -10932,16 +10932,16 @@
         </is>
       </c>
       <c r="T114" t="n">
-        <v>1.95</v>
+        <v>5.39</v>
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>03/12/2023 13:50</t>
+          <t>03/12/2023 13:45</t>
         </is>
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/olympiacos-piraeus-pae-chania/02uNJ1xI/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/panathinaikos-tilikratis-lefkada/YkAywPxt/</t>
         </is>
       </c>
     </row>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Ilioupoli</t>
+          <t>Giouchtas</t>
         </is>
       </c>
       <c r="G115" t="n">
@@ -10977,63 +10977,63 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>PAE Egaleo</t>
+          <t>Ionikos</t>
         </is>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J115" t="n">
-        <v>2.1</v>
+        <v>3.23</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>02/12/2023 02:42</t>
+          <t>02/12/2023 02:13</t>
         </is>
       </c>
       <c r="L115" t="n">
-        <v>1.85</v>
+        <v>3.35</v>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>03/12/2023 13:55</t>
+          <t>03/12/2023 13:39</t>
         </is>
       </c>
       <c r="N115" t="n">
-        <v>2.97</v>
+        <v>2.8</v>
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>02/12/2023 02:42</t>
+          <t>02/12/2023 02:13</t>
         </is>
       </c>
       <c r="P115" t="n">
-        <v>3.16</v>
+        <v>2.79</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>03/12/2023 13:55</t>
+          <t>03/12/2023 13:39</t>
         </is>
       </c>
       <c r="R115" t="n">
-        <v>3.39</v>
+        <v>2.28</v>
       </c>
       <c r="S115" t="inlineStr">
         <is>
-          <t>02/12/2023 02:42</t>
+          <t>02/12/2023 02:13</t>
         </is>
       </c>
       <c r="T115" t="n">
-        <v>4.65</v>
+        <v>2.42</v>
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>03/12/2023 13:55</t>
+          <t>03/12/2023 13:39</t>
         </is>
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ilioupoli-pae-egaleo/fPvRILiO/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/giouchtas-ionikos/YFwVHu7U/</t>
         </is>
       </c>
     </row>
@@ -11429,71 +11429,71 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Tilikratis L.</t>
+          <t>Aiolikos</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Giouchtas</t>
+          <t>Iraklis 1908</t>
         </is>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="n">
-        <v>3.25</v>
+        <v>2.99</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>09/12/2023 02:13</t>
+          <t>09/12/2023 02:12</t>
         </is>
       </c>
       <c r="L120" t="n">
-        <v>3.21</v>
+        <v>3.46</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>10/12/2023 13:17</t>
+          <t>10/12/2023 13:58</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>2.94</v>
+        <v>2.76</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>09/12/2023 02:13</t>
+          <t>09/12/2023 02:12</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>3.03</v>
+        <v>3.02</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>10/12/2023 13:17</t>
+          <t>10/12/2023 13:58</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>2.18</v>
+        <v>2.44</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
-          <t>09/12/2023 02:13</t>
+          <t>09/12/2023 02:12</t>
         </is>
       </c>
       <c r="T120" t="n">
-        <v>2.33</v>
+        <v>2.21</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>10/12/2023 13:17</t>
+          <t>10/12/2023 13:58</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/tilikratis-lefkada-giouchtas/nwxes3fR/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/aiolikos-fc-iraklis-fc/rZIhJUWH/</t>
         </is>
       </c>
     </row>
@@ -11521,71 +11521,71 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Aiolikos</t>
+          <t>Karditsa</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Iraklis 1908</t>
+          <t>Kampaniakos</t>
         </is>
       </c>
       <c r="I121" t="n">
         <v>1</v>
       </c>
       <c r="J121" t="n">
-        <v>2.99</v>
+        <v>1.59</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>09/12/2023 02:12</t>
+          <t>09/12/2023 02:13</t>
         </is>
       </c>
       <c r="L121" t="n">
-        <v>3.46</v>
+        <v>1.78</v>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>10/12/2023 13:58</t>
+          <t>10/12/2023 13:57</t>
         </is>
       </c>
       <c r="N121" t="n">
-        <v>2.76</v>
+        <v>3.45</v>
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>09/12/2023 02:12</t>
+          <t>09/12/2023 02:13</t>
         </is>
       </c>
       <c r="P121" t="n">
-        <v>3.02</v>
+        <v>3.23</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>10/12/2023 13:58</t>
+          <t>10/12/2023 13:57</t>
         </is>
       </c>
       <c r="R121" t="n">
-        <v>2.44</v>
+        <v>5.3</v>
       </c>
       <c r="S121" t="inlineStr">
         <is>
-          <t>09/12/2023 02:12</t>
+          <t>09/12/2023 02:13</t>
         </is>
       </c>
       <c r="T121" t="n">
-        <v>2.21</v>
+        <v>5.01</v>
       </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>10/12/2023 13:58</t>
+          <t>10/12/2023 13:57</t>
         </is>
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/aiolikos-fc-iraklis-fc/rZIhJUWH/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-kampaniakos/jwP8P5gi/</t>
         </is>
       </c>
     </row>
@@ -11613,71 +11613,71 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Karditsa</t>
+          <t>Athens Kallithea</t>
         </is>
       </c>
       <c r="G122" t="n">
+        <v>1</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Kalamata</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>Kampaniakos</t>
-        </is>
-      </c>
-      <c r="I122" t="n">
-        <v>1</v>
-      </c>
       <c r="J122" t="n">
-        <v>1.59</v>
+        <v>1.81</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>09/12/2023 02:13</t>
+          <t>09/12/2023 02:12</t>
         </is>
       </c>
       <c r="L122" t="n">
-        <v>1.78</v>
+        <v>2.1</v>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>10/12/2023 13:57</t>
+          <t>10/12/2023 13:38</t>
         </is>
       </c>
       <c r="N122" t="n">
-        <v>3.45</v>
+        <v>2.99</v>
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>09/12/2023 02:13</t>
+          <t>09/12/2023 02:12</t>
         </is>
       </c>
       <c r="P122" t="n">
-        <v>3.23</v>
+        <v>2.86</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>10/12/2023 13:57</t>
+          <t>10/12/2023 13:38</t>
         </is>
       </c>
       <c r="R122" t="n">
-        <v>5.3</v>
+        <v>4.56</v>
       </c>
       <c r="S122" t="inlineStr">
         <is>
-          <t>09/12/2023 02:13</t>
+          <t>09/12/2023 02:12</t>
         </is>
       </c>
       <c r="T122" t="n">
-        <v>5.01</v>
+        <v>4.09</v>
       </c>
       <c r="U122" t="inlineStr">
         <is>
-          <t>10/12/2023 13:57</t>
+          <t>10/12/2023 13:38</t>
         </is>
       </c>
       <c r="V122" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/karditsa-kampaniakos/jwP8P5gi/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/athens-kallithea-kalamata/8KYRfH7p/</t>
         </is>
       </c>
     </row>
@@ -11705,71 +11705,71 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Athens Kallithea</t>
+          <t>Tilikratis L.</t>
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Kalamata</t>
+          <t>Giouchtas</t>
         </is>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
       <c r="J123" t="n">
-        <v>1.81</v>
+        <v>3.25</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>09/12/2023 02:12</t>
+          <t>09/12/2023 02:13</t>
         </is>
       </c>
       <c r="L123" t="n">
-        <v>2.1</v>
+        <v>3.21</v>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>10/12/2023 13:38</t>
+          <t>10/12/2023 13:17</t>
         </is>
       </c>
       <c r="N123" t="n">
-        <v>2.99</v>
+        <v>2.94</v>
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>09/12/2023 02:12</t>
+          <t>09/12/2023 02:13</t>
         </is>
       </c>
       <c r="P123" t="n">
-        <v>2.86</v>
+        <v>3.03</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>10/12/2023 13:38</t>
+          <t>10/12/2023 13:17</t>
         </is>
       </c>
       <c r="R123" t="n">
-        <v>4.56</v>
+        <v>2.18</v>
       </c>
       <c r="S123" t="inlineStr">
         <is>
-          <t>09/12/2023 02:12</t>
+          <t>09/12/2023 02:13</t>
         </is>
       </c>
       <c r="T123" t="n">
-        <v>4.09</v>
+        <v>2.33</v>
       </c>
       <c r="U123" t="inlineStr">
         <is>
-          <t>10/12/2023 13:38</t>
+          <t>10/12/2023 13:17</t>
         </is>
       </c>
       <c r="V123" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/athens-kallithea-kalamata/8KYRfH7p/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/tilikratis-lefkada-giouchtas/nwxes3fR/</t>
         </is>
       </c>
     </row>
@@ -11981,22 +11981,22 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>AEK Athens FC B</t>
+          <t>Ionikos</t>
         </is>
       </c>
       <c r="G126" t="n">
+        <v>5</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>PAE Egaleo</t>
+        </is>
+      </c>
+      <c r="I126" t="n">
         <v>1</v>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>Kozani FC</t>
-        </is>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
       <c r="J126" t="n">
-        <v>2.66</v>
+        <v>1.6</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -12004,15 +12004,15 @@
         </is>
       </c>
       <c r="L126" t="n">
-        <v>2.21</v>
+        <v>1.54</v>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>13/12/2023 13:54</t>
+          <t>13/12/2023 13:59</t>
         </is>
       </c>
       <c r="N126" t="n">
-        <v>2.69</v>
+        <v>3.43</v>
       </c>
       <c r="O126" t="inlineStr">
         <is>
@@ -12020,15 +12020,15 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>2.59</v>
+        <v>3.8</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>13/12/2023 13:54</t>
+          <t>13/12/2023 13:59</t>
         </is>
       </c>
       <c r="R126" t="n">
-        <v>2.79</v>
+        <v>5.27</v>
       </c>
       <c r="S126" t="inlineStr">
         <is>
@@ -12036,16 +12036,16 @@
         </is>
       </c>
       <c r="T126" t="n">
-        <v>4.29</v>
+        <v>5.17</v>
       </c>
       <c r="U126" t="inlineStr">
         <is>
-          <t>13/12/2023 13:54</t>
+          <t>13/12/2023 13:59</t>
         </is>
       </c>
       <c r="V126" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/aek-kozani-fc/U9HrhhYI/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ionikos-pae-egaleo/QNmnqPPE/</t>
         </is>
       </c>
     </row>
@@ -12073,22 +12073,22 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Ionikos</t>
+          <t>AEK Athens FC B</t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>PAE Egaleo</t>
+          <t>Kozani FC</t>
         </is>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>1.6</v>
+        <v>2.66</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -12096,15 +12096,15 @@
         </is>
       </c>
       <c r="L127" t="n">
-        <v>1.54</v>
+        <v>2.21</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>13/12/2023 13:59</t>
+          <t>13/12/2023 13:54</t>
         </is>
       </c>
       <c r="N127" t="n">
-        <v>3.43</v>
+        <v>2.69</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
@@ -12112,15 +12112,15 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>3.8</v>
+        <v>2.59</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>13/12/2023 13:59</t>
+          <t>13/12/2023 13:54</t>
         </is>
       </c>
       <c r="R127" t="n">
-        <v>5.27</v>
+        <v>2.79</v>
       </c>
       <c r="S127" t="inlineStr">
         <is>
@@ -12128,16 +12128,16 @@
         </is>
       </c>
       <c r="T127" t="n">
-        <v>5.17</v>
+        <v>4.29</v>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>13/12/2023 13:59</t>
+          <t>13/12/2023 13:54</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ionikos-pae-egaleo/QNmnqPPE/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/aek-kozani-fc/U9HrhhYI/</t>
         </is>
       </c>
     </row>
@@ -12165,7 +12165,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Kampaniakos</t>
+          <t>Ilioupoli</t>
         </is>
       </c>
       <c r="G128" t="n">
@@ -12173,14 +12173,14 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>AEL Larissa</t>
+          <t>Olympiacos Piraeus B</t>
         </is>
       </c>
       <c r="I128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J128" t="n">
-        <v>6.83</v>
+        <v>2.57</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         </is>
       </c>
       <c r="L128" t="n">
-        <v>9.07</v>
+        <v>2.27</v>
       </c>
       <c r="M128" t="inlineStr">
         <is>
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="N128" t="n">
-        <v>3.73</v>
+        <v>2.75</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
@@ -12204,7 +12204,7 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>4.29</v>
+        <v>2.86</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
@@ -12212,7 +12212,7 @@
         </is>
       </c>
       <c r="R128" t="n">
-        <v>1.45</v>
+        <v>2.84</v>
       </c>
       <c r="S128" t="inlineStr">
         <is>
@@ -12220,16 +12220,16 @@
         </is>
       </c>
       <c r="T128" t="n">
-        <v>1.38</v>
+        <v>3.56</v>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>16/12/2023 13:50</t>
+          <t>16/12/2023 13:57</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kampaniakos-ael-larissa/lnQbFLVq/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ilioupoli-olympiacos-piraeus/Y9Y9xAR3/</t>
         </is>
       </c>
     </row>
@@ -12257,7 +12257,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Ilioupoli</t>
+          <t>Kalamata</t>
         </is>
       </c>
       <c r="G129" t="n">
@@ -12265,14 +12265,14 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Olympiacos Piraeus B</t>
+          <t>Panathinaikos B</t>
         </is>
       </c>
       <c r="I129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>2.57</v>
+        <v>1.25</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -12280,15 +12280,15 @@
         </is>
       </c>
       <c r="L129" t="n">
-        <v>2.27</v>
+        <v>1.23</v>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>16/12/2023 13:57</t>
+          <t>16/12/2023 13:59</t>
         </is>
       </c>
       <c r="N129" t="n">
-        <v>2.75</v>
+        <v>4.89</v>
       </c>
       <c r="O129" t="inlineStr">
         <is>
@@ -12296,15 +12296,15 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>2.86</v>
+        <v>5.6</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>16/12/2023 13:57</t>
+          <t>16/12/2023 13:59</t>
         </is>
       </c>
       <c r="R129" t="n">
-        <v>2.84</v>
+        <v>10.18</v>
       </c>
       <c r="S129" t="inlineStr">
         <is>
@@ -12312,16 +12312,16 @@
         </is>
       </c>
       <c r="T129" t="n">
-        <v>3.56</v>
+        <v>11.89</v>
       </c>
       <c r="U129" t="inlineStr">
         <is>
-          <t>16/12/2023 13:57</t>
+          <t>16/12/2023 13:59</t>
         </is>
       </c>
       <c r="V129" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/ilioupoli-olympiacos-piraeus/Y9Y9xAR3/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kalamata-panathinaikos/KQzMZ7BM/</t>
         </is>
       </c>
     </row>
@@ -12349,7 +12349,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Kalamata</t>
+          <t>Kampaniakos</t>
         </is>
       </c>
       <c r="G130" t="n">
@@ -12357,14 +12357,14 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Panathinaikos B</t>
+          <t>AEL Larissa</t>
         </is>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J130" t="n">
-        <v>1.25</v>
+        <v>6.83</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -12372,15 +12372,15 @@
         </is>
       </c>
       <c r="L130" t="n">
-        <v>1.23</v>
+        <v>9.07</v>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>16/12/2023 13:59</t>
+          <t>16/12/2023 13:57</t>
         </is>
       </c>
       <c r="N130" t="n">
-        <v>4.89</v>
+        <v>3.73</v>
       </c>
       <c r="O130" t="inlineStr">
         <is>
@@ -12388,15 +12388,15 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>5.6</v>
+        <v>4.29</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>16/12/2023 13:59</t>
+          <t>16/12/2023 13:57</t>
         </is>
       </c>
       <c r="R130" t="n">
-        <v>10.18</v>
+        <v>1.45</v>
       </c>
       <c r="S130" t="inlineStr">
         <is>
@@ -12404,16 +12404,16 @@
         </is>
       </c>
       <c r="T130" t="n">
-        <v>11.89</v>
+        <v>1.38</v>
       </c>
       <c r="U130" t="inlineStr">
         <is>
-          <t>16/12/2023 13:59</t>
+          <t>16/12/2023 13:50</t>
         </is>
       </c>
       <c r="V130" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/greece/super-league-2/kalamata-panathinaikos/KQzMZ7BM/</t>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/kampaniakos-ael-larissa/lnQbFLVq/</t>
         </is>
       </c>
     </row>
@@ -13702,6 +13702,650 @@
       <c r="V144" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/greece/super-league-2/olympiacos-piraeus-athens-kallithea/xQPaSP3d/</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>45298.54166666666</v>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Iraklis 1908</t>
+        </is>
+      </c>
+      <c r="G145" t="n">
+        <v>1</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>AEL Larissa</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
+        <v>1</v>
+      </c>
+      <c r="J145" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>06/01/2024 01:12</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>07/01/2024 12:47</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>06/01/2024 01:12</t>
+        </is>
+      </c>
+      <c r="P145" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="Q145" t="inlineStr">
+        <is>
+          <t>07/01/2024 12:56</t>
+        </is>
+      </c>
+      <c r="R145" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="S145" t="inlineStr">
+        <is>
+          <t>06/01/2024 01:12</t>
+        </is>
+      </c>
+      <c r="T145" t="n">
+        <v>2</v>
+      </c>
+      <c r="U145" t="inlineStr">
+        <is>
+          <t>07/01/2024 12:56</t>
+        </is>
+      </c>
+      <c r="V145" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/iraklis-fc-ael-larissa/boZpRIUe/</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>45298.5625</v>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Giouchtas</t>
+        </is>
+      </c>
+      <c r="G146" t="n">
+        <v>1</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Kalamata</t>
+        </is>
+      </c>
+      <c r="I146" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>06/01/2024 01:42</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>07/01/2024 13:17</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>06/01/2024 01:42</t>
+        </is>
+      </c>
+      <c r="P146" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="Q146" t="inlineStr">
+        <is>
+          <t>07/01/2024 13:17</t>
+        </is>
+      </c>
+      <c r="R146" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="S146" t="inlineStr">
+        <is>
+          <t>06/01/2024 01:42</t>
+        </is>
+      </c>
+      <c r="T146" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="U146" t="inlineStr">
+        <is>
+          <t>07/01/2024 13:17</t>
+        </is>
+      </c>
+      <c r="V146" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/giouchtas-kalamata/ne7jkmB9/</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>45298.58333333334</v>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Ionikos</t>
+        </is>
+      </c>
+      <c r="G147" t="n">
+        <v>4</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Ilioupoli</t>
+        </is>
+      </c>
+      <c r="I147" t="n">
+        <v>1</v>
+      </c>
+      <c r="J147" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>06/01/2024 02:12</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>07/01/2024 13:22</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>06/01/2024 02:12</t>
+        </is>
+      </c>
+      <c r="P147" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="Q147" t="inlineStr">
+        <is>
+          <t>07/01/2024 13:22</t>
+        </is>
+      </c>
+      <c r="R147" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="S147" t="inlineStr">
+        <is>
+          <t>06/01/2024 02:12</t>
+        </is>
+      </c>
+      <c r="T147" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="U147" t="inlineStr">
+        <is>
+          <t>07/01/2024 13:22</t>
+        </is>
+      </c>
+      <c r="V147" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/ionikos-ilioupoli/bZQeT5lj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>45298.58333333334</v>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>PAE Egaleo</t>
+        </is>
+      </c>
+      <c r="G148" t="n">
+        <v>4</v>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Diagoras</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
+        <v>1</v>
+      </c>
+      <c r="J148" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>06/01/2024 02:12</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>07/01/2024 13:24</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>06/01/2024 02:12</t>
+        </is>
+      </c>
+      <c r="P148" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Q148" t="inlineStr">
+        <is>
+          <t>07/01/2024 13:24</t>
+        </is>
+      </c>
+      <c r="R148" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="S148" t="inlineStr">
+        <is>
+          <t>06/01/2024 02:12</t>
+        </is>
+      </c>
+      <c r="T148" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="U148" t="inlineStr">
+        <is>
+          <t>07/01/2024 13:24</t>
+        </is>
+      </c>
+      <c r="V148" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/pae-egaleo-diagoras-fc/Qo6fl7QF/</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E149" s="2" t="n">
+        <v>45298.58333333334</v>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Tilikratis L.</t>
+        </is>
+      </c>
+      <c r="G149" t="n">
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>PAE Chania</t>
+        </is>
+      </c>
+      <c r="I149" t="n">
+        <v>3</v>
+      </c>
+      <c r="J149" t="n">
+        <v>8.609999999999999</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>06/01/2024 02:12</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>07/01/2024 13:51</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>06/01/2024 02:12</t>
+        </is>
+      </c>
+      <c r="P149" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="Q149" t="inlineStr">
+        <is>
+          <t>07/01/2024 13:51</t>
+        </is>
+      </c>
+      <c r="R149" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S149" t="inlineStr">
+        <is>
+          <t>06/01/2024 02:12</t>
+        </is>
+      </c>
+      <c r="T149" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U149" t="inlineStr">
+        <is>
+          <t>07/01/2024 13:51</t>
+        </is>
+      </c>
+      <c r="V149" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/tilikratis-lefkada-pae-chania/hY7njTe3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="n">
+        <v>45298.58333333334</v>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Aiolikos</t>
+        </is>
+      </c>
+      <c r="G150" t="n">
+        <v>1</v>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Karditsa</t>
+        </is>
+      </c>
+      <c r="I150" t="n">
+        <v>1</v>
+      </c>
+      <c r="J150" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>06/01/2024 02:12</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>07/01/2024 13:59</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>06/01/2024 02:12</t>
+        </is>
+      </c>
+      <c r="P150" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="Q150" t="inlineStr">
+        <is>
+          <t>07/01/2024 13:59</t>
+        </is>
+      </c>
+      <c r="R150" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="S150" t="inlineStr">
+        <is>
+          <t>06/01/2024 02:12</t>
+        </is>
+      </c>
+      <c r="T150" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="U150" t="inlineStr">
+        <is>
+          <t>07/01/2024 13:59</t>
+        </is>
+      </c>
+      <c r="V150" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/aiolikos-fc-karditsa/4OZtSbFk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>super-league-2</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="n">
+        <v>45298.58333333334</v>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Makedonikos</t>
+        </is>
+      </c>
+      <c r="G151" t="n">
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Kozani FC</t>
+        </is>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>06/01/2024 02:12</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>07/01/2024 12:03</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>06/01/2024 02:12</t>
+        </is>
+      </c>
+      <c r="P151" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="Q151" t="inlineStr">
+        <is>
+          <t>07/01/2024 12:03</t>
+        </is>
+      </c>
+      <c r="R151" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="S151" t="inlineStr">
+        <is>
+          <t>06/01/2024 02:12</t>
+        </is>
+      </c>
+      <c r="T151" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="U151" t="inlineStr">
+        <is>
+          <t>07/01/2024 12:03</t>
+        </is>
+      </c>
+      <c r="V151" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/greece/super-league-2/makedonikos-neapolis-kozani-fc/pvgAXKiS/</t>
         </is>
       </c>
     </row>
